--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{762DC5B1-136C-1445-A5DC-9D57C7036AF0}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0124DDC-B6A3-F347-B76F-198E7D92F2DE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <customWorkbookView name="Filter 1" guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="266">
   <si>
     <t>My Certifications</t>
   </si>
@@ -777,6 +777,75 @@
   <si>
     <t>https://www.certmetrics.com/comptia/</t>
   </si>
+  <si>
+    <t>Deep Learning and Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>SQL for Data Science with R</t>
+  </si>
+  <si>
+    <t>The Strategist's Challenge</t>
+  </si>
+  <si>
+    <t>Google Slides</t>
+  </si>
+  <si>
+    <t>Google Docs</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Data Analysis with R</t>
+  </si>
+  <si>
+    <t>Data Visualization with R</t>
+  </si>
+  <si>
+    <t>Python Basics: Selection and Iteration</t>
+  </si>
+  <si>
+    <t>Introduction to R Programming for Data Science</t>
+  </si>
+  <si>
+    <t>Google Calendar</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Google Meet and Google Chat</t>
+  </si>
+  <si>
+    <t>Google Sheets - Advanced Topics</t>
+  </si>
+  <si>
+    <t>Getting started with Google Workspace</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9594</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9595</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9596</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9597</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9598</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9599</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9600</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +856,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +1034,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1096,7 +1177,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1299,8 +1380,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1383,50 +1462,22 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="50">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1468,13 +1519,42 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5968,7 +6048,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6249,95 +6329,95 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y40" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y40" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <autoFilter ref="B1:Y40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y40">
     <sortCondition descending="1" ref="J1:J40"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="45"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="44"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="43"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="42"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="33">
       <calculatedColumnFormula>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="29">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B50:B57" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B50:B57" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="B50:B57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C50:C57" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C50:C57" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="C50:C57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D50:D58" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D50:D58" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D50:D58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EB406B1-D85A-4748-81CC-97C25AAD497E}" name="Courses" displayName="Courses" ref="A1:E59" totalsRowShown="0">
-  <autoFilter ref="A1:E59" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EB406B1-D85A-4748-81CC-97C25AAD497E}" name="Courses" displayName="Courses" ref="A1:E72" totalsRowShown="0">
+  <autoFilter ref="A1:E72" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="greaterThan" val="70"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
-    <sortCondition ref="A1:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E72">
+    <sortCondition descending="1" ref="D1:D72"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
-    <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date"/>
+    <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved"/>
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6346,13 +6426,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A59D60FC-1232-4F93-8CF0-BFBE335BAE30}" name="Specialization" displayName="Specialization" ref="A1:E38" totalsRowShown="0">
-  <autoFilter ref="A1:E38" xr:uid="{412E2EE3-B3A4-446B-82F0-D65A0E07D429}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A59D60FC-1232-4F93-8CF0-BFBE335BAE30}" name="Specialization" displayName="Specialization" ref="A1:E46" totalsRowShown="0">
+  <autoFilter ref="A1:E46" xr:uid="{412E2EE3-B3A4-446B-82F0-D65A0E07D429}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6370,8 +6450,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6596,7 +6676,7 @@
   </sheetPr>
   <dimension ref="B1:Y1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6704,110 +6784,110 @@
       </c>
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="89" t="s">
         <v>241</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="93">
+      <c r="I2" s="91">
         <v>44811</v>
       </c>
-      <c r="J2" s="93">
+      <c r="J2" s="91">
         <v>44812</v>
       </c>
-      <c r="K2" s="94">
+      <c r="K2" s="92">
         <v>44812</v>
       </c>
-      <c r="L2" s="93">
+      <c r="L2" s="91">
         <v>45908</v>
       </c>
-      <c r="M2" s="95">
+      <c r="M2" s="93">
         <v>1</v>
       </c>
-      <c r="N2" s="96">
+      <c r="N2" s="94">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
       <c r="O2" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="P2" s="98">
+      <c r="P2" s="96">
         <v>108</v>
       </c>
-      <c r="Q2" s="99">
+      <c r="Q2" s="97">
         <v>1</v>
       </c>
-      <c r="R2" s="98">
+      <c r="R2" s="96">
         <f>Q2*P2</f>
         <v>108</v>
       </c>
-      <c r="S2" s="96" t="s">
+      <c r="S2" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="98"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="89"/>
       <c r="G3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96">
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="98">
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="96">
         <f>Q3*P3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="96"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="2:25" ht="80" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
@@ -9225,17 +9305,17 @@
       <c r="V49" s="6"/>
     </row>
     <row r="50" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="7"/>
@@ -9250,17 +9330,17 @@
       <c r="U50" s="6"/>
     </row>
     <row r="51" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="87" t="s">
+      <c r="C51" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="78"/>
-      <c r="F51" s="79"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="77"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="7"/>
@@ -9275,17 +9355,17 @@
       <c r="U51" s="6"/>
     </row>
     <row r="52" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="D52" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="80"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="78"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="7"/>
@@ -9300,96 +9380,96 @@
       <c r="U52" s="6"/>
     </row>
     <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="87" t="s">
+      <c r="C53" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="79"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="77"/>
       <c r="L53" s="10"/>
       <c r="M53" s="11"/>
       <c r="N53" s="10"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="D54" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="79"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
       <c r="L54" s="10"/>
       <c r="M54" s="11"/>
       <c r="N54" s="10"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="87" t="s">
+      <c r="C55" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="D55" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="77"/>
       <c r="L55" s="10"/>
       <c r="M55" s="11"/>
       <c r="N55" s="10"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="87" t="s">
+      <c r="B56" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
       <c r="L56" s="10"/>
       <c r="M56" s="11"/>
       <c r="N56" s="10"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="C57" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="77"/>
       <c r="L57" s="10"/>
       <c r="M57" s="11"/>
       <c r="N57" s="10"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="83"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="81"/>
       <c r="G58" s="9"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -9402,8 +9482,8 @@
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
       <c r="G59" s="9"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -23649,7 +23729,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{A791FE50-0062-A042-90E5-D7D213737E87}">
+      <autoFilter ref="B2:S40" xr:uid="{D6CD13C1-97BB-3441-94E8-B818101CD5D5}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -23752,19 +23832,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAF8F63-B8B9-4625-999F-CA4AB410A71C}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="67" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="67"/>
   </cols>
   <sheetData>
@@ -23785,75 +23865,75 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="str">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Data Analytics</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="68">
-        <v>44558</v>
-      </c>
-      <c r="D2" s="69">
+        <v>NaN</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="99">
+        <v>44608</v>
+      </c>
+      <c r="D2" s="98">
         <v>100</v>
       </c>
       <c r="E2" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="68">
-        <v>44640</v>
-      </c>
-      <c r="D3" s="69">
-        <v>11.9</v>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="99">
+        <v>44626</v>
+      </c>
+      <c r="D3" s="98">
+        <v>93.81</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="68">
-        <v>44624</v>
-      </c>
-      <c r="D4" s="69">
-        <v>14</v>
+      <c r="B4" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="99">
+        <v>44737</v>
+      </c>
+      <c r="D4" s="98">
+        <v>7</v>
       </c>
       <c r="E4" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="99">
         <v>44616</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="98">
         <v>0</v>
       </c>
       <c r="E5" s="67" t="str">
@@ -23861,151 +23941,151 @@
         <v>NaN</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="68">
-        <v>44578</v>
-      </c>
-      <c r="D6" s="69">
-        <v>36</v>
+      <c r="B6" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="99">
+        <v>44752</v>
+      </c>
+      <c r="D6" s="98">
+        <v>83</v>
       </c>
       <c r="E6" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="68">
-        <v>44556</v>
-      </c>
-      <c r="D7" s="69">
-        <v>94.58</v>
+      <c r="B7" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="99">
+        <v>44514</v>
+      </c>
+      <c r="D7" s="98">
+        <v>97.61</v>
       </c>
       <c r="E7" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="68">
-        <v>44697</v>
-      </c>
-      <c r="D8" s="69">
-        <v>39.630000000000003</v>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="99">
+        <v>44560</v>
+      </c>
+      <c r="D8" s="98">
+        <v>95</v>
       </c>
       <c r="E8" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="str">
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Data Analytics</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="68">
-        <v>44528</v>
-      </c>
-      <c r="D9" s="69">
-        <v>91.71</v>
-      </c>
-      <c r="E9" s="67" t="str">
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="99">
+        <v>44512</v>
+      </c>
+      <c r="D9" s="98">
+        <v>97.52</v>
+      </c>
+      <c r="E9" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Data Analytics</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="68">
-        <v>44515</v>
-      </c>
-      <c r="D10" s="69">
-        <v>88.88</v>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="99">
+        <v>44518</v>
+      </c>
+      <c r="D10" s="98">
+        <v>94.6</v>
       </c>
       <c r="E10" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="68">
-        <v>44514</v>
-      </c>
-      <c r="D11" s="69">
-        <v>97.61</v>
+      <c r="B11" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="99">
+        <v>44556</v>
+      </c>
+      <c r="D11" s="98">
+        <v>94.58</v>
       </c>
       <c r="E11" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="68">
-        <v>44503</v>
-      </c>
-      <c r="D12" s="69">
-        <v>9</v>
+      <c r="B12" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="99">
+        <v>44550</v>
+      </c>
+      <c r="D12" s="98">
+        <v>88</v>
       </c>
       <c r="E12" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="68">
-        <v>44682</v>
-      </c>
-      <c r="D13" s="69">
+      <c r="B13" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="99">
+        <v>44596</v>
+      </c>
+      <c r="D13" s="98">
         <v>0</v>
       </c>
       <c r="E13" s="67" t="str">
@@ -24013,303 +24093,303 @@
         <v>NaN</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="68">
-        <v>44700</v>
-      </c>
-      <c r="D14" s="69">
-        <v>0</v>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="99">
+        <v>44513</v>
+      </c>
+      <c r="D14" s="98">
+        <v>95</v>
       </c>
       <c r="E14" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Data Analytics</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="68">
-        <v>44513</v>
-      </c>
-      <c r="D15" s="69">
-        <v>91.38</v>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="99">
+        <v>44576</v>
+      </c>
+      <c r="D15" s="98">
+        <v>92.69</v>
       </c>
       <c r="E15" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Data Analytics</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="68">
-        <v>44501</v>
-      </c>
-      <c r="D16" s="69">
-        <v>83.91</v>
+        <v>NaN</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="99">
+        <v>44560</v>
+      </c>
+      <c r="D16" s="98">
+        <v>92.66</v>
       </c>
       <c r="E16" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B17" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="68">
-        <v>44501</v>
-      </c>
-      <c r="D17" s="69">
-        <v>87.63</v>
+      <c r="B17" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="99">
+        <v>44528</v>
+      </c>
+      <c r="D17" s="98">
+        <v>91.71</v>
       </c>
       <c r="E17" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Project Management</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="68">
-        <v>44626</v>
-      </c>
-      <c r="D18" s="69">
-        <v>93.81</v>
+        <v>NaN</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="99">
+        <v>44700</v>
+      </c>
+      <c r="D18" s="98">
+        <v>90.94</v>
       </c>
       <c r="E18" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Project Management</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="68">
-        <v>44624</v>
-      </c>
-      <c r="D19" s="69">
-        <v>92.52</v>
+        <v>NaN</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="99">
+        <v>44488</v>
+      </c>
+      <c r="D19" s="98">
+        <v>90.89</v>
       </c>
       <c r="E19" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Project Management</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="68">
-        <v>44611</v>
-      </c>
-      <c r="D20" s="69">
-        <v>94.13</v>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="99">
+        <v>44515</v>
+      </c>
+      <c r="D20" s="98">
+        <v>88.88</v>
       </c>
       <c r="E20" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="68">
-        <v>44689</v>
-      </c>
-      <c r="D21" s="69">
-        <v>0</v>
+        <v>Getting started with Google Workspace</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="99">
+        <v>44815</v>
+      </c>
+      <c r="D21" s="98">
+        <v>76.67</v>
       </c>
       <c r="E21" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="68">
-        <v>44488</v>
-      </c>
-      <c r="D22" s="69">
-        <v>16</v>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="99">
+        <v>44513</v>
+      </c>
+      <c r="D22" s="98">
+        <v>91.38</v>
       </c>
       <c r="E22" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="68">
-        <v>44557</v>
-      </c>
-      <c r="D23" s="69">
-        <v>0</v>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="99">
+        <v>44512</v>
+      </c>
+      <c r="D23" s="98">
+        <v>95.85</v>
       </c>
       <c r="E23" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Project Management</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="68">
-        <v>44576</v>
-      </c>
-      <c r="D24" s="69">
-        <v>92.69</v>
+        <v>NaN</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="99">
+        <v>44554</v>
+      </c>
+      <c r="D24" s="98">
+        <v>88.13</v>
       </c>
       <c r="E24" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Project Management</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="68">
-        <v>44518</v>
-      </c>
-      <c r="D25" s="69">
-        <v>94.6</v>
+        <v>NaN</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="99">
+        <v>44596</v>
+      </c>
+      <c r="D25" s="98">
+        <v>88</v>
       </c>
       <c r="E25" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="68">
-        <v>44668</v>
-      </c>
-      <c r="D26" s="69">
-        <v>0</v>
+        <v>Getting started with Google Workspace</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="99">
+        <v>44814</v>
+      </c>
+      <c r="D26" s="98">
+        <v>90</v>
       </c>
       <c r="E26" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>Google Project Management</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="68">
-        <v>44518</v>
-      </c>
-      <c r="D27" s="69">
-        <v>86.09</v>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="99">
+        <v>44608</v>
+      </c>
+      <c r="D27" s="98">
+        <v>87.83</v>
       </c>
       <c r="E27" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="str">
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Analyst</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="68">
-        <v>44562</v>
-      </c>
-      <c r="D28" s="69">
-        <v>85.83</v>
-      </c>
-      <c r="E28" s="67" t="str">
+        <v>Getting started with Google Workspace</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="99">
+        <v>44812</v>
+      </c>
+      <c r="D28" s="98">
+        <v>87.5</v>
+      </c>
+      <c r="E28" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="99">
         <v>44562</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="98">
         <v>86.67</v>
       </c>
       <c r="E29" s="67" t="str">
@@ -24317,572 +24397,819 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Analyst</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="68">
-        <v>44560</v>
-      </c>
-      <c r="D30" s="69">
-        <v>95</v>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="99">
+        <v>44518</v>
+      </c>
+      <c r="D30" s="98">
+        <v>86.09</v>
       </c>
       <c r="E30" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B31" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="68">
-        <v>44560</v>
-      </c>
-      <c r="D31" s="69">
-        <v>82</v>
+      <c r="B31" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="99">
+        <v>44562</v>
+      </c>
+      <c r="D31" s="98">
+        <v>85.83</v>
       </c>
       <c r="E31" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Analyst</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="68">
-        <v>44517</v>
-      </c>
-      <c r="D32" s="69">
-        <v>84.19</v>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="99">
+        <v>44570</v>
+      </c>
+      <c r="D32" s="98">
+        <v>85.83</v>
       </c>
       <c r="E32" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="str">
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B33" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="68">
-        <v>44515</v>
-      </c>
-      <c r="D33" s="69">
-        <v>83.6</v>
-      </c>
-      <c r="E33" s="67" t="str">
+      <c r="B33" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="99">
+        <v>44517</v>
+      </c>
+      <c r="D33" s="98">
+        <v>84.19</v>
+      </c>
+      <c r="E33" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Analyst</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="68">
-        <v>44513</v>
-      </c>
-      <c r="D34" s="69">
-        <v>95</v>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="99">
+        <v>44501</v>
+      </c>
+      <c r="D34" s="98">
+        <v>83.91</v>
       </c>
       <c r="E34" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B35" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="68">
-        <v>44512</v>
-      </c>
-      <c r="D35" s="69">
-        <v>95.85</v>
+      <c r="B35" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="99">
+        <v>44515</v>
+      </c>
+      <c r="D35" s="98">
+        <v>83.6</v>
       </c>
       <c r="E35" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Analyst</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="68">
-        <v>44512</v>
-      </c>
-      <c r="D36" s="69">
-        <v>97.52</v>
+        <v>Getting started with Google Workspace</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="99">
+        <v>44814</v>
+      </c>
+      <c r="D36" s="98">
+        <v>83.33</v>
       </c>
       <c r="E36" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="67" t="str">
+        <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B37" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="C37" s="68">
-        <v>44608</v>
-      </c>
-      <c r="D37" s="69">
-        <v>81.5</v>
-      </c>
-      <c r="E37" s="67" t="str">
+      <c r="B37" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="99">
+        <v>44522</v>
+      </c>
+      <c r="D37" s="98">
+        <v>83.33</v>
+      </c>
+      <c r="E37" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="68">
-        <v>44583</v>
-      </c>
-      <c r="D38" s="69">
-        <v>8</v>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="99">
+        <v>44501</v>
+      </c>
+      <c r="D38" s="98">
+        <v>87.63</v>
       </c>
       <c r="E38" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B39" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="68">
-        <v>44608</v>
-      </c>
-      <c r="D39" s="69">
-        <v>87.83</v>
+      <c r="B39" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="99">
+        <v>44577</v>
+      </c>
+      <c r="D39" s="98">
+        <v>83.17</v>
       </c>
       <c r="E39" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B40" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="68">
-        <v>44582</v>
-      </c>
-      <c r="D40" s="69">
-        <v>0</v>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="99">
+        <v>44558</v>
+      </c>
+      <c r="D40" s="98">
+        <v>100</v>
       </c>
       <c r="E40" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Science</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="68">
-        <v>44577</v>
-      </c>
-      <c r="D41" s="69">
-        <v>83.17</v>
+        <v>NaN</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="99">
+        <v>44680</v>
+      </c>
+      <c r="D41" s="98">
+        <v>82.5</v>
       </c>
       <c r="E41" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Science</v>
-      </c>
-      <c r="B42" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="68">
-        <v>44570</v>
-      </c>
-      <c r="D42" s="69">
-        <v>85.83</v>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B42" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="99">
+        <v>44560</v>
+      </c>
+      <c r="D42" s="98">
+        <v>82</v>
       </c>
       <c r="E42" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B43" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="68">
-        <v>44705</v>
-      </c>
-      <c r="D43" s="69">
-        <v>50</v>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B43" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="99">
+        <v>44611</v>
+      </c>
+      <c r="D43" s="98">
+        <v>94.13</v>
       </c>
       <c r="E43" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>IBM Data Science</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="68">
-        <v>44522</v>
-      </c>
-      <c r="D44" s="69">
-        <v>83.33</v>
+        <v>NaN</v>
+      </c>
+      <c r="B44" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="99">
+        <v>44752</v>
+      </c>
+      <c r="D44" s="98">
+        <v>81.81</v>
       </c>
       <c r="E44" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="99">
+        <v>44608</v>
+      </c>
+      <c r="D45" s="98">
+        <v>81.5</v>
+      </c>
+      <c r="E45" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="67" t="str">
-        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="68">
-        <v>44701</v>
-      </c>
-      <c r="D45" s="69">
-        <v>70.38</v>
-      </c>
-      <c r="E45" s="67" t="str">
-        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B46" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="68">
-        <v>44494</v>
-      </c>
-      <c r="D46" s="69">
-        <v>5</v>
+      <c r="B46" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="99">
+        <v>44701</v>
+      </c>
+      <c r="D46" s="98">
+        <v>85.38</v>
       </c>
       <c r="E46" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="67" t="str">
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B47" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="68">
-        <v>44700</v>
-      </c>
-      <c r="D47" s="69">
-        <v>90.94</v>
-      </c>
-      <c r="E47" s="67" t="str">
+      <c r="B47" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="99">
+        <v>44752</v>
+      </c>
+      <c r="D47" s="98">
+        <v>79.92</v>
+      </c>
+      <c r="E47" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="67" t="str">
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="68">
-        <v>44680</v>
-      </c>
-      <c r="D48" s="69">
-        <v>82.5</v>
-      </c>
-      <c r="E48" s="67" t="str">
+        <v>Getting started with Google Workspace</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="99">
+        <v>44813</v>
+      </c>
+      <c r="D48" s="98">
+        <v>76.67</v>
+      </c>
+      <c r="E48" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B49" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="68">
-        <v>44718</v>
-      </c>
-      <c r="D49" s="69">
-        <v>5</v>
+      <c r="B49" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="99">
+        <v>44752</v>
+      </c>
+      <c r="D49" s="98">
+        <v>41.67</v>
       </c>
       <c r="E49" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B50" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="68">
-        <v>44613</v>
-      </c>
-      <c r="D50" s="69">
-        <v>0</v>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="99">
+        <v>44624</v>
+      </c>
+      <c r="D50" s="98">
+        <v>92.52</v>
       </c>
       <c r="E50" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B51" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="68">
-        <v>44608</v>
-      </c>
-      <c r="D51" s="69">
-        <v>100</v>
+      <c r="B51" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="99">
+        <v>44705</v>
+      </c>
+      <c r="D51" s="98">
+        <v>50</v>
       </c>
       <c r="E51" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="67" t="str">
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B52" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="68">
-        <v>44596</v>
-      </c>
-      <c r="D52" s="69">
-        <v>88</v>
-      </c>
-      <c r="E52" s="67" t="str">
+      <c r="B52" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="99">
+        <v>44697</v>
+      </c>
+      <c r="D52" s="98">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="E52" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B53" s="67" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" s="68">
-        <v>44560</v>
-      </c>
-      <c r="D53" s="69">
-        <v>92.66</v>
+      <c r="B53" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="99">
+        <v>44578</v>
+      </c>
+      <c r="D53" s="98">
+        <v>36</v>
       </c>
       <c r="E53" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B54" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" s="68">
-        <v>44596</v>
-      </c>
-      <c r="D54" s="69">
-        <v>0</v>
+      <c r="B54" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="99">
+        <v>44718</v>
+      </c>
+      <c r="D54" s="98">
+        <v>86.08</v>
       </c>
       <c r="E54" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
-        <v>NaN</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="68">
-        <v>44554</v>
-      </c>
-      <c r="D55" s="69">
-        <v>88.13</v>
+        <v>Getting started with Google Workspace</v>
+      </c>
+      <c r="B55" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="99">
+        <v>44815</v>
+      </c>
+      <c r="D55" s="98">
+        <v>25</v>
       </c>
       <c r="E55" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="67" t="str">
+        <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B56" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="68">
-        <v>44550</v>
-      </c>
-      <c r="D56" s="69">
-        <v>88</v>
-      </c>
-      <c r="E56" s="67" t="str">
+      <c r="B56" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="99">
+        <v>44488</v>
+      </c>
+      <c r="D56" s="98">
+        <v>16</v>
+      </c>
+      <c r="E56" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B57" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="68">
-        <v>44488</v>
-      </c>
-      <c r="D57" s="69">
-        <v>90.89</v>
+      <c r="B57" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="99">
+        <v>44503</v>
+      </c>
+      <c r="D57" s="98">
+        <v>9</v>
       </c>
       <c r="E57" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B58" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="C58" s="68">
-        <v>44633</v>
-      </c>
-      <c r="D58" s="69">
-        <v>0</v>
+      <c r="B58" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="99">
+        <v>44640</v>
+      </c>
+      <c r="D58" s="98">
+        <v>94.48</v>
       </c>
       <c r="E58" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="99">
+        <v>44624</v>
+      </c>
+      <c r="D59" s="98">
+        <v>14</v>
+      </c>
+      <c r="E59" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B60" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="99">
+        <v>44583</v>
+      </c>
+      <c r="D60" s="98">
+        <v>8</v>
+      </c>
+      <c r="E60" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B61" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="99">
+        <v>44494</v>
+      </c>
+      <c r="D61" s="98">
+        <v>5</v>
+      </c>
+      <c r="E61" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B62" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="99">
+        <v>44746</v>
+      </c>
+      <c r="D62" s="98">
+        <v>0</v>
+      </c>
+      <c r="E62" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B63" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="99">
+        <v>44557</v>
+      </c>
+      <c r="D63" s="98">
+        <v>0</v>
+      </c>
+      <c r="E63" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B64" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="99">
+        <v>44582</v>
+      </c>
+      <c r="D64" s="98">
+        <v>0</v>
+      </c>
+      <c r="E64" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B65" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="99">
+        <v>44633</v>
+      </c>
+      <c r="D65" s="98">
+        <v>0</v>
+      </c>
+      <c r="E65" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B66" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="68">
+      <c r="C66" s="99">
         <v>44702</v>
       </c>
-      <c r="D59" s="69">
+      <c r="D66" s="98">
         <v>0</v>
       </c>
-      <c r="E59" s="67" t="str">
+      <c r="E66" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B67" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="99">
+        <v>44747</v>
+      </c>
+      <c r="D67" s="98">
+        <v>0</v>
+      </c>
+      <c r="E67" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B68" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="99">
+        <v>44613</v>
+      </c>
+      <c r="D68" s="98">
+        <v>0</v>
+      </c>
+      <c r="E68" s="67" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B69" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="99">
+        <v>44682</v>
+      </c>
+      <c r="D69" s="98">
+        <v>0</v>
+      </c>
+      <c r="E69" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B70" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="99">
+        <v>44700</v>
+      </c>
+      <c r="D70" s="98">
+        <v>0</v>
+      </c>
+      <c r="E70" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B71" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="99">
+        <v>44689</v>
+      </c>
+      <c r="D71" s="98">
+        <v>0</v>
+      </c>
+      <c r="E71" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="100" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
+      </c>
+      <c r="B72" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="99">
+        <v>44668</v>
+      </c>
+      <c r="D72" s="98">
+        <v>0</v>
+      </c>
+      <c r="E72" s="100" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
@@ -24898,17 +25225,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07C6D5-189D-4DB4-B710-2C1606549B1C}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="68" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="67" customWidth="1"/>
     <col min="5" max="5" width="65.6640625" style="67" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="67"/>
@@ -24924,7 +25251,7 @@
       <c r="C1" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="68" t="s">
         <v>220</v>
       </c>
       <c r="E1" s="67" t="s">
@@ -24938,13 +25265,13 @@
       <c r="B2" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="70">
         <v>44577</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>221</v>
       </c>
     </row>
@@ -24955,10 +25282,10 @@
       <c r="B3" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="70">
         <v>44577</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -24973,10 +25300,10 @@
       <c r="B4" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="70">
         <v>44577</v>
       </c>
       <c r="E4" s="67" t="str">
@@ -24991,10 +25318,10 @@
       <c r="B5" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="70">
         <v>44577</v>
       </c>
       <c r="E5" s="67" t="str">
@@ -25009,10 +25336,10 @@
       <c r="B6" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="70">
         <v>44577</v>
       </c>
       <c r="E6" s="67" t="str">
@@ -25027,10 +25354,10 @@
       <c r="B7" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="70">
         <v>44577</v>
       </c>
       <c r="E7" s="67" t="str">
@@ -25045,10 +25372,10 @@
       <c r="B8" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="70">
         <v>44577</v>
       </c>
       <c r="E8" s="67" t="str">
@@ -25063,10 +25390,10 @@
       <c r="B9" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="70">
         <v>44577</v>
       </c>
       <c r="E9" s="67" t="str">
@@ -25081,10 +25408,10 @@
       <c r="B10" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="70">
         <v>44577</v>
       </c>
       <c r="E10" s="67" t="str">
@@ -25100,31 +25427,31 @@
       <c r="B11" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="70">
         <v>44695</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="71" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="67">
-        <f t="shared" ref="A12:A38" si="0">A11+1</f>
+        <f t="shared" ref="A12:A72" si="0">A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="70">
         <v>44695</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="71" t="s">
         <v>223</v>
       </c>
     </row>
@@ -25136,13 +25463,13 @@
       <c r="B13" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="70">
         <v>44695</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="71" t="s">
         <v>224</v>
       </c>
     </row>
@@ -25154,13 +25481,13 @@
       <c r="B14" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="70">
         <v>44695</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="71" t="s">
         <v>225</v>
       </c>
     </row>
@@ -25172,13 +25499,13 @@
       <c r="B15" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="70">
         <v>44695</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="71" t="s">
         <v>226</v>
       </c>
     </row>
@@ -25190,13 +25517,13 @@
       <c r="B16" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="70">
         <v>44695</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="71" t="s">
         <v>227</v>
       </c>
     </row>
@@ -25208,13 +25535,13 @@
       <c r="B17" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="72">
         <v>44687</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25226,13 +25553,13 @@
       <c r="B18" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="72">
         <v>44687</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25244,13 +25571,13 @@
       <c r="B19" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="72">
         <v>44687</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25262,13 +25589,13 @@
       <c r="B20" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="72">
         <v>44687</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25280,13 +25607,13 @@
       <c r="B21" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="72">
         <v>44687</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25298,13 +25625,13 @@
       <c r="B22" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="72">
         <v>44687</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25316,13 +25643,13 @@
       <c r="B23" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="72">
         <v>44687</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25334,13 +25661,13 @@
       <c r="B24" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="72">
         <v>44687</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25352,13 +25679,13 @@
       <c r="B25" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="72">
         <v>44687</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25370,13 +25697,13 @@
       <c r="B26" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="72">
         <v>44687</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25388,13 +25715,13 @@
       <c r="B27" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="70">
         <v>44578</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="71" t="s">
         <v>230</v>
       </c>
     </row>
@@ -25406,13 +25733,13 @@
       <c r="B28" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="70">
         <v>44578</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="71" t="s">
         <v>231</v>
       </c>
     </row>
@@ -25424,13 +25751,13 @@
       <c r="B29" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="70">
         <v>44578</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="71" t="s">
         <v>232</v>
       </c>
     </row>
@@ -25442,13 +25769,13 @@
       <c r="B30" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="70">
         <v>44578</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="71" t="s">
         <v>233</v>
       </c>
     </row>
@@ -25460,13 +25787,13 @@
       <c r="B31" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="70">
         <v>44559</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25478,13 +25805,13 @@
       <c r="B32" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="70">
         <v>44559</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25496,13 +25823,13 @@
       <c r="B33" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="70">
         <v>44559</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25514,13 +25841,13 @@
       <c r="B34" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="70">
         <v>44559</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25532,13 +25859,13 @@
       <c r="B35" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="70">
         <v>44559</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25550,13 +25877,13 @@
       <c r="B36" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="70">
         <v>44559</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25568,13 +25895,13 @@
       <c r="B37" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="70">
         <v>44559</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25586,27 +25913,172 @@
       <c r="B38" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="70">
         <v>44559</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="71" t="s">
         <v>234</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="67">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="70">
+        <v>44813</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="67">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="70">
+        <v>44813</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="67">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="70">
+        <v>44813</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="67">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="70">
+        <v>44814</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="67">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="70">
+        <v>44814</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="67">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="70">
+        <v>44816</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="67">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="70">
+        <v>44816</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="67">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="70">
+        <v>44816</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{80006BF7-9ED9-4CD6-BAAD-CF39661A7495}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{62672CC3-25AF-45D8-91CF-DEC3B3DCA2D4}"/>
-    <hyperlink ref="E12:E16" r:id="rId3" display="https://coursera.org/share/5631a803ab6306376ad8bb953022b556" xr:uid="{4E15E060-C43A-46C8-9F69-CEAF4E7738A7}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{6EEB24ED-88B9-4AA7-9D7F-728952AC8163}"/>
+    <hyperlink ref="E32:E38" r:id="rId1" display="https://coursera.org/share/188441016b9730162e5549c0fd136a0b" xr:uid="{9B023A3F-791A-43DE-8DDD-60714207B5FD}"/>
+    <hyperlink ref="E31" r:id="rId2" xr:uid="{8AC5CB06-3AB5-4583-9A10-704DB6E18671}"/>
+    <hyperlink ref="E28:E30" r:id="rId3" display="https://coursera.org/share/bf11d01d4e9930f954943f6e188bbd47" xr:uid="{5C57D545-E45C-4446-B5D8-7D987D1813DE}"/>
+    <hyperlink ref="E27" r:id="rId4" xr:uid="{D0131883-6143-4F4C-B3A0-B31B6FD1F4A4}"/>
     <hyperlink ref="E18:E26" r:id="rId5" display="https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab" xr:uid="{0649B334-0F4A-4B71-BCB7-25B134362088}"/>
-    <hyperlink ref="E27" r:id="rId6" xr:uid="{D0131883-6143-4F4C-B3A0-B31B6FD1F4A4}"/>
-    <hyperlink ref="E28:E30" r:id="rId7" display="https://coursera.org/share/bf11d01d4e9930f954943f6e188bbd47" xr:uid="{5C57D545-E45C-4446-B5D8-7D987D1813DE}"/>
-    <hyperlink ref="E31" r:id="rId8" xr:uid="{8AC5CB06-3AB5-4583-9A10-704DB6E18671}"/>
-    <hyperlink ref="E32:E38" r:id="rId9" display="https://coursera.org/share/188441016b9730162e5549c0fd136a0b" xr:uid="{9B023A3F-791A-43DE-8DDD-60714207B5FD}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{6EEB24ED-88B9-4AA7-9D7F-728952AC8163}"/>
+    <hyperlink ref="E12:E16" r:id="rId7" display="https://coursera.org/share/5631a803ab6306376ad8bb953022b556" xr:uid="{4E15E060-C43A-46C8-9F69-CEAF4E7738A7}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{62672CC3-25AF-45D8-91CF-DEC3B3DCA2D4}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{80006BF7-9ED9-4CD6-BAAD-CF39661A7495}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0124DDC-B6A3-F347-B76F-198E7D92F2DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -1477,7 +1477,42 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1519,42 +1554,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6417,7 +6417,7 @@
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
     <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date"/>
     <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6431,8 +6431,8 @@
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6450,8 +6450,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6676,11 +6676,11 @@
   </sheetPr>
   <dimension ref="B1:Y1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30">
-        <v>44841</v>
+        <v>45206</v>
       </c>
       <c r="M25" s="31">
         <v>1</v>
@@ -8919,7 +8919,7 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="160" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" ht="144" x14ac:dyDescent="0.2">
       <c r="B38" s="52" t="s">
         <v>143</v>
       </c>
@@ -23729,7 +23729,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{D6CD13C1-97BB-3441-94E8-B818101CD5D5}">
+      <autoFilter ref="B2:S40" xr:uid="{8074F421-A2AF-7C4B-B75C-D4F35D1DCBB0}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -23834,7 +23834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAF8F63-B8B9-4625-999F-CA4AB410A71C}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -25439,7 +25439,7 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="67">
-        <f t="shared" ref="A12:A72" si="0">A11+1</f>
+        <f t="shared" ref="A12:A46" si="0">A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="67" t="s">

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7064019-5010-7141-B0D9-94A277D8299D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="266">
   <si>
     <t>My Certifications</t>
   </si>
@@ -1177,7 +1177,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1451,9 +1451,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6677,10 +6674,10 @@
   <dimension ref="B1:Y1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6827,20 +6824,20 @@
       <c r="O2" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="P2" s="96">
+      <c r="P2" s="95">
         <v>108</v>
       </c>
-      <c r="Q2" s="97">
+      <c r="Q2" s="96">
         <v>1</v>
       </c>
-      <c r="R2" s="96">
+      <c r="R2" s="95">
         <f>Q2*P2</f>
         <v>108</v>
       </c>
       <c r="S2" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="96"/>
+      <c r="T2" s="95"/>
       <c r="U2" s="94"/>
       <c r="V2" s="89"/>
       <c r="W2" s="89"/>
@@ -6865,24 +6862,40 @@
         <v>240</v>
       </c>
       <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
+      <c r="I3" s="91">
+        <v>44806</v>
+      </c>
+      <c r="J3" s="91">
+        <v>44836</v>
+      </c>
+      <c r="K3" s="92">
+        <v>44836</v>
+      </c>
       <c r="L3" s="91"/>
-      <c r="M3" s="93"/>
+      <c r="M3" s="93">
+        <v>1</v>
+      </c>
       <c r="N3" s="94">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="96">
+        <v>1</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="P3" s="95">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="96">
+        <v>1</v>
+      </c>
+      <c r="R3" s="95">
         <f>Q3*P3</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="96"/>
+        <v>168</v>
+      </c>
+      <c r="S3" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="95"/>
       <c r="U3" s="94"/>
       <c r="V3" s="89"/>
       <c r="W3" s="89"/>
@@ -8919,7 +8932,7 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="144" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" ht="160" x14ac:dyDescent="0.2">
       <c r="B38" s="52" t="s">
         <v>143</v>
       </c>
@@ -23729,7 +23742,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{8074F421-A2AF-7C4B-B75C-D4F35D1DCBB0}">
+      <autoFilter ref="B2:S40" xr:uid="{4E279D7B-D212-BF44-9EC8-38DD36C494CD}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -23817,15 +23830,16 @@
     <hyperlink ref="G2" r:id="rId73" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
     <hyperlink ref="G3" r:id="rId74" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
     <hyperlink ref="O2" r:id="rId75" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
+    <hyperlink ref="O3" r:id="rId76" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId76"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId77"/>
   <tableParts count="4">
-    <tablePart r:id="rId77"/>
     <tablePart r:id="rId78"/>
     <tablePart r:id="rId79"/>
     <tablePart r:id="rId80"/>
+    <tablePart r:id="rId81"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23870,13 +23884,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="98">
         <v>44608</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="97">
         <v>100</v>
       </c>
       <c r="E2" s="67" t="str">
@@ -23889,13 +23903,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="98">
         <v>44626</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="97">
         <v>93.81</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -23908,13 +23922,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="98">
         <v>44737</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="97">
         <v>7</v>
       </c>
       <c r="E4" s="67" t="str">
@@ -23927,13 +23941,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="98">
         <v>44616</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="97">
         <v>0</v>
       </c>
       <c r="E5" s="67" t="str">
@@ -23946,13 +23960,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="98">
         <v>44752</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="97">
         <v>83</v>
       </c>
       <c r="E6" s="67" t="str">
@@ -23965,13 +23979,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="98">
         <v>44514</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="97">
         <v>97.61</v>
       </c>
       <c r="E7" s="67" t="str">
@@ -23984,13 +23998,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="98">
         <v>44560</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="97">
         <v>95</v>
       </c>
       <c r="E8" s="67" t="str">
@@ -23999,20 +24013,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="str">
+      <c r="A9" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="98">
         <v>44512</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="97">
         <v>97.52</v>
       </c>
-      <c r="E9" s="100" t="str">
+      <c r="E9" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
@@ -24022,13 +24036,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="98">
         <v>44518</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="97">
         <v>94.6</v>
       </c>
       <c r="E10" s="67" t="str">
@@ -24041,13 +24055,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="98">
         <v>44556</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="97">
         <v>94.58</v>
       </c>
       <c r="E11" s="67" t="str">
@@ -24060,13 +24074,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="98">
         <v>44550</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="97">
         <v>88</v>
       </c>
       <c r="E12" s="67" t="str">
@@ -24079,13 +24093,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="98">
         <v>44596</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="97">
         <v>0</v>
       </c>
       <c r="E13" s="67" t="str">
@@ -24098,13 +24112,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="98">
         <v>44513</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="97">
         <v>95</v>
       </c>
       <c r="E14" s="67" t="str">
@@ -24117,13 +24131,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="98">
         <v>44576</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="97">
         <v>92.69</v>
       </c>
       <c r="E15" s="67" t="str">
@@ -24136,13 +24150,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="98">
         <v>44560</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="97">
         <v>92.66</v>
       </c>
       <c r="E16" s="67" t="str">
@@ -24155,13 +24169,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="98">
         <v>44528</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="97">
         <v>91.71</v>
       </c>
       <c r="E17" s="67" t="str">
@@ -24174,13 +24188,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="98">
         <v>44700</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="97">
         <v>90.94</v>
       </c>
       <c r="E18" s="67" t="str">
@@ -24193,13 +24207,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="98">
         <v>44488</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="97">
         <v>90.89</v>
       </c>
       <c r="E19" s="67" t="str">
@@ -24212,13 +24226,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="98">
         <v>44515</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="97">
         <v>88.88</v>
       </c>
       <c r="E20" s="67" t="str">
@@ -24231,13 +24245,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="98">
         <v>44815</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="97">
         <v>76.67</v>
       </c>
       <c r="E21" s="67" t="str">
@@ -24250,13 +24264,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="98">
         <v>44513</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="97">
         <v>91.38</v>
       </c>
       <c r="E22" s="67" t="str">
@@ -24269,13 +24283,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="98">
         <v>44512</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="97">
         <v>95.85</v>
       </c>
       <c r="E23" s="67" t="str">
@@ -24288,13 +24302,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="98">
         <v>44554</v>
       </c>
-      <c r="D24" s="98">
+      <c r="D24" s="97">
         <v>88.13</v>
       </c>
       <c r="E24" s="67" t="str">
@@ -24307,13 +24321,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="98">
         <v>44596</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="97">
         <v>88</v>
       </c>
       <c r="E25" s="67" t="str">
@@ -24326,13 +24340,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="98">
         <v>44814</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="97">
         <v>90</v>
       </c>
       <c r="E26" s="67" t="str">
@@ -24345,13 +24359,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="99">
+      <c r="C27" s="98">
         <v>44608</v>
       </c>
-      <c r="D27" s="98">
+      <c r="D27" s="97">
         <v>87.83</v>
       </c>
       <c r="E27" s="67" t="str">
@@ -24360,20 +24374,20 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="100" t="str">
+      <c r="A28" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="98">
         <v>44812</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="97">
         <v>87.5</v>
       </c>
-      <c r="E28" s="100" t="str">
+      <c r="E28" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
@@ -24383,13 +24397,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="99">
+      <c r="C29" s="98">
         <v>44562</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="97">
         <v>86.67</v>
       </c>
       <c r="E29" s="67" t="str">
@@ -24402,13 +24416,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="99">
+      <c r="C30" s="98">
         <v>44518</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D30" s="97">
         <v>86.09</v>
       </c>
       <c r="E30" s="67" t="str">
@@ -24421,13 +24435,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="98">
         <v>44562</v>
       </c>
-      <c r="D31" s="98">
+      <c r="D31" s="97">
         <v>85.83</v>
       </c>
       <c r="E31" s="67" t="str">
@@ -24440,13 +24454,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="99">
+      <c r="C32" s="98">
         <v>44570</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="97">
         <v>85.83</v>
       </c>
       <c r="E32" s="67" t="str">
@@ -24455,20 +24469,20 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="100" t="str">
+      <c r="A33" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="99">
+      <c r="C33" s="98">
         <v>44517</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="97">
         <v>84.19</v>
       </c>
-      <c r="E33" s="100" t="str">
+      <c r="E33" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
@@ -24478,13 +24492,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="99">
+      <c r="C34" s="98">
         <v>44501</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="97">
         <v>83.91</v>
       </c>
       <c r="E34" s="67" t="str">
@@ -24497,13 +24511,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C35" s="98">
         <v>44515</v>
       </c>
-      <c r="D35" s="98">
+      <c r="D35" s="97">
         <v>83.6</v>
       </c>
       <c r="E35" s="67" t="str">
@@ -24516,13 +24530,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="C36" s="99">
+      <c r="C36" s="98">
         <v>44814</v>
       </c>
-      <c r="D36" s="98">
+      <c r="D36" s="97">
         <v>83.33</v>
       </c>
       <c r="E36" s="67" t="str">
@@ -24531,20 +24545,20 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="100" t="str">
+      <c r="A37" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="99">
+      <c r="C37" s="98">
         <v>44522</v>
       </c>
-      <c r="D37" s="98">
+      <c r="D37" s="97">
         <v>83.33</v>
       </c>
-      <c r="E37" s="100" t="str">
+      <c r="E37" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
@@ -24554,13 +24568,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="99">
+      <c r="C38" s="98">
         <v>44501</v>
       </c>
-      <c r="D38" s="98">
+      <c r="D38" s="97">
         <v>87.63</v>
       </c>
       <c r="E38" s="67" t="str">
@@ -24573,13 +24587,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="99">
+      <c r="C39" s="98">
         <v>44577</v>
       </c>
-      <c r="D39" s="98">
+      <c r="D39" s="97">
         <v>83.17</v>
       </c>
       <c r="E39" s="67" t="str">
@@ -24592,13 +24606,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="99">
+      <c r="C40" s="98">
         <v>44558</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="97">
         <v>100</v>
       </c>
       <c r="E40" s="67" t="str">
@@ -24611,13 +24625,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="99">
+      <c r="C41" s="98">
         <v>44680</v>
       </c>
-      <c r="D41" s="98">
+      <c r="D41" s="97">
         <v>82.5</v>
       </c>
       <c r="E41" s="67" t="str">
@@ -24630,13 +24644,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="99">
+      <c r="C42" s="98">
         <v>44560</v>
       </c>
-      <c r="D42" s="98">
+      <c r="D42" s="97">
         <v>82</v>
       </c>
       <c r="E42" s="67" t="str">
@@ -24649,13 +24663,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="99">
+      <c r="C43" s="98">
         <v>44611</v>
       </c>
-      <c r="D43" s="98">
+      <c r="D43" s="97">
         <v>94.13</v>
       </c>
       <c r="E43" s="67" t="str">
@@ -24668,13 +24682,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="99">
+      <c r="C44" s="98">
         <v>44752</v>
       </c>
-      <c r="D44" s="98">
+      <c r="D44" s="97">
         <v>81.81</v>
       </c>
       <c r="E44" s="67" t="str">
@@ -24683,20 +24697,20 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="100" t="str">
+      <c r="A45" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="99">
+      <c r="C45" s="98">
         <v>44608</v>
       </c>
-      <c r="D45" s="98">
+      <c r="D45" s="97">
         <v>81.5</v>
       </c>
-      <c r="E45" s="100" t="str">
+      <c r="E45" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
@@ -24706,13 +24720,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="99">
+      <c r="C46" s="98">
         <v>44701</v>
       </c>
-      <c r="D46" s="98">
+      <c r="D46" s="97">
         <v>85.38</v>
       </c>
       <c r="E46" s="67" t="str">
@@ -24721,39 +24735,39 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="100" t="str">
+      <c r="A47" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="99">
+      <c r="C47" s="98">
         <v>44752</v>
       </c>
-      <c r="D47" s="98">
+      <c r="D47" s="97">
         <v>79.92</v>
       </c>
-      <c r="E47" s="100" t="str">
+      <c r="E47" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="100" t="str">
+      <c r="A48" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="99">
+      <c r="C48" s="98">
         <v>44813</v>
       </c>
-      <c r="D48" s="98">
+      <c r="D48" s="97">
         <v>76.67</v>
       </c>
-      <c r="E48" s="100" t="str">
+      <c r="E48" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
@@ -24763,13 +24777,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="99">
+      <c r="C49" s="98">
         <v>44752</v>
       </c>
-      <c r="D49" s="98">
+      <c r="D49" s="97">
         <v>41.67</v>
       </c>
       <c r="E49" s="67" t="str">
@@ -24782,13 +24796,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="99">
+      <c r="C50" s="98">
         <v>44624</v>
       </c>
-      <c r="D50" s="98">
+      <c r="D50" s="97">
         <v>92.52</v>
       </c>
       <c r="E50" s="67" t="str">
@@ -24801,13 +24815,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="99">
+      <c r="C51" s="98">
         <v>44705</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D51" s="97">
         <v>50</v>
       </c>
       <c r="E51" s="67" t="str">
@@ -24816,20 +24830,20 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="100" t="str">
+      <c r="A52" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="99">
+      <c r="C52" s="98">
         <v>44697</v>
       </c>
-      <c r="D52" s="98">
+      <c r="D52" s="97">
         <v>39.630000000000003</v>
       </c>
-      <c r="E52" s="100" t="str">
+      <c r="E52" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
@@ -24839,13 +24853,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="99">
+      <c r="C53" s="98">
         <v>44578</v>
       </c>
-      <c r="D53" s="98">
+      <c r="D53" s="97">
         <v>36</v>
       </c>
       <c r="E53" s="67" t="str">
@@ -24858,13 +24872,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="99">
+      <c r="C54" s="98">
         <v>44718</v>
       </c>
-      <c r="D54" s="98">
+      <c r="D54" s="97">
         <v>86.08</v>
       </c>
       <c r="E54" s="67" t="str">
@@ -24877,13 +24891,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="99">
+      <c r="C55" s="98">
         <v>44815</v>
       </c>
-      <c r="D55" s="98">
+      <c r="D55" s="97">
         <v>25</v>
       </c>
       <c r="E55" s="67" t="str">
@@ -24892,20 +24906,20 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="100" t="str">
+      <c r="A56" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="99">
+      <c r="C56" s="98">
         <v>44488</v>
       </c>
-      <c r="D56" s="98">
+      <c r="D56" s="97">
         <v>16</v>
       </c>
-      <c r="E56" s="100" t="str">
+      <c r="E56" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
@@ -24915,13 +24929,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="99">
+      <c r="C57" s="98">
         <v>44503</v>
       </c>
-      <c r="D57" s="98">
+      <c r="D57" s="97">
         <v>9</v>
       </c>
       <c r="E57" s="67" t="str">
@@ -24934,13 +24948,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="C58" s="99">
+      <c r="C58" s="98">
         <v>44640</v>
       </c>
-      <c r="D58" s="98">
+      <c r="D58" s="97">
         <v>94.48</v>
       </c>
       <c r="E58" s="67" t="str">
@@ -24953,13 +24967,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="99">
+      <c r="C59" s="98">
         <v>44624</v>
       </c>
-      <c r="D59" s="98">
+      <c r="D59" s="97">
         <v>14</v>
       </c>
       <c r="E59" s="67" t="str">
@@ -24972,13 +24986,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B60" s="98" t="s">
+      <c r="B60" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="99">
+      <c r="C60" s="98">
         <v>44583</v>
       </c>
-      <c r="D60" s="98">
+      <c r="D60" s="97">
         <v>8</v>
       </c>
       <c r="E60" s="67" t="str">
@@ -24991,13 +25005,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="99">
+      <c r="C61" s="98">
         <v>44494</v>
       </c>
-      <c r="D61" s="98">
+      <c r="D61" s="97">
         <v>5</v>
       </c>
       <c r="E61" s="67" t="str">
@@ -25010,13 +25024,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="99">
+      <c r="C62" s="98">
         <v>44746</v>
       </c>
-      <c r="D62" s="98">
+      <c r="D62" s="97">
         <v>0</v>
       </c>
       <c r="E62" s="67" t="str">
@@ -25029,13 +25043,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B63" s="98" t="s">
+      <c r="B63" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="99">
+      <c r="C63" s="98">
         <v>44557</v>
       </c>
-      <c r="D63" s="98">
+      <c r="D63" s="97">
         <v>0</v>
       </c>
       <c r="E63" s="67" t="str">
@@ -25048,13 +25062,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B64" s="98" t="s">
+      <c r="B64" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="99">
+      <c r="C64" s="98">
         <v>44582</v>
       </c>
-      <c r="D64" s="98">
+      <c r="D64" s="97">
         <v>0</v>
       </c>
       <c r="E64" s="67" t="str">
@@ -25067,13 +25081,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="99">
+      <c r="C65" s="98">
         <v>44633</v>
       </c>
-      <c r="D65" s="98">
+      <c r="D65" s="97">
         <v>0</v>
       </c>
       <c r="E65" s="67" t="str">
@@ -25086,13 +25100,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B66" s="98" t="s">
+      <c r="B66" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="99">
+      <c r="C66" s="98">
         <v>44702</v>
       </c>
-      <c r="D66" s="98">
+      <c r="D66" s="97">
         <v>0</v>
       </c>
       <c r="E66" s="67" t="str">
@@ -25105,13 +25119,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B67" s="98" t="s">
+      <c r="B67" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="99">
+      <c r="C67" s="98">
         <v>44747</v>
       </c>
-      <c r="D67" s="98">
+      <c r="D67" s="97">
         <v>0</v>
       </c>
       <c r="E67" s="67" t="str">
@@ -25124,13 +25138,13 @@
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="99">
+      <c r="C68" s="98">
         <v>44613</v>
       </c>
-      <c r="D68" s="98">
+      <c r="D68" s="97">
         <v>0</v>
       </c>
       <c r="E68" s="67" t="str">
@@ -25139,77 +25153,77 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="100" t="str">
+      <c r="A69" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B69" s="98" t="s">
+      <c r="B69" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="99">
+      <c r="C69" s="98">
         <v>44682</v>
       </c>
-      <c r="D69" s="98">
+      <c r="D69" s="97">
         <v>0</v>
       </c>
-      <c r="E69" s="100" t="str">
+      <c r="E69" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="100" t="str">
+      <c r="A70" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B70" s="98" t="s">
+      <c r="B70" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="99">
+      <c r="C70" s="98">
         <v>44700</v>
       </c>
-      <c r="D70" s="98">
+      <c r="D70" s="97">
         <v>0</v>
       </c>
-      <c r="E70" s="100" t="str">
+      <c r="E70" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="100" t="str">
+      <c r="A71" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B71" s="98" t="s">
+      <c r="B71" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="99">
+      <c r="C71" s="98">
         <v>44689</v>
       </c>
-      <c r="D71" s="98">
+      <c r="D71" s="97">
         <v>0</v>
       </c>
-      <c r="E71" s="100" t="str">
+      <c r="E71" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="100" t="str">
+      <c r="A72" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B72" s="98" t="s">
+      <c r="B72" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="99">
+      <c r="C72" s="98">
         <v>44668</v>
       </c>
-      <c r="D72" s="98">
+      <c r="D72" s="97">
         <v>0</v>
       </c>
-      <c r="E72" s="100" t="str">
+      <c r="E72" s="99" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7064019-5010-7141-B0D9-94A277D8299D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB40754-88C2-7241-B01D-AB872FD1D2B5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="266">
   <si>
     <t>My Certifications</t>
   </si>
@@ -6677,7 +6677,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6861,7 +6861,9 @@
       <c r="G3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="90"/>
+      <c r="H3" s="90" t="s">
+        <v>126</v>
+      </c>
       <c r="I3" s="91">
         <v>44806</v>
       </c>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB40754-88C2-7241-B01D-AB872FD1D2B5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8BD872-B1CD-554E-9F61-ED488336660C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="267">
   <si>
     <t>My Certifications</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>https://coursera.org/share/eb051d98829432162bdc78f34f1e9600</t>
+  </si>
+  <si>
+    <t>Graduate Data Science Certificate</t>
   </si>
 </sst>
 </file>
@@ -6674,10 +6677,10 @@
   <dimension ref="B1:Y1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8880,7 +8883,7 @@
     </row>
     <row r="37" spans="2:25" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="38" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>132</v>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A925435C-02FC-F249-A13E-999138065F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8BD872-B1CD-554E-9F61-ED488336660C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90295915-673E-3442-8B67-1D418A1ED0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$49</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$48</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="280">
   <si>
     <t>My Certifications</t>
   </si>
@@ -331,9 +331,6 @@
     <t>Pending final project</t>
   </si>
   <si>
-    <t>PMI-CAPM</t>
-  </si>
-  <si>
     <t>Project Management</t>
   </si>
   <si>
@@ -848,6 +845,48 @@
   </si>
   <si>
     <t>Graduate Data Science Certificate</t>
+  </si>
+  <si>
+    <t>Certification Name</t>
+  </si>
+  <si>
+    <t>Expected Finish Date</t>
+  </si>
+  <si>
+    <t>SPHR</t>
+  </si>
+  <si>
+    <t>HRCI</t>
+  </si>
+  <si>
+    <t>Network+</t>
+  </si>
+  <si>
+    <t>CompTIA</t>
+  </si>
+  <si>
+    <t>Security+</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>AWS Cloud Practitioner</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>AWS Data Analytics</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Membership</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1219,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1469,13 +1508,47 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="52">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6048,7 +6121,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6329,76 +6402,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y40" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
-  <autoFilter ref="B1:Y40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y40">
-    <sortCondition descending="1" ref="J1:J40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y39" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+  <autoFilter ref="B1:Y39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y39">
+    <sortCondition descending="1" ref="J1:J39"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="43"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="42"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="45"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="35">
       <calculatedColumnFormula>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="31">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B50:B57" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="B50:B57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B49:B56" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="B49:B56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C50:C57" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="C50:C57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C49:C56" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="C49:C56" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D50:D58" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="D50:D58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D49:D57" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="D49:D57" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R49:V57" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="R49:V57" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name"/>
+    <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
+    <tableColumn id="3" xr3:uid="{B42FD204-0C35-604F-AF1B-FBA5F9333685}" name="Expected Finish Date"/>
+    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DA9F6632-5CC6-E846-AA7A-9589331310BE}" name="Category"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EB406B1-D85A-4748-81CC-97C25AAD497E}" name="Courses" displayName="Courses" ref="A1:E72" totalsRowShown="0">
   <autoFilter ref="A1:E72" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}">
     <filterColumn colId="3">
@@ -6411,13 +6498,13 @@
     <sortCondition descending="1" ref="D1:D72"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
     <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date"/>
     <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6425,21 +6512,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A59D60FC-1232-4F93-8CF0-BFBE335BAE30}" name="Specialization" displayName="Specialization" ref="A1:E46" totalsRowShown="0">
   <autoFilter ref="A1:E46" xr:uid="{412E2EE3-B3A4-446B-82F0-D65A0E07D429}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:X8" totalsRowShown="0">
   <autoFilter ref="A1:X8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="24">
@@ -6450,8 +6537,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6674,13 +6761,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1008"/>
+  <dimension ref="B1:Y1007"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6720,16 +6807,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>148</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>4</v>
@@ -6738,7 +6825,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>6</v>
@@ -6780,15 +6867,15 @@
         <v>18</v>
       </c>
       <c r="Y1" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>58</v>
@@ -6797,13 +6884,13 @@
         <v>58</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" s="91">
         <v>44811</v>
@@ -6825,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P2" s="95">
         <v>108</v>
@@ -6849,23 +6936,23 @@
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" s="91">
         <v>44806</v>
@@ -6885,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P3" s="95">
         <v>168</v>
@@ -6909,23 +6996,23 @@
     </row>
     <row r="4" spans="2:25" ht="80" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I4" s="30">
         <v>44501</v>
@@ -6955,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R40" si="0">Q4*P4</f>
+        <f t="shared" ref="R4:R39" si="0">Q4*P4</f>
         <v>300</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -6970,7 +7057,7 @@
     </row>
     <row r="5" spans="2:25" ht="80" x14ac:dyDescent="0.2">
       <c r="B5" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>64</v>
@@ -6979,16 +7066,16 @@
         <v>58</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="46">
         <v>44835</v>
@@ -7049,7 +7136,7 @@
         <v>73</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="30">
         <v>44618</v>
@@ -7097,13 +7184,13 @@
     </row>
     <row r="7" spans="2:25" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>52</v>
@@ -7113,7 +7200,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" s="30">
         <v>44646</v>
@@ -7157,10 +7244,10 @@
     </row>
     <row r="8" spans="2:25" ht="80" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>58</v>
@@ -7172,10 +7259,10 @@
         <v>47</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" s="30">
         <v>44634</v>
@@ -7195,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P8" s="2">
         <v>6000</v>
@@ -7216,7 +7303,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="28"/>
       <c r="W8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="59"/>
@@ -7239,7 +7326,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="30">
         <v>44593</v>
@@ -7299,7 +7386,7 @@
         <v>79</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" s="30">
         <v>44614</v>
@@ -7357,7 +7444,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="30">
         <v>44613</v>
@@ -7415,7 +7502,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="30">
         <v>44571</v>
@@ -7475,7 +7562,7 @@
         <v>48</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="30">
         <v>44409</v>
@@ -7533,7 +7620,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" s="30">
         <v>44409</v>
@@ -7591,7 +7678,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" s="30">
         <v>44409</v>
@@ -7649,7 +7736,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="30">
         <v>44409</v>
@@ -7700,14 +7787,14 @@
         <v>21</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="29" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I17" s="30">
         <v>44577</v>
@@ -7751,7 +7838,7 @@
     </row>
     <row r="18" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>64</v>
@@ -7760,14 +7847,14 @@
         <v>58</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="32" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I18" s="30">
         <v>44470</v>
@@ -7813,20 +7900,20 @@
         <v>61</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" s="30">
         <v>44501</v>
@@ -7877,16 +7964,16 @@
         <v>58</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>59</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="30">
         <v>44470</v>
@@ -7945,7 +8032,7 @@
         <v>48</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I21" s="30">
         <v>44409</v>
@@ -8003,7 +8090,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" s="30">
         <f>J22-45</f>
@@ -8054,7 +8141,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>52</v>
@@ -8064,7 +8151,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I23" s="30">
         <f>J23-7</f>
@@ -8123,7 +8210,7 @@
         <v>48</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24" s="30">
         <v>44409</v>
@@ -8181,7 +8268,7 @@
         <v>29</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I25" s="30">
         <v>44476</v>
@@ -8241,7 +8328,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" s="30">
         <f>J26-7</f>
@@ -8300,7 +8387,7 @@
         <v>37</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="30">
         <v>44409</v>
@@ -8358,7 +8445,7 @@
         <v>37</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="30">
         <v>44409</v>
@@ -8416,7 +8503,7 @@
         <v>29</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="30">
         <f>J29-45</f>
@@ -8470,14 +8557,14 @@
         <v>28</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" s="30">
         <v>44409</v>
@@ -8528,14 +8615,14 @@
         <v>21</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="29" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="30">
         <v>44256</v>
@@ -8597,7 +8684,7 @@
         <v>73</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I32" s="30">
         <v>44531</v>
@@ -8663,7 +8750,7 @@
         <v>73</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I33" s="42">
         <v>44531</v>
@@ -8721,7 +8808,7 @@
         <v>91</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" s="42">
         <v>44618</v>
@@ -8763,40 +8850,44 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" ht="64" x14ac:dyDescent="0.2">
       <c r="B35" s="38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="40" t="s">
         <v>73</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" s="42">
-        <v>44562</v>
-      </c>
-      <c r="J35" s="42"/>
+        <v>44531</v>
+      </c>
+      <c r="J35" s="42">
+        <v>44838</v>
+      </c>
       <c r="K35" s="42">
-        <v>44866</v>
-      </c>
-      <c r="L35" s="42"/>
+        <v>44896</v>
+      </c>
+      <c r="L35" s="42">
+        <v>45935</v>
+      </c>
       <c r="M35" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="13" t="s">
         <v>74</v>
@@ -8817,36 +8908,38 @@
       <c r="T35" s="14"/>
       <c r="U35" s="12"/>
       <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
+      <c r="W35" s="39" t="s">
+        <v>96</v>
+      </c>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="2:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="38" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>95</v>
+        <v>131</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>58</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="F36" s="53"/>
-      <c r="G36" s="40" t="s">
-        <v>73</v>
+      <c r="G36" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I36" s="42">
-        <v>44531</v>
+        <v>44571</v>
       </c>
       <c r="J36" s="42"/>
       <c r="K36" s="42">
-        <v>44896</v>
+        <v>45047</v>
       </c>
       <c r="L36" s="42"/>
       <c r="M36" s="43">
@@ -8856,18 +8949,16 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="O36" s="13"/>
       <c r="P36" s="14">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="Q36" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="S36" s="12" t="s">
         <v>39</v>
@@ -8875,247 +8966,212 @@
       <c r="T36" s="14"/>
       <c r="U36" s="12"/>
       <c r="V36" s="39"/>
-      <c r="W36" s="39" t="s">
-        <v>97</v>
-      </c>
+      <c r="W36" s="39"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="2:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="B37" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="53" t="s">
+    <row r="37" spans="2:25" ht="160" x14ac:dyDescent="0.2">
+      <c r="B37" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="42">
-        <v>44571</v>
-      </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42">
-        <v>45047</v>
-      </c>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43">
+      <c r="E37" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="46">
+        <v>44844</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="63">
+        <v>44896</v>
+      </c>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47">
         <v>0</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="48">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="14">
-        <v>750</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>2</v>
-      </c>
-      <c r="R37" s="14">
+      <c r="O37" s="49">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="50">
+        <v>300</v>
+      </c>
+      <c r="Q37" s="51">
+        <v>1</v>
+      </c>
+      <c r="R37" s="50">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T37" s="14"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-    </row>
-    <row r="38" spans="2:25" ht="160" x14ac:dyDescent="0.2">
-      <c r="B38" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>64</v>
+        <v>300</v>
+      </c>
+      <c r="S37" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T37" s="50"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+    </row>
+    <row r="38" spans="2:25" ht="64" x14ac:dyDescent="0.2">
+      <c r="B38" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="46">
-        <v>44844</v>
-      </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="63">
-        <v>44896</v>
-      </c>
-      <c r="L38" s="46"/>
-      <c r="M38" s="47">
-        <v>0</v>
-      </c>
-      <c r="N38" s="48">
+        <v>133</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="30">
+        <v>44531</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="42">
+        <v>44713</v>
+      </c>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="N38" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="49">
+      <c r="O38" s="1">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="50">
+      <c r="P38" s="2">
         <v>300</v>
       </c>
-      <c r="Q38" s="51">
+      <c r="Q38" s="5">
         <v>1</v>
       </c>
-      <c r="R38" s="50">
+      <c r="R38" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S38" s="48" t="s">
+      <c r="S38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T38" s="50"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-    </row>
-    <row r="39" spans="2:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="B39" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="30">
-        <v>44531</v>
-      </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="42">
-        <v>44713</v>
-      </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="T38" s="2"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="42">
+        <v>44409</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="62">
+        <v>44774</v>
+      </c>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="N39" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="1">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>300</v>
-      </c>
-      <c r="Q39" s="5">
+      <c r="O39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="14">
+        <v>49</v>
+      </c>
+      <c r="Q39" s="15">
         <v>1</v>
       </c>
-      <c r="R39" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T39" s="2"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I40" s="42">
-        <v>44409</v>
-      </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="62">
-        <v>44774</v>
-      </c>
-      <c r="L40" s="42"/>
-      <c r="M40" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="N40" s="12">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P40" s="14">
-        <v>49</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>1</v>
-      </c>
-      <c r="R40" s="14">
+      <c r="R39" s="14">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="S39" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T40" s="14"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39" t="s">
+      <c r="T39" s="14"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+    </row>
+    <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
     </row>
     <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
@@ -9176,8 +9232,8 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="7"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="6"/>
@@ -9215,7 +9271,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -9257,7 +9313,6 @@
     </row>
     <row r="47" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -9301,39 +9356,53 @@
       <c r="V48" s="6"/>
     </row>
     <row r="49" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="B49" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="74"/>
+      <c r="F49" s="75"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-    </row>
-    <row r="50" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="84" t="s">
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="S49" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="T49" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="U49" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="V49" s="101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="B50" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="74"/>
-      <c r="F50" s="75"/>
+      <c r="C50" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="7"/>
@@ -9342,23 +9411,34 @@
       <c r="O50" s="6"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
+      <c r="R50" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="S50" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="T50" s="9">
+        <v>45078</v>
+      </c>
+      <c r="U50" s="102">
+        <v>500</v>
+      </c>
+      <c r="V50" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="51" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" s="85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" s="86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="76"/>
-      <c r="F51" s="77"/>
+      <c r="F51" s="78"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="7"/>
@@ -9367,45 +9447,63 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-    </row>
-    <row r="52" spans="2:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="R51" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="S51" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="T51" s="9">
+        <v>44896</v>
+      </c>
+      <c r="U51" s="102">
+        <v>200</v>
+      </c>
+      <c r="V51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="85" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C52" s="85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" s="86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="76"/>
-      <c r="F52" s="78"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
+      <c r="F52" s="77"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="R52" t="s">
+        <v>272</v>
+      </c>
+      <c r="S52" t="s">
+        <v>271</v>
+      </c>
+      <c r="T52" s="9">
+        <v>44897</v>
+      </c>
+      <c r="U52" s="103">
+        <v>200</v>
+      </c>
+      <c r="V52" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>105</v>
+        <v>20</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>234</v>
       </c>
       <c r="D53" s="86" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="76"/>
       <c r="F53" s="77"/>
@@ -9413,13 +9511,28 @@
       <c r="M53" s="11"/>
       <c r="N53" s="10"/>
       <c r="P53" s="10"/>
+      <c r="R53" t="s">
+        <v>273</v>
+      </c>
+      <c r="S53" t="s">
+        <v>271</v>
+      </c>
+      <c r="T53" s="9">
+        <v>44898</v>
+      </c>
+      <c r="U53" s="103">
+        <v>200</v>
+      </c>
+      <c r="V53" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="87" t="s">
-        <v>235</v>
+        <v>108</v>
+      </c>
+      <c r="C54" s="85" t="s">
+        <v>109</v>
       </c>
       <c r="D54" s="86" t="s">
         <v>111</v>
@@ -9430,16 +9543,31 @@
       <c r="M54" s="11"/>
       <c r="N54" s="10"/>
       <c r="P54" s="10"/>
+      <c r="R54" t="s">
+        <v>274</v>
+      </c>
+      <c r="S54" t="s">
+        <v>275</v>
+      </c>
+      <c r="T54" s="9">
+        <v>44866</v>
+      </c>
+      <c r="U54" s="103">
+        <v>50</v>
+      </c>
+      <c r="V54" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C55" s="85" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D55" s="86" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E55" s="76"/>
       <c r="F55" s="77"/>
@@ -9447,61 +9575,104 @@
       <c r="M55" s="11"/>
       <c r="N55" s="10"/>
       <c r="P55" s="10"/>
+      <c r="R55" t="s">
+        <v>276</v>
+      </c>
+      <c r="S55" t="s">
+        <v>275</v>
+      </c>
+      <c r="T55" s="9">
+        <v>44867</v>
+      </c>
+      <c r="U55" s="103">
+        <v>150</v>
+      </c>
+      <c r="V55" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D56" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="76"/>
+      <c r="E56" s="79"/>
       <c r="F56" s="77"/>
       <c r="L56" s="10"/>
       <c r="M56" s="11"/>
       <c r="N56" s="10"/>
       <c r="P56" s="10"/>
+      <c r="R56" t="s">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s">
+        <v>71</v>
+      </c>
+      <c r="T56" s="9">
+        <v>44868</v>
+      </c>
+      <c r="U56" s="103">
+        <v>250</v>
+      </c>
+      <c r="V56" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="79"/>
-      <c r="F57" s="77"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
       <c r="L57" s="10"/>
       <c r="M57" s="11"/>
       <c r="N57" s="10"/>
       <c r="P57" s="10"/>
+      <c r="R57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="9">
+        <v>44869</v>
+      </c>
+      <c r="U57" s="103">
+        <v>250</v>
+      </c>
+      <c r="V57" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="81"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
       <c r="G58" s="9"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="J58" s="6"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="10"/>
+      <c r="Q58" s="10"/>
     </row>
     <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="9"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -23722,40 +23893,25 @@
       <c r="D1007" s="6"/>
       <c r="E1007" s="6"/>
       <c r="F1007" s="6"/>
-      <c r="G1007" s="9"/>
-      <c r="H1007" s="6"/>
-      <c r="I1007" s="6"/>
       <c r="J1007" s="6"/>
       <c r="M1007" s="10"/>
       <c r="N1007" s="11"/>
       <c r="O1007" s="10"/>
       <c r="Q1007" s="10"/>
     </row>
-    <row r="1008" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1008" s="6"/>
-      <c r="C1008" s="6"/>
-      <c r="D1008" s="6"/>
-      <c r="E1008" s="6"/>
-      <c r="F1008" s="6"/>
-      <c r="J1008" s="6"/>
-      <c r="M1008" s="10"/>
-      <c r="N1008" s="11"/>
-      <c r="O1008" s="10"/>
-      <c r="Q1008" s="10"/>
-    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{4E279D7B-D212-BF44-9EC8-38DD36C494CD}">
+      <autoFilter ref="B2:S40" xr:uid="{88DDF963-BF48-774E-965F-82610DFA3F34}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L34 M2:M40" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L34 M2:M39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23815,36 +23971,35 @@
     <hyperlink ref="Y33" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="G34" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="O34" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G40" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G35" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D51" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D52" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D53" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D54" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D55" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D56" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D57" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G19" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G8" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O8" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G2" r:id="rId73" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
-    <hyperlink ref="G3" r:id="rId74" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
-    <hyperlink ref="O2" r:id="rId75" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
-    <hyperlink ref="O3" r:id="rId76" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
+    <hyperlink ref="G39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O39" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G35" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D50" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D51" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D52" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D53" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D55" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D56" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G19" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G8" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O8" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G37" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G2" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
+    <hyperlink ref="G3" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
+    <hyperlink ref="O2" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
+    <hyperlink ref="O3" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId77"/>
-  <tableParts count="4">
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId75"/>
+  <tableParts count="5">
+    <tablePart r:id="rId76"/>
+    <tablePart r:id="rId77"/>
     <tablePart r:id="rId78"/>
     <tablePart r:id="rId79"/>
     <tablePart r:id="rId80"/>
-    <tablePart r:id="rId81"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23869,19 +24024,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="67" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -23890,7 +24045,7 @@
         <v>NaN</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="98">
         <v>44608</v>
@@ -23909,7 +24064,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="98">
         <v>44626</v>
@@ -23928,7 +24083,7 @@
         <v>NaN</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="98">
         <v>44737</v>
@@ -23947,7 +24102,7 @@
         <v>NaN</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="98">
         <v>44616</v>
@@ -23966,7 +24121,7 @@
         <v>NaN</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="98">
         <v>44752</v>
@@ -23985,7 +24140,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="98">
         <v>44514</v>
@@ -24004,7 +24159,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="98">
         <v>44560</v>
@@ -24023,7 +24178,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="98">
         <v>44512</v>
@@ -24042,7 +24197,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="98">
         <v>44518</v>
@@ -24061,7 +24216,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="98">
         <v>44556</v>
@@ -24080,7 +24235,7 @@
         <v>NaN</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="98">
         <v>44550</v>
@@ -24099,7 +24254,7 @@
         <v>NaN</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="98">
         <v>44596</v>
@@ -24118,7 +24273,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="98">
         <v>44513</v>
@@ -24137,7 +24292,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="98">
         <v>44576</v>
@@ -24156,7 +24311,7 @@
         <v>NaN</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="98">
         <v>44560</v>
@@ -24175,7 +24330,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="98">
         <v>44528</v>
@@ -24194,7 +24349,7 @@
         <v>NaN</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="98">
         <v>44700</v>
@@ -24213,7 +24368,7 @@
         <v>NaN</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="98">
         <v>44488</v>
@@ -24232,7 +24387,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="98">
         <v>44515</v>
@@ -24251,7 +24406,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="98">
         <v>44815</v>
@@ -24270,7 +24425,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="98">
         <v>44513</v>
@@ -24289,7 +24444,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="98">
         <v>44512</v>
@@ -24308,7 +24463,7 @@
         <v>NaN</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="98">
         <v>44554</v>
@@ -24327,7 +24482,7 @@
         <v>NaN</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="98">
         <v>44596</v>
@@ -24346,7 +24501,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="98">
         <v>44814</v>
@@ -24365,7 +24520,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="98">
         <v>44608</v>
@@ -24384,7 +24539,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="98">
         <v>44812</v>
@@ -24403,7 +24558,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="98">
         <v>44562</v>
@@ -24422,7 +24577,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="98">
         <v>44518</v>
@@ -24441,7 +24596,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="98">
         <v>44562</v>
@@ -24460,7 +24615,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="98">
         <v>44570</v>
@@ -24479,7 +24634,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="98">
         <v>44517</v>
@@ -24498,7 +24653,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B34" s="97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="98">
         <v>44501</v>
@@ -24517,7 +24672,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" s="98">
         <v>44515</v>
@@ -24536,7 +24691,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="98">
         <v>44814</v>
@@ -24555,7 +24710,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="98">
         <v>44522</v>
@@ -24574,7 +24729,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="98">
         <v>44501</v>
@@ -24593,7 +24748,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="98">
         <v>44577</v>
@@ -24612,7 +24767,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="98">
         <v>44558</v>
@@ -24631,7 +24786,7 @@
         <v>NaN</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="98">
         <v>44680</v>
@@ -24650,7 +24805,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" s="98">
         <v>44560</v>
@@ -24669,7 +24824,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" s="98">
         <v>44611</v>
@@ -24688,7 +24843,7 @@
         <v>NaN</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C44" s="98">
         <v>44752</v>
@@ -24707,7 +24862,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" s="98">
         <v>44608</v>
@@ -24726,7 +24881,7 @@
         <v>NaN</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" s="98">
         <v>44701</v>
@@ -24745,7 +24900,7 @@
         <v>NaN</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="98">
         <v>44752</v>
@@ -24764,7 +24919,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="98">
         <v>44813</v>
@@ -24783,7 +24938,7 @@
         <v>NaN</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C49" s="98">
         <v>44752</v>
@@ -24802,7 +24957,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="98">
         <v>44624</v>
@@ -24821,7 +24976,7 @@
         <v>NaN</v>
       </c>
       <c r="B51" s="97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" s="98">
         <v>44705</v>
@@ -24840,7 +24995,7 @@
         <v>NaN</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="98">
         <v>44697</v>
@@ -24859,7 +25014,7 @@
         <v>NaN</v>
       </c>
       <c r="B53" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="98">
         <v>44578</v>
@@ -24878,7 +25033,7 @@
         <v>NaN</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" s="98">
         <v>44718</v>
@@ -24897,7 +25052,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="98">
         <v>44815</v>
@@ -24916,7 +25071,7 @@
         <v>NaN</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" s="98">
         <v>44488</v>
@@ -24935,7 +25090,7 @@
         <v>NaN</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="98">
         <v>44503</v>
@@ -24954,7 +25109,7 @@
         <v>NaN</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="98">
         <v>44640</v>
@@ -24973,7 +25128,7 @@
         <v>NaN</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C59" s="98">
         <v>44624</v>
@@ -24992,7 +25147,7 @@
         <v>NaN</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" s="98">
         <v>44583</v>
@@ -25011,7 +25166,7 @@
         <v>NaN</v>
       </c>
       <c r="B61" s="97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" s="98">
         <v>44494</v>
@@ -25030,7 +25185,7 @@
         <v>NaN</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="98">
         <v>44746</v>
@@ -25049,7 +25204,7 @@
         <v>NaN</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C63" s="98">
         <v>44557</v>
@@ -25068,7 +25223,7 @@
         <v>NaN</v>
       </c>
       <c r="B64" s="97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" s="98">
         <v>44582</v>
@@ -25087,7 +25242,7 @@
         <v>NaN</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="98">
         <v>44633</v>
@@ -25106,7 +25261,7 @@
         <v>NaN</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C66" s="98">
         <v>44702</v>
@@ -25125,7 +25280,7 @@
         <v>NaN</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C67" s="98">
         <v>44747</v>
@@ -25144,7 +25299,7 @@
         <v>NaN</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C68" s="98">
         <v>44613</v>
@@ -25163,7 +25318,7 @@
         <v>NaN</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="98">
         <v>44682</v>
@@ -25182,7 +25337,7 @@
         <v>NaN</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="98">
         <v>44700</v>
@@ -25201,7 +25356,7 @@
         <v>NaN</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" s="98">
         <v>44689</v>
@@ -25220,7 +25375,7 @@
         <v>NaN</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" s="98">
         <v>44668</v>
@@ -25246,7 +25401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07C6D5-189D-4DB4-B710-2C1606549B1C}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E39" sqref="E39:E46"/>
     </sheetView>
   </sheetViews>
@@ -25262,19 +25417,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>220</v>
-      </c>
       <c r="E1" s="67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25282,16 +25437,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="70">
         <v>44577</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25299,10 +25454,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="70">
         <v>44577</v>
@@ -25317,10 +25472,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="70">
         <v>44577</v>
@@ -25335,10 +25490,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="70">
         <v>44577</v>
@@ -25353,10 +25508,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="70">
         <v>44577</v>
@@ -25371,10 +25526,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="70">
         <v>44577</v>
@@ -25389,10 +25544,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="70">
         <v>44577</v>
@@ -25407,10 +25562,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="70">
         <v>44577</v>
@@ -25425,10 +25580,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="70">
         <v>44577</v>
@@ -25444,16 +25599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="70">
         <v>44695</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25462,16 +25617,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="70">
         <v>44695</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25480,16 +25635,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" s="70">
         <v>44695</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25498,16 +25653,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="70">
         <v>44695</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25516,16 +25671,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="70">
         <v>44695</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -25534,16 +25689,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="70">
         <v>44695</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25552,16 +25707,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="72">
         <v>44687</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25570,16 +25725,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="72">
         <v>44687</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25588,16 +25743,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="72">
         <v>44687</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25606,16 +25761,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="72">
         <v>44687</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25624,16 +25779,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="72">
         <v>44687</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -25642,16 +25797,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="72">
         <v>44687</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25660,16 +25815,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="72">
         <v>44687</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25678,16 +25833,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" s="72">
         <v>44687</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25696,16 +25851,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D25" s="72">
         <v>44687</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -25714,16 +25869,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="72">
         <v>44687</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -25732,16 +25887,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="70">
         <v>44578</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -25750,16 +25905,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" s="70">
         <v>44578</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25768,16 +25923,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="70">
         <v>44578</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25786,16 +25941,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" s="70">
         <v>44578</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25807,13 +25962,13 @@
         <v>56</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="70">
         <v>44559</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25825,13 +25980,13 @@
         <v>56</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="70">
         <v>44559</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25843,13 +25998,13 @@
         <v>56</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="70">
         <v>44559</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -25861,13 +26016,13 @@
         <v>56</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="70">
         <v>44559</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25879,13 +26034,13 @@
         <v>56</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="70">
         <v>44559</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25897,13 +26052,13 @@
         <v>56</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="70">
         <v>44559</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25915,13 +26070,13 @@
         <v>56</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37" s="70">
         <v>44559</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25933,13 +26088,13 @@
         <v>56</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="70">
         <v>44559</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -25948,16 +26103,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" s="70">
         <v>44813</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -25966,16 +26121,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D40" s="70">
         <v>44813</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -25984,16 +26139,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D41" s="70">
         <v>44813</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -26002,16 +26157,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D42" s="70">
         <v>44814</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -26020,16 +26175,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D43" s="70">
         <v>44814</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -26038,16 +26193,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D44" s="70">
         <v>44816</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -26056,16 +26211,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="70">
         <v>44816</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -26074,16 +26229,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D46" s="70">
         <v>44816</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -26147,16 +26302,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -26165,7 +26320,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -26207,7 +26362,7 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -26227,7 +26382,7 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="20">
         <v>44409</v>
@@ -26277,7 +26432,7 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="20">
         <v>44409</v>
@@ -26324,7 +26479,7 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="20">
         <v>44409</v>
@@ -26371,7 +26526,7 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" s="20">
         <v>44409</v>
@@ -26418,7 +26573,7 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="20">
         <v>44409</v>
@@ -26465,7 +26620,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="20">
         <v>44409</v>
@@ -26512,7 +26667,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="20">
         <v>44409</v>
@@ -26588,24 +26743,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -26684,7 +26839,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19">
@@ -26696,7 +26851,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19">
@@ -26996,7 +27151,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="19">
         <v>1</v>
@@ -27020,7 +27175,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="19">
         <v>20</v>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90295915-673E-3442-8B67-1D418A1ED0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{90295915-673E-3442-8B67-1D418A1ED0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C077B330-43BA-194F-87AF-C23D319C440A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="980" windowWidth="34260" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$48</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$41</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="291">
   <si>
     <t>My Certifications</t>
   </si>
@@ -887,16 +887,50 @@
   </si>
   <si>
     <t>Membership</t>
+  </si>
+  <si>
+    <t>Microsoft Enterprise Data Analyst</t>
+  </si>
+  <si>
+    <t>PSM1</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Scrum.org</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Database Administration</t>
+  </si>
+  <si>
+    <t>https://www.scrum.org/assessments/professional-scrum-master-i-certification</t>
+  </si>
+  <si>
+    <t>https://www.aws.training/Certification</t>
+  </si>
+  <si>
+    <t>https://www.certmetrics.com/comptia/default.aspx</t>
+  </si>
+  <si>
+    <t>www.microsoft.com/learn</t>
+  </si>
+  <si>
+    <t>https://portal.hrci.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1219,7 +1253,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1520,6 +1554,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1527,28 +1594,6 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
   <dxfs count="52">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1631,6 +1676,28 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6121,7 +6188,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6402,8 +6469,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y39" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
-  <autoFilter ref="B1:Y39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y47" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+  <autoFilter ref="B1:Y47" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="12">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y39">
     <sortCondition descending="1" ref="J1:J39"/>
   </sortState>
@@ -6472,13 +6543,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R49:V57" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R49:V57" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="R49:V57" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
     <tableColumn id="3" xr3:uid="{B42FD204-0C35-604F-AF1B-FBA5F9333685}" name="Expected Finish Date"/>
-    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{DA9F6632-5CC6-E846-AA7A-9589331310BE}" name="Category"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6498,13 +6569,13 @@
     <sortCondition descending="1" ref="D1:D72"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
     <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date"/>
     <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6518,8 +6589,8 @@
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6537,8 +6608,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6764,10 +6835,10 @@
   <dimension ref="B1:Y1007"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V50" sqref="V50"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6870,7 +6941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="88" t="s">
         <v>236</v>
       </c>
@@ -6934,7 +7005,7 @@
       <c r="X2" s="94"/>
       <c r="Y2" s="94"/>
     </row>
-    <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="88" t="s">
         <v>238</v>
       </c>
@@ -6994,7 +7065,7 @@
       <c r="X3" s="94"/>
       <c r="Y3" s="94"/>
     </row>
-    <row r="4" spans="2:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
         <v>106</v>
       </c>
@@ -7055,7 +7126,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="2:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="52" t="s">
         <v>140</v>
       </c>
@@ -7118,7 +7189,7 @@
       <c r="X5" s="48"/>
       <c r="Y5" s="48"/>
     </row>
-    <row r="6" spans="2:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>82</v>
       </c>
@@ -7182,7 +7253,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="2:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>151</v>
       </c>
@@ -7242,7 +7313,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="2:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>127</v>
       </c>
@@ -7308,7 +7379,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="59"/>
     </row>
-    <row r="9" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>80</v>
       </c>
@@ -7368,7 +7439,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>78</v>
       </c>
@@ -7426,7 +7497,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
         <v>75</v>
       </c>
@@ -7484,7 +7555,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>70</v>
       </c>
@@ -7544,7 +7615,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>66</v>
       </c>
@@ -7602,7 +7673,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>67</v>
       </c>
@@ -7660,7 +7731,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>68</v>
       </c>
@@ -7718,7 +7789,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>69</v>
       </c>
@@ -7776,7 +7847,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
         <v>65</v>
       </c>
@@ -7836,7 +7907,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="52" t="s">
         <v>150</v>
       </c>
@@ -7895,7 +7966,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>61</v>
       </c>
@@ -7953,7 +8024,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="2:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
         <v>56</v>
       </c>
@@ -8014,7 +8085,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>55</v>
       </c>
@@ -8072,7 +8143,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
         <v>53</v>
       </c>
@@ -8133,7 +8204,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>51</v>
       </c>
@@ -8192,7 +8263,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
         <v>45</v>
       </c>
@@ -8250,7 +8321,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>43</v>
       </c>
@@ -8310,7 +8381,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
         <v>41</v>
       </c>
@@ -8369,7 +8440,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="2:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27" t="s">
         <v>34</v>
       </c>
@@ -8427,7 +8498,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="2:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27" t="s">
         <v>40</v>
       </c>
@@ -8485,7 +8556,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27" t="s">
         <v>32</v>
       </c>
@@ -8546,7 +8617,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27" t="s">
         <v>26</v>
       </c>
@@ -8604,7 +8675,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27" t="s">
         <v>19</v>
       </c>
@@ -8850,7 +8921,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="2:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="38" t="s">
         <v>95</v>
       </c>
@@ -9151,187 +9222,340 @@
       <c r="Y39" s="12"/>
     </row>
     <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
+      <c r="B40" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="106"/>
+      <c r="G40" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="107"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="110"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="111">
+        <f>Q40*P40</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="109"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="106"/>
+      <c r="W40" s="106"/>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
     </row>
     <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
+      <c r="B41" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="106"/>
+      <c r="G41" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="H41" s="107"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="110"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="111">
+        <f>Q41*P41</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="109"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
     </row>
     <row r="42" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
+      <c r="B42" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" s="106"/>
+      <c r="G42" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42" s="107"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="110"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="111">
+        <f>Q42*P42</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="109"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109"/>
     </row>
     <row r="43" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
+      <c r="B43" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="106" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="106" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="106"/>
+      <c r="G43" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="H43" s="107"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="110"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="111">
+        <f>Q43*P43</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="109"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
     </row>
     <row r="44" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
+      <c r="B44" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="106"/>
+      <c r="G44" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="107"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="110"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="111">
+        <f>Q44*P44</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="109"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
     </row>
     <row r="45" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
+      <c r="B45" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="106"/>
+      <c r="G45" s="113" t="s">
+        <v>289</v>
+      </c>
+      <c r="H45" s="107"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="110"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="111">
+        <f>Q45*P45</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="109"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
     </row>
     <row r="46" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
+      <c r="B46" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="106"/>
+      <c r="G46" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="H46" s="107"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="110"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="111">
+        <f>Q46*P46</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="109"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="109"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109"/>
     </row>
     <row r="47" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
+      <c r="B47" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="C47" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="106"/>
+      <c r="G47" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="107"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="109">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="110"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="111">
+        <f>Q47*P47</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="109"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="109"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="109"/>
+      <c r="Y47" s="109"/>
     </row>
     <row r="48" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
@@ -23903,15 +24127,15 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{88DDF963-BF48-774E-965F-82610DFA3F34}">
+      <autoFilter ref="B2:S40" xr:uid="{2340596A-A5D1-4041-858A-52D474EAC157}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L34 M2:M39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L34 M2:M47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23990,16 +24214,23 @@
     <hyperlink ref="G3" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
     <hyperlink ref="O2" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
     <hyperlink ref="O3" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
+    <hyperlink ref="G47" r:id="rId75" xr:uid="{1F4AC6F4-FE10-924E-A2BF-4A33997B1E38}"/>
+    <hyperlink ref="G46" r:id="rId76" xr:uid="{47F82385-E361-6A4F-81CA-BED894D700F5}"/>
+    <hyperlink ref="G43" r:id="rId77" xr:uid="{89AD7CF7-3FE4-6545-B30B-F5F42F068F42}"/>
+    <hyperlink ref="G40" r:id="rId78" xr:uid="{661F256A-6D0C-3A45-9D40-3ADAE2CCBC0A}"/>
+    <hyperlink ref="G41" r:id="rId79" xr:uid="{BF60414D-B2B0-284B-9D1B-609913D6553C}"/>
+    <hyperlink ref="G42" r:id="rId80" xr:uid="{E1E941B4-C7FD-4A43-8B95-16FC1C79CDDD}"/>
+    <hyperlink ref="G45" r:id="rId81" xr:uid="{616F30DF-C43D-6A4A-A280-035901F9E35D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId75"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId82"/>
   <tableParts count="5">
-    <tablePart r:id="rId76"/>
-    <tablePart r:id="rId77"/>
-    <tablePart r:id="rId78"/>
-    <tablePart r:id="rId79"/>
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId83"/>
+    <tablePart r:id="rId84"/>
+    <tablePart r:id="rId85"/>
+    <tablePart r:id="rId86"/>
+    <tablePart r:id="rId87"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90295915-673E-3442-8B67-1D418A1ED0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9B89D-5F34-7F4A-AA9D-8CB8ED33137A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="284">
   <si>
     <t>My Certifications</t>
   </si>
@@ -853,9 +853,6 @@
     <t>Expected Finish Date</t>
   </si>
   <si>
-    <t>SPHR</t>
-  </si>
-  <si>
     <t>HRCI</t>
   </si>
   <si>
@@ -887,6 +884,21 @@
   </si>
   <si>
     <t>Membership</t>
+  </si>
+  <si>
+    <t>GPHR</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Oracle Cloud Certification</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Cloud+</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1538,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <b val="0"/>
@@ -1544,10 +1553,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1631,6 +1639,28 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6402,84 +6432,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y39" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y39" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
   <autoFilter ref="B1:Y39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y39">
     <sortCondition descending="1" ref="J1:J39"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="45"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="44"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="46"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="40"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="36">
       <calculatedColumnFormula>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="32">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="27"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="26"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B49:B56" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B49:B56" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="B49:B56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C49:C56" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C49:C56" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="C49:C56" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D49:D57" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D49:D57" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="D49:D57" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R49:V57" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="R49:V57" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R49:V60" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="R49:V59" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name"/>
+    <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
     <tableColumn id="3" xr3:uid="{B42FD204-0C35-604F-AF1B-FBA5F9333685}" name="Expected Finish Date"/>
-    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{DA9F6632-5CC6-E846-AA7A-9589331310BE}" name="Category"/>
+    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DA9F6632-5CC6-E846-AA7A-9589331310BE}" name="Category" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6498,13 +6528,13 @@
     <sortCondition descending="1" ref="D1:D72"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
     <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date"/>
     <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6518,8 +6548,8 @@
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6537,8 +6567,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6764,10 +6794,10 @@
   <dimension ref="B1:Y1007"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="R40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V50" sqref="V50"/>
+      <selection pane="bottomRight" activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9385,10 +9415,10 @@
         <v>267</v>
       </c>
       <c r="U49" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="V49" s="101" t="s">
         <v>277</v>
-      </c>
-      <c r="V49" s="101" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="32" x14ac:dyDescent="0.2">
@@ -9412,10 +9442,10 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="S50" s="100" t="s">
         <v>268</v>
-      </c>
-      <c r="S50" s="100" t="s">
-        <v>269</v>
       </c>
       <c r="T50" s="9">
         <v>45078</v>
@@ -9448,10 +9478,10 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="S51" s="100" t="s">
         <v>270</v>
-      </c>
-      <c r="S51" s="100" t="s">
-        <v>271</v>
       </c>
       <c r="T51" s="9">
         <v>44896</v>
@@ -9480,10 +9510,10 @@
       <c r="N52" s="10"/>
       <c r="P52" s="10"/>
       <c r="R52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T52" s="9">
         <v>44897</v>
@@ -9512,13 +9542,13 @@
       <c r="N53" s="10"/>
       <c r="P53" s="10"/>
       <c r="R53" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="S53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T53" s="9">
-        <v>44898</v>
+        <v>44927</v>
       </c>
       <c r="U53" s="103">
         <v>200</v>
@@ -9544,16 +9574,16 @@
       <c r="N54" s="10"/>
       <c r="P54" s="10"/>
       <c r="R54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S54" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="T54" s="9">
-        <v>44866</v>
+        <v>44898</v>
       </c>
       <c r="U54" s="103">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="V54" t="s">
         <v>125</v>
@@ -9576,16 +9606,16 @@
       <c r="N55" s="10"/>
       <c r="P55" s="10"/>
       <c r="R55" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T55" s="9">
-        <v>44867</v>
+        <v>44866</v>
       </c>
       <c r="U55" s="103">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="V55" t="s">
         <v>125</v>
@@ -9608,19 +9638,19 @@
       <c r="N56" s="10"/>
       <c r="P56" s="10"/>
       <c r="R56" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="S56" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="T56" s="9">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="U56" s="103">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="V56" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -9637,19 +9667,19 @@
       <c r="N57" s="10"/>
       <c r="P57" s="10"/>
       <c r="R57" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="S57" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="T57" s="9">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="U57" s="103">
         <v>250</v>
       </c>
       <c r="V57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -9666,6 +9696,21 @@
       <c r="N58" s="11"/>
       <c r="O58" s="10"/>
       <c r="Q58" s="10"/>
+      <c r="R58" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="9">
+        <v>44869</v>
+      </c>
+      <c r="U58" s="103">
+        <v>250</v>
+      </c>
+      <c r="V58" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
@@ -9681,6 +9726,21 @@
       <c r="N59" s="11"/>
       <c r="O59" s="10"/>
       <c r="Q59" s="10"/>
+      <c r="R59" t="s">
+        <v>281</v>
+      </c>
+      <c r="S59" t="s">
+        <v>282</v>
+      </c>
+      <c r="T59" s="9">
+        <v>45047</v>
+      </c>
+      <c r="U59" s="103">
+        <v>150</v>
+      </c>
+      <c r="V59" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="60" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
@@ -9696,6 +9756,17 @@
       <c r="N60" s="11"/>
       <c r="O60" s="10"/>
       <c r="Q60" s="10"/>
+      <c r="R60" t="s">
+        <v>280</v>
+      </c>
+      <c r="U60" s="103">
+        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
+        <v>2150</v>
+      </c>
+      <c r="V60">
+        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
@@ -23903,7 +23974,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{88DDF963-BF48-774E-965F-82610DFA3F34}">
+      <autoFilter ref="B2:S40" xr:uid="{8D8E4D1A-0483-EB4E-A877-180B2BC238E9}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coraline\Resume Resources\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{0BF9B89D-5F34-7F4A-AA9D-8CB8ED33137A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2248768F-1B69-4FE3-BEE3-11FAA96CA578}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B555D23-5208-424D-95ED-2A44C35AF9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23796" yWindow="84" windowWidth="22224" windowHeight="16848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,7 +1324,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1401,9 +1401,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1640,13 +1637,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="55">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6540,83 +6552,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y39" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y39" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
   <autoFilter ref="B1:Y39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y39">
     <sortCondition descending="1" ref="J1:J39"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="46"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="43"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="40"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="47"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="42"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="38">
       <calculatedColumnFormula>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="34">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Link" dataDxfId="0"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="30"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="29"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="28"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Link" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B49:B56" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B49:B56" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="B49:B56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C49:C56" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C49:C56" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="C49:C56" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D49:D57" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D49:D57" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="D49:D57" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R49:V60" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R49:V60" totalsRowCount="1" headerRowDxfId="11">
   <autoFilter ref="R49:V59" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
-    <tableColumn id="3" xr3:uid="{B42FD204-0C35-604F-AF1B-FBA5F9333685}" name="Expected Finish Date"/>
-    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B42FD204-0C35-604F-AF1B-FBA5F9333685}" name="Expected Finish Date" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="5" xr3:uid="{DA9F6632-5CC6-E846-AA7A-9589331310BE}" name="Category" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6636,13 +6648,13 @@
     <sortCondition descending="1" ref="D1:D72"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
     <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date"/>
     <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6656,8 +6668,8 @@
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6675,8 +6687,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6902,10 +6914,10 @@
   <dimension ref="B1:Y1007"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6928,7 +6940,7 @@
     <col min="17" max="17" width="41.6640625" customWidth="1"/>
     <col min="18" max="18" width="30.33203125" customWidth="1"/>
     <col min="19" max="19" width="30.44140625" customWidth="1"/>
-    <col min="20" max="20" width="24.77734375" customWidth="1"/>
+    <col min="20" max="20" width="24.77734375" style="19" customWidth="1"/>
     <col min="21" max="21" width="38.77734375" customWidth="1"/>
     <col min="22" max="22" width="40.33203125" customWidth="1"/>
     <col min="23" max="30" width="8.44140625" customWidth="1"/>
@@ -6944,10 +6956,10 @@
       <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>147</v>
       </c>
       <c r="G1" s="22" t="s">
@@ -6989,7 +7001,7 @@
       <c r="S1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="108" t="s">
         <v>157</v>
       </c>
       <c r="U1" s="22" t="s">
@@ -7009,164 +7021,164 @@
       </c>
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="90">
         <v>44811</v>
       </c>
-      <c r="J2" s="91">
+      <c r="J2" s="90">
         <v>44812</v>
       </c>
-      <c r="K2" s="92">
+      <c r="K2" s="91">
         <v>44812</v>
       </c>
-      <c r="L2" s="91">
+      <c r="L2" s="90">
         <v>45908</v>
       </c>
-      <c r="M2" s="93">
+      <c r="M2" s="92">
         <v>1</v>
       </c>
-      <c r="N2" s="94">
+      <c r="N2" s="93">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="P2" s="95">
+      <c r="P2" s="94">
         <v>108</v>
       </c>
-      <c r="Q2" s="96">
+      <c r="Q2" s="95">
         <v>1</v>
       </c>
-      <c r="R2" s="95">
+      <c r="R2" s="94">
         <f>Q2*P2</f>
         <v>108</v>
       </c>
-      <c r="S2" s="94" t="s">
+      <c r="S2" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="107" t="s">
+      <c r="T2" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="U2" s="94"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="88"/>
+      <c r="G3" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="90">
         <v>44806</v>
       </c>
-      <c r="J3" s="91">
+      <c r="J3" s="90">
         <v>44836</v>
       </c>
-      <c r="K3" s="92">
+      <c r="K3" s="91">
         <v>44836</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="93">
+      <c r="L3" s="90"/>
+      <c r="M3" s="92">
         <v>1</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="93">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="P3" s="95">
+      <c r="P3" s="94">
         <v>168</v>
       </c>
-      <c r="Q3" s="96">
+      <c r="Q3" s="95">
         <v>1</v>
       </c>
-      <c r="R3" s="95">
+      <c r="R3" s="94">
         <f>Q3*P3</f>
         <v>168</v>
       </c>
-      <c r="S3" s="94" t="s">
+      <c r="S3" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="107" t="s">
+      <c r="T3" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="U3" s="94"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
     </row>
     <row r="4" spans="2:25" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>44501</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>44693</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>44652</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31">
+      <c r="L4" s="29"/>
+      <c r="M4" s="30">
         <v>1</v>
       </c>
       <c r="N4" s="3">
@@ -7190,113 +7202,113 @@
       <c r="S4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="107" t="s">
+      <c r="T4" s="106" t="s">
         <v>287</v>
       </c>
       <c r="U4" s="3"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="2:25" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="45">
         <v>44835</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="45">
         <v>44687</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="45">
         <v>44743</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47">
+      <c r="L5" s="45"/>
+      <c r="M5" s="46">
         <v>1</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="47">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="49" t="str">
+      <c r="O5" s="48" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="49">
         <v>300</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="50">
         <v>1</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="S5" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="107" t="s">
+      <c r="T5" s="106" t="s">
         <v>288</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
     </row>
     <row r="6" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>44618</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>44660</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>44682</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="29">
         <v>45025</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <v>1</v>
       </c>
       <c r="N6" s="3">
@@ -7319,48 +7331,48 @@
       <c r="S6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="107" t="s">
+      <c r="T6" s="106" t="s">
         <v>289</v>
       </c>
       <c r="U6" s="3"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28" t="s">
+      <c r="V6" s="27"/>
+      <c r="W6" s="27" t="s">
         <v>83</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>44646</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>44647</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>44647</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31">
+      <c r="L7" s="29"/>
+      <c r="M7" s="30">
         <v>1</v>
       </c>
       <c r="N7" s="3">
@@ -7383,55 +7395,55 @@
       <c r="S7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="107" t="s">
+      <c r="T7" s="106" t="s">
         <v>290</v>
       </c>
       <c r="U7" s="3"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>44634</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>44645</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>44645</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31">
+      <c r="L8" s="29"/>
+      <c r="M8" s="30">
         <v>1</v>
       </c>
       <c r="N8" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="57" t="s">
         <v>129</v>
       </c>
       <c r="P8" s="2">
@@ -7447,46 +7459,46 @@
       <c r="S8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="107" t="s">
+      <c r="T8" s="106" t="s">
         <v>291</v>
       </c>
       <c r="U8" s="3"/>
-      <c r="V8" s="28"/>
+      <c r="V8" s="27"/>
       <c r="W8" s="3" t="s">
         <v>130</v>
       </c>
       <c r="X8" s="3"/>
-      <c r="Y8" s="59"/>
+      <c r="Y8" s="58"/>
     </row>
     <row r="9" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>44593</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>44634</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30">
         <v>1</v>
       </c>
       <c r="N9" s="3">
@@ -7509,53 +7521,53 @@
       <c r="S9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="107" t="s">
+      <c r="T9" s="106" t="s">
         <v>292</v>
       </c>
       <c r="U9" s="3"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28" t="s">
+      <c r="V9" s="27"/>
+      <c r="W9" s="27" t="s">
         <v>81</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>44614</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>44615</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30">
         <v>1</v>
       </c>
       <c r="N10" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="31" t="s">
         <v>79</v>
       </c>
       <c r="P10" s="2">
@@ -7571,51 +7583,51 @@
       <c r="S10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="107" t="s">
+      <c r="T10" s="106" t="s">
         <v>293</v>
       </c>
       <c r="U10" s="3"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="43"/>
+      <c r="G11" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>44613</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>44614</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31">
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30">
         <v>1</v>
       </c>
       <c r="N11" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P11" s="2">
@@ -7631,46 +7643,46 @@
       <c r="S11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="107" t="s">
+      <c r="T11" s="106" t="s">
         <v>294</v>
       </c>
       <c r="U11" s="3"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="32" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>44571</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>44611</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29">
         <v>44976</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <v>1</v>
       </c>
       <c r="N12" s="3">
@@ -7693,44 +7705,44 @@
       <c r="S12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="107" t="s">
+      <c r="T12" s="106" t="s">
         <v>295</v>
       </c>
       <c r="U12" s="3"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="32" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>44409</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>44598</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30">
         <v>1</v>
       </c>
       <c r="N13" s="3">
@@ -7753,44 +7765,44 @@
       <c r="S13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="107" t="s">
+      <c r="T13" s="106" t="s">
         <v>296</v>
       </c>
       <c r="U13" s="3"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="29">
         <v>44409</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>44598</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30">
         <v>1</v>
       </c>
       <c r="N14" s="3">
@@ -7813,44 +7825,44 @@
       <c r="S14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="107" t="s">
+      <c r="T14" s="106" t="s">
         <v>297</v>
       </c>
       <c r="U14" s="3"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="29">
         <v>44409</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>44598</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30">
         <v>1</v>
       </c>
       <c r="N15" s="3">
@@ -7873,44 +7885,44 @@
       <c r="S15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T15" s="107" t="s">
+      <c r="T15" s="106" t="s">
         <v>298</v>
       </c>
       <c r="U15" s="3"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <v>44409</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>44598</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30">
         <v>1</v>
       </c>
       <c r="N16" s="3">
@@ -7933,46 +7945,46 @@
       <c r="S16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T16" s="107" t="s">
+      <c r="T16" s="106" t="s">
         <v>299</v>
       </c>
       <c r="U16" s="3"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <v>44577</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>44592</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29">
         <v>45808</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="30">
         <v>1</v>
       </c>
       <c r="N17" s="3">
@@ -7995,51 +8007,51 @@
       <c r="S17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="107" t="s">
+      <c r="T17" s="106" t="s">
         <v>300</v>
       </c>
       <c r="U17" s="3"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="32" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="29">
         <v>44470</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>44577</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30">
         <v>1</v>
       </c>
       <c r="N18" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O18" s="33" t="str">
+      <c r="O18" s="32" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
@@ -8056,51 +8068,51 @@
       <c r="S18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T18" s="107" t="s">
+      <c r="T18" s="106" t="s">
         <v>301</v>
       </c>
       <c r="U18" s="3"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="29">
         <v>44501</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>44571</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30">
         <v>1</v>
       </c>
       <c r="N19" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O19" s="66" t="s">
+      <c r="O19" s="65" t="s">
         <v>62</v>
       </c>
       <c r="P19" s="2">
@@ -8116,46 +8128,46 @@
       <c r="S19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="T19" s="107" t="s">
+      <c r="T19" s="106" t="s">
         <v>302</v>
       </c>
       <c r="U19" s="3"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <v>44470</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <v>44559</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31">
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30">
         <v>1</v>
       </c>
       <c r="N20" s="3">
@@ -8179,44 +8191,44 @@
       <c r="S20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T20" s="107" t="s">
+      <c r="T20" s="106" t="s">
         <v>284</v>
       </c>
       <c r="U20" s="3"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="34" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <v>44409</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>44496</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30">
         <v>1</v>
       </c>
       <c r="N21" s="3">
@@ -8239,47 +8251,47 @@
       <c r="S21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="107" t="s">
+      <c r="T21" s="106" t="s">
         <v>303</v>
       </c>
       <c r="U21" s="3"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="32" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <f>J22-45</f>
         <v>44448</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <v>44493</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29">
         <v>45224</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="30">
         <v>1</v>
       </c>
       <c r="N22" s="3">
@@ -8302,45 +8314,45 @@
       <c r="S22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T22" s="107" t="s">
+      <c r="T22" s="106" t="s">
         <v>304</v>
       </c>
       <c r="U22" s="3"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="32" t="s">
+      <c r="F23" s="43"/>
+      <c r="G23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <f>J23-7</f>
         <v>44480</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <v>44487</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30">
         <v>1</v>
       </c>
       <c r="N23" s="3">
@@ -8363,44 +8375,44 @@
       <c r="S23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T23" s="107" t="s">
+      <c r="T23" s="106" t="s">
         <v>305</v>
       </c>
       <c r="U23" s="3"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="34" t="s">
+      <c r="F24" s="43"/>
+      <c r="G24" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <v>44409</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="29">
         <v>44486</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31">
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30">
         <v>1</v>
       </c>
       <c r="N24" s="3">
@@ -8423,46 +8435,46 @@
       <c r="S24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T24" s="107" t="s">
+      <c r="T24" s="106" t="s">
         <v>306</v>
       </c>
       <c r="U24" s="3"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="32" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <v>44476</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <v>44476</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30">
+      <c r="K25" s="29"/>
+      <c r="L25" s="29">
         <v>45206</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="30">
         <v>1</v>
       </c>
       <c r="N25" s="3">
@@ -8485,45 +8497,45 @@
       <c r="S25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T25" s="107" t="s">
+      <c r="T25" s="106" t="s">
         <v>307</v>
       </c>
       <c r="U25" s="3"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="32" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <f>J26-7</f>
         <v>44466</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <v>44473</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31">
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30">
         <v>1</v>
       </c>
       <c r="N26" s="3">
@@ -8546,44 +8558,44 @@
       <c r="S26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="107" t="s">
+      <c r="T26" s="106" t="s">
         <v>308</v>
       </c>
       <c r="U26" s="3"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="29">
         <v>44409</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="29">
         <v>44472</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30">
         <v>1</v>
       </c>
       <c r="N27" s="3">
@@ -8606,51 +8618,51 @@
       <c r="S27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T27" s="107" t="s">
+      <c r="T27" s="106" t="s">
         <v>309</v>
       </c>
       <c r="U27" s="3"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="2:25" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="32" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="29">
         <v>44409</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="29">
         <v>44472</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="30">
         <v>1</v>
       </c>
       <c r="N28" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="32" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="2">
@@ -8666,47 +8678,47 @@
       <c r="S28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T28" s="107" t="s">
+      <c r="T28" s="106" t="s">
         <v>310</v>
       </c>
       <c r="U28" s="3"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="32" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <f>J29-45</f>
         <v>44407</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="29">
         <v>44452</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29">
         <v>45182</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="30">
         <v>1</v>
       </c>
       <c r="N29" s="3">
@@ -8729,44 +8741,44 @@
       <c r="S29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T29" s="107" t="s">
+      <c r="T29" s="106" t="s">
         <v>311</v>
       </c>
       <c r="U29" s="3"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="32" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="29">
         <v>44409</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <v>44429</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30">
         <v>1</v>
       </c>
       <c r="N30" s="3">
@@ -8789,46 +8801,46 @@
       <c r="S30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="107" t="s">
+      <c r="T30" s="106" t="s">
         <v>312</v>
       </c>
       <c r="U30" s="3"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="29" t="s">
+      <c r="F31" s="43"/>
+      <c r="G31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <v>44256</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <v>44375</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29">
         <v>45808</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="30">
         <v>1</v>
       </c>
       <c r="N31" s="3">
@@ -8851,46 +8863,46 @@
       <c r="S31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T31" s="107" t="s">
+      <c r="T31" s="106" t="s">
         <v>313</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="32" t="s">
+      <c r="F32" s="43"/>
+      <c r="G32" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <v>44531</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30">
+      <c r="J32" s="29"/>
+      <c r="K32" s="29">
         <v>44774</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31">
+      <c r="L32" s="29"/>
+      <c r="M32" s="30">
         <v>0</v>
       </c>
       <c r="N32" s="3">
@@ -8913,53 +8925,53 @@
       <c r="S32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T32" s="104"/>
+      <c r="T32" s="103"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28" t="s">
+      <c r="V32" s="27"/>
+      <c r="W32" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="X32" s="37" t="s">
+      <c r="X32" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Y32" s="37" t="s">
+      <c r="Y32" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="40" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="41">
         <v>44531</v>
       </c>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="43">
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="42">
         <v>0</v>
       </c>
       <c r="N33" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="64" t="s">
         <v>87</v>
       </c>
       <c r="P33" s="14">
@@ -8975,51 +8987,51 @@
       <c r="S33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T33" s="106"/>
+      <c r="T33" s="105"/>
       <c r="U33" s="12"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65" t="s">
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:25" ht="72" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="40" t="s">
+      <c r="F34" s="52"/>
+      <c r="G34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="41">
         <v>44618</v>
       </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42">
+      <c r="J34" s="41"/>
+      <c r="K34" s="41">
         <v>44666</v>
       </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43">
+      <c r="L34" s="41"/>
+      <c r="M34" s="42">
         <v>0</v>
       </c>
       <c r="N34" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="64" t="s">
+      <c r="O34" s="63" t="s">
         <v>91</v>
       </c>
       <c r="P34" s="14">
@@ -9035,48 +9047,48 @@
       <c r="S34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T34" s="106"/>
+      <c r="T34" s="105"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39" t="s">
+      <c r="V34" s="38"/>
+      <c r="W34" s="38" t="s">
         <v>83</v>
       </c>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
     <row r="35" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="40" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="41">
         <v>44531</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="41">
         <v>44838</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="41">
         <v>44896</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="41">
         <v>45935</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="42">
         <v>1</v>
       </c>
       <c r="N35" s="12">
@@ -9099,46 +9111,46 @@
       <c r="S35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T35" s="108" t="s">
+      <c r="T35" s="107" t="s">
         <v>314</v>
       </c>
       <c r="U35" s="12"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39" t="s">
+      <c r="V35" s="38"/>
+      <c r="W35" s="38" t="s">
         <v>96</v>
       </c>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
     <row r="36" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="41" t="s">
+      <c r="F36" s="52"/>
+      <c r="G36" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="41">
         <v>44571</v>
       </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42">
+      <c r="J36" s="41"/>
+      <c r="K36" s="41">
         <v>45047</v>
       </c>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43">
+      <c r="L36" s="41"/>
+      <c r="M36" s="42">
         <v>0</v>
       </c>
       <c r="N36" s="12">
@@ -9159,103 +9171,103 @@
       <c r="S36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T36" s="106"/>
+      <c r="T36" s="105"/>
       <c r="U36" s="12"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
     <row r="37" spans="2:25" ht="144" x14ac:dyDescent="0.3">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="45">
         <v>44844</v>
       </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="63">
+      <c r="J37" s="45"/>
+      <c r="K37" s="62">
         <v>44896</v>
       </c>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47">
+      <c r="L37" s="45"/>
+      <c r="M37" s="46">
         <v>0</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="47">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="49">
+      <c r="O37" s="48">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P37" s="49">
         <v>300</v>
       </c>
-      <c r="Q37" s="51">
+      <c r="Q37" s="50">
         <v>1</v>
       </c>
-      <c r="R37" s="50">
+      <c r="R37" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S37" s="48" t="s">
+      <c r="S37" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T37" s="105"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
     </row>
     <row r="38" spans="2:25" ht="72" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="35" t="s">
+      <c r="F38" s="43"/>
+      <c r="G38" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="29">
         <v>44531</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="42">
+      <c r="J38" s="29"/>
+      <c r="K38" s="41">
         <v>44713</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31">
+      <c r="L38" s="29"/>
+      <c r="M38" s="30">
         <v>0.25</v>
       </c>
       <c r="N38" s="3">
@@ -9279,42 +9291,42 @@
       <c r="S38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T38" s="104"/>
+      <c r="T38" s="103"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="60" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="41">
         <v>44409</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="62">
+      <c r="J39" s="41"/>
+      <c r="K39" s="61">
         <v>44774</v>
       </c>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43">
+      <c r="L39" s="41"/>
+      <c r="M39" s="42">
         <v>0.75</v>
       </c>
       <c r="N39" s="12">
@@ -9337,10 +9349,10 @@
       <c r="S39" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T39" s="106"/>
+      <c r="T39" s="105"/>
       <c r="U39" s="12"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39" t="s">
+      <c r="V39" s="38"/>
+      <c r="W39" s="38" t="s">
         <v>93</v>
       </c>
       <c r="X39" s="12"/>
@@ -9365,7 +9377,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="T40" s="109"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
@@ -9388,7 +9400,7 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="T41" s="109"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
@@ -9411,7 +9423,7 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="T42" s="109"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
@@ -9434,7 +9446,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
+      <c r="T43" s="109"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
@@ -9457,7 +9469,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="T44" s="109"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
@@ -9480,7 +9492,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="T45" s="109"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
@@ -9503,7 +9515,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
+      <c r="T46" s="109"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
@@ -9525,7 +9537,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="T47" s="109"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
@@ -9547,22 +9559,22 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="T48" s="109"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
     <row r="49" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="74"/>
-      <c r="F49" s="75"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="74"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="7"/>
@@ -9571,34 +9583,34 @@
       <c r="O49" s="6"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="101" t="s">
+      <c r="R49" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="S49" s="101" t="s">
+      <c r="S49" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="T49" s="101" t="s">
+      <c r="T49" s="110" t="s">
         <v>267</v>
       </c>
-      <c r="U49" s="101" t="s">
+      <c r="U49" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="V49" s="101" t="s">
+      <c r="V49" s="100" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="76"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="7"/>
@@ -9607,16 +9619,16 @@
       <c r="O50" s="6"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="100" t="s">
+      <c r="R50" s="99" t="s">
         <v>279</v>
       </c>
-      <c r="S50" s="100" t="s">
+      <c r="S50" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="109">
         <v>45078</v>
       </c>
-      <c r="U50" s="102">
+      <c r="U50" s="101">
         <v>500</v>
       </c>
       <c r="V50" t="s">
@@ -9624,17 +9636,17 @@
       </c>
     </row>
     <row r="51" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="86" t="s">
+      <c r="D51" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="78"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="77"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="7"/>
@@ -9643,16 +9655,16 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="100" t="s">
+      <c r="R51" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="S51" s="100" t="s">
+      <c r="S51" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="109">
         <v>44896</v>
       </c>
-      <c r="U51" s="102">
+      <c r="U51" s="101">
         <v>200</v>
       </c>
       <c r="V51" t="s">
@@ -9660,17 +9672,17 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="86" t="s">
+      <c r="D52" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="76"/>
       <c r="L52" s="10"/>
       <c r="M52" s="11"/>
       <c r="N52" s="10"/>
@@ -9681,10 +9693,10 @@
       <c r="S52" t="s">
         <v>270</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" s="109">
         <v>44897</v>
       </c>
-      <c r="U52" s="103">
+      <c r="U52" s="102">
         <v>200</v>
       </c>
       <c r="V52" t="s">
@@ -9692,17 +9704,17 @@
       </c>
     </row>
     <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="87" t="s">
+      <c r="C53" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="86" t="s">
+      <c r="D53" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="76"/>
       <c r="L53" s="10"/>
       <c r="M53" s="11"/>
       <c r="N53" s="10"/>
@@ -9713,10 +9725,10 @@
       <c r="S53" t="s">
         <v>270</v>
       </c>
-      <c r="T53" s="9">
+      <c r="T53" s="109">
         <v>44927</v>
       </c>
-      <c r="U53" s="103">
+      <c r="U53" s="102">
         <v>200</v>
       </c>
       <c r="V53" t="s">
@@ -9724,17 +9736,17 @@
       </c>
     </row>
     <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="86" t="s">
+      <c r="D54" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="76"/>
       <c r="L54" s="10"/>
       <c r="M54" s="11"/>
       <c r="N54" s="10"/>
@@ -9745,10 +9757,10 @@
       <c r="S54" t="s">
         <v>270</v>
       </c>
-      <c r="T54" s="9">
+      <c r="T54" s="109">
         <v>44898</v>
       </c>
-      <c r="U54" s="103">
+      <c r="U54" s="102">
         <v>200</v>
       </c>
       <c r="V54" t="s">
@@ -9756,17 +9768,17 @@
       </c>
     </row>
     <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="86" t="s">
+      <c r="D55" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="76"/>
-      <c r="F55" s="77"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="76"/>
       <c r="L55" s="10"/>
       <c r="M55" s="11"/>
       <c r="N55" s="10"/>
@@ -9777,10 +9789,10 @@
       <c r="S55" t="s">
         <v>274</v>
       </c>
-      <c r="T55" s="9">
+      <c r="T55" s="109">
         <v>44866</v>
       </c>
-      <c r="U55" s="103">
+      <c r="U55" s="102">
         <v>50</v>
       </c>
       <c r="V55" t="s">
@@ -9788,17 +9800,17 @@
       </c>
     </row>
     <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="86" t="s">
+      <c r="D56" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="79"/>
-      <c r="F56" s="77"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="76"/>
       <c r="L56" s="10"/>
       <c r="M56" s="11"/>
       <c r="N56" s="10"/>
@@ -9809,10 +9821,10 @@
       <c r="S56" t="s">
         <v>274</v>
       </c>
-      <c r="T56" s="9">
+      <c r="T56" s="109">
         <v>44867</v>
       </c>
-      <c r="U56" s="103">
+      <c r="U56" s="102">
         <v>150</v>
       </c>
       <c r="V56" t="s">
@@ -9820,11 +9832,11 @@
       </c>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="81"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="80"/>
       <c r="G57" s="9"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -9838,10 +9850,10 @@
       <c r="S57" t="s">
         <v>71</v>
       </c>
-      <c r="T57" s="9">
+      <c r="T57" s="109">
         <v>44868</v>
       </c>
-      <c r="U57" s="103">
+      <c r="U57" s="102">
         <v>250</v>
       </c>
       <c r="V57" t="s">
@@ -9852,8 +9864,8 @@
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
       <c r="G58" s="9"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -9868,10 +9880,10 @@
       <c r="S58" t="s">
         <v>20</v>
       </c>
-      <c r="T58" s="9">
+      <c r="T58" s="109">
         <v>44869</v>
       </c>
-      <c r="U58" s="103">
+      <c r="U58" s="102">
         <v>250</v>
       </c>
       <c r="V58" t="s">
@@ -9898,10 +9910,10 @@
       <c r="S59" t="s">
         <v>282</v>
       </c>
-      <c r="T59" s="9">
+      <c r="T59" s="109">
         <v>45047</v>
       </c>
-      <c r="U59" s="103">
+      <c r="U59" s="102">
         <v>150</v>
       </c>
       <c r="V59" t="s">
@@ -9925,7 +9937,7 @@
       <c r="R60" t="s">
         <v>280</v>
       </c>
-      <c r="U60" s="103">
+      <c r="U60" s="102">
         <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
         <v>2150</v>
       </c>
@@ -24140,7 +24152,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{7AB46815-746B-43F4-A6BF-77030ED8FDFD}">
+      <autoFilter ref="B2:S40" xr:uid="{9E956998-F33E-4625-86D0-7869BB2E18B3}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -24282,1376 +24294,1376 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="67"/>
+    <col min="1" max="1" width="31.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.77734375" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="66" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="66" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="str">
+      <c r="A2" s="72" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="98">
+      <c r="C2" s="97">
         <v>44608</v>
       </c>
-      <c r="D2" s="97">
+      <c r="D2" s="96">
         <v>100</v>
       </c>
-      <c r="E2" s="67" t="str">
+      <c r="E2" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="str">
+      <c r="A3" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="97">
         <v>44626</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="96">
         <v>93.81</v>
       </c>
-      <c r="E3" s="67" t="str">
+      <c r="E3" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="str">
+      <c r="A4" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="97">
         <v>44737</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="96">
         <v>7</v>
       </c>
-      <c r="E4" s="67" t="str">
+      <c r="E4" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="str">
+      <c r="A5" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="97">
         <v>44616</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="96">
         <v>0</v>
       </c>
-      <c r="E5" s="67" t="str">
+      <c r="E5" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="str">
+      <c r="A6" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="97">
         <v>44752</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="96">
         <v>83</v>
       </c>
-      <c r="E6" s="67" t="str">
+      <c r="E6" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="str">
+      <c r="A7" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="97">
         <v>44514</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="96">
         <v>97.61</v>
       </c>
-      <c r="E7" s="67" t="str">
+      <c r="E7" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="str">
+      <c r="A8" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="97">
         <v>44560</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="96">
         <v>95</v>
       </c>
-      <c r="E8" s="67" t="str">
+      <c r="E8" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="str">
+      <c r="A9" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="97">
         <v>44512</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="96">
         <v>97.52</v>
       </c>
-      <c r="E9" s="99" t="str">
+      <c r="E9" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="str">
+      <c r="A10" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="97">
         <v>44518</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="96">
         <v>94.6</v>
       </c>
-      <c r="E10" s="67" t="str">
+      <c r="E10" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="str">
+      <c r="A11" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="97">
         <v>44556</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="96">
         <v>94.58</v>
       </c>
-      <c r="E11" s="67" t="str">
+      <c r="E11" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="str">
+      <c r="A12" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="97">
         <v>44550</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="96">
         <v>88</v>
       </c>
-      <c r="E12" s="67" t="str">
+      <c r="E12" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="str">
+      <c r="A13" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="97">
         <v>44596</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="96">
         <v>0</v>
       </c>
-      <c r="E13" s="67" t="str">
+      <c r="E13" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="str">
+      <c r="A14" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="97">
         <v>44513</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="96">
         <v>95</v>
       </c>
-      <c r="E14" s="67" t="str">
+      <c r="E14" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="str">
+      <c r="A15" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="97">
         <v>44576</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="96">
         <v>92.69</v>
       </c>
-      <c r="E15" s="67" t="str">
+      <c r="E15" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="str">
+      <c r="A16" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="97">
         <v>44560</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="96">
         <v>92.66</v>
       </c>
-      <c r="E16" s="67" t="str">
+      <c r="E16" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="str">
+      <c r="A17" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="97">
         <v>44528</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="96">
         <v>91.71</v>
       </c>
-      <c r="E17" s="67" t="str">
+      <c r="E17" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="str">
+      <c r="A18" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="97">
         <v>44700</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="96">
         <v>90.94</v>
       </c>
-      <c r="E18" s="67" t="str">
+      <c r="E18" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="str">
+      <c r="A19" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="97">
         <v>44488</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="96">
         <v>90.89</v>
       </c>
-      <c r="E19" s="67" t="str">
+      <c r="E19" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="str">
+      <c r="A20" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="97">
         <v>44515</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="96">
         <v>88.88</v>
       </c>
-      <c r="E20" s="67" t="str">
+      <c r="E20" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="str">
+      <c r="A21" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="97">
         <v>44815</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="96">
         <v>76.67</v>
       </c>
-      <c r="E21" s="67" t="str">
+      <c r="E21" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="str">
+      <c r="A22" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="97">
         <v>44513</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="96">
         <v>91.38</v>
       </c>
-      <c r="E22" s="67" t="str">
+      <c r="E22" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="str">
+      <c r="A23" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="97">
         <v>44512</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="96">
         <v>95.85</v>
       </c>
-      <c r="E23" s="67" t="str">
+      <c r="E23" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="str">
+      <c r="A24" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="97">
         <v>44554</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="96">
         <v>88.13</v>
       </c>
-      <c r="E24" s="67" t="str">
+      <c r="E24" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="67" t="str">
+      <c r="A25" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="97">
         <v>44596</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="96">
         <v>88</v>
       </c>
-      <c r="E25" s="67" t="str">
+      <c r="E25" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="str">
+      <c r="A26" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="97">
         <v>44814</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="96">
         <v>90</v>
       </c>
-      <c r="E26" s="67" t="str">
+      <c r="E26" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="str">
+      <c r="A27" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="98">
+      <c r="C27" s="97">
         <v>44608</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="96">
         <v>87.83</v>
       </c>
-      <c r="E27" s="67" t="str">
+      <c r="E27" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="99" t="str">
+      <c r="A28" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="97">
         <v>44812</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D28" s="96">
         <v>87.5</v>
       </c>
-      <c r="E28" s="99" t="str">
+      <c r="E28" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="str">
+      <c r="A29" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="97">
         <v>44562</v>
       </c>
-      <c r="D29" s="97">
+      <c r="D29" s="96">
         <v>86.67</v>
       </c>
-      <c r="E29" s="67" t="str">
+      <c r="E29" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="str">
+      <c r="A30" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="97">
         <v>44518</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D30" s="96">
         <v>86.09</v>
       </c>
-      <c r="E30" s="67" t="str">
+      <c r="E30" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="str">
+      <c r="A31" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="97">
         <v>44562</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="96">
         <v>85.83</v>
       </c>
-      <c r="E31" s="67" t="str">
+      <c r="E31" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="str">
+      <c r="A32" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="97">
         <v>44570</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="96">
         <v>85.83</v>
       </c>
-      <c r="E32" s="67" t="str">
+      <c r="E32" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="99" t="str">
+      <c r="A33" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="97">
         <v>44517</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="96">
         <v>84.19</v>
       </c>
-      <c r="E33" s="99" t="str">
+      <c r="E33" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="67" t="str">
+      <c r="A34" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="97">
         <v>44501</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="96">
         <v>83.91</v>
       </c>
-      <c r="E34" s="67" t="str">
+      <c r="E34" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="str">
+      <c r="A35" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="97">
         <v>44515</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="96">
         <v>83.6</v>
       </c>
-      <c r="E35" s="67" t="str">
+      <c r="E35" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="67" t="str">
+      <c r="A36" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="98">
+      <c r="C36" s="97">
         <v>44814</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D36" s="96">
         <v>83.33</v>
       </c>
-      <c r="E36" s="67" t="str">
+      <c r="E36" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="99" t="str">
+      <c r="A37" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="97">
         <v>44522</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D37" s="96">
         <v>83.33</v>
       </c>
-      <c r="E37" s="99" t="str">
+      <c r="E37" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="str">
+      <c r="A38" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="98">
+      <c r="C38" s="97">
         <v>44501</v>
       </c>
-      <c r="D38" s="97">
+      <c r="D38" s="96">
         <v>87.63</v>
       </c>
-      <c r="E38" s="67" t="str">
+      <c r="E38" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="str">
+      <c r="A39" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="98">
+      <c r="C39" s="97">
         <v>44577</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D39" s="96">
         <v>83.17</v>
       </c>
-      <c r="E39" s="67" t="str">
+      <c r="E39" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67" t="str">
+      <c r="A40" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="97">
         <v>44558</v>
       </c>
-      <c r="D40" s="97">
+      <c r="D40" s="96">
         <v>100</v>
       </c>
-      <c r="E40" s="67" t="str">
+      <c r="E40" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="67" t="str">
+      <c r="A41" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="98">
+      <c r="C41" s="97">
         <v>44680</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="96">
         <v>82.5</v>
       </c>
-      <c r="E41" s="67" t="str">
+      <c r="E41" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="str">
+      <c r="A42" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="98">
+      <c r="C42" s="97">
         <v>44560</v>
       </c>
-      <c r="D42" s="97">
+      <c r="D42" s="96">
         <v>82</v>
       </c>
-      <c r="E42" s="67" t="str">
+      <c r="E42" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="str">
+      <c r="A43" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="98">
+      <c r="C43" s="97">
         <v>44611</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D43" s="96">
         <v>94.13</v>
       </c>
-      <c r="E43" s="67" t="str">
+      <c r="E43" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="67" t="str">
+      <c r="A44" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="98">
+      <c r="C44" s="97">
         <v>44752</v>
       </c>
-      <c r="D44" s="97">
+      <c r="D44" s="96">
         <v>81.81</v>
       </c>
-      <c r="E44" s="67" t="str">
+      <c r="E44" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="str">
+      <c r="A45" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="C45" s="98">
+      <c r="C45" s="97">
         <v>44608</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D45" s="96">
         <v>81.5</v>
       </c>
-      <c r="E45" s="99" t="str">
+      <c r="E45" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="67" t="str">
+      <c r="A46" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B46" s="97" t="s">
+      <c r="B46" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="98">
+      <c r="C46" s="97">
         <v>44701</v>
       </c>
-      <c r="D46" s="97">
+      <c r="D46" s="96">
         <v>85.38</v>
       </c>
-      <c r="E46" s="67" t="str">
+      <c r="E46" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="99" t="str">
+      <c r="A47" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="98">
+      <c r="C47" s="97">
         <v>44752</v>
       </c>
-      <c r="D47" s="97">
+      <c r="D47" s="96">
         <v>79.92</v>
       </c>
-      <c r="E47" s="99" t="str">
+      <c r="E47" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="99" t="str">
+      <c r="A48" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="98">
+      <c r="C48" s="97">
         <v>44813</v>
       </c>
-      <c r="D48" s="97">
+      <c r="D48" s="96">
         <v>76.67</v>
       </c>
-      <c r="E48" s="99" t="str">
+      <c r="E48" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67" t="str">
+      <c r="A49" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="98">
+      <c r="C49" s="97">
         <v>44752</v>
       </c>
-      <c r="D49" s="97">
+      <c r="D49" s="96">
         <v>41.67</v>
       </c>
-      <c r="E49" s="67" t="str">
+      <c r="E49" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="str">
+      <c r="A50" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B50" s="97" t="s">
+      <c r="B50" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="97">
         <v>44624</v>
       </c>
-      <c r="D50" s="97">
+      <c r="D50" s="96">
         <v>92.52</v>
       </c>
-      <c r="E50" s="67" t="str">
+      <c r="E50" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="67" t="str">
+      <c r="A51" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="98">
+      <c r="C51" s="97">
         <v>44705</v>
       </c>
-      <c r="D51" s="97">
+      <c r="D51" s="96">
         <v>50</v>
       </c>
-      <c r="E51" s="67" t="str">
+      <c r="E51" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="99" t="str">
+      <c r="A52" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="98">
+      <c r="C52" s="97">
         <v>44697</v>
       </c>
-      <c r="D52" s="97">
+      <c r="D52" s="96">
         <v>39.630000000000003</v>
       </c>
-      <c r="E52" s="99" t="str">
+      <c r="E52" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="67" t="str">
+      <c r="A53" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="98">
+      <c r="C53" s="97">
         <v>44578</v>
       </c>
-      <c r="D53" s="97">
+      <c r="D53" s="96">
         <v>36</v>
       </c>
-      <c r="E53" s="67" t="str">
+      <c r="E53" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="67" t="str">
+      <c r="A54" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B54" s="97" t="s">
+      <c r="B54" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="98">
+      <c r="C54" s="97">
         <v>44718</v>
       </c>
-      <c r="D54" s="97">
+      <c r="D54" s="96">
         <v>86.08</v>
       </c>
-      <c r="E54" s="67" t="str">
+      <c r="E54" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="67" t="str">
+      <c r="A55" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B55" s="97" t="s">
+      <c r="B55" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="98">
+      <c r="C55" s="97">
         <v>44815</v>
       </c>
-      <c r="D55" s="97">
+      <c r="D55" s="96">
         <v>25</v>
       </c>
-      <c r="E55" s="67" t="str">
+      <c r="E55" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="99" t="str">
+      <c r="A56" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="98">
+      <c r="C56" s="97">
         <v>44488</v>
       </c>
-      <c r="D56" s="97">
+      <c r="D56" s="96">
         <v>16</v>
       </c>
-      <c r="E56" s="99" t="str">
+      <c r="E56" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="str">
+      <c r="A57" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="98">
+      <c r="C57" s="97">
         <v>44503</v>
       </c>
-      <c r="D57" s="97">
+      <c r="D57" s="96">
         <v>9</v>
       </c>
-      <c r="E57" s="67" t="str">
+      <c r="E57" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="67" t="str">
+      <c r="A58" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="98">
+      <c r="C58" s="97">
         <v>44640</v>
       </c>
-      <c r="D58" s="97">
+      <c r="D58" s="96">
         <v>94.48</v>
       </c>
-      <c r="E58" s="67" t="str">
+      <c r="E58" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="67" t="str">
+      <c r="A59" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B59" s="97" t="s">
+      <c r="B59" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="98">
+      <c r="C59" s="97">
         <v>44624</v>
       </c>
-      <c r="D59" s="97">
+      <c r="D59" s="96">
         <v>14</v>
       </c>
-      <c r="E59" s="67" t="str">
+      <c r="E59" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="67" t="str">
+      <c r="A60" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B60" s="97" t="s">
+      <c r="B60" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="98">
+      <c r="C60" s="97">
         <v>44583</v>
       </c>
-      <c r="D60" s="97">
+      <c r="D60" s="96">
         <v>8</v>
       </c>
-      <c r="E60" s="67" t="str">
+      <c r="E60" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="67" t="str">
+      <c r="A61" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B61" s="97" t="s">
+      <c r="B61" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="98">
+      <c r="C61" s="97">
         <v>44494</v>
       </c>
-      <c r="D61" s="97">
+      <c r="D61" s="96">
         <v>5</v>
       </c>
-      <c r="E61" s="67" t="str">
+      <c r="E61" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="67" t="str">
+      <c r="A62" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B62" s="97" t="s">
+      <c r="B62" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="C62" s="98">
+      <c r="C62" s="97">
         <v>44746</v>
       </c>
-      <c r="D62" s="97">
+      <c r="D62" s="96">
         <v>0</v>
       </c>
-      <c r="E62" s="67" t="str">
+      <c r="E62" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="str">
+      <c r="A63" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B63" s="97" t="s">
+      <c r="B63" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="98">
+      <c r="C63" s="97">
         <v>44557</v>
       </c>
-      <c r="D63" s="97">
+      <c r="D63" s="96">
         <v>0</v>
       </c>
-      <c r="E63" s="67" t="str">
+      <c r="E63" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="67" t="str">
+      <c r="A64" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="98">
+      <c r="C64" s="97">
         <v>44582</v>
       </c>
-      <c r="D64" s="97">
+      <c r="D64" s="96">
         <v>0</v>
       </c>
-      <c r="E64" s="67" t="str">
+      <c r="E64" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="67" t="str">
+      <c r="A65" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B65" s="97" t="s">
+      <c r="B65" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="98">
+      <c r="C65" s="97">
         <v>44633</v>
       </c>
-      <c r="D65" s="97">
+      <c r="D65" s="96">
         <v>0</v>
       </c>
-      <c r="E65" s="67" t="str">
+      <c r="E65" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="67" t="str">
+      <c r="A66" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B66" s="97" t="s">
+      <c r="B66" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="C66" s="98">
+      <c r="C66" s="97">
         <v>44702</v>
       </c>
-      <c r="D66" s="97">
+      <c r="D66" s="96">
         <v>0</v>
       </c>
-      <c r="E66" s="67" t="str">
+      <c r="E66" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="67" t="str">
+      <c r="A67" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B67" s="97" t="s">
+      <c r="B67" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="98">
+      <c r="C67" s="97">
         <v>44747</v>
       </c>
-      <c r="D67" s="97">
+      <c r="D67" s="96">
         <v>0</v>
       </c>
-      <c r="E67" s="67" t="str">
+      <c r="E67" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="67" t="str">
+      <c r="A68" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="98">
+      <c r="C68" s="97">
         <v>44613</v>
       </c>
-      <c r="D68" s="97">
+      <c r="D68" s="96">
         <v>0</v>
       </c>
-      <c r="E68" s="67" t="str">
+      <c r="E68" s="66" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="99" t="str">
+      <c r="A69" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B69" s="97" t="s">
+      <c r="B69" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="98">
+      <c r="C69" s="97">
         <v>44682</v>
       </c>
-      <c r="D69" s="97">
+      <c r="D69" s="96">
         <v>0</v>
       </c>
-      <c r="E69" s="99" t="str">
+      <c r="E69" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="99" t="str">
+      <c r="A70" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B70" s="97" t="s">
+      <c r="B70" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="98">
+      <c r="C70" s="97">
         <v>44700</v>
       </c>
-      <c r="D70" s="97">
+      <c r="D70" s="96">
         <v>0</v>
       </c>
-      <c r="E70" s="99" t="str">
+      <c r="E70" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="99" t="str">
+      <c r="A71" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B71" s="97" t="s">
+      <c r="B71" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="C71" s="98">
+      <c r="C71" s="97">
         <v>44689</v>
       </c>
-      <c r="D71" s="97">
+      <c r="D71" s="96">
         <v>0</v>
       </c>
-      <c r="E71" s="99" t="str">
+      <c r="E71" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="99" t="str">
+      <c r="A72" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B72" s="97" t="s">
+      <c r="B72" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="C72" s="98">
+      <c r="C72" s="97">
         <v>44668</v>
       </c>
-      <c r="D72" s="97">
+      <c r="D72" s="96">
         <v>0</v>
       </c>
-      <c r="E72" s="99" t="str">
+      <c r="E72" s="98" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
@@ -25675,837 +25687,837 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="67"/>
+    <col min="1" max="1" width="8.77734375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="66" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="67">
+      <c r="A2" s="66">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="69">
         <v>44577</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="70" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="67">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <v>44577</v>
       </c>
-      <c r="E3" s="67" t="str">
+      <c r="E3" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E2, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="67">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="69">
         <v>44577</v>
       </c>
-      <c r="E4" s="67" t="str">
+      <c r="E4" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E3, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="67">
+      <c r="A5" s="66">
         <v>4</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="69">
         <v>44577</v>
       </c>
-      <c r="E5" s="67" t="str">
+      <c r="E5" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E4, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <v>5</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="69">
         <v>44577</v>
       </c>
-      <c r="E6" s="67" t="str">
+      <c r="E6" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E5, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <v>6</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <v>44577</v>
       </c>
-      <c r="E7" s="67" t="str">
+      <c r="E7" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E6, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="67">
+      <c r="A8" s="66">
         <v>7</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="69">
         <v>44577</v>
       </c>
-      <c r="E8" s="67" t="str">
+      <c r="E8" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E7, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="67">
+      <c r="A9" s="66">
         <v>8</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="69">
         <v>44577</v>
       </c>
-      <c r="E9" s="67" t="str">
+      <c r="E9" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E8, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="67">
+      <c r="A10" s="66">
         <v>9</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="69">
         <v>44577</v>
       </c>
-      <c r="E10" s="67" t="str">
+      <c r="E10" s="66" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E9, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="67">
+      <c r="A11" s="66">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="69">
         <v>44695</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="70" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <f t="shared" ref="A12:A46" si="0">A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <v>44695</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="70" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="69">
         <v>44695</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="70" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="67">
+      <c r="A14" s="66">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="69">
         <v>44695</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="70" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="67">
+      <c r="A15" s="66">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="69">
         <v>44695</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="70" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="69">
         <v>44695</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="70" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="67">
+      <c r="A17" s="66">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="71">
         <v>44687</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="67">
+      <c r="A18" s="66">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>44687</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="71">
         <v>44687</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="71">
         <v>44687</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="67">
+      <c r="A21" s="66">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="71">
         <v>44687</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="71">
         <v>44687</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="67">
+      <c r="A23" s="66">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="71">
         <v>44687</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="71">
         <v>44687</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="71">
         <v>44687</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="67">
+      <c r="A26" s="66">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="71">
         <v>44687</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="69">
         <v>44578</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="70" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="69">
         <v>44578</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="70" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="67">
+      <c r="A29" s="66">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="69">
         <v>44578</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="70" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="67">
+      <c r="A30" s="66">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="69">
         <v>44578</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="70" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="67">
+      <c r="A31" s="66">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="69">
         <v>44559</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="67">
+      <c r="A32" s="66">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="69">
         <v>44559</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="67">
+      <c r="A33" s="66">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="69">
         <v>44559</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="67">
+      <c r="A34" s="66">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="69">
         <v>44559</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="67">
+      <c r="A35" s="66">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="69">
         <v>44559</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="67">
+      <c r="A36" s="66">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="69">
         <v>44559</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="67">
+      <c r="A37" s="66">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="69">
         <v>44559</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="67">
+      <c r="A38" s="66">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="70">
+      <c r="D38" s="69">
         <v>44559</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="70" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="67">
+      <c r="A39" s="66">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D39" s="70">
+      <c r="D39" s="69">
         <v>44813</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="66" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="67">
+      <c r="A40" s="66">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="69">
         <v>44813</v>
       </c>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="66" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="67">
+      <c r="A41" s="66">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="69">
         <v>44813</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="66" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="67">
+      <c r="A42" s="66">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="69">
         <v>44814</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="66" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="67">
+      <c r="A43" s="66">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="69">
         <v>44814</v>
       </c>
-      <c r="E43" s="67" t="s">
+      <c r="E43" s="66" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="67">
+      <c r="A44" s="66">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="69">
         <v>44816</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="66" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="67">
+      <c r="A45" s="66">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="69">
         <v>44816</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="E45" s="66" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="67">
+      <c r="A46" s="66">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="69">
         <v>44816</v>
       </c>
-      <c r="E46" s="67" t="s">
+      <c r="E46" s="66" t="s">
         <v>264</v>
       </c>
     </row>
@@ -27005,7 +27017,7 @@
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55">
+      <c r="B1" s="54">
         <v>1</v>
       </c>
     </row>
@@ -27044,7 +27056,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="19">
@@ -27056,7 +27068,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="19">
@@ -27082,7 +27094,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="19"/>
@@ -27094,7 +27106,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="19"/>
@@ -27106,7 +27118,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="19"/>
@@ -27118,7 +27130,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="19"/>
@@ -27130,7 +27142,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="19">
@@ -27154,7 +27166,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19">
@@ -27166,7 +27178,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="19">
@@ -27190,7 +27202,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="19">
@@ -27202,7 +27214,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="19">
@@ -27214,7 +27226,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="19">
@@ -27226,7 +27238,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="55" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="19">
@@ -27250,7 +27262,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="55" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="19">
@@ -27262,7 +27274,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="19">
@@ -27274,7 +27286,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="19">
@@ -27286,7 +27298,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="19">
@@ -27298,7 +27310,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="19">
@@ -27310,7 +27322,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="19">
@@ -27334,7 +27346,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="19">
@@ -27358,7 +27370,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="55" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="19">
@@ -27382,7 +27394,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="19">
@@ -27406,7 +27418,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="55" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="19">
@@ -27430,7 +27442,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="19">

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{2B555D23-5208-424D-95ED-2A44C35AF9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A2DA66-3CDC-8447-994F-05B6D2B7469C}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{2B555D23-5208-424D-95ED-2A44C35AF9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07083EAC-BE4B-7C4A-A1A7-DD2B1F1485C2}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="45900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$49</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$50</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="319">
   <si>
     <t>My Certifications</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>Agile Certified Professional</t>
-  </si>
-  <si>
-    <t>Pending funding approval 2/1/22</t>
   </si>
   <si>
     <t>PMI-DASSM</t>
@@ -439,9 +436,6 @@
     <t>https://armyeitaas.sharepoint-mil.us/teams/FCS-UofSCDataAnalyticsProgram</t>
   </si>
   <si>
-    <t>Moved to virtual due to budget</t>
-  </si>
-  <si>
     <t>University of Louisville</t>
   </si>
   <si>
@@ -998,6 +992,18 @@
   </si>
   <si>
     <t>https://www.comptia.org/certifications/a</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>https://www.comptia.org/certifications/security</t>
+  </si>
+  <si>
+    <t>https://github.com/Cbhami/Coraline/blob/10c8652f15b847455a8ace9792ab38dda3a949ec/Resume%20Resources/Certifications/CompTIA%20A+%20ce%20certificate.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Cbhami/Coraline/blob/10c8652f15b847455a8ace9792ab38dda3a949ec/Resume%20Resources/Certifications/CompTIA%20Security+%20ce%20certificate.pdf</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1212,6 +1218,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1331,7 +1343,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1659,8 +1671,14 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1669,6 +1687,33 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
   <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1745,33 +1790,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5130,55 +5148,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19538</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>205154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1588477</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1043176</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DFD77E-240B-2245-398C-AE118B571C21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5470769" y="6525846"/>
-          <a:ext cx="7772400" cy="6005945"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -6617,10 +6586,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y40" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="B1:Y40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y40">
-    <sortCondition descending="1" ref="J1:J40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y41" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="B1:Y41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y41">
+    <sortCondition descending="1" ref="J1:J41"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="50"/>
@@ -6657,8 +6626,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B50:B57" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="B50:B57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B51:B58" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="B51:B58" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="21"/>
   </tableColumns>
@@ -6667,8 +6636,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C50:C57" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C50:C57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C51:C58" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="C51:C58" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="15"/>
   </tableColumns>
@@ -6677,8 +6646,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D50:D58" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="D50:D58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D51:D59" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D51:D59" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="11"/>
   </tableColumns>
@@ -6687,13 +6656,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R50:V61" totalsRowCount="1" headerRowDxfId="10">
-  <autoFilter ref="R50:V60" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R51:V62" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="R51:V61" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
-    <tableColumn id="3" xr3:uid="{B42FD204-0C35-604F-AF1B-FBA5F9333685}" name="Expected Finish Date" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B42FD204-0C35-604F-AF1B-FBA5F9333685}" name="Expected Finish Date" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4E69CB7B-9B00-3549-A586-44A4CD6AD558}" name="Cost" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="5" xr3:uid="{DA9F6632-5CC6-E846-AA7A-9589331310BE}" name="Category" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6713,13 +6682,13 @@
     <sortCondition descending="1" ref="D1:D72"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
     <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date"/>
     <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6733,8 +6702,8 @@
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6752,8 +6721,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6976,13 +6945,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1008"/>
+  <dimension ref="B1:Y1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="R56" sqref="R56:V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7022,16 +6991,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>4</v>
@@ -7040,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>6</v>
@@ -7067,7 +7036,7 @@
         <v>13</v>
       </c>
       <c r="T1" s="108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U1" s="22" t="s">
         <v>15</v>
@@ -7082,40 +7051,42 @@
         <v>18</v>
       </c>
       <c r="Y1" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="87" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D2" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="88" t="s">
         <v>315</v>
       </c>
-      <c r="E2" s="88" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" s="88"/>
       <c r="G2" s="35" t="s">
         <v>316</v>
       </c>
       <c r="H2" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I2" s="111">
         <v>44866</v>
       </c>
       <c r="J2" s="111">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="K2" s="112">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="L2" s="111">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="M2" s="92">
         <v>1</v>
@@ -7125,22 +7096,24 @@
         <v>1</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P2" s="94">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="Q2" s="95">
         <v>1</v>
       </c>
       <c r="R2" s="94">
         <f>Q2*P2</f>
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="S2" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="113"/>
+      <c r="T2" s="106" t="s">
+        <v>317</v>
+      </c>
       <c r="U2" s="93"/>
       <c r="V2" s="88"/>
       <c r="W2" s="88"/>
@@ -7149,37 +7122,35 @@
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="87" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>240</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F3" s="88"/>
       <c r="G3" s="35" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="90">
-        <v>44811</v>
-      </c>
-      <c r="J3" s="90">
-        <v>44812</v>
-      </c>
-      <c r="K3" s="91">
-        <v>44812</v>
-      </c>
-      <c r="L3" s="90">
-        <v>45908</v>
+        <v>124</v>
+      </c>
+      <c r="I3" s="111">
+        <v>44866</v>
+      </c>
+      <c r="J3" s="111">
+        <v>44891</v>
+      </c>
+      <c r="K3" s="112">
+        <v>44891</v>
+      </c>
+      <c r="L3" s="111">
+        <v>45989</v>
       </c>
       <c r="M3" s="92">
         <v>1</v>
@@ -7189,23 +7160,23 @@
         <v>1</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P3" s="94">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="Q3" s="95">
         <v>1</v>
       </c>
       <c r="R3" s="94">
         <f>Q3*P3</f>
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="S3" s="93" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T3" s="106" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="U3" s="93"/>
       <c r="V3" s="88"/>
@@ -7215,34 +7186,38 @@
     </row>
     <row r="4" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="G4" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="35" t="s">
-        <v>239</v>
-      </c>
       <c r="H4" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="90">
-        <v>44806</v>
+        <v>44811</v>
       </c>
       <c r="J4" s="90">
-        <v>44836</v>
+        <v>44812</v>
       </c>
       <c r="K4" s="91">
-        <v>44836</v>
-      </c>
-      <c r="L4" s="90"/>
+        <v>44812</v>
+      </c>
+      <c r="L4" s="90">
+        <v>45908</v>
+      </c>
       <c r="M4" s="92">
         <v>1</v>
       </c>
@@ -7251,23 +7226,23 @@
         <v>1</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P4" s="94">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="95">
         <v>1</v>
       </c>
       <c r="R4" s="94">
         <f>Q4*P4</f>
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="S4" s="93" t="s">
         <v>50</v>
       </c>
       <c r="T4" s="106" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U4" s="93"/>
       <c r="V4" s="88"/>
@@ -7275,230 +7250,228 @@
       <c r="X4" s="93"/>
       <c r="Y4" s="93"/>
     </row>
-    <row r="5" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="29">
-        <v>44501</v>
-      </c>
-      <c r="J5" s="29">
-        <v>44693</v>
-      </c>
-      <c r="K5" s="29">
-        <v>44652</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30">
+    <row r="5" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="90">
+        <v>44806</v>
+      </c>
+      <c r="J5" s="90">
+        <v>44836</v>
+      </c>
+      <c r="K5" s="91">
+        <v>44836</v>
+      </c>
+      <c r="L5" s="90"/>
+      <c r="M5" s="92">
         <v>1</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="93">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="94">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="95">
+        <v>1</v>
+      </c>
+      <c r="R5" s="94">
+        <f>Q5*P5</f>
+        <v>168</v>
+      </c>
+      <c r="S5" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="U5" s="93"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+    </row>
+    <row r="6" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="29">
+        <v>44501</v>
+      </c>
+      <c r="J6" s="29">
+        <v>44693</v>
+      </c>
+      <c r="K6" s="29">
+        <v>44652</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>300</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q6" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="2">
-        <f t="shared" ref="R5:R40" si="0">Q5*P5</f>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6:R41" si="0">Q6*P6</f>
         <v>300</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="106" t="s">
-        <v>287</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="T6" s="106" t="s">
+        <v>285</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B7" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="E7" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="45">
+      <c r="G7" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="45">
         <v>44835</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J7" s="45">
         <v>44687</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K7" s="45">
         <v>44743</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46">
+      <c r="L7" s="45"/>
+      <c r="M7" s="46">
         <v>1</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N7" s="47">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="48" t="str">
+      <c r="O7" s="48" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P7" s="49">
         <v>300</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q7" s="50">
         <v>1</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R7" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="S7" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="106" t="s">
-        <v>288</v>
-      </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-    </row>
-    <row r="7" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="T7" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="U7" s="47"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+    </row>
+    <row r="8" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E8" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="31" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="H8" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="29">
         <v>44618</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J8" s="29">
         <v>44660</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K8" s="29">
         <v>44682</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L8" s="29">
         <v>45025</v>
       </c>
-      <c r="M7" s="30">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2">
-        <v>270</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="106" t="s">
-        <v>289</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="29">
-        <v>44646</v>
-      </c>
-      <c r="J8" s="29">
-        <v>44647</v>
-      </c>
-      <c r="K8" s="29">
-        <v>44647</v>
-      </c>
-      <c r="L8" s="29"/>
       <c r="M8" s="30">
         <v>1</v>
       </c>
@@ -7507,23 +7480,23 @@
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="5">
         <v>1</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T8" s="106" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="27"/>
@@ -7531,36 +7504,34 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>126</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="I9" s="29">
-        <v>44634</v>
+        <v>44646</v>
       </c>
       <c r="J9" s="29">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="K9" s="29">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="30">
@@ -7570,60 +7541,62 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="57" t="s">
-        <v>129</v>
+      <c r="O9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="P9" s="2">
-        <v>6000</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="5">
         <v>1</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>99</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T9" s="106" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="27"/>
-      <c r="W9" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="W9" s="27"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="58"/>
-    </row>
-    <row r="10" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>72</v>
+        <v>127</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="56" t="s">
         <v>125</v>
       </c>
       <c r="I10" s="29">
-        <v>44593</v>
+        <v>44634</v>
       </c>
       <c r="J10" s="29">
-        <v>44634</v>
-      </c>
-      <c r="K10" s="29"/>
+        <v>44645</v>
+      </c>
+      <c r="K10" s="29">
+        <v>44645</v>
+      </c>
       <c r="L10" s="29"/>
       <c r="M10" s="30">
         <v>1</v>
@@ -7632,58 +7605,56 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>38</v>
+      <c r="O10" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="P10" s="2">
-        <v>270</v>
+        <v>6000</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>6000</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="T10" s="106" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="27"/>
-      <c r="W10" s="27" t="s">
-        <v>81</v>
-      </c>
+      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="Y10" s="58"/>
     </row>
     <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="31" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="29">
-        <v>44614</v>
+        <v>44593</v>
       </c>
       <c r="J11" s="29">
-        <v>44615</v>
+        <v>44634</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -7694,24 +7665,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="31" t="s">
-        <v>79</v>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P11" s="2">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="5">
         <v>1</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T11" s="106" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="27"/>
@@ -7721,7 +7692,7 @@
     </row>
     <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>76</v>
@@ -7734,16 +7705,16 @@
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="29">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="J12" s="29">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -7755,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2">
         <v>100</v>
@@ -7771,7 +7742,7 @@
         <v>60</v>
       </c>
       <c r="T12" s="106" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="27"/>
@@ -7781,34 +7752,32 @@
     </row>
     <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="29">
-        <v>44571</v>
+        <v>44613</v>
       </c>
       <c r="J13" s="29">
-        <v>44611</v>
+        <v>44614</v>
       </c>
       <c r="K13" s="29"/>
-      <c r="L13" s="29">
-        <v>44976</v>
-      </c>
+      <c r="L13" s="29"/>
       <c r="M13" s="30">
         <v>1</v>
       </c>
@@ -7816,24 +7785,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>74</v>
+      <c r="O13" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P13" s="2">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="5">
         <v>1</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="T13" s="106" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="27"/>
@@ -7843,32 +7812,34 @@
     </row>
     <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>125</v>
+        <v>73</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="I14" s="29">
-        <v>44409</v>
+        <v>44571</v>
       </c>
       <c r="J14" s="29">
-        <v>44598</v>
+        <v>44611</v>
       </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="L14" s="29">
+        <v>44976</v>
+      </c>
       <c r="M14" s="30">
         <v>1</v>
       </c>
@@ -7876,24 +7847,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="16" t="s">
-        <v>49</v>
+      <c r="O14" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="5">
         <v>1</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T14" s="106" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="27"/>
@@ -7903,7 +7874,7 @@
     </row>
     <row r="15" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>46</v>
@@ -7915,11 +7886,11 @@
         <v>47</v>
       </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" s="29">
         <v>44409</v>
@@ -7936,7 +7907,7 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="16" t="s">
         <v>49</v>
       </c>
       <c r="P15" s="2">
@@ -7953,7 +7924,7 @@
         <v>50</v>
       </c>
       <c r="T15" s="106" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="U15" s="3"/>
       <c r="V15" s="27"/>
@@ -7961,9 +7932,9 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="2:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>46</v>
@@ -7979,7 +7950,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16" s="29">
         <v>44409</v>
@@ -8013,7 +7984,7 @@
         <v>50</v>
       </c>
       <c r="T16" s="106" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="27"/>
@@ -8023,7 +7994,7 @@
     </row>
     <row r="17" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>46</v>
@@ -8039,7 +8010,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" s="29">
         <v>44409</v>
@@ -8073,7 +8044,7 @@
         <v>50</v>
       </c>
       <c r="T17" s="106" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="27"/>
@@ -8081,36 +8052,34 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="28" t="s">
-        <v>22</v>
+      <c r="G18" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" s="29">
-        <v>44577</v>
+        <v>44409</v>
       </c>
       <c r="J18" s="29">
-        <v>44592</v>
+        <v>44598</v>
       </c>
       <c r="K18" s="29"/>
-      <c r="L18" s="29">
-        <v>45808</v>
-      </c>
+      <c r="L18" s="29"/>
       <c r="M18" s="30">
         <v>1</v>
       </c>
@@ -8119,23 +8088,23 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P18" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5">
         <v>1</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T18" s="106" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="27"/>
@@ -8143,34 +8112,36 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
-        <v>150</v>
+    <row r="19" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>126</v>
+      <c r="G19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="I19" s="29">
-        <v>44470</v>
+        <v>44577</v>
       </c>
       <c r="J19" s="29">
-        <v>44577</v>
+        <v>44592</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="L19" s="29">
+        <v>45808</v>
+      </c>
       <c r="M19" s="30">
         <v>1</v>
       </c>
@@ -8178,9 +8149,8 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O19" s="32" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      <c r="O19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P19" s="2">
         <v>300</v>
@@ -8193,10 +8163,10 @@
         <v>300</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T19" s="106" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="27"/>
@@ -8204,31 +8174,31 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
-        <v>61</v>
+    <row r="20" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>126</v>
+      <c r="G20" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="I20" s="29">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="J20" s="29">
-        <v>44571</v>
+        <v>44577</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -8239,24 +8209,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O20" s="65" t="s">
-        <v>62</v>
+      <c r="O20" s="32" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
       <c r="P20" s="2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="5">
         <v>1</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T20" s="106" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="27"/>
@@ -8264,33 +8235,31 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B21" s="26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>126</v>
+        <v>147</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="I21" s="29">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="J21" s="29">
-        <v>44559</v>
+        <v>44571</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
@@ -8301,25 +8270,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O21" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      <c r="O21" s="65" t="s">
+        <v>62</v>
       </c>
       <c r="P21" s="2">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="Q21" s="5">
         <v>1</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T21" s="106" t="s">
         <v>300</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" s="106" t="s">
-        <v>284</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="27"/>
@@ -8327,31 +8295,33 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="2:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>125</v>
       </c>
       <c r="I22" s="29">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="J22" s="29">
-        <v>44496</v>
+        <v>44559</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -8362,24 +8332,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>49</v>
+      <c r="O22" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="5">
         <v>1</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T22" s="106" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="27"/>
@@ -8387,37 +8358,34 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="31" t="s">
-        <v>29</v>
+      <c r="G23" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I23" s="29">
-        <f>J23-45</f>
-        <v>44448</v>
+        <v>44409</v>
       </c>
       <c r="J23" s="29">
-        <v>44493</v>
+        <v>44496</v>
       </c>
       <c r="K23" s="29"/>
-      <c r="L23" s="29">
-        <v>45224</v>
-      </c>
+      <c r="L23" s="29"/>
       <c r="M23" s="30">
         <v>1</v>
       </c>
@@ -8426,23 +8394,23 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P23" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T23" s="106" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="27"/>
@@ -8452,33 +8420,35 @@
     </row>
     <row r="24" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>152</v>
+      <c r="D24" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="34" t="s">
-        <v>125</v>
+      <c r="H24" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="I24" s="29">
-        <f>J24-7</f>
-        <v>44480</v>
+        <f>J24-45</f>
+        <v>44448</v>
       </c>
       <c r="J24" s="29">
-        <v>44487</v>
+        <v>44493</v>
       </c>
       <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="L24" s="29">
+        <v>45224</v>
+      </c>
       <c r="M24" s="30">
         <v>1</v>
       </c>
@@ -8490,20 +8460,20 @@
         <v>30</v>
       </c>
       <c r="P24" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T24" s="106" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="27"/>
@@ -8513,29 +8483,30 @@
     </row>
     <row r="25" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>125</v>
+      <c r="G25" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="I25" s="29">
-        <v>44409</v>
+        <f>J25-7</f>
+        <v>44480</v>
       </c>
       <c r="J25" s="29">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -8547,23 +8518,23 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="5">
         <v>1</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T25" s="106" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="27"/>
@@ -8573,34 +8544,32 @@
     </row>
     <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>125</v>
+      <c r="G26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="I26" s="29">
-        <v>44476</v>
+        <v>44409</v>
       </c>
       <c r="J26" s="29">
-        <v>44476</v>
+        <v>44486</v>
       </c>
       <c r="K26" s="29"/>
-      <c r="L26" s="29">
-        <v>45206</v>
-      </c>
+      <c r="L26" s="29"/>
       <c r="M26" s="30">
         <v>1</v>
       </c>
@@ -8609,23 +8578,23 @@
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P26" s="2">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5">
         <v>1</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T26" s="106" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="27"/>
@@ -8635,33 +8604,34 @@
     </row>
     <row r="27" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="28" t="s">
-        <v>125</v>
+      <c r="H27" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="I27" s="29">
-        <f>J27-7</f>
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="J27" s="29">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="L27" s="29">
+        <v>45206</v>
+      </c>
       <c r="M27" s="30">
         <v>1</v>
       </c>
@@ -8673,20 +8643,20 @@
         <v>30</v>
       </c>
       <c r="P27" s="2">
-        <v>99</v>
+        <v>800</v>
       </c>
       <c r="Q27" s="5">
         <v>1</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>800</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T27" s="106" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="27"/>
@@ -8694,31 +8664,32 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="2:25" ht="128" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F28" s="43"/>
-      <c r="G28" s="28" t="s">
-        <v>37</v>
+      <c r="G28" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" s="29">
-        <v>44409</v>
+        <f>J28-7</f>
+        <v>44466</v>
       </c>
       <c r="J28" s="29">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
@@ -8730,23 +8701,23 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P28" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="5">
         <v>1</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T28" s="106" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="27"/>
@@ -8756,7 +8727,7 @@
     </row>
     <row r="29" spans="2:25" ht="128" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>35</v>
@@ -8768,11 +8739,11 @@
         <v>36</v>
       </c>
       <c r="F29" s="43"/>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" s="29">
         <v>44409</v>
@@ -8789,24 +8760,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P29" s="2">
-        <v>500</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="5">
         <v>1</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>199</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="T29" s="106" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U29" s="3"/>
       <c r="V29" s="27"/>
@@ -8814,37 +8785,34 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" ht="128" x14ac:dyDescent="0.2">
       <c r="B30" s="26" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" s="29">
-        <f>J30-45</f>
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="J30" s="29">
-        <v>44452</v>
+        <v>44472</v>
       </c>
       <c r="K30" s="29"/>
-      <c r="L30" s="29">
-        <v>45182</v>
-      </c>
+      <c r="L30" s="29"/>
       <c r="M30" s="30">
         <v>1</v>
       </c>
@@ -8852,24 +8820,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>30</v>
+      <c r="O30" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="P30" s="2">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="Q30" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T30" s="106" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="27"/>
@@ -8879,32 +8847,35 @@
     </row>
     <row r="31" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="31" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I31" s="29">
-        <v>44409</v>
+        <f>J31-45</f>
+        <v>44407</v>
       </c>
       <c r="J31" s="29">
-        <v>44429</v>
+        <v>44452</v>
       </c>
       <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="L31" s="29">
+        <v>45182</v>
+      </c>
       <c r="M31" s="30">
         <v>1</v>
       </c>
@@ -8912,24 +8883,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P31" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T31" s="106" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="27"/>
@@ -8939,34 +8910,32 @@
     </row>
     <row r="32" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" s="43"/>
-      <c r="G32" s="28" t="s">
-        <v>22</v>
+      <c r="G32" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" s="29">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="J32" s="29">
-        <v>44375</v>
+        <v>44429</v>
       </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29">
-        <v>45808</v>
-      </c>
+      <c r="L32" s="29"/>
       <c r="M32" s="30">
         <v>1</v>
       </c>
@@ -8974,28 +8943,26 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>23</v>
+      <c r="O32" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="P32" s="2">
-        <v>4000</v>
+        <v>99</v>
       </c>
       <c r="Q32" s="5">
         <v>1</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>99</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T32" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="U32" s="3"/>
       <c r="V32" s="27"/>
       <c r="W32" s="27"/>
       <c r="X32" s="3"/>
@@ -9003,132 +8970,138 @@
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="F33" s="43"/>
-      <c r="G33" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>125</v>
+      <c r="G33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="I33" s="29">
-        <v>44531</v>
-      </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29">
-        <v>44774</v>
-      </c>
-      <c r="L33" s="29"/>
+        <v>44256</v>
+      </c>
+      <c r="J33" s="29">
+        <v>44375</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29">
+        <v>45808</v>
+      </c>
       <c r="M33" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="P33" s="2">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="Q33" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="103"/>
-      <c r="U33" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="T33" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V33" s="27"/>
-      <c r="W33" s="27" t="s">
+      <c r="W33" s="27"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="X33" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y33" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="39" t="s">
+      <c r="F34" s="43"/>
+      <c r="G34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="41">
+      <c r="H34" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="29">
         <v>44531</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42">
+      <c r="J34" s="29"/>
+      <c r="K34" s="29">
+        <v>44774</v>
+      </c>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30">
         <v>0</v>
       </c>
       <c r="N34" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="P34" s="14">
-        <v>2000</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>1</v>
-      </c>
-      <c r="R34" s="14">
+      <c r="O34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>2</v>
+      </c>
+      <c r="R34" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="S34" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T34" s="105"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="T34" s="103"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>72</v>
@@ -9138,38 +9111,36 @@
       </c>
       <c r="F35" s="52"/>
       <c r="G35" s="39" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I35" s="41">
-        <v>44618</v>
+        <v>44531</v>
       </c>
       <c r="J35" s="41"/>
-      <c r="K35" s="41">
-        <v>44666</v>
-      </c>
+      <c r="K35" s="41"/>
       <c r="L35" s="41"/>
       <c r="M35" s="42">
         <v>0</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="63" t="s">
-        <v>91</v>
+      <c r="O35" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="P35" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="Q35" s="15">
         <v>1</v>
       </c>
       <c r="R35" s="14">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="S35" s="12" t="s">
         <v>39</v>
@@ -9177,336 +9148,373 @@
       <c r="T35" s="105"/>
       <c r="U35" s="12"/>
       <c r="V35" s="38"/>
-      <c r="W35" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-    </row>
-    <row r="36" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="W35" s="38"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="80" x14ac:dyDescent="0.2">
       <c r="B36" s="37" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F36" s="52"/>
       <c r="G36" s="39" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I36" s="41">
-        <v>44531</v>
-      </c>
-      <c r="J36" s="41">
-        <v>44838</v>
-      </c>
+        <v>44618</v>
+      </c>
+      <c r="J36" s="41"/>
       <c r="K36" s="41">
-        <v>44896</v>
-      </c>
-      <c r="L36" s="41">
-        <v>45935</v>
-      </c>
+        <v>44666</v>
+      </c>
+      <c r="L36" s="41"/>
       <c r="M36" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="O36" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="P36" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q36" s="15">
         <v>1</v>
       </c>
       <c r="R36" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T36" s="107" t="s">
-        <v>314</v>
-      </c>
+      <c r="T36" s="105"/>
       <c r="U36" s="12"/>
       <c r="V36" s="38"/>
       <c r="W36" s="38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B37" s="37" t="s">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="F37" s="52"/>
-      <c r="G37" s="40" t="s">
-        <v>134</v>
+      <c r="G37" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I37" s="41">
-        <v>44571</v>
-      </c>
-      <c r="J37" s="41"/>
+        <v>44531</v>
+      </c>
+      <c r="J37" s="41">
+        <v>44838</v>
+      </c>
       <c r="K37" s="41">
-        <v>45047</v>
-      </c>
-      <c r="L37" s="41"/>
+        <v>44896</v>
+      </c>
+      <c r="L37" s="41">
+        <v>45935</v>
+      </c>
       <c r="M37" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="P37" s="14">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q37" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" s="14">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T37" s="105"/>
+      <c r="T37" s="107" t="s">
+        <v>312</v>
+      </c>
       <c r="U37" s="12"/>
       <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
+      <c r="W37" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="160" x14ac:dyDescent="0.2">
-      <c r="B38" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="43" t="s">
+    <row r="38" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="B38" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38" s="45">
-        <v>44844</v>
-      </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="62">
-        <v>44896</v>
-      </c>
-      <c r="L38" s="45"/>
-      <c r="M38" s="46">
+      <c r="E38" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="41">
+        <v>44571</v>
+      </c>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41">
+        <v>45047</v>
+      </c>
+      <c r="L38" s="41"/>
+      <c r="M38" s="42">
         <v>0</v>
       </c>
-      <c r="N38" s="47">
+      <c r="N38" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="48">
+      <c r="O38" s="13"/>
+      <c r="P38" s="14">
+        <v>750</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>2</v>
+      </c>
+      <c r="R38" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38" s="105"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+    </row>
+    <row r="39" spans="2:25" ht="160" x14ac:dyDescent="0.2">
+      <c r="B39" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="45">
+        <v>44844</v>
+      </c>
+      <c r="J39" s="45"/>
+      <c r="K39" s="62">
+        <v>44896</v>
+      </c>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46">
+        <v>0</v>
+      </c>
+      <c r="N39" s="47">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="48">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="49">
+      <c r="P39" s="49">
         <v>300</v>
       </c>
-      <c r="Q38" s="50">
+      <c r="Q39" s="50">
         <v>1</v>
       </c>
-      <c r="R38" s="49">
+      <c r="R39" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S38" s="47" t="s">
+      <c r="S39" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T38" s="104"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-    </row>
-    <row r="39" spans="2:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="B39" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="27" t="s">
+      <c r="T39" s="104"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+    </row>
+    <row r="40" spans="2:25" ht="64" x14ac:dyDescent="0.2">
+      <c r="B40" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D40" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39" s="29">
+      <c r="E40" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="29">
         <v>44531</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="41">
+      <c r="J40" s="29"/>
+      <c r="K40" s="41">
         <v>44713</v>
       </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="30">
+      <c r="L40" s="29"/>
+      <c r="M40" s="30">
         <v>0.25</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N40" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O40" s="1">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P40" s="2">
         <v>300</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q40" s="5">
         <v>1</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R40" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T39" s="103"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="38" t="s">
+      <c r="T40" s="103"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E41" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="59" t="s">
+      <c r="F41" s="52"/>
+      <c r="G41" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="41">
+      <c r="H41" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="41">
         <v>44409</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="61">
+      <c r="J41" s="41"/>
+      <c r="K41" s="61">
         <v>44774</v>
       </c>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42">
+      <c r="L41" s="41"/>
+      <c r="M41" s="42">
         <v>0.75</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N41" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="13" t="s">
+      <c r="O41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P41" s="14">
         <v>49</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q41" s="15">
         <v>1</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R41" s="14">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="S41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T40" s="105"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-    </row>
-    <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
     </row>
     <row r="42" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
@@ -9567,8 +9575,8 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="7"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="6"/>
@@ -9606,7 +9614,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -9648,6 +9656,7 @@
     </row>
     <row r="48" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -9691,53 +9700,39 @@
       <c r="V49" s="6"/>
     </row>
     <row r="50" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="74"/>
+      <c r="B50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="S50" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="T50" s="110" t="s">
-        <v>267</v>
-      </c>
-      <c r="U50" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="V50" s="100" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B51" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="76"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="109"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+    </row>
+    <row r="51" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="73"/>
+      <c r="F51" s="74"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="7"/>
@@ -9746,34 +9741,34 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="99" t="s">
-        <v>279</v>
-      </c>
-      <c r="S51" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="T51" s="109">
-        <v>45078</v>
-      </c>
-      <c r="U51" s="101">
-        <v>500</v>
-      </c>
-      <c r="V51" t="s">
-        <v>125</v>
+      <c r="R51" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="S51" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="U51" s="100" t="s">
+        <v>274</v>
+      </c>
+      <c r="V51" s="100" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B52" s="84" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C52" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="85" t="s">
-        <v>105</v>
-      </c>
       <c r="E52" s="75"/>
-      <c r="F52" s="77"/>
+      <c r="F52" s="76"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="7"/>
@@ -9783,62 +9778,66 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="99" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="S52" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="T52" s="109">
+        <v>266</v>
+      </c>
+      <c r="T52" s="9">
+        <v>45078</v>
+      </c>
+      <c r="U52" s="101">
+        <v>500</v>
+      </c>
+      <c r="V52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="B53" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="75"/>
+      <c r="F53" s="77"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="S53" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="T53" s="9">
         <v>44896</v>
       </c>
-      <c r="U52" s="101">
+      <c r="U53" s="101">
         <v>200</v>
       </c>
-      <c r="V52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="R53" t="s">
-        <v>271</v>
-      </c>
-      <c r="S53" t="s">
-        <v>270</v>
-      </c>
-      <c r="T53" s="109">
-        <v>44897</v>
-      </c>
-      <c r="U53" s="102">
-        <v>200</v>
-      </c>
       <c r="V53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="86" t="s">
-        <v>234</v>
+        <v>71</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E54" s="75"/>
       <c r="F54" s="76"/>
@@ -9846,31 +9845,31 @@
       <c r="M54" s="11"/>
       <c r="N54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="R54" t="s">
-        <v>283</v>
-      </c>
-      <c r="S54" t="s">
-        <v>270</v>
-      </c>
-      <c r="T54" s="109">
-        <v>44927</v>
-      </c>
-      <c r="U54" s="102">
+      <c r="R54" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="S54" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="T54" s="114">
+        <v>44897</v>
+      </c>
+      <c r="U54" s="115">
         <v>200</v>
       </c>
-      <c r="V54" t="s">
-        <v>125</v>
+      <c r="V54" s="113" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="85" t="s">
         <v>109</v>
-      </c>
-      <c r="D55" s="85" t="s">
-        <v>111</v>
       </c>
       <c r="E55" s="75"/>
       <c r="F55" s="76"/>
@@ -9879,30 +9878,30 @@
       <c r="N55" s="10"/>
       <c r="P55" s="10"/>
       <c r="R55" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="S55" t="s">
-        <v>270</v>
-      </c>
-      <c r="T55" s="109">
-        <v>44898</v>
+        <v>268</v>
+      </c>
+      <c r="T55" s="9">
+        <v>44927</v>
       </c>
       <c r="U55" s="102">
         <v>200</v>
       </c>
       <c r="V55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="84" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C56" s="84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="76"/>
@@ -9910,119 +9909,121 @@
       <c r="M56" s="11"/>
       <c r="N56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="R56" t="s">
-        <v>273</v>
-      </c>
-      <c r="S56" t="s">
-        <v>274</v>
-      </c>
-      <c r="T56" s="109">
-        <v>44866</v>
-      </c>
-      <c r="U56" s="102">
-        <v>50</v>
-      </c>
-      <c r="V56" t="s">
-        <v>125</v>
+      <c r="R56" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="S56" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="T56" s="114">
+        <v>44898</v>
+      </c>
+      <c r="U56" s="115">
+        <v>200</v>
+      </c>
+      <c r="V56" s="113" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C57" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="78"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="76"/>
       <c r="L57" s="10"/>
       <c r="M57" s="11"/>
       <c r="N57" s="10"/>
       <c r="P57" s="10"/>
       <c r="R57" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="S57" t="s">
-        <v>274</v>
-      </c>
-      <c r="T57" s="109">
-        <v>44867</v>
+        <v>272</v>
+      </c>
+      <c r="T57" s="9">
+        <v>44866</v>
       </c>
       <c r="U57" s="102">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="V57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="B58" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="78"/>
+      <c r="F58" s="76"/>
       <c r="L58" s="10"/>
       <c r="M58" s="11"/>
       <c r="N58" s="10"/>
       <c r="P58" s="10"/>
       <c r="R58" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="S58" t="s">
-        <v>71</v>
-      </c>
-      <c r="T58" s="109">
-        <v>44868</v>
+        <v>272</v>
+      </c>
+      <c r="T58" s="9">
+        <v>44867</v>
       </c>
       <c r="U58" s="102">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="V58" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="80"/>
       <c r="G59" s="9"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" t="s">
-        <v>20</v>
-      </c>
-      <c r="T59" s="109">
-        <v>44869</v>
-      </c>
-      <c r="U59" s="102">
+      <c r="L59" s="10"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="R59" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="S59" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="T59" s="114">
+        <v>44868</v>
+      </c>
+      <c r="U59" s="115">
         <v>250</v>
       </c>
-      <c r="V59" t="s">
-        <v>278</v>
+      <c r="V59" s="113" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
       <c r="G60" s="9"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -10031,20 +10032,20 @@
       <c r="N60" s="11"/>
       <c r="O60" s="10"/>
       <c r="Q60" s="10"/>
-      <c r="R60" t="s">
-        <v>281</v>
-      </c>
-      <c r="S60" t="s">
-        <v>282</v>
-      </c>
-      <c r="T60" s="109">
-        <v>45047</v>
-      </c>
-      <c r="U60" s="102">
-        <v>150</v>
-      </c>
-      <c r="V60" t="s">
-        <v>125</v>
+      <c r="R60" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="114">
+        <v>44869</v>
+      </c>
+      <c r="U60" s="115">
+        <v>250</v>
+      </c>
+      <c r="V60" s="113" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10062,15 +10063,19 @@
       <c r="O61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" t="s">
+        <v>279</v>
+      </c>
+      <c r="S61" t="s">
         <v>280</v>
       </c>
+      <c r="T61" s="9">
+        <v>45047</v>
+      </c>
       <c r="U61" s="102">
-        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
-        <v>2150</v>
-      </c>
-      <c r="V61">
-        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="V61" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10087,6 +10092,17 @@
       <c r="N62" s="11"/>
       <c r="O62" s="10"/>
       <c r="Q62" s="10"/>
+      <c r="R62" t="s">
+        <v>278</v>
+      </c>
+      <c r="U62" s="102">
+        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
+        <v>2150</v>
+      </c>
+      <c r="V62">
+        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
@@ -24269,11 +24285,26 @@
       <c r="D1008" s="6"/>
       <c r="E1008" s="6"/>
       <c r="F1008" s="6"/>
+      <c r="G1008" s="9"/>
+      <c r="H1008" s="6"/>
+      <c r="I1008" s="6"/>
       <c r="J1008" s="6"/>
       <c r="M1008" s="10"/>
       <c r="N1008" s="11"/>
       <c r="O1008" s="10"/>
       <c r="Q1008" s="10"/>
+    </row>
+    <row r="1009" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1009" s="6"/>
+      <c r="C1009" s="6"/>
+      <c r="D1009" s="6"/>
+      <c r="E1009" s="6"/>
+      <c r="F1009" s="6"/>
+      <c r="J1009" s="6"/>
+      <c r="M1009" s="10"/>
+      <c r="N1009" s="11"/>
+      <c r="O1009" s="10"/>
+      <c r="Q1009" s="10"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -24287,129 +24318,132 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L35 M2:M40" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L36 M2:M41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G21" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O18" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O16" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G17" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O13" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G12" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O12" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G11" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O11" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G10" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="O10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="O7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G33" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="O33" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="X33" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Y33" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G34" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O34" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Y34" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G35" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G40" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G36" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O36" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D51" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D52" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D53" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D54" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D55" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D56" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D57" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G20" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G9" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O9" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G3" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
-    <hyperlink ref="G4" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
-    <hyperlink ref="O3" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
-    <hyperlink ref="O4" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
-    <hyperlink ref="T21" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
-    <hyperlink ref="T3" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
-    <hyperlink ref="T4" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
-    <hyperlink ref="T5" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
-    <hyperlink ref="T6" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
-    <hyperlink ref="T7" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
-    <hyperlink ref="T8" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
-    <hyperlink ref="T9" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
-    <hyperlink ref="T10" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
-    <hyperlink ref="T11" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
-    <hyperlink ref="T12" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
-    <hyperlink ref="T13" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
-    <hyperlink ref="T14" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
-    <hyperlink ref="T15" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
-    <hyperlink ref="T16" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
-    <hyperlink ref="T17" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
-    <hyperlink ref="T18" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
-    <hyperlink ref="T19" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
-    <hyperlink ref="T20" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
-    <hyperlink ref="T22" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
-    <hyperlink ref="T23" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
-    <hyperlink ref="T24" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
-    <hyperlink ref="T25" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
-    <hyperlink ref="T26" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
-    <hyperlink ref="T27" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
-    <hyperlink ref="T28" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
-    <hyperlink ref="T29" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
-    <hyperlink ref="T30" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
-    <hyperlink ref="T31" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
-    <hyperlink ref="T32" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
-    <hyperlink ref="T36" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
-    <hyperlink ref="G2" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
-    <hyperlink ref="O2" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
+    <hyperlink ref="G33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="U33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G29" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G13" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O13" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G12" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O12" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="O11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G8" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G34" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="O34" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X34" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Y34" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O35" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Y35" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O36" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G41" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O41" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G37" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O37" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D52" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D53" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D54" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D55" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D56" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D57" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D58" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O10" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G39" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G4" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
+    <hyperlink ref="G5" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
+    <hyperlink ref="O4" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
+    <hyperlink ref="O5" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
+    <hyperlink ref="T22" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
+    <hyperlink ref="T4" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
+    <hyperlink ref="T5" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
+    <hyperlink ref="T6" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
+    <hyperlink ref="T7" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
+    <hyperlink ref="T8" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
+    <hyperlink ref="T9" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
+    <hyperlink ref="T10" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
+    <hyperlink ref="T11" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
+    <hyperlink ref="T12" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
+    <hyperlink ref="T13" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
+    <hyperlink ref="T14" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
+    <hyperlink ref="T15" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
+    <hyperlink ref="T16" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
+    <hyperlink ref="T17" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
+    <hyperlink ref="T18" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
+    <hyperlink ref="T19" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
+    <hyperlink ref="T20" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
+    <hyperlink ref="T21" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
+    <hyperlink ref="T23" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
+    <hyperlink ref="T24" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
+    <hyperlink ref="T25" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
+    <hyperlink ref="T26" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
+    <hyperlink ref="T27" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
+    <hyperlink ref="T28" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
+    <hyperlink ref="T29" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
+    <hyperlink ref="T30" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
+    <hyperlink ref="T31" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
+    <hyperlink ref="T32" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
+    <hyperlink ref="T33" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
+    <hyperlink ref="T37" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
+    <hyperlink ref="G3" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
+    <hyperlink ref="O3" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
+    <hyperlink ref="G2" r:id="rId108" xr:uid="{B68C2409-C837-FB4B-8AA6-560607A67967}"/>
+    <hyperlink ref="O2" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
+    <hyperlink ref="T2" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
+    <hyperlink ref="T3" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId108"/>
-  <drawing r:id="rId109"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId112"/>
   <tableParts count="5">
-    <tablePart r:id="rId110"/>
-    <tablePart r:id="rId111"/>
-    <tablePart r:id="rId112"/>
     <tablePart r:id="rId113"/>
     <tablePart r:id="rId114"/>
+    <tablePart r:id="rId115"/>
+    <tablePart r:id="rId116"/>
+    <tablePart r:id="rId117"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24434,19 +24468,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="D1" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="E1" s="66" t="s">
         <v>155</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -24455,7 +24489,7 @@
         <v>NaN</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="97">
         <v>44608</v>
@@ -24474,7 +24508,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="97">
         <v>44626</v>
@@ -24493,7 +24527,7 @@
         <v>NaN</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="97">
         <v>44737</v>
@@ -24512,7 +24546,7 @@
         <v>NaN</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="97">
         <v>44616</v>
@@ -24531,7 +24565,7 @@
         <v>NaN</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="97">
         <v>44752</v>
@@ -24550,7 +24584,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="97">
         <v>44514</v>
@@ -24569,7 +24603,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="97">
         <v>44560</v>
@@ -24588,7 +24622,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="97">
         <v>44512</v>
@@ -24607,7 +24641,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="97">
         <v>44518</v>
@@ -24626,7 +24660,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="97">
         <v>44556</v>
@@ -24645,7 +24679,7 @@
         <v>NaN</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="97">
         <v>44550</v>
@@ -24664,7 +24698,7 @@
         <v>NaN</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="97">
         <v>44596</v>
@@ -24683,7 +24717,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="97">
         <v>44513</v>
@@ -24702,7 +24736,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" s="97">
         <v>44576</v>
@@ -24721,7 +24755,7 @@
         <v>NaN</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C16" s="97">
         <v>44560</v>
@@ -24740,7 +24774,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="97">
         <v>44528</v>
@@ -24759,7 +24793,7 @@
         <v>NaN</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="97">
         <v>44700</v>
@@ -24778,7 +24812,7 @@
         <v>NaN</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C19" s="97">
         <v>44488</v>
@@ -24797,7 +24831,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="97">
         <v>44515</v>
@@ -24816,7 +24850,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" s="97">
         <v>44815</v>
@@ -24835,7 +24869,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="97">
         <v>44513</v>
@@ -24854,7 +24888,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" s="97">
         <v>44512</v>
@@ -24873,7 +24907,7 @@
         <v>NaN</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" s="97">
         <v>44554</v>
@@ -24892,7 +24926,7 @@
         <v>NaN</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" s="97">
         <v>44596</v>
@@ -24911,7 +24945,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C26" s="97">
         <v>44814</v>
@@ -24930,7 +24964,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="97">
         <v>44608</v>
@@ -24949,7 +24983,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C28" s="97">
         <v>44812</v>
@@ -24968,7 +25002,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="97">
         <v>44562</v>
@@ -24987,7 +25021,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C30" s="97">
         <v>44518</v>
@@ -25006,7 +25040,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="97">
         <v>44562</v>
@@ -25025,7 +25059,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C32" s="97">
         <v>44570</v>
@@ -25044,7 +25078,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="97">
         <v>44517</v>
@@ -25063,7 +25097,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="97">
         <v>44501</v>
@@ -25082,7 +25116,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35" s="97">
         <v>44515</v>
@@ -25101,7 +25135,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C36" s="97">
         <v>44814</v>
@@ -25120,7 +25154,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C37" s="97">
         <v>44522</v>
@@ -25139,7 +25173,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="97">
         <v>44501</v>
@@ -25158,7 +25192,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C39" s="97">
         <v>44577</v>
@@ -25177,7 +25211,7 @@
         <v>Google Data Analytics</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="97">
         <v>44558</v>
@@ -25196,7 +25230,7 @@
         <v>NaN</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C41" s="97">
         <v>44680</v>
@@ -25215,7 +25249,7 @@
         <v>IBM Data Analyst</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C42" s="97">
         <v>44560</v>
@@ -25234,7 +25268,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" s="97">
         <v>44611</v>
@@ -25253,7 +25287,7 @@
         <v>NaN</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C44" s="97">
         <v>44752</v>
@@ -25272,7 +25306,7 @@
         <v>IBM Data Science</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C45" s="97">
         <v>44608</v>
@@ -25291,7 +25325,7 @@
         <v>NaN</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C46" s="97">
         <v>44701</v>
@@ -25310,7 +25344,7 @@
         <v>NaN</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C47" s="97">
         <v>44752</v>
@@ -25329,7 +25363,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" s="97">
         <v>44813</v>
@@ -25348,7 +25382,7 @@
         <v>NaN</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C49" s="97">
         <v>44752</v>
@@ -25367,7 +25401,7 @@
         <v>Google Project Management</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C50" s="97">
         <v>44624</v>
@@ -25386,7 +25420,7 @@
         <v>NaN</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C51" s="97">
         <v>44705</v>
@@ -25405,7 +25439,7 @@
         <v>NaN</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52" s="97">
         <v>44697</v>
@@ -25424,7 +25458,7 @@
         <v>NaN</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" s="97">
         <v>44578</v>
@@ -25443,7 +25477,7 @@
         <v>NaN</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C54" s="97">
         <v>44718</v>
@@ -25462,7 +25496,7 @@
         <v>Getting started with Google Workspace</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C55" s="97">
         <v>44815</v>
@@ -25481,7 +25515,7 @@
         <v>NaN</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" s="97">
         <v>44488</v>
@@ -25500,7 +25534,7 @@
         <v>NaN</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C57" s="97">
         <v>44503</v>
@@ -25519,7 +25553,7 @@
         <v>NaN</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="97">
         <v>44640</v>
@@ -25538,7 +25572,7 @@
         <v>NaN</v>
       </c>
       <c r="B59" s="96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C59" s="97">
         <v>44624</v>
@@ -25557,7 +25591,7 @@
         <v>NaN</v>
       </c>
       <c r="B60" s="96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C60" s="97">
         <v>44583</v>
@@ -25576,7 +25610,7 @@
         <v>NaN</v>
       </c>
       <c r="B61" s="96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C61" s="97">
         <v>44494</v>
@@ -25595,7 +25629,7 @@
         <v>NaN</v>
       </c>
       <c r="B62" s="96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C62" s="97">
         <v>44746</v>
@@ -25614,7 +25648,7 @@
         <v>NaN</v>
       </c>
       <c r="B63" s="96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C63" s="97">
         <v>44557</v>
@@ -25633,7 +25667,7 @@
         <v>NaN</v>
       </c>
       <c r="B64" s="96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" s="97">
         <v>44582</v>
@@ -25652,7 +25686,7 @@
         <v>NaN</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C65" s="97">
         <v>44633</v>
@@ -25671,7 +25705,7 @@
         <v>NaN</v>
       </c>
       <c r="B66" s="96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C66" s="97">
         <v>44702</v>
@@ -25690,7 +25724,7 @@
         <v>NaN</v>
       </c>
       <c r="B67" s="96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C67" s="97">
         <v>44747</v>
@@ -25709,7 +25743,7 @@
         <v>NaN</v>
       </c>
       <c r="B68" s="96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C68" s="97">
         <v>44613</v>
@@ -25728,7 +25762,7 @@
         <v>NaN</v>
       </c>
       <c r="B69" s="96" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="97">
         <v>44682</v>
@@ -25747,7 +25781,7 @@
         <v>NaN</v>
       </c>
       <c r="B70" s="96" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C70" s="97">
         <v>44700</v>
@@ -25766,7 +25800,7 @@
         <v>NaN</v>
       </c>
       <c r="B71" s="96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" s="97">
         <v>44689</v>
@@ -25785,7 +25819,7 @@
         <v>NaN</v>
       </c>
       <c r="B72" s="96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C72" s="97">
         <v>44668</v>
@@ -25827,19 +25861,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>219</v>
-      </c>
       <c r="E1" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25847,16 +25881,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="69">
         <v>44577</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -25864,10 +25898,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="69">
         <v>44577</v>
@@ -25882,10 +25916,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="69">
         <v>44577</v>
@@ -25900,10 +25934,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5" s="69">
         <v>44577</v>
@@ -25918,10 +25952,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" s="69">
         <v>44577</v>
@@ -25936,10 +25970,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="69">
         <v>44577</v>
@@ -25954,10 +25988,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="69">
         <v>44577</v>
@@ -25972,10 +26006,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="69">
         <v>44577</v>
@@ -25990,10 +26024,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="69">
         <v>44577</v>
@@ -26009,16 +26043,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" s="69">
         <v>44695</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26027,16 +26061,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="69">
         <v>44695</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26045,16 +26079,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="69">
         <v>44695</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26063,16 +26097,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="69">
         <v>44695</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26081,16 +26115,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" s="69">
         <v>44695</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -26099,16 +26133,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="69">
         <v>44695</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26117,16 +26151,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="71">
         <v>44687</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26135,16 +26169,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" s="71">
         <v>44687</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26153,16 +26187,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="71">
         <v>44687</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26171,16 +26205,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D20" s="71">
         <v>44687</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26189,16 +26223,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D21" s="71">
         <v>44687</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -26207,16 +26241,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="71">
         <v>44687</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26225,16 +26259,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D23" s="71">
         <v>44687</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26243,16 +26277,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D24" s="71">
         <v>44687</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26261,16 +26295,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D25" s="71">
         <v>44687</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -26279,16 +26313,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D26" s="71">
         <v>44687</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -26297,16 +26331,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="69">
         <v>44578</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -26315,16 +26349,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D28" s="69">
         <v>44578</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26333,16 +26367,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D29" s="69">
         <v>44578</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26351,16 +26385,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" s="69">
         <v>44578</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26372,13 +26406,13 @@
         <v>56</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" s="69">
         <v>44559</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26390,13 +26424,13 @@
         <v>56</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D32" s="69">
         <v>44559</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26408,13 +26442,13 @@
         <v>56</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D33" s="69">
         <v>44559</v>
       </c>
       <c r="E33" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -26426,13 +26460,13 @@
         <v>56</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" s="69">
         <v>44559</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26444,13 +26478,13 @@
         <v>56</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D35" s="69">
         <v>44559</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26462,13 +26496,13 @@
         <v>56</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D36" s="69">
         <v>44559</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26480,13 +26514,13 @@
         <v>56</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D37" s="69">
         <v>44559</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -26498,13 +26532,13 @@
         <v>56</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" s="69">
         <v>44559</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -26513,16 +26547,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D39" s="69">
         <v>44813</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -26531,16 +26565,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D40" s="69">
         <v>44813</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -26549,16 +26583,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D41" s="69">
         <v>44813</v>
       </c>
       <c r="E41" s="66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -26567,16 +26601,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D42" s="69">
         <v>44814</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -26585,16 +26619,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D43" s="69">
         <v>44814</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -26603,16 +26637,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D44" s="69">
         <v>44816</v>
       </c>
       <c r="E44" s="66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -26621,16 +26655,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" s="69">
         <v>44816</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -26639,16 +26673,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D46" s="69">
         <v>44816</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -26712,16 +26746,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -26730,7 +26764,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -26772,12 +26806,12 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -26792,7 +26826,7 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="20">
         <v>44409</v>
@@ -26822,7 +26856,7 @@
         <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -26842,7 +26876,7 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="20">
         <v>44409</v>
@@ -26889,7 +26923,7 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="20">
         <v>44409</v>
@@ -26936,7 +26970,7 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="20">
         <v>44409</v>
@@ -26983,7 +27017,7 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="20">
         <v>44409</v>
@@ -27030,7 +27064,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="20">
         <v>44409</v>
@@ -27077,7 +27111,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="20">
         <v>44409</v>
@@ -27153,24 +27187,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -27249,7 +27283,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19">
@@ -27261,7 +27295,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19">
@@ -27561,7 +27595,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" s="19">
         <v>1</v>
@@ -27585,7 +27619,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="19">
         <v>20</v>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8208BD1-E94E-1649-8403-58F01302B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C8208BD1-E94E-1649-8403-58F01302B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B66365-18EA-AC49-9CD1-86F13FA62F85}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="45900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1220" windowWidth="45900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$50</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$51</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -1343,7 +1343,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1679,6 +1679,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5187,10 +5193,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hamilton, Cole B MSG MIL USA TRADOC USAREC" refreshedDate="44650.745903240742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
@@ -6590,10 +6592,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y41" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="B1:Y41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y41">
-    <sortCondition descending="1" ref="J1:J41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y42" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="B1:Y42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y42">
+    <sortCondition descending="1" ref="J1:J42"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="50"/>
@@ -6630,8 +6632,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B51:B58" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="B51:B58" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B52:B59" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="B52:B59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="21"/>
   </tableColumns>
@@ -6640,8 +6642,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C51:C58" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C51:C58" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C52:C59" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="C52:C59" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="15"/>
   </tableColumns>
@@ -6650,8 +6652,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D51:D59" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="D51:D59" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D52:D60" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D52:D60" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="11"/>
   </tableColumns>
@@ -6660,8 +6662,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R51:V62" totalsRowCount="1" headerRowDxfId="10">
-  <autoFilter ref="R51:V61" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R52:V63" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="R52:V62" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
@@ -6949,13 +6951,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1009"/>
+  <dimension ref="B1:Y1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R56" sqref="R56:V56"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7059,65 +7061,31 @@
       </c>
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="88" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="111">
-        <v>44866</v>
-      </c>
-      <c r="J2" s="111">
-        <v>44893</v>
-      </c>
-      <c r="K2" s="112">
-        <v>44893</v>
-      </c>
-      <c r="L2" s="111">
-        <v>45989</v>
-      </c>
-      <c r="M2" s="92">
-        <v>1</v>
-      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="93">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="P2" s="94">
-        <v>277</v>
-      </c>
-      <c r="Q2" s="95">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2" s="116"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
       <c r="R2" s="94">
         <f>Q2*P2</f>
-        <v>277</v>
-      </c>
-      <c r="S2" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="106" t="s">
-        <v>317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S2" s="93"/>
+      <c r="T2" s="117"/>
       <c r="U2" s="93"/>
       <c r="V2" s="88"/>
       <c r="W2" s="88"/>
@@ -7126,7 +7094,7 @@
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="88" t="s">
         <v>233</v>
@@ -7137,9 +7105,11 @@
       <c r="E3" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="88" t="s">
+        <v>315</v>
+      </c>
       <c r="G3" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H3" s="89" t="s">
         <v>124</v>
@@ -7148,10 +7118,10 @@
         <v>44866</v>
       </c>
       <c r="J3" s="111">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="K3" s="112">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="L3" s="111">
         <v>45989</v>
@@ -7167,20 +7137,20 @@
         <v>239</v>
       </c>
       <c r="P3" s="94">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="Q3" s="95">
         <v>1</v>
       </c>
       <c r="R3" s="94">
         <f>Q3*P3</f>
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="S3" s="93" t="s">
         <v>39</v>
       </c>
       <c r="T3" s="106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U3" s="93"/>
       <c r="V3" s="88"/>
@@ -7190,37 +7160,35 @@
     </row>
     <row r="4" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="87" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C4" s="88" t="s">
         <v>233</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>238</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F4" s="88"/>
       <c r="G4" s="35" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="90">
-        <v>44811</v>
-      </c>
-      <c r="J4" s="90">
-        <v>44812</v>
-      </c>
-      <c r="K4" s="91">
-        <v>44812</v>
-      </c>
-      <c r="L4" s="90">
-        <v>45908</v>
+      <c r="I4" s="111">
+        <v>44866</v>
+      </c>
+      <c r="J4" s="111">
+        <v>44891</v>
+      </c>
+      <c r="K4" s="112">
+        <v>44891</v>
+      </c>
+      <c r="L4" s="111">
+        <v>45989</v>
       </c>
       <c r="M4" s="92">
         <v>1</v>
@@ -7233,20 +7201,20 @@
         <v>239</v>
       </c>
       <c r="P4" s="94">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="95">
         <v>1</v>
       </c>
       <c r="R4" s="94">
         <f>Q4*P4</f>
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="S4" s="93" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T4" s="106" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="U4" s="93"/>
       <c r="V4" s="88"/>
@@ -7256,34 +7224,38 @@
     </row>
     <row r="5" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>233</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="88"/>
+        <v>58</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>238</v>
+      </c>
       <c r="G5" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H5" s="89" t="s">
         <v>124</v>
       </c>
       <c r="I5" s="90">
-        <v>44806</v>
+        <v>44811</v>
       </c>
       <c r="J5" s="90">
-        <v>44836</v>
+        <v>44812</v>
       </c>
       <c r="K5" s="91">
-        <v>44836</v>
-      </c>
-      <c r="L5" s="90"/>
+        <v>44812</v>
+      </c>
+      <c r="L5" s="90">
+        <v>45908</v>
+      </c>
       <c r="M5" s="92">
         <v>1</v>
       </c>
@@ -7295,20 +7267,20 @@
         <v>239</v>
       </c>
       <c r="P5" s="94">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="95">
         <v>1</v>
       </c>
       <c r="R5" s="94">
         <f>Q5*P5</f>
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="S5" s="93" t="s">
         <v>50</v>
       </c>
       <c r="T5" s="106" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U5" s="93"/>
       <c r="V5" s="88"/>
@@ -7316,228 +7288,228 @@
       <c r="X5" s="93"/>
       <c r="Y5" s="93"/>
     </row>
-    <row r="6" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="27" t="s">
+    <row r="6" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="29">
-        <v>44501</v>
-      </c>
-      <c r="J6" s="29">
-        <v>44693</v>
-      </c>
-      <c r="K6" s="29">
-        <v>44652</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30">
+      <c r="F6" s="88"/>
+      <c r="G6" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="90">
+        <v>44806</v>
+      </c>
+      <c r="J6" s="90">
+        <v>44836</v>
+      </c>
+      <c r="K6" s="91">
+        <v>44836</v>
+      </c>
+      <c r="L6" s="90"/>
+      <c r="M6" s="92">
         <v>1</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="93">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="P6" s="94">
+        <v>168</v>
+      </c>
+      <c r="Q6" s="95">
+        <v>1</v>
+      </c>
+      <c r="R6" s="94">
+        <f>Q6*P6</f>
+        <v>168</v>
+      </c>
+      <c r="S6" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="U6" s="93"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+    </row>
+    <row r="7" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="29">
+        <v>44501</v>
+      </c>
+      <c r="J7" s="29">
+        <v>44693</v>
+      </c>
+      <c r="K7" s="29">
+        <v>44652</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P7" s="2">
         <v>300</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q7" s="5">
         <v>1</v>
       </c>
-      <c r="R6" s="2">
-        <f t="shared" ref="R6:R41" si="0">Q6*P6</f>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:R42" si="0">Q7*P7</f>
         <v>300</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="106" t="s">
+      <c r="T7" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B7" s="51" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E8" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F8" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G8" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H8" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I8" s="45">
         <v>44835</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J8" s="45">
         <v>44687</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K8" s="45">
         <v>44743</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46">
+      <c r="L8" s="45"/>
+      <c r="M8" s="46">
         <v>1</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N8" s="47">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="48" t="str">
+      <c r="O8" s="48" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P8" s="49">
         <v>300</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q8" s="50">
         <v>1</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R8" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="S8" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="106" t="s">
+      <c r="T8" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="U7" s="47"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-    </row>
-    <row r="8" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="U8" s="47"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+    </row>
+    <row r="9" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E9" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="31" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="29">
-        <v>44618</v>
-      </c>
-      <c r="J8" s="29">
-        <v>44660</v>
-      </c>
-      <c r="K8" s="29">
-        <v>44682</v>
-      </c>
-      <c r="L8" s="29">
-        <v>45025</v>
-      </c>
-      <c r="M8" s="30">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="106" t="s">
-        <v>287</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="34" t="s">
-        <v>29</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I9" s="29">
-        <v>44646</v>
+        <v>44618</v>
       </c>
       <c r="J9" s="29">
-        <v>44647</v>
+        <v>44660</v>
       </c>
       <c r="K9" s="29">
-        <v>44647</v>
-      </c>
-      <c r="L9" s="29"/>
+        <v>44682</v>
+      </c>
+      <c r="L9" s="29">
+        <v>45025</v>
+      </c>
       <c r="M9" s="30">
         <v>1</v>
       </c>
@@ -7546,23 +7518,23 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="5">
         <v>1</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T9" s="106" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="27"/>
@@ -7570,36 +7542,34 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>125</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="I10" s="29">
-        <v>44634</v>
+        <v>44646</v>
       </c>
       <c r="J10" s="29">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="K10" s="29">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="L10" s="29"/>
       <c r="M10" s="30">
@@ -7609,58 +7579,62 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="57" t="s">
-        <v>128</v>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="P10" s="2">
-        <v>6000</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>99</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T10" s="106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="27"/>
-      <c r="W10" s="3"/>
+      <c r="W10" s="27"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="58"/>
-    </row>
-    <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>72</v>
+        <v>127</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>124</v>
+        <v>54</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>125</v>
       </c>
       <c r="I11" s="29">
-        <v>44593</v>
+        <v>44634</v>
       </c>
       <c r="J11" s="29">
-        <v>44634</v>
-      </c>
-      <c r="K11" s="29"/>
+        <v>44645</v>
+      </c>
+      <c r="K11" s="29">
+        <v>44645</v>
+      </c>
       <c r="L11" s="29"/>
       <c r="M11" s="30">
         <v>1</v>
@@ -7669,56 +7643,56 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>38</v>
+      <c r="O11" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="P11" s="2">
-        <v>270</v>
+        <v>6000</v>
       </c>
       <c r="Q11" s="5">
         <v>1</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>6000</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="T11" s="106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="58"/>
     </row>
     <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="31" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I12" s="29">
-        <v>44614</v>
+        <v>44593</v>
       </c>
       <c r="J12" s="29">
-        <v>44615</v>
+        <v>44634</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -7729,24 +7703,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>79</v>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P12" s="2">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="5">
         <v>1</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T12" s="106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="27"/>
@@ -7756,7 +7730,7 @@
     </row>
     <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>76</v>
@@ -7769,16 +7743,16 @@
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I13" s="29">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="J13" s="29">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -7790,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2">
         <v>100</v>
@@ -7806,7 +7780,7 @@
         <v>60</v>
       </c>
       <c r="T13" s="106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="27"/>
@@ -7816,34 +7790,32 @@
     </row>
     <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I14" s="29">
-        <v>44571</v>
+        <v>44613</v>
       </c>
       <c r="J14" s="29">
-        <v>44611</v>
+        <v>44614</v>
       </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="29">
-        <v>44976</v>
-      </c>
+      <c r="L14" s="29"/>
       <c r="M14" s="30">
         <v>1</v>
       </c>
@@ -7851,24 +7823,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>74</v>
+      <c r="O14" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P14" s="2">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="5">
         <v>1</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="T14" s="106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="27"/>
@@ -7878,32 +7850,34 @@
     </row>
     <row r="15" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I15" s="29">
-        <v>44409</v>
+        <v>44571</v>
       </c>
       <c r="J15" s="29">
-        <v>44598</v>
+        <v>44611</v>
       </c>
       <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="L15" s="29">
+        <v>44976</v>
+      </c>
       <c r="M15" s="30">
         <v>1</v>
       </c>
@@ -7911,24 +7885,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>49</v>
+      <c r="O15" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q15" s="5">
         <v>1</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T15" s="106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U15" s="3"/>
       <c r="V15" s="27"/>
@@ -7938,7 +7912,7 @@
     </row>
     <row r="16" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>46</v>
@@ -7950,7 +7924,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="28" t="s">
@@ -7971,7 +7945,7 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="16" t="s">
         <v>49</v>
       </c>
       <c r="P16" s="2">
@@ -7988,7 +7962,7 @@
         <v>50</v>
       </c>
       <c r="T16" s="106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="27"/>
@@ -7996,9 +7970,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="2:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>46</v>
@@ -8048,7 +8022,7 @@
         <v>50</v>
       </c>
       <c r="T17" s="106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="27"/>
@@ -8058,7 +8032,7 @@
     </row>
     <row r="18" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>46</v>
@@ -8108,7 +8082,7 @@
         <v>50</v>
       </c>
       <c r="T18" s="106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="27"/>
@@ -8116,36 +8090,34 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="28" t="s">
-        <v>22</v>
+      <c r="G19" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I19" s="29">
-        <v>44577</v>
+        <v>44409</v>
       </c>
       <c r="J19" s="29">
-        <v>44592</v>
+        <v>44598</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="29">
-        <v>45808</v>
-      </c>
+      <c r="L19" s="29"/>
       <c r="M19" s="30">
         <v>1</v>
       </c>
@@ -8154,23 +8126,23 @@
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P19" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5">
         <v>1</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T19" s="106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="27"/>
@@ -8178,34 +8150,36 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
-        <v>148</v>
+    <row r="20" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B20" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>125</v>
+      <c r="G20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="I20" s="29">
-        <v>44470</v>
+        <v>44577</v>
       </c>
       <c r="J20" s="29">
-        <v>44577</v>
+        <v>44592</v>
       </c>
       <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="L20" s="29">
+        <v>45808</v>
+      </c>
       <c r="M20" s="30">
         <v>1</v>
       </c>
@@ -8213,9 +8187,8 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O20" s="32" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      <c r="O20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P20" s="2">
         <v>300</v>
@@ -8228,10 +8201,10 @@
         <v>300</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T20" s="106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="27"/>
@@ -8239,31 +8212,31 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
-        <v>61</v>
+    <row r="21" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="35" t="s">
+      <c r="G21" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>125</v>
       </c>
       <c r="I21" s="29">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="J21" s="29">
-        <v>44571</v>
+        <v>44577</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
@@ -8274,24 +8247,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O21" s="65" t="s">
-        <v>62</v>
+      <c r="O21" s="32" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
       <c r="P21" s="2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="5">
         <v>1</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T21" s="106" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="27"/>
@@ -8299,33 +8273,31 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="34" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I22" s="29">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="J22" s="29">
-        <v>44559</v>
+        <v>44571</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -8336,25 +8308,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O22" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      <c r="O22" s="65" t="s">
+        <v>62</v>
       </c>
       <c r="P22" s="2">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="Q22" s="5">
         <v>1</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" s="106" t="s">
         <v>300</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22" s="106" t="s">
-        <v>282</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="27"/>
@@ -8362,31 +8333,33 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>124</v>
+        <v>147</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="I23" s="29">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="J23" s="29">
-        <v>44496</v>
+        <v>44559</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -8397,24 +8370,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>49</v>
+      <c r="O23" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="5">
         <v>1</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T23" s="106" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="27"/>
@@ -8422,37 +8396,34 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="31" t="s">
-        <v>29</v>
+      <c r="G24" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I24" s="29">
-        <f>J24-45</f>
-        <v>44448</v>
+        <v>44409</v>
       </c>
       <c r="J24" s="29">
-        <v>44493</v>
+        <v>44496</v>
       </c>
       <c r="K24" s="29"/>
-      <c r="L24" s="29">
-        <v>45224</v>
-      </c>
+      <c r="L24" s="29"/>
       <c r="M24" s="30">
         <v>1</v>
       </c>
@@ -8461,23 +8432,23 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P24" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T24" s="106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="27"/>
@@ -8487,33 +8458,35 @@
     </row>
     <row r="25" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>150</v>
+      <c r="D25" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I25" s="29">
-        <f>J25-7</f>
-        <v>44480</v>
+        <f>J25-45</f>
+        <v>44448</v>
       </c>
       <c r="J25" s="29">
-        <v>44487</v>
+        <v>44493</v>
       </c>
       <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="29">
+        <v>45224</v>
+      </c>
       <c r="M25" s="30">
         <v>1</v>
       </c>
@@ -8525,20 +8498,20 @@
         <v>30</v>
       </c>
       <c r="P25" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T25" s="106" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="27"/>
@@ -8548,29 +8521,30 @@
     </row>
     <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="28" t="s">
+      <c r="G26" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I26" s="29">
-        <v>44409</v>
+        <f>J26-7</f>
+        <v>44480</v>
       </c>
       <c r="J26" s="29">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -8582,23 +8556,23 @@
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="5">
         <v>1</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T26" s="106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="27"/>
@@ -8608,34 +8582,32 @@
     </row>
     <row r="27" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="34" t="s">
+      <c r="G27" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I27" s="29">
-        <v>44476</v>
+        <v>44409</v>
       </c>
       <c r="J27" s="29">
-        <v>44476</v>
+        <v>44486</v>
       </c>
       <c r="K27" s="29"/>
-      <c r="L27" s="29">
-        <v>45206</v>
-      </c>
+      <c r="L27" s="29"/>
       <c r="M27" s="30">
         <v>1</v>
       </c>
@@ -8644,23 +8616,23 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P27" s="2">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="5">
         <v>1</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T27" s="106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="27"/>
@@ -8670,33 +8642,34 @@
     </row>
     <row r="28" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I28" s="29">
-        <f>J28-7</f>
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="J28" s="29">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="L28" s="29">
+        <v>45206</v>
+      </c>
       <c r="M28" s="30">
         <v>1</v>
       </c>
@@ -8708,20 +8681,20 @@
         <v>30</v>
       </c>
       <c r="P28" s="2">
-        <v>99</v>
+        <v>800</v>
       </c>
       <c r="Q28" s="5">
         <v>1</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>800</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T28" s="106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="27"/>
@@ -8729,31 +8702,32 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="2:25" ht="128" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F29" s="43"/>
-      <c r="G29" s="28" t="s">
-        <v>37</v>
+      <c r="G29" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I29" s="29">
-        <v>44409</v>
+        <f>J29-7</f>
+        <v>44466</v>
       </c>
       <c r="J29" s="29">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
@@ -8765,23 +8739,23 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P29" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="5">
         <v>1</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T29" s="106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U29" s="3"/>
       <c r="V29" s="27"/>
@@ -8791,7 +8765,7 @@
     </row>
     <row r="30" spans="2:25" ht="128" x14ac:dyDescent="0.2">
       <c r="B30" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>35</v>
@@ -8803,7 +8777,7 @@
         <v>36</v>
       </c>
       <c r="F30" s="43"/>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H30" s="28" t="s">
@@ -8824,24 +8798,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O30" s="32" t="s">
+      <c r="O30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P30" s="2">
-        <v>500</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="5">
         <v>1</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>199</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="27"/>
@@ -8849,37 +8823,34 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" ht="128" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I31" s="29">
-        <f>J31-45</f>
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="J31" s="29">
-        <v>44452</v>
+        <v>44472</v>
       </c>
       <c r="K31" s="29"/>
-      <c r="L31" s="29">
-        <v>45182</v>
-      </c>
+      <c r="L31" s="29"/>
       <c r="M31" s="30">
         <v>1</v>
       </c>
@@ -8887,24 +8858,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>30</v>
+      <c r="O31" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="P31" s="2">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="Q31" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T31" s="106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="27"/>
@@ -8914,16 +8885,16 @@
     </row>
     <row r="32" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="31" t="s">
@@ -8933,13 +8904,16 @@
         <v>124</v>
       </c>
       <c r="I32" s="29">
-        <v>44409</v>
+        <f>J32-45</f>
+        <v>44407</v>
       </c>
       <c r="J32" s="29">
-        <v>44429</v>
+        <v>44452</v>
       </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="L32" s="29">
+        <v>45182</v>
+      </c>
       <c r="M32" s="30">
         <v>1</v>
       </c>
@@ -8947,24 +8921,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P32" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T32" s="106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="27"/>
@@ -8974,34 +8948,32 @@
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F33" s="43"/>
-      <c r="G33" s="28" t="s">
-        <v>22</v>
+      <c r="G33" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="H33" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I33" s="29">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="J33" s="29">
-        <v>44375</v>
+        <v>44429</v>
       </c>
       <c r="K33" s="29"/>
-      <c r="L33" s="29">
-        <v>45808</v>
-      </c>
+      <c r="L33" s="29"/>
       <c r="M33" s="30">
         <v>1</v>
       </c>
@@ -9009,28 +8981,26 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>23</v>
+      <c r="O33" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="P33" s="2">
-        <v>4000</v>
+        <v>99</v>
       </c>
       <c r="Q33" s="5">
         <v>1</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>99</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T33" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="U33" s="3"/>
       <c r="V33" s="27"/>
       <c r="W33" s="27"/>
       <c r="X33" s="3"/>
@@ -9038,132 +9008,138 @@
     </row>
     <row r="34" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="26" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="F34" s="43"/>
-      <c r="G34" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="34" t="s">
+      <c r="G34" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I34" s="29">
-        <v>44531</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29">
-        <v>44774</v>
-      </c>
-      <c r="L34" s="29"/>
+        <v>44256</v>
+      </c>
+      <c r="J34" s="29">
+        <v>44375</v>
+      </c>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29">
+        <v>45808</v>
+      </c>
       <c r="M34" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="P34" s="2">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="Q34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34" s="103"/>
-      <c r="U34" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="T34" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V34" s="27"/>
-      <c r="W34" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="X34" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y34" s="36" t="s">
-        <v>85</v>
-      </c>
+      <c r="W34" s="27"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="39" t="s">
+      <c r="F35" s="43"/>
+      <c r="G35" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="29">
         <v>44531</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42">
+      <c r="J35" s="29"/>
+      <c r="K35" s="29">
+        <v>44774</v>
+      </c>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30">
         <v>0</v>
       </c>
       <c r="N35" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="P35" s="14">
-        <v>2000</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>1</v>
-      </c>
-      <c r="R35" s="14">
+      <c r="O35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>2</v>
+      </c>
+      <c r="R35" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="S35" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="S35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T35" s="105"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="T35" s="103"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y35" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>72</v>
@@ -9173,38 +9149,36 @@
       </c>
       <c r="F36" s="52"/>
       <c r="G36" s="39" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H36" s="40" t="s">
         <v>124</v>
       </c>
       <c r="I36" s="41">
-        <v>44618</v>
+        <v>44531</v>
       </c>
       <c r="J36" s="41"/>
-      <c r="K36" s="41">
-        <v>44666</v>
-      </c>
+      <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="42">
         <v>0</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="63" t="s">
-        <v>90</v>
+      <c r="O36" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="P36" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="Q36" s="15">
         <v>1</v>
       </c>
       <c r="R36" s="14">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="S36" s="12" t="s">
         <v>39</v>
@@ -9212,336 +9186,373 @@
       <c r="T36" s="105"/>
       <c r="U36" s="12"/>
       <c r="V36" s="38"/>
-      <c r="W36" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-    </row>
-    <row r="37" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="W36" s="38"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="80" x14ac:dyDescent="0.2">
       <c r="B37" s="37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F37" s="52"/>
       <c r="G37" s="39" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H37" s="40" t="s">
         <v>124</v>
       </c>
       <c r="I37" s="41">
-        <v>44531</v>
-      </c>
-      <c r="J37" s="41">
-        <v>44838</v>
-      </c>
+        <v>44618</v>
+      </c>
+      <c r="J37" s="41"/>
       <c r="K37" s="41">
-        <v>44896</v>
-      </c>
-      <c r="L37" s="41">
-        <v>45935</v>
-      </c>
+        <v>44666</v>
+      </c>
+      <c r="L37" s="41"/>
       <c r="M37" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="O37" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="P37" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q37" s="15">
         <v>1</v>
       </c>
       <c r="R37" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T37" s="107" t="s">
-        <v>312</v>
-      </c>
+      <c r="T37" s="105"/>
       <c r="U37" s="12"/>
       <c r="V37" s="38"/>
       <c r="W37" s="38" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="F38" s="52"/>
-      <c r="G38" s="40" t="s">
-        <v>132</v>
+      <c r="G38" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I38" s="41">
-        <v>44571</v>
-      </c>
-      <c r="J38" s="41"/>
+        <v>44531</v>
+      </c>
+      <c r="J38" s="41">
+        <v>44838</v>
+      </c>
       <c r="K38" s="41">
-        <v>45047</v>
-      </c>
-      <c r="L38" s="41"/>
+        <v>44896</v>
+      </c>
+      <c r="L38" s="41">
+        <v>45935</v>
+      </c>
       <c r="M38" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="P38" s="14">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q38" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" s="14">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T38" s="105"/>
+      <c r="T38" s="107" t="s">
+        <v>312</v>
+      </c>
       <c r="U38" s="12"/>
       <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
+      <c r="W38" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" ht="144" x14ac:dyDescent="0.2">
-      <c r="B39" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="43" t="s">
+    <row r="39" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="B39" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="45">
-        <v>44844</v>
-      </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="62">
-        <v>44896</v>
-      </c>
-      <c r="L39" s="45"/>
-      <c r="M39" s="46">
+      <c r="E39" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="41">
+        <v>44571</v>
+      </c>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41">
+        <v>45047</v>
+      </c>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42">
         <v>0</v>
       </c>
-      <c r="N39" s="47">
+      <c r="N39" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="48">
+      <c r="O39" s="13"/>
+      <c r="P39" s="14">
+        <v>750</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>2</v>
+      </c>
+      <c r="R39" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T39" s="105"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+    </row>
+    <row r="40" spans="2:25" ht="144" x14ac:dyDescent="0.2">
+      <c r="B40" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="45">
+        <v>44844</v>
+      </c>
+      <c r="J40" s="45"/>
+      <c r="K40" s="62">
+        <v>44896</v>
+      </c>
+      <c r="L40" s="45"/>
+      <c r="M40" s="46">
+        <v>0</v>
+      </c>
+      <c r="N40" s="47">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="48">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P39" s="49">
+      <c r="P40" s="49">
         <v>300</v>
       </c>
-      <c r="Q39" s="50">
+      <c r="Q40" s="50">
         <v>1</v>
       </c>
-      <c r="R39" s="49">
+      <c r="R40" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S39" s="47" t="s">
+      <c r="S40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T39" s="104"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-    </row>
-    <row r="40" spans="2:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="B40" s="26" t="s">
+      <c r="T40" s="104"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+    </row>
+    <row r="41" spans="2:25" ht="64" x14ac:dyDescent="0.2">
+      <c r="B41" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C41" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D41" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E41" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="34" t="s">
+      <c r="F41" s="43"/>
+      <c r="G41" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H41" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I41" s="29">
         <v>44531</v>
       </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="41">
+      <c r="J41" s="29"/>
+      <c r="K41" s="41">
         <v>44713</v>
       </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="30">
+      <c r="L41" s="29"/>
+      <c r="M41" s="30">
         <v>0.25</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N41" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O41" s="1">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P41" s="2">
         <v>300</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q41" s="5">
         <v>1</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R41" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T40" s="103"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
+      <c r="T41" s="103"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C42" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D42" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E42" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="59" t="s">
+      <c r="F42" s="52"/>
+      <c r="G42" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H42" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I42" s="41">
         <v>44409</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="61">
+      <c r="J42" s="41"/>
+      <c r="K42" s="61">
         <v>44774</v>
       </c>
-      <c r="L41" s="41"/>
-      <c r="M41" s="42">
+      <c r="L42" s="41"/>
+      <c r="M42" s="42">
         <v>0.75</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N42" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="13" t="s">
+      <c r="O42" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P42" s="14">
         <v>49</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q42" s="15">
         <v>1</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R42" s="14">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="S41" s="12" t="s">
+      <c r="S42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T41" s="105"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38" t="s">
+      <c r="T42" s="105"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-    </row>
-    <row r="42" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
     </row>
     <row r="43" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
@@ -9602,8 +9613,8 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="7"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="6"/>
@@ -9641,7 +9652,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -9683,6 +9694,7 @@
     </row>
     <row r="49" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -9726,53 +9738,39 @@
       <c r="V50" s="6"/>
     </row>
     <row r="51" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="74"/>
+      <c r="B51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="S51" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="T51" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="U51" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="V51" s="100" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B52" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="109"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="73"/>
+      <c r="F52" s="74"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="7"/>
@@ -9781,34 +9779,34 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="S52" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="T52" s="9">
-        <v>45078</v>
-      </c>
-      <c r="U52" s="101">
-        <v>500</v>
-      </c>
-      <c r="V52" t="s">
-        <v>124</v>
+      <c r="R52" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="S52" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="U52" s="100" t="s">
+        <v>274</v>
+      </c>
+      <c r="V52" s="100" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B53" s="84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E53" s="75"/>
-      <c r="F53" s="77"/>
+      <c r="F53" s="76"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="7"/>
@@ -9818,62 +9816,66 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="99" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="S53" s="99" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T53" s="9">
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="U53" s="101">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V53" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B54" s="84" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="R54" s="113" t="s">
-        <v>269</v>
-      </c>
-      <c r="S54" s="113" t="s">
+      <c r="F54" s="77"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="S54" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="T54" s="114">
-        <v>44897</v>
-      </c>
-      <c r="U54" s="115">
+      <c r="T54" s="9">
+        <v>44896</v>
+      </c>
+      <c r="U54" s="101">
         <v>200</v>
       </c>
-      <c r="V54" s="113" t="s">
+      <c r="V54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>232</v>
+        <v>71</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E55" s="75"/>
       <c r="F55" s="76"/>
@@ -9881,31 +9883,31 @@
       <c r="M55" s="11"/>
       <c r="N55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="R55" t="s">
-        <v>281</v>
-      </c>
-      <c r="S55" t="s">
+      <c r="R55" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="S55" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="T55" s="9">
-        <v>44927</v>
-      </c>
-      <c r="U55" s="102">
+      <c r="T55" s="114">
+        <v>44897</v>
+      </c>
+      <c r="U55" s="115">
         <v>200</v>
       </c>
-      <c r="V55" t="s">
+      <c r="V55" s="113" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="C56" s="86" t="s">
+        <v>232</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="76"/>
@@ -9913,31 +9915,31 @@
       <c r="M56" s="11"/>
       <c r="N56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="R56" s="113" t="s">
-        <v>270</v>
-      </c>
-      <c r="S56" s="113" t="s">
+      <c r="R56" t="s">
+        <v>281</v>
+      </c>
+      <c r="S56" t="s">
         <v>268</v>
       </c>
-      <c r="T56" s="114">
-        <v>44898</v>
-      </c>
-      <c r="U56" s="115">
+      <c r="T56" s="9">
+        <v>44927</v>
+      </c>
+      <c r="U56" s="102">
         <v>200</v>
       </c>
-      <c r="V56" s="113" t="s">
+      <c r="V56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="85" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>114</v>
       </c>
       <c r="E57" s="75"/>
       <c r="F57" s="76"/>
@@ -9945,105 +9947,107 @@
       <c r="M57" s="11"/>
       <c r="N57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="R57" t="s">
-        <v>271</v>
-      </c>
-      <c r="S57" t="s">
-        <v>272</v>
-      </c>
-      <c r="T57" s="9">
-        <v>44866</v>
-      </c>
-      <c r="U57" s="102">
-        <v>50</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="R57" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="S57" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="T57" s="114">
+        <v>44898</v>
+      </c>
+      <c r="U57" s="115">
+        <v>200</v>
+      </c>
+      <c r="V57" s="113" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D58" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="78"/>
+        <v>114</v>
+      </c>
+      <c r="E58" s="75"/>
       <c r="F58" s="76"/>
       <c r="L58" s="10"/>
       <c r="M58" s="11"/>
       <c r="N58" s="10"/>
       <c r="P58" s="10"/>
       <c r="R58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S58" t="s">
         <v>272</v>
       </c>
       <c r="T58" s="9">
-        <v>44867</v>
+        <v>44866</v>
       </c>
       <c r="U58" s="102">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="V58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="B59" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="78"/>
+      <c r="F59" s="76"/>
       <c r="L59" s="10"/>
       <c r="M59" s="11"/>
       <c r="N59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="R59" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="S59" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="T59" s="114">
-        <v>44868</v>
-      </c>
-      <c r="U59" s="115">
-        <v>250</v>
-      </c>
-      <c r="V59" s="113" t="s">
-        <v>276</v>
+      <c r="R59" t="s">
+        <v>273</v>
+      </c>
+      <c r="S59" t="s">
+        <v>272</v>
+      </c>
+      <c r="T59" s="9">
+        <v>44867</v>
+      </c>
+      <c r="U59" s="102">
+        <v>150</v>
+      </c>
+      <c r="V59" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="80"/>
       <c r="G60" s="9"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="10"/>
-      <c r="Q60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="10"/>
+      <c r="P60" s="10"/>
       <c r="R60" s="113" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="S60" s="113" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="T60" s="114">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="U60" s="115">
         <v>250</v>
@@ -10056,8 +10060,8 @@
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
       <c r="G61" s="9"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -10066,20 +10070,20 @@
       <c r="N61" s="11"/>
       <c r="O61" s="10"/>
       <c r="Q61" s="10"/>
-      <c r="R61" t="s">
-        <v>279</v>
-      </c>
-      <c r="S61" t="s">
-        <v>280</v>
-      </c>
-      <c r="T61" s="9">
-        <v>45047</v>
-      </c>
-      <c r="U61" s="102">
-        <v>150</v>
-      </c>
-      <c r="V61" t="s">
-        <v>124</v>
+      <c r="R61" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="114">
+        <v>44869</v>
+      </c>
+      <c r="U61" s="115">
+        <v>250</v>
+      </c>
+      <c r="V61" s="113" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10097,15 +10101,19 @@
       <c r="O62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="S62" t="s">
+        <v>280</v>
+      </c>
+      <c r="T62" s="9">
+        <v>45047</v>
       </c>
       <c r="U62" s="102">
-        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
-        <v>2150</v>
-      </c>
-      <c r="V62">
-        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="V62" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10122,6 +10130,17 @@
       <c r="N63" s="11"/>
       <c r="O63" s="10"/>
       <c r="Q63" s="10"/>
+      <c r="R63" t="s">
+        <v>278</v>
+      </c>
+      <c r="U63" s="102">
+        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
+        <v>2150</v>
+      </c>
+      <c r="V63">
+        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
@@ -24304,17 +24323,32 @@
       <c r="D1009" s="6"/>
       <c r="E1009" s="6"/>
       <c r="F1009" s="6"/>
+      <c r="G1009" s="9"/>
+      <c r="H1009" s="6"/>
+      <c r="I1009" s="6"/>
       <c r="J1009" s="6"/>
       <c r="M1009" s="10"/>
       <c r="N1009" s="11"/>
       <c r="O1009" s="10"/>
       <c r="Q1009" s="10"/>
     </row>
+    <row r="1010" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1010" s="6"/>
+      <c r="C1010" s="6"/>
+      <c r="D1010" s="6"/>
+      <c r="E1010" s="6"/>
+      <c r="F1010" s="6"/>
+      <c r="J1010" s="6"/>
+      <c r="M1010" s="10"/>
+      <c r="N1010" s="11"/>
+      <c r="O1010" s="10"/>
+      <c r="Q1010" s="10"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{0A952A62-806A-FB43-9F0D-B34417319A46}">
+      <autoFilter ref="B2:S40" xr:uid="{B43F16FC-71AB-604C-8E06-344235AFB71C}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -24322,122 +24356,122 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L36 M2:M41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L37 M2:M42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G29" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G13" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O13" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G12" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O12" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="O11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G8" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="O8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G34" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="O34" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="X34" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Y34" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O35" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Y35" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O36" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G41" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O41" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G37" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O37" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D52" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D53" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D54" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D55" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D56" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D57" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D58" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O10" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G39" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G4" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
-    <hyperlink ref="G5" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
-    <hyperlink ref="O4" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
-    <hyperlink ref="O5" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
-    <hyperlink ref="T22" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
-    <hyperlink ref="T4" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
-    <hyperlink ref="T5" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
-    <hyperlink ref="T6" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
-    <hyperlink ref="T7" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
-    <hyperlink ref="T8" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
-    <hyperlink ref="T9" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
-    <hyperlink ref="T10" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
-    <hyperlink ref="T11" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
-    <hyperlink ref="T12" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
-    <hyperlink ref="T13" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
-    <hyperlink ref="T14" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
-    <hyperlink ref="T15" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
-    <hyperlink ref="T16" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
-    <hyperlink ref="T17" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
-    <hyperlink ref="T18" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
-    <hyperlink ref="T19" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
-    <hyperlink ref="T20" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
-    <hyperlink ref="T21" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
-    <hyperlink ref="T23" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
-    <hyperlink ref="T24" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
-    <hyperlink ref="T25" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
-    <hyperlink ref="T26" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
-    <hyperlink ref="T27" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
-    <hyperlink ref="T28" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
-    <hyperlink ref="T29" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
-    <hyperlink ref="T30" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
-    <hyperlink ref="T31" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
-    <hyperlink ref="T32" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
-    <hyperlink ref="T33" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
-    <hyperlink ref="T37" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
-    <hyperlink ref="G3" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
-    <hyperlink ref="O3" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
-    <hyperlink ref="G2" r:id="rId108" xr:uid="{B68C2409-C837-FB4B-8AA6-560607A67967}"/>
-    <hyperlink ref="O2" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
-    <hyperlink ref="T2" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
-    <hyperlink ref="T3" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
+    <hyperlink ref="G34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="U34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G33" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G32" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O22" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G15" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G14" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O14" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G13" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O13" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G12" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="O12" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G9" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O9" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G35" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="O35" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X35" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Y35" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Y36" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G37" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O42" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G38" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O38" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D53" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D54" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D55" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D56" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D57" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D59" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G22" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G11" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O11" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G40" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G5" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
+    <hyperlink ref="G6" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
+    <hyperlink ref="O5" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
+    <hyperlink ref="O6" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
+    <hyperlink ref="T23" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
+    <hyperlink ref="T5" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
+    <hyperlink ref="T6" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
+    <hyperlink ref="T7" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
+    <hyperlink ref="T8" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
+    <hyperlink ref="T9" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
+    <hyperlink ref="T10" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
+    <hyperlink ref="T11" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
+    <hyperlink ref="T12" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
+    <hyperlink ref="T13" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
+    <hyperlink ref="T14" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
+    <hyperlink ref="T15" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
+    <hyperlink ref="T16" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
+    <hyperlink ref="T17" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
+    <hyperlink ref="T18" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
+    <hyperlink ref="T19" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
+    <hyperlink ref="T20" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
+    <hyperlink ref="T21" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
+    <hyperlink ref="T22" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
+    <hyperlink ref="T24" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
+    <hyperlink ref="T25" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
+    <hyperlink ref="T26" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
+    <hyperlink ref="T27" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
+    <hyperlink ref="T28" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
+    <hyperlink ref="T29" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
+    <hyperlink ref="T30" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
+    <hyperlink ref="T31" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
+    <hyperlink ref="T32" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
+    <hyperlink ref="T33" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
+    <hyperlink ref="T34" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
+    <hyperlink ref="T38" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
+    <hyperlink ref="G4" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
+    <hyperlink ref="O4" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
+    <hyperlink ref="G3" r:id="rId108" xr:uid="{B68C2409-C837-FB4B-8AA6-560607A67967}"/>
+    <hyperlink ref="O3" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
+    <hyperlink ref="T3" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
+    <hyperlink ref="T4" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C8208BD1-E94E-1649-8403-58F01302B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B66365-18EA-AC49-9CD1-86F13FA62F85}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{C8208BD1-E94E-1649-8403-58F01302B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857DF923-EA1B-5F48-B8F0-B706772A8812}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1220" windowWidth="45900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$51</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$52</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="324">
   <si>
     <t>My Certifications</t>
   </si>
@@ -1004,6 +1004,21 @@
   </si>
   <si>
     <t>https://github.com/Cbhami/Coraline/blob/10c8652f15b847455a8ace9792ab38dda3a949ec/Resume%20Resources/Certifications/CompTIA%20Security+%20ce%20certificate.pdf</t>
+  </si>
+  <si>
+    <t>Blackboard 101</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Blackboard Learn</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Blackboard 201</t>
   </si>
 </sst>
 </file>
@@ -6592,10 +6607,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y42" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="B1:Y42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y42">
-    <sortCondition descending="1" ref="J1:J42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y43" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="B1:Y43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y43">
+    <sortCondition descending="1" ref="J1:J43"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="50"/>
@@ -6632,8 +6647,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B52:B59" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="B52:B59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B53:B60" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="B53:B60" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="21"/>
   </tableColumns>
@@ -6642,8 +6657,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C52:C59" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C52:C59" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C53:C60" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="C53:C60" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="15"/>
   </tableColumns>
@@ -6652,8 +6667,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D52:D60" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="D52:D60" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D53:D61" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D53:D61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="11"/>
   </tableColumns>
@@ -6662,8 +6677,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R52:V63" totalsRowCount="1" headerRowDxfId="10">
-  <autoFilter ref="R52:V62" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R53:V64" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="R53:V63" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
@@ -6951,13 +6966,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1010"/>
+  <dimension ref="B1:Y1011"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7061,13 +7076,23 @@
       </c>
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>321</v>
+      </c>
       <c r="F2" s="88"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="H2" s="89" t="s">
+        <v>322</v>
+      </c>
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
       <c r="K2" s="112"/>
@@ -7094,64 +7119,46 @@
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="87" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>316</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="89" t="s">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="I3" s="111">
-        <v>44866</v>
+        <v>44409</v>
       </c>
       <c r="J3" s="111">
-        <v>44893</v>
+        <v>44422</v>
       </c>
       <c r="K3" s="112">
-        <v>44893</v>
-      </c>
-      <c r="L3" s="111">
-        <v>45989</v>
-      </c>
-      <c r="M3" s="92">
-        <v>1</v>
-      </c>
+        <v>44422</v>
+      </c>
+      <c r="L3" s="111"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="93">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="P3" s="94">
-        <v>277</v>
-      </c>
-      <c r="Q3" s="95">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O3" s="116"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
       <c r="R3" s="94">
         <f>Q3*P3</f>
-        <v>277</v>
-      </c>
-      <c r="S3" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="106" t="s">
-        <v>317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S3" s="93"/>
+      <c r="T3" s="117"/>
       <c r="U3" s="93"/>
       <c r="V3" s="88"/>
       <c r="W3" s="88"/>
@@ -7160,7 +7167,7 @@
     </row>
     <row r="4" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="88" t="s">
         <v>233</v>
@@ -7171,9 +7178,11 @@
       <c r="E4" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="88" t="s">
+        <v>315</v>
+      </c>
       <c r="G4" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>124</v>
@@ -7182,10 +7191,10 @@
         <v>44866</v>
       </c>
       <c r="J4" s="111">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="K4" s="112">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="L4" s="111">
         <v>45989</v>
@@ -7201,20 +7210,20 @@
         <v>239</v>
       </c>
       <c r="P4" s="94">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="95">
         <v>1</v>
       </c>
       <c r="R4" s="94">
         <f>Q4*P4</f>
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="S4" s="93" t="s">
         <v>39</v>
       </c>
       <c r="T4" s="106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U4" s="93"/>
       <c r="V4" s="88"/>
@@ -7224,37 +7233,35 @@
     </row>
     <row r="5" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="87" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>233</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="88" t="s">
-        <v>238</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F5" s="88"/>
       <c r="G5" s="35" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="H5" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="90">
-        <v>44811</v>
-      </c>
-      <c r="J5" s="90">
-        <v>44812</v>
-      </c>
-      <c r="K5" s="91">
-        <v>44812</v>
-      </c>
-      <c r="L5" s="90">
-        <v>45908</v>
+      <c r="I5" s="111">
+        <v>44866</v>
+      </c>
+      <c r="J5" s="111">
+        <v>44891</v>
+      </c>
+      <c r="K5" s="112">
+        <v>44891</v>
+      </c>
+      <c r="L5" s="111">
+        <v>45989</v>
       </c>
       <c r="M5" s="92">
         <v>1</v>
@@ -7267,20 +7274,20 @@
         <v>239</v>
       </c>
       <c r="P5" s="94">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="95">
         <v>1</v>
       </c>
       <c r="R5" s="94">
         <f>Q5*P5</f>
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="S5" s="93" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T5" s="106" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="U5" s="93"/>
       <c r="V5" s="88"/>
@@ -7290,34 +7297,38 @@
     </row>
     <row r="6" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="88" t="s">
         <v>233</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="88"/>
+        <v>58</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>238</v>
+      </c>
       <c r="G6" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H6" s="89" t="s">
         <v>124</v>
       </c>
       <c r="I6" s="90">
-        <v>44806</v>
+        <v>44811</v>
       </c>
       <c r="J6" s="90">
-        <v>44836</v>
+        <v>44812</v>
       </c>
       <c r="K6" s="91">
-        <v>44836</v>
-      </c>
-      <c r="L6" s="90"/>
+        <v>44812</v>
+      </c>
+      <c r="L6" s="90">
+        <v>45908</v>
+      </c>
       <c r="M6" s="92">
         <v>1</v>
       </c>
@@ -7329,20 +7340,20 @@
         <v>239</v>
       </c>
       <c r="P6" s="94">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="95">
         <v>1</v>
       </c>
       <c r="R6" s="94">
         <f>Q6*P6</f>
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="S6" s="93" t="s">
         <v>50</v>
       </c>
       <c r="T6" s="106" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U6" s="93"/>
       <c r="V6" s="88"/>
@@ -7350,228 +7361,228 @@
       <c r="X6" s="93"/>
       <c r="Y6" s="93"/>
     </row>
-    <row r="7" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="27" t="s">
+    <row r="7" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="29">
-        <v>44501</v>
-      </c>
-      <c r="J7" s="29">
-        <v>44693</v>
-      </c>
-      <c r="K7" s="29">
-        <v>44652</v>
-      </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30">
+      <c r="F7" s="88"/>
+      <c r="G7" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="90">
+        <v>44806</v>
+      </c>
+      <c r="J7" s="90">
+        <v>44836</v>
+      </c>
+      <c r="K7" s="91">
+        <v>44836</v>
+      </c>
+      <c r="L7" s="90"/>
+      <c r="M7" s="92">
         <v>1</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="93">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="94">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="95">
+        <v>1</v>
+      </c>
+      <c r="R7" s="94">
+        <f>Q7*P7</f>
+        <v>168</v>
+      </c>
+      <c r="S7" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="U7" s="93"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+    </row>
+    <row r="8" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="29">
+        <v>44501</v>
+      </c>
+      <c r="J8" s="29">
+        <v>44693</v>
+      </c>
+      <c r="K8" s="29">
+        <v>44652</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>300</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q8" s="5">
         <v>1</v>
       </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7:R42" si="0">Q7*P7</f>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R43" si="0">Q8*P8</f>
         <v>300</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="106" t="s">
+      <c r="T8" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B9" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C9" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E9" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G9" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H9" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I9" s="45">
         <v>44835</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J9" s="45">
         <v>44687</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K9" s="45">
         <v>44743</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46">
+      <c r="L9" s="45"/>
+      <c r="M9" s="46">
         <v>1</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N9" s="47">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="48" t="str">
+      <c r="O9" s="48" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
-      <c r="P8" s="49">
+      <c r="P9" s="49">
         <v>300</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q9" s="50">
         <v>1</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R9" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S8" s="47" t="s">
+      <c r="S9" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="106" t="s">
+      <c r="T9" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="U8" s="47"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-    </row>
-    <row r="9" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
+      <c r="U9" s="47"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+    </row>
+    <row r="10" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="31" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="29">
-        <v>44618</v>
-      </c>
-      <c r="J9" s="29">
-        <v>44660</v>
-      </c>
-      <c r="K9" s="29">
-        <v>44682</v>
-      </c>
-      <c r="L9" s="29">
-        <v>45025</v>
-      </c>
-      <c r="M9" s="30">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2">
-        <v>270</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="106" t="s">
-        <v>287</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="34" t="s">
-        <v>29</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I10" s="29">
-        <v>44646</v>
+        <v>44618</v>
       </c>
       <c r="J10" s="29">
-        <v>44647</v>
+        <v>44660</v>
       </c>
       <c r="K10" s="29">
-        <v>44647</v>
-      </c>
-      <c r="L10" s="29"/>
+        <v>44682</v>
+      </c>
+      <c r="L10" s="29">
+        <v>45025</v>
+      </c>
       <c r="M10" s="30">
         <v>1</v>
       </c>
@@ -7580,23 +7591,23 @@
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T10" s="106" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="27"/>
@@ -7604,36 +7615,34 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>125</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="I11" s="29">
-        <v>44634</v>
+        <v>44646</v>
       </c>
       <c r="J11" s="29">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="K11" s="29">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="30">
@@ -7643,58 +7652,62 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="57" t="s">
-        <v>128</v>
+      <c r="O11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="P11" s="2">
-        <v>6000</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="5">
         <v>1</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>99</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T11" s="106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="3"/>
+      <c r="W11" s="27"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="58"/>
-    </row>
-    <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>72</v>
+        <v>127</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>124</v>
+        <v>54</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>125</v>
       </c>
       <c r="I12" s="29">
-        <v>44593</v>
+        <v>44634</v>
       </c>
       <c r="J12" s="29">
-        <v>44634</v>
-      </c>
-      <c r="K12" s="29"/>
+        <v>44645</v>
+      </c>
+      <c r="K12" s="29">
+        <v>44645</v>
+      </c>
       <c r="L12" s="29"/>
       <c r="M12" s="30">
         <v>1</v>
@@ -7703,56 +7716,56 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>38</v>
+      <c r="O12" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="P12" s="2">
-        <v>270</v>
+        <v>6000</v>
       </c>
       <c r="Q12" s="5">
         <v>1</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>6000</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="T12" s="106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
+      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="58"/>
     </row>
     <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="31" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I13" s="29">
-        <v>44614</v>
+        <v>44593</v>
       </c>
       <c r="J13" s="29">
-        <v>44615</v>
+        <v>44634</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -7763,24 +7776,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O13" s="31" t="s">
-        <v>79</v>
+      <c r="O13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P13" s="2">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="5">
         <v>1</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T13" s="106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="27"/>
@@ -7790,7 +7803,7 @@
     </row>
     <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>76</v>
@@ -7803,16 +7816,16 @@
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I14" s="29">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="J14" s="29">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -7824,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="2">
         <v>100</v>
@@ -7840,7 +7853,7 @@
         <v>60</v>
       </c>
       <c r="T14" s="106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="27"/>
@@ -7850,34 +7863,32 @@
     </row>
     <row r="15" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I15" s="29">
-        <v>44571</v>
+        <v>44613</v>
       </c>
       <c r="J15" s="29">
-        <v>44611</v>
+        <v>44614</v>
       </c>
       <c r="K15" s="29"/>
-      <c r="L15" s="29">
-        <v>44976</v>
-      </c>
+      <c r="L15" s="29"/>
       <c r="M15" s="30">
         <v>1</v>
       </c>
@@ -7885,24 +7896,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>74</v>
+      <c r="O15" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P15" s="2">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="5">
         <v>1</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="T15" s="106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U15" s="3"/>
       <c r="V15" s="27"/>
@@ -7912,32 +7923,34 @@
     </row>
     <row r="16" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I16" s="29">
-        <v>44409</v>
+        <v>44571</v>
       </c>
       <c r="J16" s="29">
-        <v>44598</v>
+        <v>44611</v>
       </c>
       <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="L16" s="29">
+        <v>44976</v>
+      </c>
       <c r="M16" s="30">
         <v>1</v>
       </c>
@@ -7945,24 +7958,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>49</v>
+      <c r="O16" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="5">
         <v>1</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T16" s="106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="27"/>
@@ -7972,7 +7985,7 @@
     </row>
     <row r="17" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>46</v>
@@ -7984,7 +7997,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="28" t="s">
@@ -8005,7 +8018,7 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="16" t="s">
         <v>49</v>
       </c>
       <c r="P17" s="2">
@@ -8022,7 +8035,7 @@
         <v>50</v>
       </c>
       <c r="T17" s="106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="27"/>
@@ -8030,9 +8043,9 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="2:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>46</v>
@@ -8082,7 +8095,7 @@
         <v>50</v>
       </c>
       <c r="T18" s="106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="27"/>
@@ -8092,7 +8105,7 @@
     </row>
     <row r="19" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>46</v>
@@ -8142,7 +8155,7 @@
         <v>50</v>
       </c>
       <c r="T19" s="106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="27"/>
@@ -8150,36 +8163,34 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="28" t="s">
-        <v>22</v>
+      <c r="G20" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H20" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I20" s="29">
-        <v>44577</v>
+        <v>44409</v>
       </c>
       <c r="J20" s="29">
-        <v>44592</v>
+        <v>44598</v>
       </c>
       <c r="K20" s="29"/>
-      <c r="L20" s="29">
-        <v>45808</v>
-      </c>
+      <c r="L20" s="29"/>
       <c r="M20" s="30">
         <v>1</v>
       </c>
@@ -8188,23 +8199,23 @@
         <v>1</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P20" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="5">
         <v>1</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T20" s="106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="27"/>
@@ -8212,34 +8223,36 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="51" t="s">
-        <v>148</v>
+    <row r="21" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>125</v>
+      <c r="G21" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="I21" s="29">
-        <v>44470</v>
+        <v>44577</v>
       </c>
       <c r="J21" s="29">
-        <v>44577</v>
+        <v>44592</v>
       </c>
       <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="L21" s="29">
+        <v>45808</v>
+      </c>
       <c r="M21" s="30">
         <v>1</v>
       </c>
@@ -8247,9 +8260,8 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O21" s="32" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      <c r="O21" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P21" s="2">
         <v>300</v>
@@ -8262,10 +8274,10 @@
         <v>300</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T21" s="106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="27"/>
@@ -8273,31 +8285,31 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B22" s="26" t="s">
-        <v>61</v>
+    <row r="22" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="35" t="s">
+      <c r="G22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>125</v>
       </c>
       <c r="I22" s="29">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="J22" s="29">
-        <v>44571</v>
+        <v>44577</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -8308,24 +8320,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O22" s="65" t="s">
-        <v>62</v>
+      <c r="O22" s="32" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
       <c r="P22" s="2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="5">
         <v>1</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T22" s="106" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="27"/>
@@ -8333,33 +8346,31 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="34" t="s">
+      <c r="F23" s="43"/>
+      <c r="G23" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I23" s="29">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="J23" s="29">
-        <v>44559</v>
+        <v>44571</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -8370,25 +8381,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      <c r="O23" s="65" t="s">
+        <v>62</v>
       </c>
       <c r="P23" s="2">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="Q23" s="5">
         <v>1</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T23" s="106" t="s">
         <v>300</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T23" s="106" t="s">
-        <v>282</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="27"/>
@@ -8396,31 +8406,33 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>124</v>
+        <v>147</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="I24" s="29">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="J24" s="29">
-        <v>44496</v>
+        <v>44559</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
@@ -8431,24 +8443,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>49</v>
+      <c r="O24" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="5">
         <v>1</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T24" s="106" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="27"/>
@@ -8456,37 +8469,34 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" ht="112" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="31" t="s">
-        <v>29</v>
+      <c r="G25" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I25" s="29">
-        <f>J25-45</f>
-        <v>44448</v>
+        <v>44409</v>
       </c>
       <c r="J25" s="29">
-        <v>44493</v>
+        <v>44496</v>
       </c>
       <c r="K25" s="29"/>
-      <c r="L25" s="29">
-        <v>45224</v>
-      </c>
+      <c r="L25" s="29"/>
       <c r="M25" s="30">
         <v>1</v>
       </c>
@@ -8495,23 +8505,23 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P25" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T25" s="106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="27"/>
@@ -8521,33 +8531,35 @@
     </row>
     <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>150</v>
+      <c r="D26" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I26" s="29">
-        <f>J26-7</f>
-        <v>44480</v>
+        <f>J26-45</f>
+        <v>44448</v>
       </c>
       <c r="J26" s="29">
-        <v>44487</v>
+        <v>44493</v>
       </c>
       <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="L26" s="29">
+        <v>45224</v>
+      </c>
       <c r="M26" s="30">
         <v>1</v>
       </c>
@@ -8559,20 +8571,20 @@
         <v>30</v>
       </c>
       <c r="P26" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T26" s="106" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="27"/>
@@ -8582,29 +8594,30 @@
     </row>
     <row r="27" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="28" t="s">
+      <c r="G27" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I27" s="29">
-        <v>44409</v>
+        <f>J27-7</f>
+        <v>44480</v>
       </c>
       <c r="J27" s="29">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -8616,23 +8629,23 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="5">
         <v>1</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T27" s="106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="27"/>
@@ -8642,34 +8655,32 @@
     </row>
     <row r="28" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F28" s="43"/>
-      <c r="G28" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="34" t="s">
+      <c r="G28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I28" s="29">
-        <v>44476</v>
+        <v>44409</v>
       </c>
       <c r="J28" s="29">
-        <v>44476</v>
+        <v>44486</v>
       </c>
       <c r="K28" s="29"/>
-      <c r="L28" s="29">
-        <v>45206</v>
-      </c>
+      <c r="L28" s="29"/>
       <c r="M28" s="30">
         <v>1</v>
       </c>
@@ -8678,23 +8689,23 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P28" s="2">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="5">
         <v>1</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T28" s="106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="27"/>
@@ -8704,33 +8715,34 @@
     </row>
     <row r="29" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="34" t="s">
         <v>124</v>
       </c>
       <c r="I29" s="29">
-        <f>J29-7</f>
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="J29" s="29">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="29">
+        <v>45206</v>
+      </c>
       <c r="M29" s="30">
         <v>1</v>
       </c>
@@ -8742,20 +8754,20 @@
         <v>30</v>
       </c>
       <c r="P29" s="2">
-        <v>99</v>
+        <v>800</v>
       </c>
       <c r="Q29" s="5">
         <v>1</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>800</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T29" s="106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U29" s="3"/>
       <c r="V29" s="27"/>
@@ -8763,31 +8775,32 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="2:25" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F30" s="43"/>
-      <c r="G30" s="28" t="s">
-        <v>37</v>
+      <c r="G30" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I30" s="29">
-        <v>44409</v>
+        <f>J30-7</f>
+        <v>44466</v>
       </c>
       <c r="J30" s="29">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
@@ -8799,23 +8812,23 @@
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P30" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="5">
         <v>1</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T30" s="106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="27"/>
@@ -8825,7 +8838,7 @@
     </row>
     <row r="31" spans="2:25" ht="128" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>35</v>
@@ -8837,7 +8850,7 @@
         <v>36</v>
       </c>
       <c r="F31" s="43"/>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H31" s="28" t="s">
@@ -8858,24 +8871,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O31" s="32" t="s">
+      <c r="O31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P31" s="2">
-        <v>500</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="5">
         <v>1</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>199</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="T31" s="106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="27"/>
@@ -8883,37 +8896,34 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" ht="128" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I32" s="29">
-        <f>J32-45</f>
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="J32" s="29">
-        <v>44452</v>
+        <v>44472</v>
       </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29">
-        <v>45182</v>
-      </c>
+      <c r="L32" s="29"/>
       <c r="M32" s="30">
         <v>1</v>
       </c>
@@ -8921,24 +8931,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>30</v>
+      <c r="O32" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="P32" s="2">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="Q32" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T32" s="106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="27"/>
@@ -8948,16 +8958,16 @@
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="31" t="s">
@@ -8967,13 +8977,16 @@
         <v>124</v>
       </c>
       <c r="I33" s="29">
-        <v>44409</v>
+        <f>J33-45</f>
+        <v>44407</v>
       </c>
       <c r="J33" s="29">
-        <v>44429</v>
+        <v>44452</v>
       </c>
       <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="L33" s="29">
+        <v>45182</v>
+      </c>
       <c r="M33" s="30">
         <v>1</v>
       </c>
@@ -8981,24 +8994,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P33" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Q33" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T33" s="106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U33" s="3"/>
       <c r="V33" s="27"/>
@@ -9008,34 +9021,32 @@
     </row>
     <row r="34" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" s="43"/>
-      <c r="G34" s="28" t="s">
-        <v>22</v>
+      <c r="G34" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="H34" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I34" s="29">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="J34" s="29">
-        <v>44375</v>
+        <v>44429</v>
       </c>
       <c r="K34" s="29"/>
-      <c r="L34" s="29">
-        <v>45808</v>
-      </c>
+      <c r="L34" s="29"/>
       <c r="M34" s="30">
         <v>1</v>
       </c>
@@ -9043,28 +9054,26 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>23</v>
+      <c r="O34" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="P34" s="2">
-        <v>4000</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="5">
         <v>1</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>99</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T34" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="U34" s="3"/>
       <c r="V34" s="27"/>
       <c r="W34" s="27"/>
       <c r="X34" s="3"/>
@@ -9072,132 +9081,138 @@
     </row>
     <row r="35" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="F35" s="43"/>
-      <c r="G35" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="34" t="s">
+      <c r="G35" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>124</v>
       </c>
       <c r="I35" s="29">
-        <v>44531</v>
-      </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29">
-        <v>44774</v>
-      </c>
-      <c r="L35" s="29"/>
+        <v>44256</v>
+      </c>
+      <c r="J35" s="29">
+        <v>44375</v>
+      </c>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29">
+        <v>45808</v>
+      </c>
       <c r="M35" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="P35" s="2">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="Q35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35" s="103"/>
-      <c r="U35" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="T35" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V35" s="27"/>
-      <c r="W35" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="X35" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y35" s="36" t="s">
-        <v>85</v>
-      </c>
+      <c r="W35" s="27"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="39" t="s">
+      <c r="F36" s="43"/>
+      <c r="G36" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="29">
         <v>44531</v>
       </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="42">
+      <c r="J36" s="29"/>
+      <c r="K36" s="29">
+        <v>44774</v>
+      </c>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30">
         <v>0</v>
       </c>
       <c r="N36" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="P36" s="14">
-        <v>2000</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>1</v>
-      </c>
-      <c r="R36" s="14">
+      <c r="O36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>2</v>
+      </c>
+      <c r="R36" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="S36" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="S36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T36" s="105"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="T36" s="103"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y36" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>72</v>
@@ -9207,38 +9222,36 @@
       </c>
       <c r="F37" s="52"/>
       <c r="G37" s="39" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H37" s="40" t="s">
         <v>124</v>
       </c>
       <c r="I37" s="41">
-        <v>44618</v>
+        <v>44531</v>
       </c>
       <c r="J37" s="41"/>
-      <c r="K37" s="41">
-        <v>44666</v>
-      </c>
+      <c r="K37" s="41"/>
       <c r="L37" s="41"/>
       <c r="M37" s="42">
         <v>0</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="63" t="s">
-        <v>90</v>
+      <c r="O37" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="P37" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="Q37" s="15">
         <v>1</v>
       </c>
       <c r="R37" s="14">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="S37" s="12" t="s">
         <v>39</v>
@@ -9246,336 +9259,373 @@
       <c r="T37" s="105"/>
       <c r="U37" s="12"/>
       <c r="V37" s="38"/>
-      <c r="W37" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-    </row>
-    <row r="38" spans="2:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="W37" s="38"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" ht="80" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F38" s="52"/>
       <c r="G38" s="39" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H38" s="40" t="s">
         <v>124</v>
       </c>
       <c r="I38" s="41">
-        <v>44531</v>
-      </c>
-      <c r="J38" s="41">
-        <v>44838</v>
-      </c>
+        <v>44618</v>
+      </c>
+      <c r="J38" s="41"/>
       <c r="K38" s="41">
-        <v>44896</v>
-      </c>
-      <c r="L38" s="41">
-        <v>45935</v>
-      </c>
+        <v>44666</v>
+      </c>
+      <c r="L38" s="41"/>
       <c r="M38" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="O38" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="P38" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q38" s="15">
         <v>1</v>
       </c>
       <c r="R38" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T38" s="107" t="s">
-        <v>312</v>
-      </c>
+      <c r="T38" s="105"/>
       <c r="U38" s="12"/>
       <c r="V38" s="38"/>
       <c r="W38" s="38" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" ht="96" x14ac:dyDescent="0.2">
       <c r="B39" s="37" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="F39" s="52"/>
-      <c r="G39" s="40" t="s">
-        <v>132</v>
+      <c r="G39" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I39" s="41">
-        <v>44571</v>
-      </c>
-      <c r="J39" s="41"/>
+        <v>44531</v>
+      </c>
+      <c r="J39" s="41">
+        <v>44838</v>
+      </c>
       <c r="K39" s="41">
-        <v>45047</v>
-      </c>
-      <c r="L39" s="41"/>
+        <v>44896</v>
+      </c>
+      <c r="L39" s="41">
+        <v>45935</v>
+      </c>
       <c r="M39" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="P39" s="14">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q39" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" s="14">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T39" s="105"/>
+      <c r="T39" s="107" t="s">
+        <v>312</v>
+      </c>
       <c r="U39" s="12"/>
       <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
+      <c r="W39" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" spans="2:25" ht="144" x14ac:dyDescent="0.2">
-      <c r="B40" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="43" t="s">
+    <row r="40" spans="2:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="B40" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="45">
-        <v>44844</v>
-      </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="62">
-        <v>44896</v>
-      </c>
-      <c r="L40" s="45"/>
-      <c r="M40" s="46">
+      <c r="E40" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="41">
+        <v>44571</v>
+      </c>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41">
+        <v>45047</v>
+      </c>
+      <c r="L40" s="41"/>
+      <c r="M40" s="42">
         <v>0</v>
       </c>
-      <c r="N40" s="47">
+      <c r="N40" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="13"/>
+      <c r="P40" s="14">
+        <v>750</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>2</v>
+      </c>
+      <c r="R40" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T40" s="105"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+    </row>
+    <row r="41" spans="2:25" ht="144" x14ac:dyDescent="0.2">
+      <c r="B41" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="45">
+        <v>44844</v>
+      </c>
+      <c r="J41" s="45"/>
+      <c r="K41" s="62">
+        <v>44896</v>
+      </c>
+      <c r="L41" s="45"/>
+      <c r="M41" s="46">
+        <v>0</v>
+      </c>
+      <c r="N41" s="47">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="48">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="49">
+      <c r="P41" s="49">
         <v>300</v>
       </c>
-      <c r="Q40" s="50">
+      <c r="Q41" s="50">
         <v>1</v>
       </c>
-      <c r="R40" s="49">
+      <c r="R41" s="49">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S40" s="47" t="s">
+      <c r="S41" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="T40" s="104"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-    </row>
-    <row r="41" spans="2:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="B41" s="26" t="s">
+      <c r="T41" s="104"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+    </row>
+    <row r="42" spans="2:25" ht="64" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D42" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E42" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="34" t="s">
+      <c r="F42" s="43"/>
+      <c r="G42" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H42" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I42" s="29">
         <v>44531</v>
       </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="41">
+      <c r="J42" s="29"/>
+      <c r="K42" s="41">
         <v>44713</v>
       </c>
-      <c r="L41" s="29"/>
-      <c r="M41" s="30">
+      <c r="L42" s="29"/>
+      <c r="M42" s="30">
         <v>0.25</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O42" s="1">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P42" s="2">
         <v>300</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q42" s="5">
         <v>1</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R42" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T41" s="103"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="37" t="s">
+      <c r="T42" s="103"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C43" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D43" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E43" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="59" t="s">
+      <c r="F43" s="52"/>
+      <c r="G43" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="60" t="s">
+      <c r="H43" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I43" s="41">
         <v>44409</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="61">
+      <c r="J43" s="41"/>
+      <c r="K43" s="61">
         <v>44774</v>
       </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="42">
+      <c r="L43" s="41"/>
+      <c r="M43" s="42">
         <v>0.75</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N43" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O42" s="13" t="s">
+      <c r="O43" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P43" s="14">
         <v>49</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q43" s="15">
         <v>1</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R43" s="14">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="S42" s="12" t="s">
+      <c r="S43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="105"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38" t="s">
+      <c r="T43" s="105"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-    </row>
-    <row r="43" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
     </row>
     <row r="44" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
@@ -9636,8 +9686,8 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="7"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="6"/>
@@ -9675,7 +9725,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -9717,6 +9767,7 @@
     </row>
     <row r="50" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -9760,53 +9811,39 @@
       <c r="V51" s="6"/>
     </row>
     <row r="52" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="73"/>
-      <c r="F52" s="74"/>
+      <c r="B52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="S52" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="T52" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="U52" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="V52" s="100" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B53" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+    </row>
+    <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="73"/>
+      <c r="F53" s="74"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="7"/>
@@ -9815,34 +9852,34 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="6"/>
-      <c r="R53" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="S53" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="T53" s="9">
-        <v>45078</v>
-      </c>
-      <c r="U53" s="101">
-        <v>500</v>
-      </c>
-      <c r="V53" t="s">
-        <v>124</v>
+      <c r="R53" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="S53" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="T53" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="U53" s="100" t="s">
+        <v>274</v>
+      </c>
+      <c r="V53" s="100" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B54" s="84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E54" s="75"/>
-      <c r="F54" s="77"/>
+      <c r="F54" s="76"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="7"/>
@@ -9852,62 +9889,66 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="99" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="S54" s="99" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T54" s="9">
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="U54" s="101">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V54" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B55" s="84" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" s="75"/>
-      <c r="F55" s="76"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="R55" s="113" t="s">
-        <v>269</v>
-      </c>
-      <c r="S55" s="113" t="s">
+      <c r="F55" s="77"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="S55" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="T55" s="114">
-        <v>44897</v>
-      </c>
-      <c r="U55" s="115">
+      <c r="T55" s="9">
+        <v>44896</v>
+      </c>
+      <c r="U55" s="101">
         <v>200</v>
       </c>
-      <c r="V55" s="113" t="s">
+      <c r="V55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="86" t="s">
-        <v>232</v>
+        <v>71</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="76"/>
@@ -9915,31 +9956,31 @@
       <c r="M56" s="11"/>
       <c r="N56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="R56" t="s">
-        <v>281</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="R56" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="S56" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="T56" s="9">
-        <v>44927</v>
-      </c>
-      <c r="U56" s="102">
+      <c r="T56" s="114">
+        <v>44897</v>
+      </c>
+      <c r="U56" s="115">
         <v>200</v>
       </c>
-      <c r="V56" t="s">
+      <c r="V56" s="113" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>232</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="75"/>
       <c r="F57" s="76"/>
@@ -9947,31 +9988,31 @@
       <c r="M57" s="11"/>
       <c r="N57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="R57" s="113" t="s">
-        <v>270</v>
-      </c>
-      <c r="S57" s="113" t="s">
+      <c r="R57" t="s">
+        <v>281</v>
+      </c>
+      <c r="S57" t="s">
         <v>268</v>
       </c>
-      <c r="T57" s="114">
-        <v>44898</v>
-      </c>
-      <c r="U57" s="115">
+      <c r="T57" s="9">
+        <v>44927</v>
+      </c>
+      <c r="U57" s="102">
         <v>200</v>
       </c>
-      <c r="V57" s="113" t="s">
+      <c r="V57" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="85" t="s">
         <v>110</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>114</v>
       </c>
       <c r="E58" s="75"/>
       <c r="F58" s="76"/>
@@ -9979,105 +10020,107 @@
       <c r="M58" s="11"/>
       <c r="N58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="R58" t="s">
-        <v>271</v>
-      </c>
-      <c r="S58" t="s">
-        <v>272</v>
-      </c>
-      <c r="T58" s="9">
-        <v>44866</v>
-      </c>
-      <c r="U58" s="102">
-        <v>50</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="R58" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="S58" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="T58" s="114">
+        <v>44898</v>
+      </c>
+      <c r="U58" s="115">
+        <v>200</v>
+      </c>
+      <c r="V58" s="113" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" s="84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="78"/>
+        <v>114</v>
+      </c>
+      <c r="E59" s="75"/>
       <c r="F59" s="76"/>
       <c r="L59" s="10"/>
       <c r="M59" s="11"/>
       <c r="N59" s="10"/>
       <c r="P59" s="10"/>
       <c r="R59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S59" t="s">
         <v>272</v>
       </c>
       <c r="T59" s="9">
-        <v>44867</v>
+        <v>44866</v>
       </c>
       <c r="U59" s="102">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="V59" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="B60" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="78"/>
+      <c r="F60" s="76"/>
       <c r="L60" s="10"/>
       <c r="M60" s="11"/>
       <c r="N60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="R60" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="S60" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="T60" s="114">
-        <v>44868</v>
-      </c>
-      <c r="U60" s="115">
-        <v>250</v>
-      </c>
-      <c r="V60" s="113" t="s">
-        <v>276</v>
+      <c r="R60" t="s">
+        <v>273</v>
+      </c>
+      <c r="S60" t="s">
+        <v>272</v>
+      </c>
+      <c r="T60" s="9">
+        <v>44867</v>
+      </c>
+      <c r="U60" s="102">
+        <v>150</v>
+      </c>
+      <c r="V60" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="80"/>
       <c r="G61" s="9"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="10"/>
-      <c r="Q61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="10"/>
+      <c r="P61" s="10"/>
       <c r="R61" s="113" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="S61" s="113" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="T61" s="114">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="U61" s="115">
         <v>250</v>
@@ -10090,8 +10133,8 @@
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
       <c r="G62" s="9"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -10100,20 +10143,20 @@
       <c r="N62" s="11"/>
       <c r="O62" s="10"/>
       <c r="Q62" s="10"/>
-      <c r="R62" t="s">
-        <v>279</v>
-      </c>
-      <c r="S62" t="s">
-        <v>280</v>
-      </c>
-      <c r="T62" s="9">
-        <v>45047</v>
-      </c>
-      <c r="U62" s="102">
-        <v>150</v>
-      </c>
-      <c r="V62" t="s">
-        <v>124</v>
+      <c r="R62" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="114">
+        <v>44869</v>
+      </c>
+      <c r="U62" s="115">
+        <v>250</v>
+      </c>
+      <c r="V62" s="113" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10131,15 +10174,19 @@
       <c r="O63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="S63" t="s">
+        <v>280</v>
+      </c>
+      <c r="T63" s="9">
+        <v>45047</v>
       </c>
       <c r="U63" s="102">
-        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
-        <v>2150</v>
-      </c>
-      <c r="V63">
-        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="V63" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10156,6 +10203,17 @@
       <c r="N64" s="11"/>
       <c r="O64" s="10"/>
       <c r="Q64" s="10"/>
+      <c r="R64" t="s">
+        <v>278</v>
+      </c>
+      <c r="U64" s="102">
+        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
+        <v>2150</v>
+      </c>
+      <c r="V64">
+        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
@@ -24338,11 +24396,26 @@
       <c r="D1010" s="6"/>
       <c r="E1010" s="6"/>
       <c r="F1010" s="6"/>
+      <c r="G1010" s="9"/>
+      <c r="H1010" s="6"/>
+      <c r="I1010" s="6"/>
       <c r="J1010" s="6"/>
       <c r="M1010" s="10"/>
       <c r="N1010" s="11"/>
       <c r="O1010" s="10"/>
       <c r="Q1010" s="10"/>
+    </row>
+    <row r="1011" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1011" s="6"/>
+      <c r="C1011" s="6"/>
+      <c r="D1011" s="6"/>
+      <c r="E1011" s="6"/>
+      <c r="F1011" s="6"/>
+      <c r="J1011" s="6"/>
+      <c r="M1011" s="10"/>
+      <c r="N1011" s="11"/>
+      <c r="O1011" s="10"/>
+      <c r="Q1011" s="10"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -24356,122 +24429,122 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L37 M2:M42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L38 M2:M43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G33" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G32" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O22" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G15" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G14" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O14" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G13" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O13" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G12" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="O12" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G9" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="O9" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G35" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="O35" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="X35" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Y35" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Y36" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G37" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O42" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G38" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O38" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D53" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D54" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D55" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D56" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D57" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D59" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G22" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G11" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O11" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G40" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G5" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
-    <hyperlink ref="G6" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
-    <hyperlink ref="O5" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
-    <hyperlink ref="O6" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
-    <hyperlink ref="T23" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
-    <hyperlink ref="T5" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
-    <hyperlink ref="T6" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
-    <hyperlink ref="T7" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
-    <hyperlink ref="T8" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
-    <hyperlink ref="T9" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
-    <hyperlink ref="T10" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
-    <hyperlink ref="T11" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
-    <hyperlink ref="T12" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
-    <hyperlink ref="T13" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
-    <hyperlink ref="T14" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
-    <hyperlink ref="T15" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
-    <hyperlink ref="T16" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
-    <hyperlink ref="T17" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
-    <hyperlink ref="T18" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
-    <hyperlink ref="T19" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
-    <hyperlink ref="T20" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
-    <hyperlink ref="T21" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
-    <hyperlink ref="T22" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
-    <hyperlink ref="T24" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
-    <hyperlink ref="T25" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
-    <hyperlink ref="T26" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
-    <hyperlink ref="T27" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
-    <hyperlink ref="T28" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
-    <hyperlink ref="T29" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
-    <hyperlink ref="T30" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
-    <hyperlink ref="T31" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
-    <hyperlink ref="T32" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
-    <hyperlink ref="T33" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
-    <hyperlink ref="T34" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
-    <hyperlink ref="T38" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
-    <hyperlink ref="G4" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
-    <hyperlink ref="O4" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
-    <hyperlink ref="G3" r:id="rId108" xr:uid="{B68C2409-C837-FB4B-8AA6-560607A67967}"/>
-    <hyperlink ref="O3" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
-    <hyperlink ref="T3" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
-    <hyperlink ref="T4" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
+    <hyperlink ref="G35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="U35" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G34" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O33" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O23" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G16" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O16" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G15" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O15" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G14" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O14" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G13" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="O13" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G10" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O10" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G36" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="O36" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X36" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Y36" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G37" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O37" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Y37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O38" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G43" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O43" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D54" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D55" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D56" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D57" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D58" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D59" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D60" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G23" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G12" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O12" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G41" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G6" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
+    <hyperlink ref="G7" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
+    <hyperlink ref="O6" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
+    <hyperlink ref="O7" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
+    <hyperlink ref="T24" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
+    <hyperlink ref="T6" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
+    <hyperlink ref="T7" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
+    <hyperlink ref="T8" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
+    <hyperlink ref="T9" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
+    <hyperlink ref="T10" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
+    <hyperlink ref="T11" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
+    <hyperlink ref="T12" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
+    <hyperlink ref="T13" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
+    <hyperlink ref="T14" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
+    <hyperlink ref="T15" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
+    <hyperlink ref="T16" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
+    <hyperlink ref="T17" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
+    <hyperlink ref="T18" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
+    <hyperlink ref="T19" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
+    <hyperlink ref="T20" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
+    <hyperlink ref="T21" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
+    <hyperlink ref="T22" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
+    <hyperlink ref="T23" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
+    <hyperlink ref="T25" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
+    <hyperlink ref="T26" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
+    <hyperlink ref="T27" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
+    <hyperlink ref="T28" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
+    <hyperlink ref="T29" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
+    <hyperlink ref="T30" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
+    <hyperlink ref="T31" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
+    <hyperlink ref="T32" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
+    <hyperlink ref="T33" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
+    <hyperlink ref="T34" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
+    <hyperlink ref="T35" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
+    <hyperlink ref="T39" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
+    <hyperlink ref="G5" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
+    <hyperlink ref="O5" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
+    <hyperlink ref="G4" r:id="rId108" xr:uid="{B68C2409-C837-FB4B-8AA6-560607A67967}"/>
+    <hyperlink ref="O4" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
+    <hyperlink ref="T4" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
+    <hyperlink ref="T5" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C8208BD1-E94E-1649-8403-58F01302B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857DF923-EA1B-5F48-B8F0-B706772A8812}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921609F7-9AE7-F244-9AC6-FA15DB038DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1220" windowWidth="45900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6969,10 +6969,10 @@
   <dimension ref="B1:Y1011"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7093,9 +7093,15 @@
       <c r="H2" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="I2" s="111">
+        <v>44422</v>
+      </c>
+      <c r="J2" s="111">
+        <v>44429</v>
+      </c>
+      <c r="K2" s="112">
+        <v>44429</v>
+      </c>
       <c r="L2" s="111"/>
       <c r="M2" s="92"/>
       <c r="N2" s="93">
@@ -7106,7 +7112,7 @@
       <c r="P2" s="94"/>
       <c r="Q2" s="95"/>
       <c r="R2" s="94">
-        <f>Q2*P2</f>
+        <f t="shared" ref="R2:R7" si="0">Q2*P2</f>
         <v>0</v>
       </c>
       <c r="S2" s="93"/>
@@ -7154,7 +7160,7 @@
       <c r="P3" s="94"/>
       <c r="Q3" s="95"/>
       <c r="R3" s="94">
-        <f>Q3*P3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="93"/>
@@ -7216,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="94">
-        <f>Q4*P4</f>
+        <f t="shared" si="0"/>
         <v>277</v>
       </c>
       <c r="S4" s="93" t="s">
@@ -7280,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="94">
-        <f>Q5*P5</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="S5" s="93" t="s">
@@ -7346,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="94">
-        <f>Q6*P6</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="S6" s="93" t="s">
@@ -7408,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="94">
-        <f>Q7*P7</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="S7" s="93" t="s">
@@ -7471,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:R43" si="0">Q8*P8</f>
+        <f t="shared" ref="R8:R43" si="1">Q8*P8</f>
         <v>300</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -7536,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S9" s="47" t="s">
@@ -7600,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -7662,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -7726,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -7786,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -7846,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -7906,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -7968,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -8028,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -8088,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -8148,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -8208,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
@@ -8270,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S21" s="3" t="s">
@@ -8331,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S22" s="3" t="s">
@@ -8391,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -8454,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -8514,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -8577,7 +8583,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="S26" s="3" t="s">
@@ -8638,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="S27" s="3" t="s">
@@ -8698,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S28" s="3" t="s">
@@ -8760,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="S29" s="3" t="s">
@@ -8821,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -8881,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="S31" s="3" t="s">
@@ -8941,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="S32" s="3" t="s">
@@ -9004,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="S33" s="3" t="s">
@@ -9064,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="S34" s="3" t="s">
@@ -9126,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="S35" s="3" t="s">
@@ -9188,7 +9194,7 @@
         <v>2</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="S36" s="3" t="s">
@@ -9250,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="S37" s="12" t="s">
@@ -9310,7 +9316,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="S38" s="12" t="s">
@@ -9374,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S39" s="12" t="s">
@@ -9434,7 +9440,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="S40" s="12" t="s">
@@ -9495,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S41" s="47" t="s">
@@ -9554,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S42" s="3" t="s">
@@ -9612,7 +9618,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="S43" s="12" t="s">
@@ -24421,7 +24427,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{B43F16FC-71AB-604C-8E06-344235AFB71C}">
+      <autoFilter ref="B2:S40" xr:uid="{F59F3E08-E1D5-DD48-8FE2-774B824E2F0A}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921609F7-9AE7-F244-9AC6-FA15DB038DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{921609F7-9AE7-F244-9AC6-FA15DB038DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA2A0C1-B125-8646-9DB3-CAECBEC013A1}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1220" windowWidth="45900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$52</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$53</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="327">
   <si>
     <t>My Certifications</t>
   </si>
@@ -1019,6 +1019,15 @@
   </si>
   <si>
     <t>Blackboard 201</t>
+  </si>
+  <si>
+    <t>CySA+</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>https://www.comptia.org/certifications/cybersecurity-analyst</t>
   </si>
 </sst>
 </file>
@@ -1358,8 +1367,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="107">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,16 +1419,13 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1521,10 +1527,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1539,7 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,7 +1560,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1568,34 +1574,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,7 +1634,6 @@
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1653,31 +1643,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1686,19 +1658,25 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6607,10 +6585,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y43" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="B1:Y43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y43">
-    <sortCondition descending="1" ref="J1:J43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="B1:Y44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y44">
+    <sortCondition descending="1" ref="J1:J44"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="50"/>
@@ -6647,8 +6625,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B53:B60" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="B53:B60" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B54:B61" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="B54:B61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="21"/>
   </tableColumns>
@@ -6657,8 +6635,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C53:C60" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C53:C60" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C54:C61" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="C54:C61" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="15"/>
   </tableColumns>
@@ -6667,8 +6645,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D53:D61" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="D53:D61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D54:D62" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D54:D62" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="11"/>
   </tableColumns>
@@ -6677,8 +6655,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R53:V64" totalsRowCount="1" headerRowDxfId="10">
-  <autoFilter ref="R53:V63" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R54:V65" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="R54:V64" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
@@ -6966,13 +6944,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1011"/>
+  <dimension ref="B1:Y1012"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6995,471 +6973,471 @@
     <col min="17" max="17" width="41.6640625" customWidth="1"/>
     <col min="18" max="18" width="30.33203125" customWidth="1"/>
     <col min="19" max="19" width="30.5" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" customWidth="1"/>
     <col min="21" max="21" width="38.83203125" customWidth="1"/>
     <col min="22" max="22" width="40.33203125" customWidth="1"/>
     <col min="23" max="30" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="108" t="s">
+      <c r="T1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="98">
         <v>44422</v>
       </c>
-      <c r="J2" s="111">
+      <c r="J2" s="98">
         <v>44429</v>
       </c>
-      <c r="K2" s="112">
+      <c r="K2" s="99">
         <v>44429</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93">
+      <c r="L2" s="98"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="94">
+      <c r="O2" s="103"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="88">
         <f t="shared" ref="R2:R7" si="0">Q2*P2</f>
         <v>0</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="98">
         <v>44409</v>
       </c>
-      <c r="J3" s="111">
+      <c r="J3" s="98">
         <v>44422</v>
       </c>
-      <c r="K3" s="112">
+      <c r="K3" s="99">
         <v>44422</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93">
+      <c r="L3" s="98"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="94">
+      <c r="O3" s="103"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
     </row>
     <row r="4" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="98">
         <v>44866</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="98">
         <v>44893</v>
       </c>
-      <c r="K4" s="112">
+      <c r="K4" s="99">
         <v>44893</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="98">
         <v>45989</v>
       </c>
-      <c r="M4" s="92">
+      <c r="M4" s="86">
         <v>1</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="87">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="94">
+      <c r="P4" s="88">
         <v>277</v>
       </c>
-      <c r="Q4" s="95">
+      <c r="Q4" s="89">
         <v>1</v>
       </c>
-      <c r="R4" s="94">
+      <c r="R4" s="88">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="106" t="s">
+      <c r="T4" s="96" t="s">
         <v>317</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
     </row>
     <row r="5" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="82"/>
+      <c r="G5" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="98">
         <v>44866</v>
       </c>
-      <c r="J5" s="111">
+      <c r="J5" s="98">
         <v>44891</v>
       </c>
-      <c r="K5" s="112">
+      <c r="K5" s="99">
         <v>44891</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="98">
         <v>45989</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="86">
         <v>1</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="87">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="P5" s="94">
+      <c r="P5" s="88">
         <v>354</v>
       </c>
-      <c r="Q5" s="95">
+      <c r="Q5" s="89">
         <v>1</v>
       </c>
-      <c r="R5" s="94">
+      <c r="R5" s="88">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="S5" s="93" t="s">
+      <c r="S5" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="106" t="s">
+      <c r="T5" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="U5" s="93"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
     </row>
     <row r="6" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="84">
         <v>44811</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="84">
         <v>44812</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="85">
         <v>44812</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="84">
         <v>45908</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="86">
         <v>1</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="87">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="P6" s="94">
+      <c r="P6" s="88">
         <v>108</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="89">
         <v>1</v>
       </c>
-      <c r="R6" s="94">
+      <c r="R6" s="88">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="S6" s="93" t="s">
+      <c r="S6" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="106" t="s">
+      <c r="T6" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="U6" s="93"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
     </row>
     <row r="7" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="84">
         <v>44806</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="84">
         <v>44836</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="85">
         <v>44836</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="92">
+      <c r="L7" s="84"/>
+      <c r="M7" s="86">
         <v>1</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="87">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="P7" s="94">
+      <c r="P7" s="88">
         <v>168</v>
       </c>
-      <c r="Q7" s="95">
+      <c r="Q7" s="89">
         <v>1</v>
       </c>
-      <c r="R7" s="94">
+      <c r="R7" s="88">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="S7" s="93" t="s">
+      <c r="S7" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="106" t="s">
+      <c r="T7" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="U7" s="93"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
     </row>
     <row r="8" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>44501</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>44693</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>44652</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30">
+      <c r="L8" s="28"/>
+      <c r="M8" s="29">
         <v>1</v>
       </c>
       <c r="N8" s="3">
@@ -7477,119 +7455,119 @@
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:R43" si="1">Q8*P8</f>
+        <f t="shared" ref="R8:R44" si="1">Q8*P8</f>
         <v>300</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="106" t="s">
+      <c r="T8" s="96" t="s">
         <v>285</v>
       </c>
       <c r="U8" s="3"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <v>44835</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="44">
         <v>44687</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="44">
         <v>44743</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46">
+      <c r="L9" s="44"/>
+      <c r="M9" s="45">
         <v>1</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="46">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="48" t="str">
+      <c r="O9" s="47" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <v>300</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="49">
         <v>1</v>
       </c>
-      <c r="R9" s="49">
+      <c r="R9" s="48">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="106" t="s">
+      <c r="T9" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="U9" s="47"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
     </row>
     <row r="10" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>44618</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>44660</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>44682</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="28">
         <v>45025</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <v>1</v>
       </c>
       <c r="N10" s="3">
@@ -7612,46 +7590,46 @@
       <c r="S10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="106" t="s">
+      <c r="T10" s="96" t="s">
         <v>287</v>
       </c>
       <c r="U10" s="3"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>44646</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>44647</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <v>44647</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30">
+      <c r="L11" s="28"/>
+      <c r="M11" s="29">
         <v>1</v>
       </c>
       <c r="N11" s="3">
@@ -7674,55 +7652,55 @@
       <c r="S11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="106" t="s">
+      <c r="T11" s="96" t="s">
         <v>288</v>
       </c>
       <c r="U11" s="3"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <v>44634</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="28">
         <v>44645</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <v>44645</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30">
+      <c r="L12" s="28"/>
+      <c r="M12" s="29">
         <v>1</v>
       </c>
       <c r="N12" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="56" t="s">
         <v>128</v>
       </c>
       <c r="P12" s="2">
@@ -7738,44 +7716,44 @@
       <c r="S12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="106" t="s">
+      <c r="T12" s="96" t="s">
         <v>289</v>
       </c>
       <c r="U12" s="3"/>
-      <c r="V12" s="27"/>
+      <c r="V12" s="26"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="58"/>
+      <c r="Y12" s="57"/>
     </row>
     <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="31" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>44593</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>44634</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30">
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29">
         <v>1</v>
       </c>
       <c r="N13" s="3">
@@ -7798,51 +7776,51 @@
       <c r="S13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="106" t="s">
+      <c r="T13" s="96" t="s">
         <v>290</v>
       </c>
       <c r="U13" s="3"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>44614</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="28">
         <v>44615</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30">
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29">
         <v>1</v>
       </c>
       <c r="N14" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="30" t="s">
         <v>79</v>
       </c>
       <c r="P14" s="2">
@@ -7858,51 +7836,51 @@
       <c r="S14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T14" s="106" t="s">
+      <c r="T14" s="96" t="s">
         <v>291</v>
       </c>
       <c r="U14" s="3"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <v>44613</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <v>44614</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30">
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29">
         <v>1</v>
       </c>
       <c r="N15" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P15" s="2">
@@ -7918,46 +7896,46 @@
       <c r="S15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T15" s="106" t="s">
+      <c r="T15" s="96" t="s">
         <v>292</v>
       </c>
       <c r="U15" s="3"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <v>44571</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="28">
         <v>44611</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29">
+      <c r="K16" s="28"/>
+      <c r="L16" s="28">
         <v>44976</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="29">
         <v>1</v>
       </c>
       <c r="N16" s="3">
@@ -7980,44 +7958,44 @@
       <c r="S16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T16" s="106" t="s">
+      <c r="T16" s="96" t="s">
         <v>293</v>
       </c>
       <c r="U16" s="3"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>44409</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <v>44598</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29">
         <v>1</v>
       </c>
       <c r="N17" s="3">
@@ -8040,44 +8018,44 @@
       <c r="S17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="106" t="s">
+      <c r="T17" s="96" t="s">
         <v>294</v>
       </c>
       <c r="U17" s="3"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="33" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>44409</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="28">
         <v>44598</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30">
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29">
         <v>1</v>
       </c>
       <c r="N18" s="3">
@@ -8100,44 +8078,44 @@
       <c r="S18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T18" s="106" t="s">
+      <c r="T18" s="96" t="s">
         <v>295</v>
       </c>
       <c r="U18" s="3"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <v>44409</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="28">
         <v>44598</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30">
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29">
         <v>1</v>
       </c>
       <c r="N19" s="3">
@@ -8160,44 +8138,44 @@
       <c r="S19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T19" s="106" t="s">
+      <c r="T19" s="96" t="s">
         <v>296</v>
       </c>
       <c r="U19" s="3"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>44409</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="28">
         <v>44598</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30">
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29">
         <v>1</v>
       </c>
       <c r="N20" s="3">
@@ -8220,46 +8198,46 @@
       <c r="S20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="106" t="s">
+      <c r="T20" s="96" t="s">
         <v>297</v>
       </c>
       <c r="U20" s="3"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="28" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>44577</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>44592</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29">
+      <c r="K21" s="28"/>
+      <c r="L21" s="28">
         <v>45808</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="29">
         <v>1</v>
       </c>
       <c r="N21" s="3">
@@ -8282,51 +8260,51 @@
       <c r="S21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="106" t="s">
+      <c r="T21" s="96" t="s">
         <v>298</v>
       </c>
       <c r="U21" s="3"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="31" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>44470</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <v>44577</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30">
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29">
         <v>1</v>
       </c>
       <c r="N22" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O22" s="32" t="str">
+      <c r="O22" s="31" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
@@ -8343,51 +8321,51 @@
       <c r="S22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="106" t="s">
+      <c r="T22" s="96" t="s">
         <v>299</v>
       </c>
       <c r="U22" s="3"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="35" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>44501</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <v>44571</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30">
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29">
         <v>1</v>
       </c>
       <c r="N23" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="64" t="s">
         <v>62</v>
       </c>
       <c r="P23" s="2">
@@ -8403,46 +8381,46 @@
       <c r="S23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="T23" s="106" t="s">
+      <c r="T23" s="96" t="s">
         <v>300</v>
       </c>
       <c r="U23" s="3"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <v>44470</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <v>44559</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30">
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29">
         <v>1</v>
       </c>
       <c r="N24" s="3">
@@ -8466,44 +8444,44 @@
       <c r="S24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T24" s="106" t="s">
+      <c r="T24" s="96" t="s">
         <v>282</v>
       </c>
       <c r="U24" s="3"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="112" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="33" t="s">
+      <c r="F25" s="42"/>
+      <c r="G25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>44409</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <v>44496</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30">
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29">
         <v>1</v>
       </c>
       <c r="N25" s="3">
@@ -8526,47 +8504,47 @@
       <c r="S25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T25" s="106" t="s">
+      <c r="T25" s="96" t="s">
         <v>301</v>
       </c>
       <c r="U25" s="3"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="31" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <f>J26-45</f>
         <v>44448</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <v>44493</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29">
+      <c r="K26" s="28"/>
+      <c r="L26" s="28">
         <v>45224</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="29">
         <v>1</v>
       </c>
       <c r="N26" s="3">
@@ -8589,45 +8567,45 @@
       <c r="S26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="106" t="s">
+      <c r="T26" s="96" t="s">
         <v>302</v>
       </c>
       <c r="U26" s="3"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f>J27-7</f>
         <v>44480</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="28">
         <v>44487</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30">
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29">
         <v>1</v>
       </c>
       <c r="N27" s="3">
@@ -8650,44 +8628,44 @@
       <c r="S27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T27" s="106" t="s">
+      <c r="T27" s="96" t="s">
         <v>303</v>
       </c>
       <c r="U27" s="3"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="33" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <v>44409</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="28">
         <v>44486</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30">
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29">
         <v>1</v>
       </c>
       <c r="N28" s="3">
@@ -8710,46 +8688,46 @@
       <c r="S28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T28" s="106" t="s">
+      <c r="T28" s="96" t="s">
         <v>304</v>
       </c>
       <c r="U28" s="3"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="31" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>44476</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="28">
         <v>44476</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29">
+      <c r="K29" s="28"/>
+      <c r="L29" s="28">
         <v>45206</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="29">
         <v>1</v>
       </c>
       <c r="N29" s="3">
@@ -8772,45 +8750,45 @@
       <c r="S29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T29" s="106" t="s">
+      <c r="T29" s="96" t="s">
         <v>305</v>
       </c>
       <c r="U29" s="3"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="31" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <f>J30-7</f>
         <v>44466</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="28">
         <v>44473</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30">
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29">
         <v>1</v>
       </c>
       <c r="N30" s="3">
@@ -8833,44 +8811,44 @@
       <c r="S30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="106" t="s">
+      <c r="T30" s="96" t="s">
         <v>306</v>
       </c>
       <c r="U30" s="3"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="2:25" ht="128" x14ac:dyDescent="0.2">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="28" t="s">
+      <c r="F31" s="42"/>
+      <c r="G31" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>44409</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="28">
         <v>44472</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30">
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="29">
         <v>1</v>
       </c>
       <c r="N31" s="3">
@@ -8893,51 +8871,51 @@
       <c r="S31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T31" s="106" t="s">
+      <c r="T31" s="96" t="s">
         <v>307</v>
       </c>
       <c r="U31" s="3"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="2:25" ht="128" x14ac:dyDescent="0.2">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="31" t="s">
+      <c r="F32" s="42"/>
+      <c r="G32" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <v>44409</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="28">
         <v>44472</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="30">
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="29">
         <v>1</v>
       </c>
       <c r="N32" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O32" s="32" t="s">
+      <c r="O32" s="31" t="s">
         <v>38</v>
       </c>
       <c r="P32" s="2">
@@ -8953,47 +8931,47 @@
       <c r="S32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T32" s="106" t="s">
+      <c r="T32" s="96" t="s">
         <v>308</v>
       </c>
       <c r="U32" s="3"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="31" t="s">
+      <c r="F33" s="42"/>
+      <c r="G33" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <f>J33-45</f>
         <v>44407</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="28">
         <v>44452</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29">
+      <c r="K33" s="28"/>
+      <c r="L33" s="28">
         <v>45182</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="29">
         <v>1</v>
       </c>
       <c r="N33" s="3">
@@ -9016,44 +8994,44 @@
       <c r="S33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T33" s="106" t="s">
+      <c r="T33" s="96" t="s">
         <v>309</v>
       </c>
       <c r="U33" s="3"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="31" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="28">
         <v>44409</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="28">
         <v>44429</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="30">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29">
         <v>1</v>
       </c>
       <c r="N34" s="3">
@@ -9076,46 +9054,46 @@
       <c r="S34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T34" s="106" t="s">
+      <c r="T34" s="96" t="s">
         <v>310</v>
       </c>
       <c r="U34" s="3"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="28" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <v>44256</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="28">
         <v>44375</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29">
+      <c r="K35" s="28"/>
+      <c r="L35" s="28">
         <v>45808</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="29">
         <v>1</v>
       </c>
       <c r="N35" s="3">
@@ -9138,46 +9116,46 @@
       <c r="S35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T35" s="106" t="s">
+      <c r="T35" s="96" t="s">
         <v>311</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="31" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="28">
         <v>44531</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29">
+      <c r="J36" s="28"/>
+      <c r="K36" s="28">
         <v>44774</v>
       </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30">
+      <c r="L36" s="28"/>
+      <c r="M36" s="29">
         <v>0</v>
       </c>
       <c r="N36" s="3">
@@ -9200,53 +9178,53 @@
       <c r="S36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T36" s="103"/>
+      <c r="T36" s="26"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27" t="s">
+      <c r="V36" s="26"/>
+      <c r="W36" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="X36" s="36" t="s">
+      <c r="X36" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="Y36" s="36" t="s">
+      <c r="Y36" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="39" t="s">
+      <c r="F37" s="51"/>
+      <c r="G37" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="40">
         <v>44531</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="42">
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41">
         <v>0</v>
       </c>
       <c r="N37" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="64" t="s">
+      <c r="O37" s="63" t="s">
         <v>86</v>
       </c>
       <c r="P37" s="14">
@@ -9262,51 +9240,51 @@
       <c r="S37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T37" s="105"/>
+      <c r="T37" s="37"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64" t="s">
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:25" ht="80" x14ac:dyDescent="0.2">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="39" t="s">
+      <c r="F38" s="51"/>
+      <c r="G38" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="40">
         <v>44618</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41">
+      <c r="J38" s="40"/>
+      <c r="K38" s="40">
         <v>44666</v>
       </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42">
+      <c r="L38" s="40"/>
+      <c r="M38" s="41">
         <v>0</v>
       </c>
       <c r="N38" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="63" t="s">
+      <c r="O38" s="62" t="s">
         <v>90</v>
       </c>
       <c r="P38" s="14">
@@ -9322,48 +9300,48 @@
       <c r="S38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T38" s="105"/>
+      <c r="T38" s="37"/>
       <c r="U38" s="12"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38" t="s">
+      <c r="V38" s="37"/>
+      <c r="W38" s="37" t="s">
         <v>82</v>
       </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
     <row r="39" spans="2:25" ht="96" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="39" t="s">
+      <c r="F39" s="51"/>
+      <c r="G39" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="40">
         <v>44531</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="40">
         <v>44838</v>
       </c>
-      <c r="K39" s="41">
+      <c r="K39" s="40">
         <v>44896</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="40">
         <v>45935</v>
       </c>
-      <c r="M39" s="42">
+      <c r="M39" s="41">
         <v>1</v>
       </c>
       <c r="N39" s="12">
@@ -9386,46 +9364,46 @@
       <c r="S39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T39" s="107" t="s">
+      <c r="T39" s="97" t="s">
         <v>312</v>
       </c>
       <c r="U39" s="12"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38" t="s">
+      <c r="V39" s="37"/>
+      <c r="W39" s="37" t="s">
         <v>95</v>
       </c>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
     <row r="40" spans="2:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="40" t="s">
+      <c r="F40" s="51"/>
+      <c r="G40" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="40">
         <v>44571</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41">
+      <c r="J40" s="40"/>
+      <c r="K40" s="40">
         <v>45047</v>
       </c>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42">
+      <c r="L40" s="40"/>
+      <c r="M40" s="41">
         <v>0</v>
       </c>
       <c r="N40" s="12">
@@ -9446,103 +9424,103 @@
       <c r="S40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T40" s="105"/>
+      <c r="T40" s="37"/>
       <c r="U40" s="12"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
     </row>
     <row r="41" spans="2:25" ht="144" x14ac:dyDescent="0.2">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="44">
         <v>44844</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="62">
+      <c r="J41" s="44"/>
+      <c r="K41" s="61">
         <v>44896</v>
       </c>
-      <c r="L41" s="45"/>
-      <c r="M41" s="46">
+      <c r="L41" s="44"/>
+      <c r="M41" s="45">
         <v>0</v>
       </c>
-      <c r="N41" s="47">
+      <c r="N41" s="46">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="47">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="49">
+      <c r="P41" s="48">
         <v>300</v>
       </c>
-      <c r="Q41" s="50">
+      <c r="Q41" s="49">
         <v>1</v>
       </c>
-      <c r="R41" s="49">
+      <c r="R41" s="48">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="S41" s="47" t="s">
+      <c r="S41" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="T41" s="104"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
     </row>
     <row r="42" spans="2:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="34" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="28">
         <v>44531</v>
       </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="41">
+      <c r="J42" s="28"/>
+      <c r="K42" s="40">
         <v>44713</v>
       </c>
-      <c r="L42" s="29"/>
-      <c r="M42" s="30">
+      <c r="L42" s="28"/>
+      <c r="M42" s="29">
         <v>0.25</v>
       </c>
       <c r="N42" s="3">
@@ -9566,95 +9544,134 @@
       <c r="S42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T42" s="103"/>
+      <c r="T42" s="26"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="37" t="s">
+    <row r="43" spans="2:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="B43" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="104">
+        <v>44896</v>
+      </c>
+      <c r="J43" s="104">
+        <v>44997</v>
+      </c>
+      <c r="K43" s="105">
+        <v>44927</v>
+      </c>
+      <c r="L43" s="104">
+        <v>46093</v>
+      </c>
+      <c r="M43" s="29">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="2">
+        <v>382</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2">
+        <f>Q43*P43</f>
+        <v>382</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T43" s="106"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D44" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E44" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="59" t="s">
+      <c r="F44" s="51"/>
+      <c r="G44" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H44" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I44" s="40">
         <v>44409</v>
       </c>
-      <c r="J43" s="41"/>
-      <c r="K43" s="61">
+      <c r="J44" s="40"/>
+      <c r="K44" s="60">
         <v>44774</v>
       </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="42">
+      <c r="L44" s="40"/>
+      <c r="M44" s="41">
         <v>0.75</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N44" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O43" s="13" t="s">
+      <c r="O44" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P44" s="14">
         <v>49</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q44" s="15">
         <v>1</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R44" s="14">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="S43" s="12" t="s">
+      <c r="S44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T43" s="105"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38" t="s">
+      <c r="T44" s="37"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-    </row>
-    <row r="44" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
     </row>
     <row r="45" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
@@ -9675,7 +9692,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="109"/>
+      <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
@@ -9698,7 +9715,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="109"/>
+      <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
@@ -9715,13 +9732,13 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="7"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="109"/>
+      <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
@@ -9744,7 +9761,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="109"/>
+      <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
@@ -9754,7 +9771,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -9767,7 +9784,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="109"/>
+      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
@@ -9790,12 +9807,13 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="109"/>
+      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
     <row r="51" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -9812,7 +9830,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="109"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
@@ -9834,58 +9852,44 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="109"/>
+      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
     <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="73"/>
-      <c r="F53" s="74"/>
+      <c r="B53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="S53" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="T53" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="U53" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="V53" s="100" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B54" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="73"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="7"/>
@@ -9894,34 +9898,34 @@
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="S54" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="T54" s="9">
-        <v>45078</v>
-      </c>
-      <c r="U54" s="101">
-        <v>500</v>
-      </c>
-      <c r="V54" t="s">
-        <v>124</v>
+      <c r="R54" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="S54" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="U54" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="V54" s="93" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B55" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="77"/>
+      <c r="B55" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="7"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="7"/>
@@ -9930,238 +9934,243 @@
       <c r="O55" s="6"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="S55" s="99" t="s">
-        <v>268</v>
+      <c r="R55" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="S55" s="92" t="s">
+        <v>266</v>
       </c>
       <c r="T55" s="9">
-        <v>44896</v>
-      </c>
-      <c r="U55" s="101">
-        <v>200</v>
+        <v>45078</v>
+      </c>
+      <c r="U55" s="94">
+        <v>500</v>
       </c>
       <c r="V55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="84" t="s">
+    <row r="56" spans="2:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="B56" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="74"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="S56" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="T56" s="9">
+        <v>44896</v>
+      </c>
+      <c r="U56" s="94">
+        <v>200</v>
+      </c>
+      <c r="V56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C57" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="85" t="s">
+      <c r="D57" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="76"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="R56" s="113" t="s">
-        <v>269</v>
-      </c>
-      <c r="S56" s="113" t="s">
-        <v>268</v>
-      </c>
-      <c r="T56" s="114">
-        <v>44897</v>
-      </c>
-      <c r="U56" s="115">
-        <v>200</v>
-      </c>
-      <c r="V56" s="113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="7"/>
       <c r="L57" s="10"/>
       <c r="M57" s="11"/>
       <c r="N57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="R57" t="s">
-        <v>281</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="R57" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="S57" s="100" t="s">
         <v>268</v>
       </c>
-      <c r="T57" s="9">
-        <v>44927</v>
+      <c r="T57" s="101">
+        <v>44897</v>
       </c>
       <c r="U57" s="102">
         <v>200</v>
       </c>
-      <c r="V57" t="s">
+      <c r="V57" s="100" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
+      <c r="B58" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="7"/>
       <c r="L58" s="10"/>
       <c r="M58" s="11"/>
       <c r="N58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="R58" s="113" t="s">
-        <v>270</v>
-      </c>
-      <c r="S58" s="113" t="s">
+      <c r="R58" t="s">
+        <v>281</v>
+      </c>
+      <c r="S58" t="s">
         <v>268</v>
       </c>
-      <c r="T58" s="114">
-        <v>44898</v>
-      </c>
-      <c r="U58" s="115">
+      <c r="T58" s="9">
+        <v>44927</v>
+      </c>
+      <c r="U58" s="95">
         <v>200</v>
       </c>
-      <c r="V58" s="113" t="s">
+      <c r="V58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" s="75"/>
-      <c r="F59" s="76"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="7"/>
       <c r="L59" s="10"/>
       <c r="M59" s="11"/>
       <c r="N59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="R59" t="s">
-        <v>271</v>
-      </c>
-      <c r="S59" t="s">
-        <v>272</v>
-      </c>
-      <c r="T59" s="9">
-        <v>44866</v>
+      <c r="R59" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="S59" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="T59" s="101">
+        <v>44898</v>
       </c>
       <c r="U59" s="102">
-        <v>50</v>
-      </c>
-      <c r="V59" t="s">
+        <v>200</v>
+      </c>
+      <c r="V59" s="100" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="78"/>
-      <c r="F60" s="76"/>
+      <c r="B60" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="7"/>
       <c r="L60" s="10"/>
       <c r="M60" s="11"/>
       <c r="N60" s="10"/>
       <c r="P60" s="10"/>
       <c r="R60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S60" t="s">
         <v>272</v>
       </c>
       <c r="T60" s="9">
-        <v>44867</v>
-      </c>
-      <c r="U60" s="102">
-        <v>150</v>
+        <v>44866</v>
+      </c>
+      <c r="U60" s="95">
+        <v>50</v>
       </c>
       <c r="V60" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="61" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="B61" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
       <c r="L61" s="10"/>
       <c r="M61" s="11"/>
       <c r="N61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="R61" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="S61" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="T61" s="114">
-        <v>44868</v>
-      </c>
-      <c r="U61" s="115">
-        <v>250</v>
-      </c>
-      <c r="V61" s="113" t="s">
-        <v>276</v>
+      <c r="R61" t="s">
+        <v>273</v>
+      </c>
+      <c r="S61" t="s">
+        <v>272</v>
+      </c>
+      <c r="T61" s="9">
+        <v>44867</v>
+      </c>
+      <c r="U61" s="95">
+        <v>150</v>
+      </c>
+      <c r="V61" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="T62" s="114">
-        <v>44869</v>
-      </c>
-      <c r="U62" s="115">
+      <c r="L62" s="10"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="R62" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="S62" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="T62" s="101">
+        <v>44868</v>
+      </c>
+      <c r="U62" s="102">
         <v>250</v>
       </c>
-      <c r="V62" s="113" t="s">
+      <c r="V62" s="100" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10179,20 +10188,20 @@
       <c r="N63" s="11"/>
       <c r="O63" s="10"/>
       <c r="Q63" s="10"/>
-      <c r="R63" t="s">
-        <v>279</v>
-      </c>
-      <c r="S63" t="s">
-        <v>280</v>
-      </c>
-      <c r="T63" s="9">
-        <v>45047</v>
+      <c r="R63" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="101">
+        <v>44869</v>
       </c>
       <c r="U63" s="102">
-        <v>150</v>
-      </c>
-      <c r="V63" t="s">
-        <v>124</v>
+        <v>250</v>
+      </c>
+      <c r="V63" s="100" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10210,18 +10219,22 @@
       <c r="O64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" t="s">
-        <v>278</v>
-      </c>
-      <c r="U64" s="102">
-        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
-        <v>2150</v>
-      </c>
-      <c r="V64">
-        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="S64" t="s">
+        <v>280</v>
+      </c>
+      <c r="T64" s="9">
+        <v>45047</v>
+      </c>
+      <c r="U64" s="95">
+        <v>150</v>
+      </c>
+      <c r="V64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -10235,8 +10248,19 @@
       <c r="N65" s="11"/>
       <c r="O65" s="10"/>
       <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R65" t="s">
+        <v>278</v>
+      </c>
+      <c r="U65" s="95">
+        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
+        <v>2150</v>
+      </c>
+      <c r="V65">
+        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -10251,7 +10275,7 @@
       <c r="O66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -10266,7 +10290,7 @@
       <c r="O67" s="10"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -10281,7 +10305,7 @@
       <c r="O68" s="10"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -10296,7 +10320,7 @@
       <c r="O69" s="10"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -10311,7 +10335,7 @@
       <c r="O70" s="10"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -10326,7 +10350,7 @@
       <c r="O71" s="10"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -10341,7 +10365,7 @@
       <c r="O72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -10356,7 +10380,7 @@
       <c r="O73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -10371,7 +10395,7 @@
       <c r="O74" s="10"/>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -10386,7 +10410,7 @@
       <c r="O75" s="10"/>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -10401,7 +10425,7 @@
       <c r="O76" s="10"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -10416,7 +10440,7 @@
       <c r="O77" s="10"/>
       <c r="Q77" s="10"/>
     </row>
-    <row r="78" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -10431,7 +10455,7 @@
       <c r="O78" s="10"/>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -10446,7 +10470,7 @@
       <c r="O79" s="10"/>
       <c r="Q79" s="10"/>
     </row>
-    <row r="80" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -24417,17 +24441,32 @@
       <c r="D1011" s="6"/>
       <c r="E1011" s="6"/>
       <c r="F1011" s="6"/>
+      <c r="G1011" s="9"/>
+      <c r="H1011" s="6"/>
+      <c r="I1011" s="6"/>
       <c r="J1011" s="6"/>
       <c r="M1011" s="10"/>
       <c r="N1011" s="11"/>
       <c r="O1011" s="10"/>
       <c r="Q1011" s="10"/>
     </row>
+    <row r="1012" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1012" s="6"/>
+      <c r="C1012" s="6"/>
+      <c r="D1012" s="6"/>
+      <c r="E1012" s="6"/>
+      <c r="F1012" s="6"/>
+      <c r="J1012" s="6"/>
+      <c r="M1012" s="10"/>
+      <c r="N1012" s="11"/>
+      <c r="O1012" s="10"/>
+      <c r="Q1012" s="10"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{F59F3E08-E1D5-DD48-8FE2-774B824E2F0A}">
+      <autoFilter ref="B2:S40" xr:uid="{76037C26-561C-1143-89F7-6991E7A3C5F4}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -24435,7 +24474,7 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L38 M2:M43" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L38 M2:M44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24495,17 +24534,17 @@
     <hyperlink ref="Y37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="G38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="O38" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G43" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O43" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G44" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O44" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="G39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="O39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D54" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D55" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D56" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D57" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D58" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D59" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D60" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D55" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D56" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D58" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D59" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D60" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D61" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="G23" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="G12" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="O12" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
@@ -24551,16 +24590,17 @@
     <hyperlink ref="O4" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
     <hyperlink ref="T4" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
     <hyperlink ref="T5" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
+    <hyperlink ref="G43" r:id="rId112" xr:uid="{96827754-A519-DA4D-914A-B30545755D09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId112"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId113"/>
   <tableParts count="5">
-    <tablePart r:id="rId113"/>
     <tablePart r:id="rId114"/>
     <tablePart r:id="rId115"/>
     <tablePart r:id="rId116"/>
     <tablePart r:id="rId117"/>
+    <tablePart r:id="rId118"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24575,1376 +24615,1376 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.83203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="66" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="66"/>
+    <col min="1" max="1" width="31.1640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="str">
+      <c r="A2" s="71" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="97">
+      <c r="C2" s="91">
         <v>44608</v>
       </c>
-      <c r="D2" s="96">
+      <c r="D2" s="90">
         <v>100</v>
       </c>
-      <c r="E2" s="66" t="str">
+      <c r="E2" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="str">
+      <c r="A3" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="91">
         <v>44626</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="90">
         <v>93.81</v>
       </c>
-      <c r="E3" s="66" t="str">
+      <c r="E3" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="str">
+      <c r="A4" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="91">
         <v>44737</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="90">
         <v>7</v>
       </c>
-      <c r="E4" s="66" t="str">
+      <c r="E4" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="str">
+      <c r="A5" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="91">
         <v>44616</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="90">
         <v>0</v>
       </c>
-      <c r="E5" s="66" t="str">
+      <c r="E5" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="str">
+      <c r="A6" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="97">
+      <c r="C6" s="91">
         <v>44752</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="90">
         <v>83</v>
       </c>
-      <c r="E6" s="66" t="str">
+      <c r="E6" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="66" t="str">
+      <c r="A7" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="91">
         <v>44514</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="90">
         <v>97.61</v>
       </c>
-      <c r="E7" s="66" t="str">
+      <c r="E7" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="str">
+      <c r="A8" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="91">
         <v>44560</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="90">
         <v>95</v>
       </c>
-      <c r="E8" s="66" t="str">
+      <c r="E8" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="98" t="str">
+      <c r="A9" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="91">
         <v>44512</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="90">
         <v>97.52</v>
       </c>
-      <c r="E9" s="98" t="str">
+      <c r="E9" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="66" t="str">
+      <c r="A10" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="91">
         <v>44518</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="90">
         <v>94.6</v>
       </c>
-      <c r="E10" s="66" t="str">
+      <c r="E10" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="str">
+      <c r="A11" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="91">
         <v>44556</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="90">
         <v>94.58</v>
       </c>
-      <c r="E11" s="66" t="str">
+      <c r="E11" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="str">
+      <c r="A12" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="91">
         <v>44550</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="90">
         <v>88</v>
       </c>
-      <c r="E12" s="66" t="str">
+      <c r="E12" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="str">
+      <c r="A13" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="91">
         <v>44596</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="90">
         <v>0</v>
       </c>
-      <c r="E13" s="66" t="str">
+      <c r="E13" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="str">
+      <c r="A14" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="91">
         <v>44513</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="90">
         <v>95</v>
       </c>
-      <c r="E14" s="66" t="str">
+      <c r="E14" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="str">
+      <c r="A15" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="91">
         <v>44576</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="90">
         <v>92.69</v>
       </c>
-      <c r="E15" s="66" t="str">
+      <c r="E15" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="str">
+      <c r="A16" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="91">
         <v>44560</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="90">
         <v>92.66</v>
       </c>
-      <c r="E16" s="66" t="str">
+      <c r="E16" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="str">
+      <c r="A17" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="91">
         <v>44528</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="90">
         <v>91.71</v>
       </c>
-      <c r="E17" s="66" t="str">
+      <c r="E17" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="str">
+      <c r="A18" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="91">
         <v>44700</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="90">
         <v>90.94</v>
       </c>
-      <c r="E18" s="66" t="str">
+      <c r="E18" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="str">
+      <c r="A19" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="91">
         <v>44488</v>
       </c>
-      <c r="D19" s="96">
+      <c r="D19" s="90">
         <v>90.89</v>
       </c>
-      <c r="E19" s="66" t="str">
+      <c r="E19" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="str">
+      <c r="A20" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="91">
         <v>44515</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D20" s="90">
         <v>88.88</v>
       </c>
-      <c r="E20" s="66" t="str">
+      <c r="E20" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="str">
+      <c r="A21" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="91">
         <v>44815</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="90">
         <v>76.67</v>
       </c>
-      <c r="E21" s="66" t="str">
+      <c r="E21" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66" t="str">
+      <c r="A22" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="91">
         <v>44513</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="90">
         <v>91.38</v>
       </c>
-      <c r="E22" s="66" t="str">
+      <c r="E22" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="66" t="str">
+      <c r="A23" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="97">
+      <c r="C23" s="91">
         <v>44512</v>
       </c>
-      <c r="D23" s="96">
+      <c r="D23" s="90">
         <v>95.85</v>
       </c>
-      <c r="E23" s="66" t="str">
+      <c r="E23" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="str">
+      <c r="A24" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="91">
         <v>44554</v>
       </c>
-      <c r="D24" s="96">
+      <c r="D24" s="90">
         <v>88.13</v>
       </c>
-      <c r="E24" s="66" t="str">
+      <c r="E24" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="66" t="str">
+      <c r="A25" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="91">
         <v>44596</v>
       </c>
-      <c r="D25" s="96">
+      <c r="D25" s="90">
         <v>88</v>
       </c>
-      <c r="E25" s="66" t="str">
+      <c r="E25" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="str">
+      <c r="A26" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="91">
         <v>44814</v>
       </c>
-      <c r="D26" s="96">
+      <c r="D26" s="90">
         <v>90</v>
       </c>
-      <c r="E26" s="66" t="str">
+      <c r="E26" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="66" t="str">
+      <c r="A27" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="91">
         <v>44608</v>
       </c>
-      <c r="D27" s="96">
+      <c r="D27" s="90">
         <v>87.83</v>
       </c>
-      <c r="E27" s="66" t="str">
+      <c r="E27" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="98" t="str">
+      <c r="A28" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="91">
         <v>44812</v>
       </c>
-      <c r="D28" s="96">
+      <c r="D28" s="90">
         <v>87.5</v>
       </c>
-      <c r="E28" s="98" t="str">
+      <c r="E28" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="66" t="str">
+      <c r="A29" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="97">
+      <c r="C29" s="91">
         <v>44562</v>
       </c>
-      <c r="D29" s="96">
+      <c r="D29" s="90">
         <v>86.67</v>
       </c>
-      <c r="E29" s="66" t="str">
+      <c r="E29" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="str">
+      <c r="A30" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="97">
+      <c r="C30" s="91">
         <v>44518</v>
       </c>
-      <c r="D30" s="96">
+      <c r="D30" s="90">
         <v>86.09</v>
       </c>
-      <c r="E30" s="66" t="str">
+      <c r="E30" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="str">
+      <c r="A31" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="97">
+      <c r="C31" s="91">
         <v>44562</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="90">
         <v>85.83</v>
       </c>
-      <c r="E31" s="66" t="str">
+      <c r="E31" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="str">
+      <c r="A32" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="97">
+      <c r="C32" s="91">
         <v>44570</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D32" s="90">
         <v>85.83</v>
       </c>
-      <c r="E32" s="66" t="str">
+      <c r="E32" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="98" t="str">
+      <c r="A33" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="97">
+      <c r="C33" s="91">
         <v>44517</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="90">
         <v>84.19</v>
       </c>
-      <c r="E33" s="98" t="str">
+      <c r="E33" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="66" t="str">
+      <c r="A34" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="97">
+      <c r="C34" s="91">
         <v>44501</v>
       </c>
-      <c r="D34" s="96">
+      <c r="D34" s="90">
         <v>83.91</v>
       </c>
-      <c r="E34" s="66" t="str">
+      <c r="E34" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="66" t="str">
+      <c r="A35" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="97">
+      <c r="C35" s="91">
         <v>44515</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="90">
         <v>83.6</v>
       </c>
-      <c r="E35" s="66" t="str">
+      <c r="E35" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="66" t="str">
+      <c r="A36" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="97">
+      <c r="C36" s="91">
         <v>44814</v>
       </c>
-      <c r="D36" s="96">
+      <c r="D36" s="90">
         <v>83.33</v>
       </c>
-      <c r="E36" s="66" t="str">
+      <c r="E36" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="98" t="str">
+      <c r="A37" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="97">
+      <c r="C37" s="91">
         <v>44522</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="90">
         <v>83.33</v>
       </c>
-      <c r="E37" s="98" t="str">
+      <c r="E37" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="str">
+      <c r="A38" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="97">
+      <c r="C38" s="91">
         <v>44501</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="90">
         <v>87.63</v>
       </c>
-      <c r="E38" s="66" t="str">
+      <c r="E38" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="str">
+      <c r="A39" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="97">
+      <c r="C39" s="91">
         <v>44577</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="90">
         <v>83.17</v>
       </c>
-      <c r="E39" s="66" t="str">
+      <c r="E39" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="str">
+      <c r="A40" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="97">
+      <c r="C40" s="91">
         <v>44558</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="90">
         <v>100</v>
       </c>
-      <c r="E40" s="66" t="str">
+      <c r="E40" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="str">
+      <c r="A41" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="97">
+      <c r="C41" s="91">
         <v>44680</v>
       </c>
-      <c r="D41" s="96">
+      <c r="D41" s="90">
         <v>82.5</v>
       </c>
-      <c r="E41" s="66" t="str">
+      <c r="E41" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="str">
+      <c r="A42" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="97">
+      <c r="C42" s="91">
         <v>44560</v>
       </c>
-      <c r="D42" s="96">
+      <c r="D42" s="90">
         <v>82</v>
       </c>
-      <c r="E42" s="66" t="str">
+      <c r="E42" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="str">
+      <c r="A43" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B43" s="96" t="s">
+      <c r="B43" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="97">
+      <c r="C43" s="91">
         <v>44611</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="90">
         <v>94.13</v>
       </c>
-      <c r="E43" s="66" t="str">
+      <c r="E43" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="str">
+      <c r="A44" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="97">
+      <c r="C44" s="91">
         <v>44752</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="90">
         <v>81.81</v>
       </c>
-      <c r="E44" s="66" t="str">
+      <c r="E44" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="98" t="str">
+      <c r="A45" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="97">
+      <c r="C45" s="91">
         <v>44608</v>
       </c>
-      <c r="D45" s="96">
+      <c r="D45" s="90">
         <v>81.5</v>
       </c>
-      <c r="E45" s="98" t="str">
+      <c r="E45" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="str">
+      <c r="A46" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="97">
+      <c r="C46" s="91">
         <v>44701</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="90">
         <v>85.38</v>
       </c>
-      <c r="E46" s="66" t="str">
+      <c r="E46" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="str">
+      <c r="A47" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="97">
+      <c r="C47" s="91">
         <v>44752</v>
       </c>
-      <c r="D47" s="96">
+      <c r="D47" s="90">
         <v>79.92</v>
       </c>
-      <c r="E47" s="98" t="str">
+      <c r="E47" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="98" t="str">
+      <c r="A48" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="97">
+      <c r="C48" s="91">
         <v>44813</v>
       </c>
-      <c r="D48" s="96">
+      <c r="D48" s="90">
         <v>76.67</v>
       </c>
-      <c r="E48" s="98" t="str">
+      <c r="E48" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="66" t="str">
+      <c r="A49" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="C49" s="97">
+      <c r="C49" s="91">
         <v>44752</v>
       </c>
-      <c r="D49" s="96">
+      <c r="D49" s="90">
         <v>41.67</v>
       </c>
-      <c r="E49" s="66" t="str">
+      <c r="E49" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="66" t="str">
+      <c r="A50" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="97">
+      <c r="C50" s="91">
         <v>44624</v>
       </c>
-      <c r="D50" s="96">
+      <c r="D50" s="90">
         <v>92.52</v>
       </c>
-      <c r="E50" s="66" t="str">
+      <c r="E50" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="66" t="str">
+      <c r="A51" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="97">
+      <c r="C51" s="91">
         <v>44705</v>
       </c>
-      <c r="D51" s="96">
+      <c r="D51" s="90">
         <v>50</v>
       </c>
-      <c r="E51" s="66" t="str">
+      <c r="E51" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="98" t="str">
+      <c r="A52" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="97">
+      <c r="C52" s="91">
         <v>44697</v>
       </c>
-      <c r="D52" s="96">
+      <c r="D52" s="90">
         <v>39.630000000000003</v>
       </c>
-      <c r="E52" s="98" t="str">
+      <c r="E52" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="66" t="str">
+      <c r="A53" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="97">
+      <c r="C53" s="91">
         <v>44578</v>
       </c>
-      <c r="D53" s="96">
+      <c r="D53" s="90">
         <v>36</v>
       </c>
-      <c r="E53" s="66" t="str">
+      <c r="E53" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="66" t="str">
+      <c r="A54" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="97">
+      <c r="C54" s="91">
         <v>44718</v>
       </c>
-      <c r="D54" s="96">
+      <c r="D54" s="90">
         <v>86.08</v>
       </c>
-      <c r="E54" s="66" t="str">
+      <c r="E54" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="66" t="str">
+      <c r="A55" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B55" s="96" t="s">
+      <c r="B55" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="97">
+      <c r="C55" s="91">
         <v>44815</v>
       </c>
-      <c r="D55" s="96">
+      <c r="D55" s="90">
         <v>25</v>
       </c>
-      <c r="E55" s="66" t="str">
+      <c r="E55" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="98" t="str">
+      <c r="A56" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="C56" s="97">
+      <c r="C56" s="91">
         <v>44488</v>
       </c>
-      <c r="D56" s="96">
+      <c r="D56" s="90">
         <v>16</v>
       </c>
-      <c r="E56" s="98" t="str">
+      <c r="E56" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="66" t="str">
+      <c r="A57" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="97">
+      <c r="C57" s="91">
         <v>44503</v>
       </c>
-      <c r="D57" s="96">
+      <c r="D57" s="90">
         <v>9</v>
       </c>
-      <c r="E57" s="66" t="str">
+      <c r="E57" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="66" t="str">
+      <c r="A58" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B58" s="96" t="s">
+      <c r="B58" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="97">
+      <c r="C58" s="91">
         <v>44640</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="90">
         <v>94.48</v>
       </c>
-      <c r="E58" s="66" t="str">
+      <c r="E58" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66" t="str">
+      <c r="A59" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="97">
+      <c r="C59" s="91">
         <v>44624</v>
       </c>
-      <c r="D59" s="96">
+      <c r="D59" s="90">
         <v>14</v>
       </c>
-      <c r="E59" s="66" t="str">
+      <c r="E59" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="66" t="str">
+      <c r="A60" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B60" s="96" t="s">
+      <c r="B60" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="97">
+      <c r="C60" s="91">
         <v>44583</v>
       </c>
-      <c r="D60" s="96">
+      <c r="D60" s="90">
         <v>8</v>
       </c>
-      <c r="E60" s="66" t="str">
+      <c r="E60" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="66" t="str">
+      <c r="A61" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="97">
+      <c r="C61" s="91">
         <v>44494</v>
       </c>
-      <c r="D61" s="96">
+      <c r="D61" s="90">
         <v>5</v>
       </c>
-      <c r="E61" s="66" t="str">
+      <c r="E61" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="66" t="str">
+      <c r="A62" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="97">
+      <c r="C62" s="91">
         <v>44746</v>
       </c>
-      <c r="D62" s="96">
+      <c r="D62" s="90">
         <v>0</v>
       </c>
-      <c r="E62" s="66" t="str">
+      <c r="E62" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="66" t="str">
+      <c r="A63" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="97">
+      <c r="C63" s="91">
         <v>44557</v>
       </c>
-      <c r="D63" s="96">
+      <c r="D63" s="90">
         <v>0</v>
       </c>
-      <c r="E63" s="66" t="str">
+      <c r="E63" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="66" t="str">
+      <c r="A64" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B64" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="97">
+      <c r="C64" s="91">
         <v>44582</v>
       </c>
-      <c r="D64" s="96">
+      <c r="D64" s="90">
         <v>0</v>
       </c>
-      <c r="E64" s="66" t="str">
+      <c r="E64" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="66" t="str">
+      <c r="A65" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="97">
+      <c r="C65" s="91">
         <v>44633</v>
       </c>
-      <c r="D65" s="96">
+      <c r="D65" s="90">
         <v>0</v>
       </c>
-      <c r="E65" s="66" t="str">
+      <c r="E65" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="66" t="str">
+      <c r="A66" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B66" s="96" t="s">
+      <c r="B66" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="97">
+      <c r="C66" s="91">
         <v>44702</v>
       </c>
-      <c r="D66" s="96">
+      <c r="D66" s="90">
         <v>0</v>
       </c>
-      <c r="E66" s="66" t="str">
+      <c r="E66" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="66" t="str">
+      <c r="A67" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="97">
+      <c r="C67" s="91">
         <v>44747</v>
       </c>
-      <c r="D67" s="96">
+      <c r="D67" s="90">
         <v>0</v>
       </c>
-      <c r="E67" s="66" t="str">
+      <c r="E67" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="66" t="str">
+      <c r="A68" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B68" s="96" t="s">
+      <c r="B68" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="97">
+      <c r="C68" s="91">
         <v>44613</v>
       </c>
-      <c r="D68" s="96">
+      <c r="D68" s="90">
         <v>0</v>
       </c>
-      <c r="E68" s="66" t="str">
+      <c r="E68" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="98" t="str">
+      <c r="A69" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="97">
+      <c r="C69" s="91">
         <v>44682</v>
       </c>
-      <c r="D69" s="96">
+      <c r="D69" s="90">
         <v>0</v>
       </c>
-      <c r="E69" s="98" t="str">
+      <c r="E69" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="98" t="str">
+      <c r="A70" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B70" s="96" t="s">
+      <c r="B70" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="97">
+      <c r="C70" s="91">
         <v>44700</v>
       </c>
-      <c r="D70" s="96">
+      <c r="D70" s="90">
         <v>0</v>
       </c>
-      <c r="E70" s="98" t="str">
+      <c r="E70" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="98" t="str">
+      <c r="A71" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="97">
+      <c r="C71" s="91">
         <v>44689</v>
       </c>
-      <c r="D71" s="96">
+      <c r="D71" s="90">
         <v>0</v>
       </c>
-      <c r="E71" s="98" t="str">
+      <c r="E71" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="98" t="str">
+      <c r="A72" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="97">
+      <c r="C72" s="91">
         <v>44668</v>
       </c>
-      <c r="D72" s="96">
+      <c r="D72" s="90">
         <v>0</v>
       </c>
-      <c r="E72" s="98" t="str">
+      <c r="E72" s="65" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
@@ -25968,837 +26008,837 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="66"/>
+    <col min="1" max="1" width="8.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="66">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="68">
         <v>44577</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="69" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="66">
+      <c r="A3" s="65">
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="68">
         <v>44577</v>
       </c>
-      <c r="E3" s="66" t="str">
+      <c r="E3" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E2, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="66">
+      <c r="A4" s="65">
         <v>3</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="68">
         <v>44577</v>
       </c>
-      <c r="E4" s="66" t="str">
+      <c r="E4" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E3, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="66">
+      <c r="A5" s="65">
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="68">
         <v>44577</v>
       </c>
-      <c r="E5" s="66" t="str">
+      <c r="E5" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E4, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>44577</v>
       </c>
-      <c r="E6" s="66" t="str">
+      <c r="E6" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E5, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="A7" s="65">
         <v>6</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="68">
         <v>44577</v>
       </c>
-      <c r="E7" s="66" t="str">
+      <c r="E7" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E6, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="66">
+      <c r="A8" s="65">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="68">
         <v>44577</v>
       </c>
-      <c r="E8" s="66" t="str">
+      <c r="E8" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E7, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="66">
+      <c r="A9" s="65">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="68">
         <v>44577</v>
       </c>
-      <c r="E9" s="66" t="str">
+      <c r="E9" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E8, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="66">
+      <c r="A10" s="65">
         <v>9</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="68">
         <v>44577</v>
       </c>
-      <c r="E10" s="66" t="str">
+      <c r="E10" s="65" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E9, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>44695</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="69" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="66">
+      <c r="A12" s="65">
         <f t="shared" ref="A12:A46" si="0">A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="68">
         <v>44695</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="69" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="66">
+      <c r="A13" s="65">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="68">
         <v>44695</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="69" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="66">
+      <c r="A14" s="65">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="68">
         <v>44695</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="69" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="66">
+      <c r="A15" s="65">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>44695</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="69" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="66">
+      <c r="A16" s="65">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="68">
         <v>44695</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="69" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="66">
+      <c r="A17" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="70">
         <v>44687</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="66">
+      <c r="A18" s="65">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="70">
         <v>44687</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="66">
+      <c r="A19" s="65">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="70">
         <v>44687</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="66">
+      <c r="A20" s="65">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="70">
         <v>44687</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="70">
         <v>44687</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="66">
+      <c r="A22" s="65">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="70">
         <v>44687</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="66">
+      <c r="A23" s="65">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="70">
         <v>44687</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="66">
+      <c r="A24" s="65">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="70">
         <v>44687</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="66">
+      <c r="A25" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="70">
         <v>44687</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="66">
+      <c r="A26" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="70">
         <v>44687</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="66">
+      <c r="A27" s="65">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="68">
         <v>44578</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="69" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="66">
+      <c r="A28" s="65">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="68">
         <v>44578</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="66">
+      <c r="A29" s="65">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="68">
         <v>44578</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="69" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="66">
+      <c r="A30" s="65">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="68">
         <v>44578</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="69" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="66">
+      <c r="A31" s="65">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="69">
+      <c r="D31" s="68">
         <v>44559</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="66">
+      <c r="A32" s="65">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="68">
         <v>44559</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="66">
+      <c r="A33" s="65">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="68">
         <v>44559</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A34" s="66">
+      <c r="A34" s="65">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="68">
         <v>44559</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="66">
+      <c r="A35" s="65">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="68">
         <v>44559</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="66">
+      <c r="A36" s="65">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="68">
         <v>44559</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="66">
+      <c r="A37" s="65">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="68">
         <v>44559</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="66">
+      <c r="A38" s="65">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="68">
         <v>44559</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="66">
+      <c r="A39" s="65">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="68">
         <v>44813</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="65" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="66">
+      <c r="A40" s="65">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="68">
         <v>44813</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="66">
+      <c r="A41" s="65">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="69">
+      <c r="D41" s="68">
         <v>44813</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="65" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="66">
+      <c r="A42" s="65">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="68">
         <v>44814</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="65" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="66">
+      <c r="A43" s="65">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="69">
+      <c r="D43" s="68">
         <v>44814</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="65" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="66">
+      <c r="A44" s="65">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="68">
         <v>44816</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="65" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="66">
+      <c r="A45" s="65">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="69">
+      <c r="D45" s="68">
         <v>44816</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="65" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="66">
+      <c r="A46" s="65">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="68">
         <v>44816</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="65" t="s">
         <v>262</v>
       </c>
     </row>
@@ -26945,10 +26985,10 @@
       <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>44409</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>44774</v>
       </c>
       <c r="L2">
@@ -26995,10 +27035,10 @@
       <c r="G3" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>44409</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>44598</v>
       </c>
       <c r="L3">
@@ -27042,10 +27082,10 @@
       <c r="G4" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>44409</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>44598</v>
       </c>
       <c r="L4">
@@ -27089,10 +27129,10 @@
       <c r="G5" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>44409</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>44598</v>
       </c>
       <c r="L5">
@@ -27136,10 +27176,10 @@
       <c r="G6" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>44409</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>44598</v>
       </c>
       <c r="L6">
@@ -27183,10 +27223,10 @@
       <c r="G7" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>44409</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>44486</v>
       </c>
       <c r="L7">
@@ -27230,10 +27270,10 @@
       <c r="G8" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>44409</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>44496</v>
       </c>
       <c r="L8">
@@ -27298,7 +27338,7 @@
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54">
+      <c r="B1" s="53">
         <v>1</v>
       </c>
     </row>
@@ -27328,35 +27368,32 @@
       <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19">
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -27364,73 +27401,68 @@
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
@@ -27438,35 +27470,32 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19">
+      <c r="D14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19">
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19">
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
@@ -27474,59 +27503,54 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19">
+      <c r="D17">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19">
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19">
+      <c r="D19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19">
+      <c r="D20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19">
+      <c r="D21">
         <v>1</v>
       </c>
     </row>
@@ -27534,83 +27558,76 @@
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19">
+      <c r="D22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19">
+      <c r="D24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19">
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19">
+      <c r="D28">
         <v>1</v>
       </c>
     </row>
@@ -27618,23 +27635,21 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19">
+      <c r="D29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19">
+      <c r="D30">
         <v>1</v>
       </c>
     </row>
@@ -27642,23 +27657,21 @@
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19">
+      <c r="D31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19">
+      <c r="D32">
         <v>1</v>
       </c>
     </row>
@@ -27666,23 +27679,21 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19">
+      <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19">
+      <c r="D34">
         <v>1</v>
       </c>
     </row>
@@ -27690,23 +27701,21 @@
       <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19">
+      <c r="D35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19">
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
@@ -27714,23 +27723,21 @@
       <c r="A37" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19">
+      <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19">
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
@@ -27738,13 +27745,13 @@
       <c r="A39" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39">
         <v>24</v>
       </c>
     </row>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{921609F7-9AE7-F244-9AC6-FA15DB038DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA2A0C1-B125-8646-9DB3-CAECBEC013A1}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{921609F7-9AE7-F244-9AC6-FA15DB038DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551969C0-F559-1D45-9AA8-52BD47C88378}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1220" windowWidth="45900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20480" yWindow="1000" windowWidth="20480" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$53</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$57</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="331">
   <si>
     <t>My Certifications</t>
   </si>
@@ -1028,6 +1028,18 @@
   </si>
   <si>
     <t>https://www.comptia.org/certifications/cybersecurity-analyst</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Secure Infrastructure Specialist - CSIS</t>
+  </si>
+  <si>
+    <t>IT Operations Specialist - CIOS</t>
+  </si>
+  <si>
+    <t>Security Analytics Professional - CSAP</t>
   </si>
 </sst>
 </file>
@@ -1211,12 +1223,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1367,7 +1381,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1677,6 +1691,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5186,6 +5203,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hamilton, Cole B MSG MIL USA TRADOC USAREC" refreshedDate="44650.745903240742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
@@ -6304,7 +6325,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6585,10 +6606,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="B1:Y44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y44">
-    <sortCondition descending="1" ref="J1:J44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y48" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="B1:Y48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y48">
+    <sortCondition descending="1" ref="J1:J48"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="50"/>
@@ -6625,8 +6646,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B54:B61" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="B54:B61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B58:B65" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="B58:B65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="21"/>
   </tableColumns>
@@ -6635,8 +6656,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C54:C61" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C54:C61" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C58:C65" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="C58:C65" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="15"/>
   </tableColumns>
@@ -6645,8 +6666,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D54:D62" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="D54:D62" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D58:D66" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D58:D66" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="11"/>
   </tableColumns>
@@ -6655,8 +6676,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R54:V65" totalsRowCount="1" headerRowDxfId="10">
-  <autoFilter ref="R54:V64" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R58:V69" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="R58:V68" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
@@ -6944,13 +6965,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1012"/>
+  <dimension ref="B1:Y1016"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="W36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7455,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:R44" si="1">Q8*P8</f>
+        <f t="shared" ref="R8:R48" si="1">Q8*P8</f>
         <v>300</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -9551,39 +9572,37 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="2:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="25" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>233</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="G43" s="34" t="s">
-        <v>326</v>
-      </c>
+      <c r="G43" s="33"/>
       <c r="H43" s="33" t="s">
         <v>124</v>
       </c>
       <c r="I43" s="104">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="J43" s="104">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="K43" s="105">
         <v>44927</v>
       </c>
       <c r="L43" s="104">
-        <v>46093</v>
+        <v>46096</v>
       </c>
       <c r="M43" s="29">
         <v>1</v>
@@ -9594,14 +9613,14 @@
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="2">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="5">
         <v>1</v>
       </c>
       <c r="R43" s="2">
         <f>Q43*P43</f>
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>39</v>
@@ -9613,157 +9632,309 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="36" t="s">
+    <row r="44" spans="2:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="104">
+        <v>44835</v>
+      </c>
+      <c r="J44" s="104">
+        <v>45000</v>
+      </c>
+      <c r="K44" s="105">
+        <v>44927</v>
+      </c>
+      <c r="L44" s="104">
+        <v>46096</v>
+      </c>
+      <c r="M44" s="29">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2">
+        <f>Q44*P44</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T44" s="106"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="2:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="B45" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="104">
+        <v>44835</v>
+      </c>
+      <c r="J45" s="104">
+        <v>45000</v>
+      </c>
+      <c r="K45" s="105">
+        <v>44927</v>
+      </c>
+      <c r="L45" s="104">
+        <v>46096</v>
+      </c>
+      <c r="M45" s="29">
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="2">
+        <v>382</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>1</v>
+      </c>
+      <c r="R45" s="2">
+        <f>Q45*P45</f>
+        <v>382</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T45" s="106"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="2:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="107"/>
+      <c r="H46" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="104">
+        <v>44896</v>
+      </c>
+      <c r="J46" s="104">
+        <v>44997</v>
+      </c>
+      <c r="K46" s="105">
+        <v>44927</v>
+      </c>
+      <c r="L46" s="104">
+        <v>46093</v>
+      </c>
+      <c r="M46" s="29">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2">
+        <f>Q46*P46</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T46" s="106"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="2:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="B47" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" s="104">
+        <v>44896</v>
+      </c>
+      <c r="J47" s="104">
+        <v>44997</v>
+      </c>
+      <c r="K47" s="105">
+        <v>44927</v>
+      </c>
+      <c r="L47" s="104">
+        <v>46093</v>
+      </c>
+      <c r="M47" s="29">
+        <v>1</v>
+      </c>
+      <c r="N47" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="2">
+        <v>382</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2">
+        <f>Q47*P47</f>
+        <v>382</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="26"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C48" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D48" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E48" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="58" t="s">
+      <c r="F48" s="51"/>
+      <c r="G48" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H48" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I48" s="40">
         <v>44409</v>
       </c>
-      <c r="J44" s="40"/>
-      <c r="K44" s="60">
+      <c r="J48" s="40"/>
+      <c r="K48" s="60">
         <v>44774</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41">
+      <c r="L48" s="40"/>
+      <c r="M48" s="41">
         <v>0.75</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N48" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="13" t="s">
+      <c r="O48" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P48" s="14">
         <v>49</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q48" s="15">
         <v>1</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R48" s="14">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="S48" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T44" s="37"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37" t="s">
+      <c r="T48" s="37"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-    </row>
-    <row r="45" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-    </row>
-    <row r="46" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-    </row>
-    <row r="47" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-    </row>
-    <row r="48" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
     </row>
     <row r="49" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
@@ -9778,8 +9949,8 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="7"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="6"/>
@@ -9794,15 +9965,15 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="7"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="6"/>
@@ -9817,15 +9988,15 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="7"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="6"/>
@@ -9836,10 +10007,11 @@
     </row>
     <row r="52" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -9858,10 +10030,11 @@
     </row>
     <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -9879,236 +10052,198 @@
       <c r="V53" s="6"/>
     </row>
     <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="73"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="93" t="s">
-        <v>264</v>
-      </c>
-      <c r="S54" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="T54" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="U54" s="93" t="s">
-        <v>274</v>
-      </c>
-      <c r="V54" s="93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B55" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="7"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+    </row>
+    <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="S55" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="T55" s="9">
-        <v>45078</v>
-      </c>
-      <c r="U55" s="94">
-        <v>500</v>
-      </c>
-      <c r="V55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B56" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="74"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+    </row>
+    <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="S56" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="T56" s="9">
-        <v>44896</v>
-      </c>
-      <c r="U56" s="94">
-        <v>200</v>
-      </c>
-      <c r="V56" t="s">
-        <v>124</v>
-      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
     </row>
     <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="7"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="R57" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="S57" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="T57" s="101">
-        <v>44897</v>
-      </c>
-      <c r="U57" s="102">
-        <v>200</v>
-      </c>
-      <c r="V57" s="100" t="s">
-        <v>124</v>
-      </c>
+      <c r="B57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
     </row>
     <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="7"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="R58" t="s">
-        <v>281</v>
-      </c>
-      <c r="S58" t="s">
-        <v>268</v>
-      </c>
-      <c r="T58" s="9">
-        <v>44927</v>
-      </c>
-      <c r="U58" s="95">
-        <v>200</v>
-      </c>
-      <c r="V58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="72"/>
+      <c r="F58" s="73"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="S58" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="T58" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="U58" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="V58" s="93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="78" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D59" s="79" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="7"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="R59" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="S59" s="100" t="s">
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="S59" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="T59" s="9">
+        <v>45078</v>
+      </c>
+      <c r="U59" s="94">
+        <v>500</v>
+      </c>
+      <c r="V59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="B60" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="74"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="S60" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="T59" s="101">
-        <v>44898</v>
-      </c>
-      <c r="U59" s="102">
+      <c r="T60" s="9">
+        <v>44896</v>
+      </c>
+      <c r="U60" s="94">
         <v>200</v>
-      </c>
-      <c r="V59" s="100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="7"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="R60" t="s">
-        <v>271</v>
-      </c>
-      <c r="S60" t="s">
-        <v>272</v>
-      </c>
-      <c r="T60" s="9">
-        <v>44866</v>
-      </c>
-      <c r="U60" s="95">
-        <v>50</v>
       </c>
       <c r="V60" t="s">
         <v>124</v>
@@ -10116,164 +10251,191 @@
     </row>
     <row r="61" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="78" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C61" s="78" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="E61" s="8"/>
       <c r="F61" s="7"/>
       <c r="L61" s="10"/>
       <c r="M61" s="11"/>
       <c r="N61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="R61" t="s">
-        <v>273</v>
-      </c>
-      <c r="S61" t="s">
-        <v>272</v>
-      </c>
-      <c r="T61" s="9">
-        <v>44867</v>
-      </c>
-      <c r="U61" s="95">
-        <v>150</v>
-      </c>
-      <c r="V61" t="s">
+      <c r="R61" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="S61" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="T61" s="101">
+        <v>44897</v>
+      </c>
+      <c r="U61" s="102">
+        <v>200</v>
+      </c>
+      <c r="V61" s="100" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="B62" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
       <c r="L62" s="10"/>
       <c r="M62" s="11"/>
       <c r="N62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="R62" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="S62" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="T62" s="101">
-        <v>44868</v>
-      </c>
-      <c r="U62" s="102">
-        <v>250</v>
-      </c>
-      <c r="V62" s="100" t="s">
-        <v>276</v>
+      <c r="R62" t="s">
+        <v>281</v>
+      </c>
+      <c r="S62" t="s">
+        <v>268</v>
+      </c>
+      <c r="T62" s="9">
+        <v>44927</v>
+      </c>
+      <c r="U62" s="95">
+        <v>200</v>
+      </c>
+      <c r="V62" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="10"/>
-      <c r="Q63" s="10"/>
+      <c r="B63" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="7"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="10"/>
+      <c r="P63" s="10"/>
       <c r="R63" s="100" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="S63" s="100" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="T63" s="101">
-        <v>44869</v>
+        <v>44898</v>
       </c>
       <c r="U63" s="102">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="V63" s="100" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="10"/>
-      <c r="Q64" s="10"/>
+      <c r="B64" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="7"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="10"/>
+      <c r="P64" s="10"/>
       <c r="R64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="S64" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="T64" s="9">
-        <v>45047</v>
+        <v>44866</v>
       </c>
       <c r="U64" s="95">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="V64" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="B65" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>115</v>
+      </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="10"/>
-      <c r="Q65" s="10"/>
+      <c r="F65" s="7"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="10"/>
+      <c r="P65" s="10"/>
       <c r="R65" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="S65" t="s">
+        <v>272</v>
+      </c>
+      <c r="T65" s="9">
+        <v>44867</v>
       </c>
       <c r="U65" s="95">
-        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
-        <v>2150</v>
-      </c>
-      <c r="V65">
-        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="V65" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="10"/>
-      <c r="Q66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="R66" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="S66" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="T66" s="101">
+        <v>44868</v>
+      </c>
+      <c r="U66" s="102">
+        <v>250</v>
+      </c>
+      <c r="V66" s="100" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="67" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
@@ -10289,6 +10451,21 @@
       <c r="N67" s="11"/>
       <c r="O67" s="10"/>
       <c r="Q67" s="10"/>
+      <c r="R67" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="101">
+        <v>44869</v>
+      </c>
+      <c r="U67" s="102">
+        <v>250</v>
+      </c>
+      <c r="V67" s="100" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="68" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
@@ -10304,6 +10481,21 @@
       <c r="N68" s="11"/>
       <c r="O68" s="10"/>
       <c r="Q68" s="10"/>
+      <c r="R68" t="s">
+        <v>279</v>
+      </c>
+      <c r="S68" t="s">
+        <v>280</v>
+      </c>
+      <c r="T68" s="9">
+        <v>45047</v>
+      </c>
+      <c r="U68" s="95">
+        <v>150</v>
+      </c>
+      <c r="V68" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="69" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
@@ -10319,6 +10511,17 @@
       <c r="N69" s="11"/>
       <c r="O69" s="10"/>
       <c r="Q69" s="10"/>
+      <c r="R69" t="s">
+        <v>278</v>
+      </c>
+      <c r="U69" s="95">
+        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
+        <v>2150</v>
+      </c>
+      <c r="V69">
+        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
@@ -24456,17 +24659,77 @@
       <c r="D1012" s="6"/>
       <c r="E1012" s="6"/>
       <c r="F1012" s="6"/>
+      <c r="G1012" s="9"/>
+      <c r="H1012" s="6"/>
+      <c r="I1012" s="6"/>
       <c r="J1012" s="6"/>
       <c r="M1012" s="10"/>
       <c r="N1012" s="11"/>
       <c r="O1012" s="10"/>
       <c r="Q1012" s="10"/>
     </row>
+    <row r="1013" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1013" s="6"/>
+      <c r="C1013" s="6"/>
+      <c r="D1013" s="6"/>
+      <c r="E1013" s="6"/>
+      <c r="F1013" s="6"/>
+      <c r="G1013" s="9"/>
+      <c r="H1013" s="6"/>
+      <c r="I1013" s="6"/>
+      <c r="J1013" s="6"/>
+      <c r="M1013" s="10"/>
+      <c r="N1013" s="11"/>
+      <c r="O1013" s="10"/>
+      <c r="Q1013" s="10"/>
+    </row>
+    <row r="1014" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1014" s="6"/>
+      <c r="C1014" s="6"/>
+      <c r="D1014" s="6"/>
+      <c r="E1014" s="6"/>
+      <c r="F1014" s="6"/>
+      <c r="G1014" s="9"/>
+      <c r="H1014" s="6"/>
+      <c r="I1014" s="6"/>
+      <c r="J1014" s="6"/>
+      <c r="M1014" s="10"/>
+      <c r="N1014" s="11"/>
+      <c r="O1014" s="10"/>
+      <c r="Q1014" s="10"/>
+    </row>
+    <row r="1015" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1015" s="6"/>
+      <c r="C1015" s="6"/>
+      <c r="D1015" s="6"/>
+      <c r="E1015" s="6"/>
+      <c r="F1015" s="6"/>
+      <c r="G1015" s="9"/>
+      <c r="H1015" s="6"/>
+      <c r="I1015" s="6"/>
+      <c r="J1015" s="6"/>
+      <c r="M1015" s="10"/>
+      <c r="N1015" s="11"/>
+      <c r="O1015" s="10"/>
+      <c r="Q1015" s="10"/>
+    </row>
+    <row r="1016" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1016" s="6"/>
+      <c r="C1016" s="6"/>
+      <c r="D1016" s="6"/>
+      <c r="E1016" s="6"/>
+      <c r="F1016" s="6"/>
+      <c r="J1016" s="6"/>
+      <c r="M1016" s="10"/>
+      <c r="N1016" s="11"/>
+      <c r="O1016" s="10"/>
+      <c r="Q1016" s="10"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{76037C26-561C-1143-89F7-6991E7A3C5F4}">
+      <autoFilter ref="B2:S40" xr:uid="{F81D791E-62B0-224A-9534-2769E41BA0FC}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -24474,7 +24737,7 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L38 M2:M44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L38 M2:M48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24534,17 +24797,17 @@
     <hyperlink ref="Y37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="G38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="O38" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G44" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O44" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G48" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O48" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="G39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="O39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D55" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D56" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D58" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D59" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D60" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D61" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D60" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D61" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D62" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D63" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D64" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D65" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="G23" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="G12" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="O12" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
@@ -24590,17 +24853,18 @@
     <hyperlink ref="O4" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
     <hyperlink ref="T4" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
     <hyperlink ref="T5" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
-    <hyperlink ref="G43" r:id="rId112" xr:uid="{96827754-A519-DA4D-914A-B30545755D09}"/>
+    <hyperlink ref="G47" r:id="rId112" xr:uid="{96827754-A519-DA4D-914A-B30545755D09}"/>
+    <hyperlink ref="G45" r:id="rId113" xr:uid="{56A93D38-82D1-954E-AA29-E83E73CBA67A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId113"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId114"/>
   <tableParts count="5">
-    <tablePart r:id="rId114"/>
     <tablePart r:id="rId115"/>
     <tablePart r:id="rId116"/>
     <tablePart r:id="rId117"/>
     <tablePart r:id="rId118"/>
+    <tablePart r:id="rId119"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Library/CloudStorage/GoogleDrive-cole.b.hamilton@gmail.com/My Drive/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{921609F7-9AE7-F244-9AC6-FA15DB038DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551969C0-F559-1D45-9AA8-52BD47C88378}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680BDE85-B49E-F740-A1BD-6E02B1865165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="1000" windowWidth="20480" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="40960" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <customWorkbookView name="Filter 1" guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1381,7 +1381,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1688,9 +1688,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5203,10 +5200,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hamilton, Cole B MSG MIL USA TRADOC USAREC" refreshedDate="44650.745903240742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
@@ -6325,7 +6318,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6968,10 +6961,10 @@
   <dimension ref="B1:Y1016"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W46" sqref="W46"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7586,7 +7579,7 @@
         <v>44682</v>
       </c>
       <c r="L10" s="28">
-        <v>45025</v>
+        <v>45391</v>
       </c>
       <c r="M10" s="29">
         <v>1</v>
@@ -7954,7 +7947,7 @@
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28">
-        <v>44976</v>
+        <v>45341</v>
       </c>
       <c r="M16" s="29">
         <v>1</v>
@@ -9625,7 +9618,7 @@
       <c r="S43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T43" s="106"/>
+      <c r="T43" s="26"/>
       <c r="U43" s="3"/>
       <c r="V43" s="26"/>
       <c r="W43" s="26"/>
@@ -9685,7 +9678,7 @@
       <c r="S44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T44" s="106"/>
+      <c r="T44" s="26"/>
       <c r="U44" s="3"/>
       <c r="V44" s="26"/>
       <c r="W44" s="26"/>
@@ -9747,7 +9740,7 @@
       <c r="S45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T45" s="106"/>
+      <c r="T45" s="26"/>
       <c r="U45" s="3"/>
       <c r="V45" s="26"/>
       <c r="W45" s="26"/>
@@ -9770,7 +9763,7 @@
       <c r="F46" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="G46" s="107"/>
+      <c r="G46" s="106"/>
       <c r="H46" s="33" t="s">
         <v>124</v>
       </c>
@@ -9807,7 +9800,7 @@
       <c r="S46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T46" s="106"/>
+      <c r="T46" s="26"/>
       <c r="U46" s="3"/>
       <c r="V46" s="26"/>
       <c r="W46" s="26"/>
@@ -24729,7 +24722,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{F81D791E-62B0-224A-9534-2769E41BA0FC}">
+      <autoFilter ref="B2:S40" xr:uid="{09C8BA9E-68E0-2547-ABE2-A6CFF6EEF374}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{680BDE85-B49E-F740-A1BD-6E02B1865165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6928F526-1344-47CF-B4F2-C620F97740C1}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{680BDE85-B49E-F740-A1BD-6E02B1865165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE38D066-C834-4EE7-8A3C-7AA260934D37}"/>
   <bookViews>
-    <workbookView xWindow="9288" yWindow="2376" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$57</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$58</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="332">
   <si>
     <t>My Certifications</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t>Security Analytics Professional - CSAP</t>
+  </si>
+  <si>
+    <t>Advanced Business Analytics Certificate</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,6 +1246,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1380,7 +1388,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1483,9 +1491,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1540,22 +1545,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1662,16 +1655,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6580,10 +6612,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y48" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="B1:Y48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y49" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="B1:Y49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y48">
-    <sortCondition ref="L1:L48"/>
+    <sortCondition ref="C1:C48"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="50"/>
@@ -6620,8 +6652,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B58:B65" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="B58:B65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B59:B66" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="B59:B66" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="21"/>
   </tableColumns>
@@ -6630,8 +6662,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C58:C65" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C58:C65" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C59:C66" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="C59:C66" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="15"/>
   </tableColumns>
@@ -6640,8 +6672,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D58:D66" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="D58:D66" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D59:D67" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D59:D67" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="11"/>
   </tableColumns>
@@ -6650,8 +6682,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R58:V69" totalsRowCount="1" headerRowDxfId="10">
-  <autoFilter ref="R58:V68" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}" name="FY23_Plan" displayName="FY23_Plan" ref="R59:V70" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="R59:V69" xr:uid="{7DC856C4-CE74-E44C-AEAF-D9B82C4D95DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E6FB6D3-2201-F649-A052-134F25B53BCF}" name="Certification Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3356B38D-E9EC-1E41-ABC0-719826516BB8}" name="Organization"/>
@@ -6939,13 +6971,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1016"/>
+  <dimension ref="B1:Y1017"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6984,10 +7016,10 @@
       <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>145</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -7050,35 +7082,32 @@
     </row>
     <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="39"/>
       <c r="G2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I2" s="27">
-        <f>J2-45</f>
-        <v>44407</v>
+        <v>44614</v>
       </c>
       <c r="J2" s="27">
-        <v>44452</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="27">
-        <v>45548</v>
-      </c>
+        <v>44615</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="28">
         <v>1</v>
       </c>
@@ -7086,24 +7115,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
+      <c r="O2" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <f>Q2*P2</f>
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="89" t="s">
-        <v>309</v>
+        <v>60</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>291</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="25"/>
@@ -7113,34 +7142,32 @@
     </row>
     <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="39"/>
       <c r="G3" s="29" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I3" s="27">
-        <v>44476</v>
+        <v>44613</v>
       </c>
       <c r="J3" s="27">
-        <v>44476</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="27">
-        <v>45572</v>
-      </c>
+        <v>44614</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="28">
         <v>1</v>
       </c>
@@ -7148,24 +7175,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
+      <c r="O3" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="P3" s="2">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="5">
         <v>1</v>
       </c>
       <c r="R3" s="2">
         <f>Q3*P3</f>
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="89" t="s">
-        <v>305</v>
+        <v>60</v>
+      </c>
+      <c r="T3" s="84" t="s">
+        <v>292</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="25"/>
@@ -7175,416 +7202,387 @@
     </row>
     <row r="4" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I4" s="27">
-        <f>J4-45</f>
-        <v>44448</v>
-      </c>
-      <c r="J4" s="27">
-        <v>44493</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="27">
-        <v>45590</v>
-      </c>
+        <v>44618</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="37">
+        <v>44666</v>
+      </c>
+      <c r="L4" s="27"/>
       <c r="M4" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="5">
         <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2">
-        <v>160</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>3</v>
       </c>
       <c r="R4" s="2">
         <f>Q4*P4</f>
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="89" t="s">
-        <v>302</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="T4" s="25"/>
       <c r="U4" s="3"/>
       <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
+      <c r="W4" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="32" t="s">
+      <c r="B5" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="I5" s="73">
+        <v>44422</v>
+      </c>
+      <c r="J5" s="73">
+        <v>44429</v>
+      </c>
+      <c r="K5" s="96">
+        <v>44429</v>
+      </c>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="89"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="76">
+        <f>Q5*P5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="75"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+    </row>
+    <row r="6" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="73">
+        <v>44409</v>
+      </c>
+      <c r="J6" s="73">
+        <v>44422</v>
+      </c>
+      <c r="K6" s="96">
+        <v>44422</v>
+      </c>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="75">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="89"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="76">
+        <f>Q6*P6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="75"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+    </row>
+    <row r="7" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="27">
-        <v>44571</v>
-      </c>
-      <c r="J5" s="27">
-        <v>44611</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="27">
-        <v>45341</v>
-      </c>
-      <c r="M5" s="28">
+      <c r="I7" s="73">
+        <v>44811</v>
+      </c>
+      <c r="J7" s="73">
+        <v>44812</v>
+      </c>
+      <c r="K7" s="96">
+        <v>44812</v>
+      </c>
+      <c r="L7" s="73">
+        <v>47004</v>
+      </c>
+      <c r="M7" s="74">
         <v>1</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N7" s="75">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2">
-        <v>270</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="O7" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="76">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="77">
         <v>1</v>
       </c>
-      <c r="R5" s="2">
-        <f>Q5*P5</f>
-        <v>270</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="89" t="s">
-        <v>293</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="32" t="s">
+      <c r="R7" s="76">
+        <f>Q7*P7</f>
+        <v>108</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="U7" s="75"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+    </row>
+    <row r="8" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="27">
-        <v>44618</v>
-      </c>
-      <c r="J6" s="27">
-        <v>44660</v>
-      </c>
-      <c r="K6" s="38">
-        <v>44682</v>
-      </c>
-      <c r="L6" s="27">
-        <v>45391</v>
-      </c>
-      <c r="M6" s="28">
+      <c r="I8" s="73">
+        <v>44866</v>
+      </c>
+      <c r="J8" s="73">
+        <v>44893</v>
+      </c>
+      <c r="K8" s="73">
+        <v>44893</v>
+      </c>
+      <c r="L8" s="73">
+        <v>47189</v>
+      </c>
+      <c r="M8" s="74">
         <v>1</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N8" s="75">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O8" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="P8" s="76">
+        <v>277</v>
+      </c>
+      <c r="Q8" s="77">
+        <v>1</v>
+      </c>
+      <c r="R8" s="76">
+        <f>Q8*P8</f>
+        <v>277</v>
+      </c>
+      <c r="S8" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="U8" s="75"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+    </row>
+    <row r="9" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="C9" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="73">
+        <v>44866</v>
+      </c>
+      <c r="J9" s="73">
+        <v>44891</v>
+      </c>
+      <c r="K9" s="73">
+        <v>44891</v>
+      </c>
+      <c r="L9" s="73">
+        <v>47192</v>
+      </c>
+      <c r="M9" s="74">
         <v>1</v>
       </c>
-      <c r="R6" s="2">
-        <f>Q6*P6</f>
-        <v>270</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="89" t="s">
-        <v>287</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="27">
-        <v>44577</v>
-      </c>
-      <c r="J7" s="27">
-        <v>44592</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="27">
-        <v>45808</v>
-      </c>
-      <c r="M7" s="28">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="N9" s="75">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="2">
-        <v>300</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="O9" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="P9" s="76">
+        <v>354</v>
+      </c>
+      <c r="Q9" s="77">
         <v>1</v>
       </c>
-      <c r="R7" s="2">
-        <f>Q7*P7</f>
-        <v>300</v>
-      </c>
-      <c r="S7" s="3" t="s">
+      <c r="R9" s="76">
+        <f>Q9*P9</f>
+        <v>354</v>
+      </c>
+      <c r="S9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="89" t="s">
-        <v>298</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="27">
-        <v>44256</v>
-      </c>
-      <c r="J8" s="27">
-        <v>44375</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27">
-        <v>45808</v>
-      </c>
-      <c r="M8" s="28">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="2">
-        <v>4000</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
-        <f>Q8*P8</f>
-        <v>4000</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="89" t="s">
-        <v>311</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="76" t="s">
+      <c r="T9" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="U9" s="75"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+    </row>
+    <row r="10" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="78">
-        <v>44811</v>
-      </c>
-      <c r="J9" s="78">
-        <v>44812</v>
-      </c>
-      <c r="K9" s="78">
-        <v>44812</v>
-      </c>
-      <c r="L9" s="78">
-        <v>45908</v>
-      </c>
-      <c r="M9" s="79">
-        <v>1</v>
-      </c>
-      <c r="N9" s="80">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="P9" s="81">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="82">
-        <v>1</v>
-      </c>
-      <c r="R9" s="81">
-        <f>Q9*P9</f>
-        <v>108</v>
-      </c>
-      <c r="S9" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="89" t="s">
-        <v>283</v>
-      </c>
-      <c r="U9" s="80"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-    </row>
-    <row r="10" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>71</v>
-      </c>
       <c r="D10" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="29" t="s">
-        <v>73</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="90"/>
       <c r="H10" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I10" s="27">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="J10" s="27">
-        <v>44838</v>
+        <v>44997</v>
       </c>
       <c r="K10" s="27">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="L10" s="27">
-        <v>45935</v>
+        <v>47189</v>
       </c>
       <c r="M10" s="28">
         <v>1</v>
@@ -7593,194 +7591,180 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10" s="2">
         <f>Q10*P10</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="89" t="s">
-        <v>312</v>
-      </c>
+      <c r="T10" s="25"/>
       <c r="U10" s="3"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="25" t="s">
-        <v>95</v>
-      </c>
+      <c r="W10" s="25"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="76" t="s">
+    <row r="11" spans="2:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>315</v>
-      </c>
       <c r="G11" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="H11" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="78">
-        <v>44866</v>
-      </c>
-      <c r="J11" s="78">
-        <v>44893</v>
-      </c>
-      <c r="K11" s="78">
-        <v>44893</v>
-      </c>
-      <c r="L11" s="78">
-        <v>45989</v>
-      </c>
-      <c r="M11" s="79">
+      <c r="I11" s="27">
+        <v>44896</v>
+      </c>
+      <c r="J11" s="27">
+        <v>44997</v>
+      </c>
+      <c r="K11" s="27">
+        <v>44927</v>
+      </c>
+      <c r="L11" s="27">
+        <v>47189</v>
+      </c>
+      <c r="M11" s="28">
         <v>1</v>
       </c>
-      <c r="N11" s="80">
+      <c r="N11" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="P11" s="81">
-        <v>277</v>
-      </c>
-      <c r="Q11" s="82">
+      <c r="O11" s="1"/>
+      <c r="P11" s="2">
+        <v>382</v>
+      </c>
+      <c r="Q11" s="5">
         <v>1</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="2">
         <f>Q11*P11</f>
-        <v>277</v>
-      </c>
-      <c r="S11" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="U11" s="80"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-    </row>
-    <row r="12" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="76" t="s">
+      <c r="T11" s="25"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="77" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="78">
-        <v>44866</v>
-      </c>
-      <c r="J12" s="78">
-        <v>44891</v>
-      </c>
-      <c r="K12" s="78">
-        <v>44891</v>
-      </c>
-      <c r="L12" s="78">
-        <v>45989</v>
-      </c>
-      <c r="M12" s="79">
+      <c r="I12" s="27">
+        <v>44835</v>
+      </c>
+      <c r="J12" s="27">
+        <v>45000</v>
+      </c>
+      <c r="K12" s="27">
+        <v>44927</v>
+      </c>
+      <c r="L12" s="27">
+        <v>47189</v>
+      </c>
+      <c r="M12" s="28">
         <v>1</v>
       </c>
-      <c r="N12" s="80">
+      <c r="N12" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="P12" s="81">
-        <v>354</v>
-      </c>
-      <c r="Q12" s="82">
+      <c r="O12" s="1"/>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>1</v>
       </c>
-      <c r="R12" s="81">
+      <c r="R12" s="2">
         <f>Q12*P12</f>
-        <v>354</v>
-      </c>
-      <c r="S12" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="89" t="s">
-        <v>318</v>
-      </c>
-      <c r="U12" s="80"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="80"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="100"/>
     </row>
     <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="G13" s="95"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I13" s="27">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="J13" s="27">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="K13" s="27">
         <v>44927</v>
       </c>
       <c r="L13" s="27">
-        <v>46093</v>
+        <v>47192</v>
       </c>
       <c r="M13" s="28">
         <v>1</v>
@@ -7812,16 +7796,16 @@
     </row>
     <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>313</v>
@@ -7833,16 +7817,16 @@
         <v>124</v>
       </c>
       <c r="I14" s="27">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="J14" s="27">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="K14" s="27">
         <v>44927</v>
       </c>
       <c r="L14" s="27">
-        <v>46093</v>
+        <v>47192</v>
       </c>
       <c r="M14" s="28">
         <v>1</v>
@@ -7873,97 +7857,95 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32" t="s">
+      <c r="D15" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="27">
-        <v>44835</v>
-      </c>
-      <c r="J15" s="27">
-        <v>45000</v>
-      </c>
-      <c r="K15" s="27">
-        <v>44927</v>
-      </c>
-      <c r="L15" s="27">
-        <v>46096</v>
-      </c>
-      <c r="M15" s="28">
+      <c r="I15" s="73">
+        <v>44806</v>
+      </c>
+      <c r="J15" s="73">
+        <v>44836</v>
+      </c>
+      <c r="K15" s="73">
+        <v>44836</v>
+      </c>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74">
         <v>1</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="75">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="O15" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="P15" s="76">
+        <v>168</v>
+      </c>
+      <c r="Q15" s="77">
         <v>1</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="76">
         <f>Q15*P15</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" s="25"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="S15" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="U15" s="75"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
     </row>
     <row r="16" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
-        <v>329</v>
+        <v>61</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="I16" s="27">
-        <v>44835</v>
+        <v>44501</v>
       </c>
       <c r="J16" s="27">
-        <v>45000</v>
-      </c>
-      <c r="K16" s="27">
-        <v>44927</v>
-      </c>
-      <c r="L16" s="27">
-        <v>46096</v>
-      </c>
+        <v>44571</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="28">
         <v>1</v>
       </c>
@@ -7971,21 +7953,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="91" t="s">
+        <v>62</v>
+      </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="Q16" s="5">
         <v>1</v>
       </c>
       <c r="R16" s="2">
         <f>Q16*P16</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="T16" s="84" t="s">
+        <v>300</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -7994,38 +7980,32 @@
     </row>
     <row r="17" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="H17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I17" s="27">
-        <v>44835</v>
+        <v>44409</v>
       </c>
       <c r="J17" s="27">
-        <v>45000</v>
-      </c>
-      <c r="K17" s="27">
-        <v>44927</v>
-      </c>
-      <c r="L17" s="27">
-        <v>46096</v>
-      </c>
+        <v>44598</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="28">
         <v>1</v>
       </c>
@@ -8033,21 +8013,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="P17" s="2">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
         <v>1</v>
       </c>
       <c r="R17" s="2">
         <f>Q17*P17</f>
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="T17" s="84" t="s">
+        <v>294</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
@@ -8055,192 +8039,212 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="75" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="I18" s="78">
-        <v>44422</v>
-      </c>
-      <c r="J18" s="78">
-        <v>44429</v>
-      </c>
-      <c r="K18" s="78">
-        <v>44429</v>
-      </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="80">
+      <c r="B18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="27">
+        <v>44409</v>
+      </c>
+      <c r="J18" s="27">
+        <v>44598</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="81">
+      <c r="Q18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
         <f>Q18*P18</f>
         <v>0</v>
       </c>
-      <c r="S18" s="80"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-    </row>
-    <row r="19" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="75" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="I19" s="78">
+      <c r="S18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="27">
         <v>44409</v>
       </c>
-      <c r="J19" s="78">
-        <v>44422</v>
-      </c>
-      <c r="K19" s="78">
-        <v>44422</v>
-      </c>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="80">
+      <c r="J19" s="27">
+        <v>44598</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="94"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="81">
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
         <f>Q19*P19</f>
         <v>0</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
+      <c r="S19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" s="77" t="s">
+      <c r="B20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="78">
-        <v>44806</v>
-      </c>
-      <c r="J20" s="78">
-        <v>44836</v>
-      </c>
-      <c r="K20" s="78">
-        <v>44836</v>
-      </c>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79">
+      <c r="I20" s="27">
+        <v>44409</v>
+      </c>
+      <c r="J20" s="27">
+        <v>44598</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28">
         <v>1</v>
       </c>
-      <c r="N20" s="80">
+      <c r="N20" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O20" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="P20" s="81">
-        <v>168</v>
-      </c>
-      <c r="Q20" s="82">
+      <c r="O20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
         <v>1</v>
       </c>
-      <c r="R20" s="81">
+      <c r="R20" s="2">
         <f>Q20*P20</f>
-        <v>168</v>
-      </c>
-      <c r="S20" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="U20" s="80"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
+      <c r="T20" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>125</v>
+        <v>47</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="I21" s="27">
-        <v>44501</v>
+        <v>44409</v>
       </c>
       <c r="J21" s="27">
-        <v>44693</v>
-      </c>
-      <c r="K21" s="27">
-        <v>44652</v>
-      </c>
+        <v>44496</v>
+      </c>
+      <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="28">
         <v>1</v>
@@ -8249,25 +8253,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O21" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      <c r="O21" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="P21" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5">
         <v>1</v>
       </c>
       <c r="R21" s="2">
         <f>Q21*P21</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" s="89" t="s">
-        <v>285</v>
+        <v>50</v>
+      </c>
+      <c r="T21" s="84" t="s">
+        <v>301</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="25"/>
@@ -8276,162 +8279,153 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="40" t="s">
+      <c r="B22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="42">
-        <v>44835</v>
-      </c>
-      <c r="J22" s="42">
-        <v>44687</v>
-      </c>
-      <c r="K22" s="42">
-        <v>44743</v>
-      </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43">
+      <c r="E22" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="27">
+        <v>44409</v>
+      </c>
+      <c r="J22" s="27">
+        <v>44486</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28">
         <v>1</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O22" s="45" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
-      </c>
-      <c r="P22" s="46">
-        <v>300</v>
-      </c>
-      <c r="Q22" s="47">
+      <c r="O22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
         <v>1</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="2">
         <f>Q22*P22</f>
-        <v>300</v>
-      </c>
-      <c r="S22" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="U22" s="44"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-    </row>
-    <row r="23" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="2:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I23" s="27">
-        <v>44646</v>
-      </c>
-      <c r="J23" s="27">
-        <v>44647</v>
-      </c>
+        <v>44409</v>
+      </c>
+      <c r="J23" s="27"/>
       <c r="K23" s="27">
-        <v>44647</v>
+        <v>44774</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N23" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="97" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P23" s="2">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="5">
         <v>1</v>
       </c>
       <c r="R23" s="2">
         <f>Q23*P23</f>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="89" t="s">
-        <v>288</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="T23" s="25"/>
       <c r="U23" s="3"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
+      <c r="W23" s="25" t="s">
+        <v>92</v>
+      </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>125</v>
       </c>
       <c r="I24" s="27">
-        <v>44634</v>
+        <v>44501</v>
       </c>
       <c r="J24" s="27">
-        <v>44645</v>
+        <v>44693</v>
       </c>
       <c r="K24" s="27">
-        <v>44645</v>
+        <v>44652</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="28">
@@ -8441,56 +8435,59 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O24" s="54" t="s">
-        <v>128</v>
+      <c r="O24" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
       <c r="P24" s="2">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="5">
         <v>1</v>
       </c>
       <c r="R24" s="2">
         <f>Q24*P24</f>
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="89" t="s">
-        <v>289</v>
+        <v>60</v>
+      </c>
+      <c r="T24" s="84" t="s">
+        <v>285</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="3"/>
+      <c r="W24" s="25"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>146</v>
+      </c>
       <c r="G25" s="29" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I25" s="27">
-        <v>44593</v>
+        <v>44470</v>
       </c>
       <c r="J25" s="27">
-        <v>44634</v>
+        <v>44559</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -8501,24 +8498,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>38</v>
+      <c r="O25" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
       <c r="P25" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="5">
         <v>1</v>
       </c>
       <c r="R25" s="2">
         <f>Q25*P25</f>
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T25" s="89" t="s">
-        <v>290</v>
+        <v>60</v>
+      </c>
+      <c r="T25" s="84" t="s">
+        <v>282</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="25"/>
@@ -8528,58 +8526,57 @@
     </row>
     <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="29" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I26" s="27">
-        <v>44614</v>
-      </c>
-      <c r="J26" s="27">
-        <v>44615</v>
-      </c>
-      <c r="K26" s="27"/>
+        <v>44531</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27">
+        <v>44713</v>
+      </c>
       <c r="L26" s="27"/>
       <c r="M26" s="28">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N26" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="5">
         <v>1</v>
       </c>
       <c r="R26" s="2">
         <f>Q26*P26</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T26" s="89" t="s">
-        <v>291</v>
-      </c>
+      <c r="T26" s="25"/>
       <c r="U26" s="3"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
@@ -8587,90 +8584,95 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="27">
-        <v>44613</v>
-      </c>
-      <c r="J27" s="27">
-        <v>44614</v>
-      </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28">
+      <c r="B27" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="41">
+        <v>44835</v>
+      </c>
+      <c r="J27" s="41">
+        <v>44687</v>
+      </c>
+      <c r="K27" s="41">
+        <v>44743</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42">
         <v>1</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="43">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O27" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="5">
+      <c r="O27" s="44" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+      <c r="P27" s="45">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="46">
         <v>1</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="45">
         <f>Q27*P27</f>
-        <v>100</v>
-      </c>
-      <c r="S27" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="S27" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="T27" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="T27" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="U27" s="43"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
     </row>
     <row r="28" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
-        <v>66</v>
+      <c r="B28" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="39"/>
       <c r="G28" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>124</v>
+        <v>59</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="I28" s="27">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="J28" s="27">
-        <v>44598</v>
+        <v>44577</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
@@ -8681,24 +8683,25 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O28" s="16" t="s">
-        <v>49</v>
+      <c r="O28" s="30" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
       <c r="P28" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="5">
         <v>1</v>
       </c>
       <c r="R28" s="2">
         <f>Q28*P28</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T28" s="89" t="s">
-        <v>294</v>
+        <v>60</v>
+      </c>
+      <c r="T28" s="84" t="s">
+        <v>299</v>
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="25"/>
@@ -8707,93 +8710,97 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="25" t="s">
+      <c r="B29" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="27">
-        <v>44409</v>
-      </c>
-      <c r="J29" s="27">
-        <v>44598</v>
-      </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28">
+      <c r="G29" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="41">
+        <v>44844</v>
+      </c>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41">
+        <v>44896</v>
+      </c>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42">
+        <v>0</v>
+      </c>
+      <c r="N29" s="43">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="44">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="45">
+        <v>300</v>
+      </c>
+      <c r="Q29" s="46">
         <v>1</v>
       </c>
-      <c r="N29" s="3">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2">
+      <c r="R29" s="45">
         <f>Q29*P29</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T29" s="89" t="s">
-        <v>295</v>
-      </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="S29" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29" s="39"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
     </row>
     <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="31" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I30" s="27">
-        <v>44409</v>
+        <f>J30-45</f>
+        <v>44407</v>
       </c>
       <c r="J30" s="27">
-        <v>44598</v>
+        <v>44452</v>
       </c>
       <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="27">
+        <v>45913</v>
+      </c>
       <c r="M30" s="28">
         <v>1</v>
       </c>
@@ -8802,23 +8809,23 @@
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" s="2">
         <f>Q30*P30</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T30" s="89" t="s">
-        <v>296</v>
+        <v>31</v>
+      </c>
+      <c r="T30" s="84" t="s">
+        <v>309</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="25"/>
@@ -8828,32 +8835,34 @@
     </row>
     <row r="31" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I31" s="27">
-        <v>44409</v>
+        <v>44476</v>
       </c>
       <c r="J31" s="27">
-        <v>44598</v>
+        <v>44476</v>
       </c>
       <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="27">
+        <v>45674</v>
+      </c>
       <c r="M31" s="28">
         <v>1</v>
       </c>
@@ -8862,23 +8871,23 @@
         <v>1</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Q31" s="5">
         <v>1</v>
       </c>
       <c r="R31" s="2">
         <f>Q31*P31</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T31" s="89" t="s">
-        <v>297</v>
+        <v>31</v>
+      </c>
+      <c r="T31" s="84" t="s">
+        <v>305</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="25"/>
@@ -8886,34 +8895,37 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="2:25" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="48" t="s">
-        <v>148</v>
+    <row r="32" spans="2:25" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="40"/>
+      <c r="E32" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="39"/>
       <c r="G32" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="I32" s="27">
-        <v>44470</v>
+        <f>J32-45</f>
+        <v>44448</v>
       </c>
       <c r="J32" s="27">
-        <v>44577</v>
+        <v>44493</v>
       </c>
       <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="27">
+        <v>45955</v>
+      </c>
       <c r="M32" s="28">
         <v>1</v>
       </c>
@@ -8921,25 +8933,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O32" s="30" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      <c r="O32" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="P32" s="2">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32" s="2">
         <f>Q32*P32</f>
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T32" s="89" t="s">
-        <v>299</v>
+        <v>31</v>
+      </c>
+      <c r="T32" s="84" t="s">
+        <v>302</v>
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="25"/>
@@ -8949,31 +8960,33 @@
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>125</v>
+        <v>27</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="I33" s="27">
-        <v>44501</v>
+        <v>44646</v>
       </c>
       <c r="J33" s="27">
-        <v>44571</v>
-      </c>
-      <c r="K33" s="27"/>
+        <v>44647</v>
+      </c>
+      <c r="K33" s="27">
+        <v>44647</v>
+      </c>
       <c r="L33" s="27"/>
       <c r="M33" s="28">
         <v>1</v>
@@ -8982,24 +8995,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="96" t="s">
-        <v>62</v>
+      <c r="O33" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="P33" s="2">
-        <v>1500</v>
+        <v>99</v>
       </c>
       <c r="Q33" s="5">
         <v>1</v>
       </c>
       <c r="R33" s="2">
         <f>Q33*P33</f>
-        <v>1500</v>
+        <v>99</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T33" s="89" t="s">
-        <v>300</v>
+        <v>31</v>
+      </c>
+      <c r="T33" s="84" t="s">
+        <v>288</v>
       </c>
       <c r="U33" s="3"/>
       <c r="V33" s="25"/>
@@ -9009,31 +9022,30 @@
     </row>
     <row r="34" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>146</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="39"/>
       <c r="G34" s="29" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I34" s="27">
-        <v>44470</v>
+        <f>J34-7</f>
+        <v>44480</v>
       </c>
       <c r="J34" s="27">
-        <v>44559</v>
+        <v>44487</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
@@ -9044,25 +9056,24 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O34" s="97" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      <c r="O34" s="97" t="s">
+        <v>30</v>
       </c>
       <c r="P34" s="2">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="5">
         <v>1</v>
       </c>
       <c r="R34" s="2">
         <f>Q34*P34</f>
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T34" s="89" t="s">
-        <v>282</v>
+        <v>31</v>
+      </c>
+      <c r="T34" s="84" t="s">
+        <v>303</v>
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="25"/>
@@ -9072,29 +9083,30 @@
     </row>
     <row r="35" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="31" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I35" s="27">
-        <v>44409</v>
+        <f>J35-7</f>
+        <v>44466</v>
       </c>
       <c r="J35" s="27">
-        <v>44496</v>
+        <v>44473</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
@@ -9106,23 +9118,23 @@
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="5">
         <v>1</v>
       </c>
       <c r="R35" s="2">
         <f>Q35*P35</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T35" s="89" t="s">
-        <v>301</v>
+        <v>31</v>
+      </c>
+      <c r="T35" s="84" t="s">
+        <v>306</v>
       </c>
       <c r="U35" s="3"/>
       <c r="V35" s="25"/>
@@ -9132,30 +9144,29 @@
     </row>
     <row r="36" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="40"/>
+        <v>28</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="39"/>
       <c r="G36" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I36" s="27">
-        <f>J36-7</f>
-        <v>44480</v>
+        <v>44409</v>
       </c>
       <c r="J36" s="27">
-        <v>44487</v>
+        <v>44429</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
@@ -9182,8 +9193,8 @@
       <c r="S36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T36" s="89" t="s">
-        <v>303</v>
+      <c r="T36" s="84" t="s">
+        <v>310</v>
       </c>
       <c r="U36" s="3"/>
       <c r="V36" s="25"/>
@@ -9192,34 +9203,36 @@
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="56" t="s">
+      <c r="B37" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="38">
-        <v>44409</v>
-      </c>
-      <c r="J37" s="38">
-        <v>44486</v>
-      </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39">
+      <c r="I37" s="37">
+        <v>44571</v>
+      </c>
+      <c r="J37" s="37">
+        <v>44611</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37">
+        <v>45341</v>
+      </c>
+      <c r="M37" s="38">
         <v>1</v>
       </c>
       <c r="N37" s="3">
@@ -9227,60 +9240,63 @@
         <v>1</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="P37" s="14">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="15">
         <v>1</v>
       </c>
       <c r="R37" s="14">
         <f>Q37*P37</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="T37" s="90" t="s">
-        <v>304</v>
+        <v>39</v>
+      </c>
+      <c r="T37" s="85" t="s">
+        <v>293</v>
       </c>
       <c r="U37" s="12"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B38" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="56" t="s">
+    <row r="38" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="38">
-        <f>J38-7</f>
-        <v>44466</v>
-      </c>
-      <c r="J38" s="38">
-        <v>44473</v>
-      </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="39">
+      <c r="I38" s="37">
+        <v>44618</v>
+      </c>
+      <c r="J38" s="37">
+        <v>44660</v>
+      </c>
+      <c r="K38" s="37">
+        <v>44682</v>
+      </c>
+      <c r="L38" s="37">
+        <v>45760</v>
+      </c>
+      <c r="M38" s="38">
         <v>1</v>
       </c>
       <c r="N38" s="12">
@@ -9288,59 +9304,63 @@
         <v>1</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="P38" s="14">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="Q38" s="15">
         <v>1</v>
       </c>
       <c r="R38" s="14">
         <f>Q38*P38</f>
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T38" s="90" t="s">
-        <v>306</v>
+        <v>39</v>
+      </c>
+      <c r="T38" s="85" t="s">
+        <v>287</v>
       </c>
       <c r="U38" s="12"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B39" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="56" t="s">
+    <row r="39" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="38">
-        <v>44409</v>
-      </c>
-      <c r="J39" s="38">
-        <v>44472</v>
-      </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="39">
+      <c r="I39" s="37">
+        <v>44531</v>
+      </c>
+      <c r="J39" s="37">
+        <v>44838</v>
+      </c>
+      <c r="K39" s="37">
+        <v>44896</v>
+      </c>
+      <c r="L39" s="37">
+        <v>47030</v>
+      </c>
+      <c r="M39" s="38">
         <v>1</v>
       </c>
       <c r="N39" s="12">
@@ -9348,500 +9368,508 @@
         <v>1</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="P39" s="14">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="Q39" s="15">
         <v>1</v>
       </c>
       <c r="R39" s="14">
         <f>Q39*P39</f>
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="S39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T39" s="90" t="s">
-        <v>307</v>
+      <c r="T39" s="85" t="s">
+        <v>312</v>
       </c>
       <c r="U39" s="12"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" spans="2:25" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="56" t="s">
+    <row r="40" spans="2:25" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="38">
-        <v>44409</v>
-      </c>
-      <c r="J40" s="38">
-        <v>44472</v>
-      </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39">
-        <v>1</v>
+      <c r="I40" s="37">
+        <v>44531</v>
+      </c>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37">
+        <v>44774</v>
+      </c>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38">
+        <v>0</v>
       </c>
       <c r="N40" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O40" s="98" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="P40" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q40" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40" s="14">
         <f>Q40*P40</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T40" s="90" t="s">
-        <v>308</v>
-      </c>
+      <c r="T40" s="35"/>
       <c r="U40" s="12"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="X40" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y40" s="99" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B41" s="24" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="40"/>
+        <v>72</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="39"/>
       <c r="G41" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I41" s="27">
-        <v>44409</v>
-      </c>
-      <c r="J41" s="27">
-        <v>44429</v>
-      </c>
-      <c r="K41" s="38"/>
+        <v>44531</v>
+      </c>
+      <c r="J41" s="27"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="27"/>
       <c r="M41" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="P41" s="2">
-        <v>99</v>
+        <v>2000</v>
       </c>
       <c r="Q41" s="5">
         <v>1</v>
       </c>
       <c r="R41" s="2">
         <f>Q41*P41</f>
-        <v>99</v>
+        <v>2000</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T41" s="89" t="s">
-        <v>310</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="T41" s="25"/>
       <c r="U41" s="3"/>
       <c r="V41" s="25"/>
       <c r="W41" s="25"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="2:25" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I42" s="27">
-        <v>44531</v>
-      </c>
-      <c r="J42" s="27"/>
-      <c r="K42" s="38">
-        <v>44774</v>
-      </c>
-      <c r="L42" s="27"/>
+        <v>44577</v>
+      </c>
+      <c r="J42" s="27">
+        <v>44592</v>
+      </c>
+      <c r="K42" s="37"/>
+      <c r="L42" s="27">
+        <v>46965</v>
+      </c>
       <c r="M42" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="P42" s="2">
         <v>300</v>
       </c>
       <c r="Q42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2">
         <f>Q42*P42</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T42" s="25"/>
+      <c r="T42" s="84" t="s">
+        <v>298</v>
+      </c>
       <c r="U42" s="3"/>
       <c r="V42" s="25"/>
-      <c r="W42" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="X42" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y42" s="34" t="s">
-        <v>85</v>
-      </c>
+      <c r="W42" s="25"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B43" s="24" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I43" s="27">
-        <v>44531</v>
-      </c>
-      <c r="J43" s="27"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="27"/>
+        <v>44256</v>
+      </c>
+      <c r="J43" s="27">
+        <v>44375</v>
+      </c>
+      <c r="K43" s="37"/>
+      <c r="L43" s="27">
+        <v>46965</v>
+      </c>
       <c r="M43" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P43" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q43" s="5">
         <v>1</v>
       </c>
       <c r="R43" s="2">
         <f>Q43*P43</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T43" s="25"/>
-      <c r="U43" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="T43" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" ht="72" x14ac:dyDescent="0.3">
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="2:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B44" s="24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="40"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="29" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I44" s="27">
-        <v>44618</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="38">
-        <v>44666</v>
-      </c>
+        <v>44593</v>
+      </c>
+      <c r="J44" s="27">
+        <v>44634</v>
+      </c>
+      <c r="K44" s="37"/>
       <c r="L44" s="27"/>
       <c r="M44" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="99" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P44" s="2">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="5">
         <v>1</v>
       </c>
       <c r="R44" s="2">
         <f>Q44*P44</f>
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T44" s="25"/>
+      <c r="T44" s="84" t="s">
+        <v>290</v>
+      </c>
       <c r="U44" s="3"/>
       <c r="V44" s="25"/>
-      <c r="W44" s="25" t="s">
-        <v>82</v>
-      </c>
+      <c r="W44" s="25"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B45" s="24" t="s">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>133</v>
+        <v>35</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="I45" s="27">
-        <v>44571</v>
-      </c>
-      <c r="J45" s="27"/>
-      <c r="K45" s="38">
-        <v>45047</v>
-      </c>
+        <v>44409</v>
+      </c>
+      <c r="J45" s="27">
+        <v>44472</v>
+      </c>
+      <c r="K45" s="37"/>
       <c r="L45" s="27"/>
       <c r="M45" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P45" s="2">
-        <v>750</v>
+        <v>199</v>
       </c>
       <c r="Q45" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2">
         <f>Q45*P45</f>
-        <v>1500</v>
+        <v>199</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T45" s="25"/>
+      <c r="T45" s="84" t="s">
+        <v>307</v>
+      </c>
       <c r="U45" s="3"/>
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="2:25" ht="144" x14ac:dyDescent="0.3">
-      <c r="B46" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="40" t="s">
+    <row r="46" spans="2:25" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="27">
+        <v>44409</v>
+      </c>
+      <c r="J46" s="27">
+        <v>44472</v>
+      </c>
+      <c r="K46" s="37"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="28">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="P46" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2">
+        <f>Q46*P46</f>
+        <v>500</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T46" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="U46" s="3"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="42">
-        <v>44844</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="58">
-        <v>44896</v>
-      </c>
-      <c r="L46" s="42"/>
-      <c r="M46" s="43">
-        <v>0</v>
-      </c>
-      <c r="N46" s="44">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="45">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="46">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="47">
-        <v>1</v>
-      </c>
-      <c r="R46" s="46">
-        <f>Q46*P46</f>
-        <v>300</v>
-      </c>
-      <c r="S46" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T46" s="40"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-    </row>
-    <row r="47" spans="2:25" ht="72" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="40"/>
+      <c r="F47" s="39"/>
       <c r="G47" s="32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I47" s="27">
-        <v>44531</v>
+        <v>44571</v>
       </c>
       <c r="J47" s="27"/>
-      <c r="K47" s="38">
-        <v>44713</v>
+      <c r="K47" s="37">
+        <v>45047</v>
       </c>
       <c r="L47" s="27"/>
       <c r="M47" s="28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O47" s="1">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>0</v>
-      </c>
+      <c r="O47" s="1"/>
       <c r="P47" s="2">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="Q47" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" s="2">
         <f>Q47*P47</f>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T47" s="25"/>
       <c r="U47" s="3"/>
@@ -9851,89 +9879,134 @@
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="36" t="s">
+      <c r="B48" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" s="38">
-        <v>44409</v>
-      </c>
-      <c r="J48" s="38"/>
-      <c r="K48" s="57">
-        <v>44774</v>
-      </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="39">
-        <v>0.75</v>
+      <c r="G48" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" s="37">
+        <v>44634</v>
+      </c>
+      <c r="J48" s="37">
+        <v>44645</v>
+      </c>
+      <c r="K48" s="53">
+        <v>44645</v>
+      </c>
+      <c r="L48" s="37"/>
+      <c r="M48" s="38">
+        <v>1</v>
       </c>
       <c r="N48" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="O48" s="98" t="s">
+        <v>128</v>
       </c>
       <c r="P48" s="14">
-        <v>49</v>
+        <v>6000</v>
       </c>
       <c r="Q48" s="15">
         <v>1</v>
       </c>
       <c r="R48" s="14">
         <f>Q48*P48</f>
-        <v>49</v>
+        <v>6000</v>
       </c>
       <c r="S48" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="T48" s="36"/>
+        <v>24</v>
+      </c>
+      <c r="T48" s="85" t="s">
+        <v>289</v>
+      </c>
       <c r="U48" s="12"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36" t="s">
-        <v>92</v>
-      </c>
+      <c r="V48" s="35"/>
+      <c r="W48" s="12"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-    </row>
-    <row r="50" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="101" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" s="103">
+        <v>45444</v>
+      </c>
+      <c r="J49" s="103">
+        <v>45536</v>
+      </c>
+      <c r="K49" s="104">
+        <v>45536</v>
+      </c>
+      <c r="L49" s="103"/>
+      <c r="M49" s="105">
+        <v>1</v>
+      </c>
+      <c r="N49" s="106">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="P49" s="107">
+        <v>10000</v>
+      </c>
+      <c r="Q49" s="108">
+        <v>1</v>
+      </c>
+      <c r="R49" s="107">
+        <f>Q49*P49</f>
+        <v>10000</v>
+      </c>
+      <c r="S49" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="U49" s="106"/>
+      <c r="V49" s="102"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="106"/>
+      <c r="Y49" s="106"/>
+    </row>
+    <row r="50" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -9956,7 +10029,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -9979,7 +10052,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -9992,8 +10065,8 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="7"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="6"/>
@@ -10002,7 +10075,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -10025,13 +10098,13 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -10048,7 +10121,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -10071,8 +10144,9 @@
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
     </row>
-    <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -10093,7 +10167,7 @@
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
-    <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -10115,54 +10189,40 @@
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
     </row>
-    <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="67"/>
+    <row r="58" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="S58" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="T58" s="86" t="s">
-        <v>265</v>
-      </c>
-      <c r="U58" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="V58" s="86" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="7"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B59" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="61"/>
+      <c r="F59" s="62"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="7"/>
@@ -10171,34 +10231,34 @@
       <c r="O59" s="6"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="S59" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="T59" s="9">
-        <v>45078</v>
-      </c>
-      <c r="U59" s="87">
-        <v>500</v>
-      </c>
-      <c r="V59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="73" t="s">
-        <v>104</v>
+      <c r="R59" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="S59" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="U59" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="V59" s="81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B60" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="68" t="s">
+        <v>102</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="68"/>
+      <c r="F60" s="7"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="7"/>
@@ -10207,63 +10267,67 @@
       <c r="O60" s="6"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="S60" s="85" t="s">
-        <v>268</v>
+      <c r="R60" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="S60" s="80" t="s">
+        <v>266</v>
       </c>
       <c r="T60" s="9">
-        <v>44896</v>
-      </c>
-      <c r="U60" s="87">
-        <v>200</v>
+        <v>45078</v>
+      </c>
+      <c r="U60" s="82">
+        <v>500</v>
       </c>
       <c r="V60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="72" t="s">
+    <row r="61" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="63"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="S61" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="T61" s="9">
+        <v>44896</v>
+      </c>
+      <c r="U61" s="82">
+        <v>200</v>
+      </c>
+      <c r="V61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C62" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D62" s="68" t="s">
         <v>106</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="7"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="R61" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="S61" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="T61" s="92">
-        <v>44897</v>
-      </c>
-      <c r="U61" s="93">
-        <v>200</v>
-      </c>
-      <c r="V61" s="91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="73" t="s">
-        <v>109</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="7"/>
@@ -10271,31 +10335,31 @@
       <c r="M62" s="11"/>
       <c r="N62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="R62" t="s">
-        <v>281</v>
-      </c>
-      <c r="S62" t="s">
+      <c r="R62" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="S62" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="T62" s="9">
-        <v>44927</v>
+      <c r="T62" s="87">
+        <v>44897</v>
       </c>
       <c r="U62" s="88">
         <v>200</v>
       </c>
-      <c r="V62" t="s">
+      <c r="V62" s="86" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="73" t="s">
-        <v>110</v>
+    <row r="63" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>109</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="7"/>
@@ -10303,31 +10367,31 @@
       <c r="M63" s="11"/>
       <c r="N63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="R63" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="S63" s="91" t="s">
+      <c r="R63" t="s">
+        <v>281</v>
+      </c>
+      <c r="S63" t="s">
         <v>268</v>
       </c>
-      <c r="T63" s="92">
-        <v>44898</v>
-      </c>
-      <c r="U63" s="93">
+      <c r="T63" s="9">
+        <v>44927</v>
+      </c>
+      <c r="U63" s="83">
         <v>200</v>
       </c>
-      <c r="V63" s="91" t="s">
+      <c r="V63" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="72" t="s">
+    <row r="64" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="68" t="s">
         <v>110</v>
-      </c>
-      <c r="C64" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="73" t="s">
-        <v>114</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="7"/>
@@ -10335,109 +10399,111 @@
       <c r="M64" s="11"/>
       <c r="N64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="R64" t="s">
-        <v>271</v>
-      </c>
-      <c r="S64" t="s">
-        <v>272</v>
-      </c>
-      <c r="T64" s="9">
-        <v>44866</v>
+      <c r="R64" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="S64" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="T64" s="87">
+        <v>44898</v>
       </c>
       <c r="U64" s="88">
-        <v>50</v>
-      </c>
-      <c r="V64" t="s">
+        <v>200</v>
+      </c>
+      <c r="V64" s="86" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="6"/>
+      <c r="B65" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="8"/>
       <c r="F65" s="7"/>
       <c r="L65" s="10"/>
       <c r="M65" s="11"/>
       <c r="N65" s="10"/>
       <c r="P65" s="10"/>
       <c r="R65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S65" t="s">
         <v>272</v>
       </c>
       <c r="T65" s="9">
-        <v>44867</v>
-      </c>
-      <c r="U65" s="88">
-        <v>150</v>
+        <v>44866</v>
+      </c>
+      <c r="U65" s="83">
+        <v>50</v>
       </c>
       <c r="V65" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="B66" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
       <c r="L66" s="10"/>
       <c r="M66" s="11"/>
       <c r="N66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="R66" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="S66" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="T66" s="92">
-        <v>44868</v>
-      </c>
-      <c r="U66" s="93">
-        <v>250</v>
-      </c>
-      <c r="V66" s="91" t="s">
-        <v>276</v>
+      <c r="R66" t="s">
+        <v>273</v>
+      </c>
+      <c r="S66" t="s">
+        <v>272</v>
+      </c>
+      <c r="T66" s="9">
+        <v>44867</v>
+      </c>
+      <c r="U66" s="83">
+        <v>150</v>
+      </c>
+      <c r="V66" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="S67" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="T67" s="92">
-        <v>44869</v>
-      </c>
-      <c r="U67" s="93">
+      <c r="L67" s="10"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="R67" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="S67" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="T67" s="87">
+        <v>44868</v>
+      </c>
+      <c r="U67" s="88">
         <v>250</v>
       </c>
-      <c r="V67" s="91" t="s">
+      <c r="V67" s="86" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10455,20 +10521,20 @@
       <c r="N68" s="11"/>
       <c r="O68" s="10"/>
       <c r="Q68" s="10"/>
-      <c r="R68" t="s">
-        <v>279</v>
-      </c>
-      <c r="S68" t="s">
-        <v>280</v>
-      </c>
-      <c r="T68" s="9">
-        <v>45047</v>
+      <c r="R68" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="87">
+        <v>44869</v>
       </c>
       <c r="U68" s="88">
-        <v>150</v>
-      </c>
-      <c r="V68" t="s">
-        <v>124</v>
+        <v>250</v>
+      </c>
+      <c r="V68" s="86" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -10486,15 +10552,19 @@
       <c r="O69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" t="s">
-        <v>278</v>
-      </c>
-      <c r="U69" s="88">
-        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
-        <v>2150</v>
-      </c>
-      <c r="V69">
-        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
-        <v>10</v>
+        <v>279</v>
+      </c>
+      <c r="S69" t="s">
+        <v>280</v>
+      </c>
+      <c r="T69" s="9">
+        <v>45047</v>
+      </c>
+      <c r="U69" s="83">
+        <v>150</v>
+      </c>
+      <c r="V69" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -10511,6 +10581,17 @@
       <c r="N70" s="11"/>
       <c r="O70" s="10"/>
       <c r="Q70" s="10"/>
+      <c r="R70" t="s">
+        <v>278</v>
+      </c>
+      <c r="U70" s="83">
+        <f>SUBTOTAL(109,FY23_Plan[Cost])</f>
+        <v>2150</v>
+      </c>
+      <c r="V70">
+        <f>SUBTOTAL(103,FY23_Plan[Category])</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
@@ -24693,17 +24774,32 @@
       <c r="D1016" s="6"/>
       <c r="E1016" s="6"/>
       <c r="F1016" s="6"/>
+      <c r="G1016" s="9"/>
+      <c r="H1016" s="6"/>
+      <c r="I1016" s="6"/>
       <c r="J1016" s="6"/>
       <c r="M1016" s="10"/>
       <c r="N1016" s="11"/>
       <c r="O1016" s="10"/>
       <c r="Q1016" s="10"/>
     </row>
+    <row r="1017" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1017" s="6"/>
+      <c r="C1017" s="6"/>
+      <c r="D1017" s="6"/>
+      <c r="E1017" s="6"/>
+      <c r="F1017" s="6"/>
+      <c r="J1017" s="6"/>
+      <c r="M1017" s="10"/>
+      <c r="N1017" s="11"/>
+      <c r="O1017" s="10"/>
+      <c r="Q1017" s="10"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{1CF99C30-5D4D-4F70-9946-1AFFA2AF79E3}">
+      <autoFilter ref="B2:S40" xr:uid="{D739ECB7-5051-4F79-8442-1AFF43C5EA61}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -24711,134 +24807,137 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L38 M2:M48" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L38 M2:M49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G39" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O39" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G40" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O40" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O38" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G36" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O28" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O29" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G30" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G5" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O5" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G27" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O27" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G26" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O26" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="O25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="O6" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G42" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="O42" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="X42" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Y42" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Y43" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G44" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O44" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G48" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O48" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G10" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O10" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D60" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D61" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D62" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D63" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D64" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D65" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G33" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G24" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G46" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G9" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
-    <hyperlink ref="G20" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
-    <hyperlink ref="O9" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
-    <hyperlink ref="O20" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
-    <hyperlink ref="T34" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
-    <hyperlink ref="T9" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
-    <hyperlink ref="T20" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
-    <hyperlink ref="T21" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
-    <hyperlink ref="T22" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
-    <hyperlink ref="T6" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
-    <hyperlink ref="T23" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
-    <hyperlink ref="T24" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
-    <hyperlink ref="T25" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
-    <hyperlink ref="T26" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
-    <hyperlink ref="T27" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
-    <hyperlink ref="T5" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
-    <hyperlink ref="T28" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
-    <hyperlink ref="T29" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
-    <hyperlink ref="T30" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
-    <hyperlink ref="T31" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
-    <hyperlink ref="T7" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
-    <hyperlink ref="T32" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
-    <hyperlink ref="T33" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
-    <hyperlink ref="T35" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
-    <hyperlink ref="T4" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
-    <hyperlink ref="T36" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
-    <hyperlink ref="T37" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
-    <hyperlink ref="T3" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
-    <hyperlink ref="T38" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
-    <hyperlink ref="T39" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
-    <hyperlink ref="T40" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
-    <hyperlink ref="T2" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
-    <hyperlink ref="T41" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
-    <hyperlink ref="T8" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
-    <hyperlink ref="T10" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
-    <hyperlink ref="G12" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
-    <hyperlink ref="O12" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
-    <hyperlink ref="G11" r:id="rId108" xr:uid="{B68C2409-C837-FB4B-8AA6-560607A67967}"/>
-    <hyperlink ref="O11" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
-    <hyperlink ref="T11" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
-    <hyperlink ref="T12" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
-    <hyperlink ref="G14" r:id="rId112" xr:uid="{96827754-A519-DA4D-914A-B30545755D09}"/>
-    <hyperlink ref="G17" r:id="rId113" xr:uid="{56A93D38-82D1-954E-AA29-E83E73CBA67A}"/>
+    <hyperlink ref="G43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="U43" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G46" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O35" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O21" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G3" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O3" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G2" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O2" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="O44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G38" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O38" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G40" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="O40" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X40" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Y40" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G41" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O41" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Y41" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G4" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O4" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G23" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O23" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G16" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G48" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O48" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G29" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G7" r:id="rId71" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
+    <hyperlink ref="G15" r:id="rId72" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
+    <hyperlink ref="O7" r:id="rId73" xr:uid="{5A838232-5F39-0245-AD7B-2BF0A119D319}"/>
+    <hyperlink ref="O15" r:id="rId74" xr:uid="{C3FD6C09-464B-6C43-9C71-BA9BA0117BB9}"/>
+    <hyperlink ref="T25" r:id="rId75" xr:uid="{BDDADCF0-8667-43AE-919C-7B0C93BCF6DC}"/>
+    <hyperlink ref="T7" r:id="rId76" xr:uid="{E00C99F3-3210-42FC-BC0D-4EE413E22763}"/>
+    <hyperlink ref="T15" r:id="rId77" xr:uid="{ABA201BE-EA8F-47A0-8D61-59CBB0880203}"/>
+    <hyperlink ref="T24" r:id="rId78" xr:uid="{B01E96F5-C79B-4D3A-9472-6B25BE4B48A1}"/>
+    <hyperlink ref="T27" r:id="rId79" xr:uid="{1C93F10C-3753-422B-9A97-65CF1AE43166}"/>
+    <hyperlink ref="T38" r:id="rId80" xr:uid="{E88F3C52-85AB-4B9C-A7A0-80600B04C481}"/>
+    <hyperlink ref="T33" r:id="rId81" xr:uid="{9A4276C9-3A1B-4A40-BD95-20685D665C2D}"/>
+    <hyperlink ref="T48" r:id="rId82" xr:uid="{D5A8C799-527C-413D-847A-103FC9CFE6A4}"/>
+    <hyperlink ref="T44" r:id="rId83" xr:uid="{6EE89D66-E199-4909-A397-CF42BA873892}"/>
+    <hyperlink ref="T2" r:id="rId84" xr:uid="{F0A90DE9-A840-4BBD-A162-AF7172AEDD6C}"/>
+    <hyperlink ref="T3" r:id="rId85" xr:uid="{F8B7A384-37BB-454E-93E1-C86ED4B47AA2}"/>
+    <hyperlink ref="T37" r:id="rId86" xr:uid="{7D4F1156-BB2F-442A-A118-87E2F6368316}"/>
+    <hyperlink ref="T17" r:id="rId87" xr:uid="{EB6CCA43-0640-464F-8A62-22E8FA082AAE}"/>
+    <hyperlink ref="T18" r:id="rId88" xr:uid="{3645D153-B508-4FEF-84DD-740747ABE16B}"/>
+    <hyperlink ref="T19" r:id="rId89" xr:uid="{173F3BC9-85E0-47E0-977F-44CC9DE6134E}"/>
+    <hyperlink ref="T20" r:id="rId90" xr:uid="{8E0CE96A-9A9B-42D8-84E4-1CCBDE20AF52}"/>
+    <hyperlink ref="T42" r:id="rId91" xr:uid="{CD90E88D-E600-48A0-B6A3-F199294A0054}"/>
+    <hyperlink ref="T28" r:id="rId92" xr:uid="{610836AC-532A-4FD8-8AE7-DA6B402C4BDF}"/>
+    <hyperlink ref="T16" r:id="rId93" xr:uid="{25F0ADCC-701C-4951-86D1-BC7506D7E9F9}"/>
+    <hyperlink ref="T21" r:id="rId94" xr:uid="{0443D0CB-A017-4DDC-8AA0-F43B37753D93}"/>
+    <hyperlink ref="T32" r:id="rId95" xr:uid="{DDFE3363-75E7-4077-A130-4CABBC60F2AB}"/>
+    <hyperlink ref="T34" r:id="rId96" xr:uid="{67BB9284-C2F0-4F9D-A46E-C0AA4467D3D8}"/>
+    <hyperlink ref="T22" r:id="rId97" xr:uid="{D3CE5CA2-8E6D-45E9-8991-F9B23AA95FF3}"/>
+    <hyperlink ref="T31" r:id="rId98" xr:uid="{6FAC919C-A402-49C5-97C5-62A8614853B2}"/>
+    <hyperlink ref="T35" r:id="rId99" xr:uid="{A2826FD5-5443-489C-AB11-4D076A728028}"/>
+    <hyperlink ref="T45" r:id="rId100" xr:uid="{C42C25BD-877A-4C9D-B39C-C7983E12969E}"/>
+    <hyperlink ref="T46" r:id="rId101" xr:uid="{392DA6BD-8D38-4EB5-8A28-8807F0E7872A}"/>
+    <hyperlink ref="T30" r:id="rId102" xr:uid="{C878B55E-B53F-4845-8870-CDE290F02AB6}"/>
+    <hyperlink ref="T36" r:id="rId103" xr:uid="{27C9B4EC-0272-43ED-8582-5FF3C430AC27}"/>
+    <hyperlink ref="T43" r:id="rId104" xr:uid="{6890227C-DD4C-49A7-A855-34470C8C0DC5}"/>
+    <hyperlink ref="T39" r:id="rId105" xr:uid="{313854EA-E24A-488E-87A0-73D415B839F0}"/>
+    <hyperlink ref="G9" r:id="rId106" xr:uid="{61BA8BEF-81D6-0248-967C-E6ECD4B332F4}"/>
+    <hyperlink ref="O9" r:id="rId107" xr:uid="{B2E4F117-2738-0340-AA8B-CEE9CB7C6A2E}"/>
+    <hyperlink ref="G8" r:id="rId108" xr:uid="{B68C2409-C837-FB4B-8AA6-560607A67967}"/>
+    <hyperlink ref="O8" r:id="rId109" xr:uid="{E2E97BA4-F123-FD45-AF7D-2141F83A453F}"/>
+    <hyperlink ref="T8" r:id="rId110" xr:uid="{0CFA9E3D-D33F-8740-AE59-790AFE6D72BF}"/>
+    <hyperlink ref="T9" r:id="rId111" xr:uid="{73D94410-B32D-594E-8DF8-6189C6BA583E}"/>
+    <hyperlink ref="G11" r:id="rId112" xr:uid="{96827754-A519-DA4D-914A-B30545755D09}"/>
+    <hyperlink ref="G14" r:id="rId113" xr:uid="{56A93D38-82D1-954E-AA29-E83E73CBA67A}"/>
+    <hyperlink ref="G49" r:id="rId114" xr:uid="{AB6E1904-847A-4CF5-B8D6-516F25C20297}"/>
+    <hyperlink ref="O49" r:id="rId115" xr:uid="{6074BD3B-C4B3-48D1-99D4-E5CE6D7B84F9}"/>
+    <hyperlink ref="T49" r:id="rId116" xr:uid="{6CE0B060-B2C6-4C2A-89F2-4A03ED6DCD76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId114"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId117"/>
   <tableParts count="5">
-    <tablePart r:id="rId115"/>
-    <tablePart r:id="rId116"/>
-    <tablePart r:id="rId117"/>
     <tablePart r:id="rId118"/>
     <tablePart r:id="rId119"/>
+    <tablePart r:id="rId120"/>
+    <tablePart r:id="rId121"/>
+    <tablePart r:id="rId122"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24853,1376 +24952,1376 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.77734375" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="59" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="59"/>
+    <col min="1" max="1" width="31.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.77734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="54" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="str">
+      <c r="A2" s="60" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="79">
         <v>44608</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="78">
         <v>100</v>
       </c>
-      <c r="E2" s="59" t="str">
+      <c r="E2" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="str">
+      <c r="A3" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="79">
         <v>44626</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="78">
         <v>93.81</v>
       </c>
-      <c r="E3" s="59" t="str">
+      <c r="E3" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="str">
+      <c r="A4" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="79">
         <v>44737</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="78">
         <v>7</v>
       </c>
-      <c r="E4" s="59" t="str">
+      <c r="E4" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="str">
+      <c r="A5" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="79">
         <v>44616</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="78">
         <v>0</v>
       </c>
-      <c r="E5" s="59" t="str">
+      <c r="E5" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="str">
+      <c r="A6" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="79">
         <v>44752</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="78">
         <v>83</v>
       </c>
-      <c r="E6" s="59" t="str">
+      <c r="E6" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="str">
+      <c r="A7" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="79">
         <v>44514</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="78">
         <v>97.61</v>
       </c>
-      <c r="E7" s="59" t="str">
+      <c r="E7" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="str">
+      <c r="A8" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="79">
         <v>44560</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="78">
         <v>95</v>
       </c>
-      <c r="E8" s="59" t="str">
+      <c r="E8" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="str">
+      <c r="A9" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="79">
         <v>44512</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="78">
         <v>97.52</v>
       </c>
-      <c r="E9" s="59" t="str">
+      <c r="E9" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="str">
+      <c r="A10" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="79">
         <v>44518</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="78">
         <v>94.6</v>
       </c>
-      <c r="E10" s="59" t="str">
+      <c r="E10" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="str">
+      <c r="A11" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="79">
         <v>44556</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="78">
         <v>94.58</v>
       </c>
-      <c r="E11" s="59" t="str">
+      <c r="E11" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="str">
+      <c r="A12" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="79">
         <v>44550</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="78">
         <v>88</v>
       </c>
-      <c r="E12" s="59" t="str">
+      <c r="E12" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="str">
+      <c r="A13" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="79">
         <v>44596</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="78">
         <v>0</v>
       </c>
-      <c r="E13" s="59" t="str">
+      <c r="E13" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="str">
+      <c r="A14" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="79">
         <v>44513</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="78">
         <v>95</v>
       </c>
-      <c r="E14" s="59" t="str">
+      <c r="E14" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="str">
+      <c r="A15" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="79">
         <v>44576</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="78">
         <v>92.69</v>
       </c>
-      <c r="E15" s="59" t="str">
+      <c r="E15" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="str">
+      <c r="A16" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="79">
         <v>44560</v>
       </c>
-      <c r="D16" s="83">
+      <c r="D16" s="78">
         <v>92.66</v>
       </c>
-      <c r="E16" s="59" t="str">
+      <c r="E16" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="str">
+      <c r="A17" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="79">
         <v>44528</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="78">
         <v>91.71</v>
       </c>
-      <c r="E17" s="59" t="str">
+      <c r="E17" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="str">
+      <c r="A18" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="79">
         <v>44700</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="78">
         <v>90.94</v>
       </c>
-      <c r="E18" s="59" t="str">
+      <c r="E18" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="str">
+      <c r="A19" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="79">
         <v>44488</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="78">
         <v>90.89</v>
       </c>
-      <c r="E19" s="59" t="str">
+      <c r="E19" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="str">
+      <c r="A20" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="79">
         <v>44515</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="78">
         <v>88.88</v>
       </c>
-      <c r="E20" s="59" t="str">
+      <c r="E20" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="str">
+      <c r="A21" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="79">
         <v>44815</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="78">
         <v>76.67</v>
       </c>
-      <c r="E21" s="59" t="str">
+      <c r="E21" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="str">
+      <c r="A22" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="79">
         <v>44513</v>
       </c>
-      <c r="D22" s="83">
+      <c r="D22" s="78">
         <v>91.38</v>
       </c>
-      <c r="E22" s="59" t="str">
+      <c r="E22" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="str">
+      <c r="A23" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="79">
         <v>44512</v>
       </c>
-      <c r="D23" s="83">
+      <c r="D23" s="78">
         <v>95.85</v>
       </c>
-      <c r="E23" s="59" t="str">
+      <c r="E23" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="str">
+      <c r="A24" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="79">
         <v>44554</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="78">
         <v>88.13</v>
       </c>
-      <c r="E24" s="59" t="str">
+      <c r="E24" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="str">
+      <c r="A25" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="79">
         <v>44596</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="78">
         <v>88</v>
       </c>
-      <c r="E25" s="59" t="str">
+      <c r="E25" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="str">
+      <c r="A26" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="79">
         <v>44814</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="78">
         <v>90</v>
       </c>
-      <c r="E26" s="59" t="str">
+      <c r="E26" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="str">
+      <c r="A27" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="79">
         <v>44608</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="78">
         <v>87.83</v>
       </c>
-      <c r="E27" s="59" t="str">
+      <c r="E27" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="59" t="str">
+      <c r="A28" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="79">
         <v>44812</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="78">
         <v>87.5</v>
       </c>
-      <c r="E28" s="59" t="str">
+      <c r="E28" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="str">
+      <c r="A29" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="79">
         <v>44562</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="78">
         <v>86.67</v>
       </c>
-      <c r="E29" s="59" t="str">
+      <c r="E29" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="str">
+      <c r="A30" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="79">
         <v>44518</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D30" s="78">
         <v>86.09</v>
       </c>
-      <c r="E30" s="59" t="str">
+      <c r="E30" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="59" t="str">
+      <c r="A31" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="79">
         <v>44562</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="78">
         <v>85.83</v>
       </c>
-      <c r="E31" s="59" t="str">
+      <c r="E31" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="59" t="str">
+      <c r="A32" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="79">
         <v>44570</v>
       </c>
-      <c r="D32" s="83">
+      <c r="D32" s="78">
         <v>85.83</v>
       </c>
-      <c r="E32" s="59" t="str">
+      <c r="E32" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="str">
+      <c r="A33" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="79">
         <v>44517</v>
       </c>
-      <c r="D33" s="83">
+      <c r="D33" s="78">
         <v>84.19</v>
       </c>
-      <c r="E33" s="59" t="str">
+      <c r="E33" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="str">
+      <c r="A34" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="79">
         <v>44501</v>
       </c>
-      <c r="D34" s="83">
+      <c r="D34" s="78">
         <v>83.91</v>
       </c>
-      <c r="E34" s="59" t="str">
+      <c r="E34" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="str">
+      <c r="A35" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="79">
         <v>44515</v>
       </c>
-      <c r="D35" s="83">
+      <c r="D35" s="78">
         <v>83.6</v>
       </c>
-      <c r="E35" s="59" t="str">
+      <c r="E35" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="str">
+      <c r="A36" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="79">
         <v>44814</v>
       </c>
-      <c r="D36" s="83">
+      <c r="D36" s="78">
         <v>83.33</v>
       </c>
-      <c r="E36" s="59" t="str">
+      <c r="E36" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="str">
+      <c r="A37" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="79">
         <v>44522</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="78">
         <v>83.33</v>
       </c>
-      <c r="E37" s="59" t="str">
+      <c r="E37" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="str">
+      <c r="A38" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="84">
+      <c r="C38" s="79">
         <v>44501</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="78">
         <v>87.63</v>
       </c>
-      <c r="E38" s="59" t="str">
+      <c r="E38" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="str">
+      <c r="A39" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="79">
         <v>44577</v>
       </c>
-      <c r="D39" s="83">
+      <c r="D39" s="78">
         <v>83.17</v>
       </c>
-      <c r="E39" s="59" t="str">
+      <c r="E39" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59" t="str">
+      <c r="A40" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="84">
+      <c r="C40" s="79">
         <v>44558</v>
       </c>
-      <c r="D40" s="83">
+      <c r="D40" s="78">
         <v>100</v>
       </c>
-      <c r="E40" s="59" t="str">
+      <c r="E40" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="59" t="str">
+      <c r="A41" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="79">
         <v>44680</v>
       </c>
-      <c r="D41" s="83">
+      <c r="D41" s="78">
         <v>82.5</v>
       </c>
-      <c r="E41" s="59" t="str">
+      <c r="E41" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="str">
+      <c r="A42" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="84">
+      <c r="C42" s="79">
         <v>44560</v>
       </c>
-      <c r="D42" s="83">
+      <c r="D42" s="78">
         <v>82</v>
       </c>
-      <c r="E42" s="59" t="str">
+      <c r="E42" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="str">
+      <c r="A43" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="84">
+      <c r="C43" s="79">
         <v>44611</v>
       </c>
-      <c r="D43" s="83">
+      <c r="D43" s="78">
         <v>94.13</v>
       </c>
-      <c r="E43" s="59" t="str">
+      <c r="E43" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="59" t="str">
+      <c r="A44" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="84">
+      <c r="C44" s="79">
         <v>44752</v>
       </c>
-      <c r="D44" s="83">
+      <c r="D44" s="78">
         <v>81.81</v>
       </c>
-      <c r="E44" s="59" t="str">
+      <c r="E44" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="59" t="str">
+      <c r="A45" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="84">
+      <c r="C45" s="79">
         <v>44608</v>
       </c>
-      <c r="D45" s="83">
+      <c r="D45" s="78">
         <v>81.5</v>
       </c>
-      <c r="E45" s="59" t="str">
+      <c r="E45" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="str">
+      <c r="A46" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="79">
         <v>44701</v>
       </c>
-      <c r="D46" s="83">
+      <c r="D46" s="78">
         <v>85.38</v>
       </c>
-      <c r="E46" s="59" t="str">
+      <c r="E46" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="59" t="str">
+      <c r="A47" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C47" s="79">
         <v>44752</v>
       </c>
-      <c r="D47" s="83">
+      <c r="D47" s="78">
         <v>79.92</v>
       </c>
-      <c r="E47" s="59" t="str">
+      <c r="E47" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="59" t="str">
+      <c r="A48" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C48" s="79">
         <v>44813</v>
       </c>
-      <c r="D48" s="83">
+      <c r="D48" s="78">
         <v>76.67</v>
       </c>
-      <c r="E48" s="59" t="str">
+      <c r="E48" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="str">
+      <c r="A49" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="C49" s="84">
+      <c r="C49" s="79">
         <v>44752</v>
       </c>
-      <c r="D49" s="83">
+      <c r="D49" s="78">
         <v>41.67</v>
       </c>
-      <c r="E49" s="59" t="str">
+      <c r="E49" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="str">
+      <c r="A50" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="84">
+      <c r="C50" s="79">
         <v>44624</v>
       </c>
-      <c r="D50" s="83">
+      <c r="D50" s="78">
         <v>92.52</v>
       </c>
-      <c r="E50" s="59" t="str">
+      <c r="E50" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="59" t="str">
+      <c r="A51" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="79">
         <v>44705</v>
       </c>
-      <c r="D51" s="83">
+      <c r="D51" s="78">
         <v>50</v>
       </c>
-      <c r="E51" s="59" t="str">
+      <c r="E51" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="str">
+      <c r="A52" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="79">
         <v>44697</v>
       </c>
-      <c r="D52" s="83">
+      <c r="D52" s="78">
         <v>39.630000000000003</v>
       </c>
-      <c r="E52" s="59" t="str">
+      <c r="E52" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="str">
+      <c r="A53" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="79">
         <v>44578</v>
       </c>
-      <c r="D53" s="83">
+      <c r="D53" s="78">
         <v>36</v>
       </c>
-      <c r="E53" s="59" t="str">
+      <c r="E53" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="str">
+      <c r="A54" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="79">
         <v>44718</v>
       </c>
-      <c r="D54" s="83">
+      <c r="D54" s="78">
         <v>86.08</v>
       </c>
-      <c r="E54" s="59" t="str">
+      <c r="E54" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="59" t="str">
+      <c r="A55" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Getting started with Google Workspace</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="79">
         <v>44815</v>
       </c>
-      <c r="D55" s="83">
+      <c r="D55" s="78">
         <v>25</v>
       </c>
-      <c r="E55" s="59" t="str">
+      <c r="E55" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/eb051d98829432162bdc78f34f1e9593</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="str">
+      <c r="A56" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="79">
         <v>44488</v>
       </c>
-      <c r="D56" s="83">
+      <c r="D56" s="78">
         <v>16</v>
       </c>
-      <c r="E56" s="59" t="str">
+      <c r="E56" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="59" t="str">
+      <c r="A57" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="79">
         <v>44503</v>
       </c>
-      <c r="D57" s="83">
+      <c r="D57" s="78">
         <v>9</v>
       </c>
-      <c r="E57" s="59" t="str">
+      <c r="E57" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59" t="str">
+      <c r="A58" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="84">
+      <c r="C58" s="79">
         <v>44640</v>
       </c>
-      <c r="D58" s="83">
+      <c r="D58" s="78">
         <v>94.48</v>
       </c>
-      <c r="E58" s="59" t="str">
+      <c r="E58" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59" t="str">
+      <c r="A59" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="84">
+      <c r="C59" s="79">
         <v>44624</v>
       </c>
-      <c r="D59" s="83">
+      <c r="D59" s="78">
         <v>14</v>
       </c>
-      <c r="E59" s="59" t="str">
+      <c r="E59" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="59" t="str">
+      <c r="A60" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B60" s="83" t="s">
+      <c r="B60" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="84">
+      <c r="C60" s="79">
         <v>44583</v>
       </c>
-      <c r="D60" s="83">
+      <c r="D60" s="78">
         <v>8</v>
       </c>
-      <c r="E60" s="59" t="str">
+      <c r="E60" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="59" t="str">
+      <c r="A61" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="84">
+      <c r="C61" s="79">
         <v>44494</v>
       </c>
-      <c r="D61" s="83">
+      <c r="D61" s="78">
         <v>5</v>
       </c>
-      <c r="E61" s="59" t="str">
+      <c r="E61" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="59" t="str">
+      <c r="A62" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="84">
+      <c r="C62" s="79">
         <v>44746</v>
       </c>
-      <c r="D62" s="83">
+      <c r="D62" s="78">
         <v>0</v>
       </c>
-      <c r="E62" s="59" t="str">
+      <c r="E62" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="59" t="str">
+      <c r="A63" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="84">
+      <c r="C63" s="79">
         <v>44557</v>
       </c>
-      <c r="D63" s="83">
+      <c r="D63" s="78">
         <v>0</v>
       </c>
-      <c r="E63" s="59" t="str">
+      <c r="E63" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="59" t="str">
+      <c r="A64" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="84">
+      <c r="C64" s="79">
         <v>44582</v>
       </c>
-      <c r="D64" s="83">
+      <c r="D64" s="78">
         <v>0</v>
       </c>
-      <c r="E64" s="59" t="str">
+      <c r="E64" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="59" t="str">
+      <c r="A65" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="84">
+      <c r="C65" s="79">
         <v>44633</v>
       </c>
-      <c r="D65" s="83">
+      <c r="D65" s="78">
         <v>0</v>
       </c>
-      <c r="E65" s="59" t="str">
+      <c r="E65" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="59" t="str">
+      <c r="A66" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="84">
+      <c r="C66" s="79">
         <v>44702</v>
       </c>
-      <c r="D66" s="83">
+      <c r="D66" s="78">
         <v>0</v>
       </c>
-      <c r="E66" s="59" t="str">
+      <c r="E66" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="59" t="str">
+      <c r="A67" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="84">
+      <c r="C67" s="79">
         <v>44747</v>
       </c>
-      <c r="D67" s="83">
+      <c r="D67" s="78">
         <v>0</v>
       </c>
-      <c r="E67" s="59" t="str">
+      <c r="E67" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="59" t="str">
+      <c r="A68" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B68" s="83" t="s">
+      <c r="B68" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="84">
+      <c r="C68" s="79">
         <v>44613</v>
       </c>
-      <c r="D68" s="83">
+      <c r="D68" s="78">
         <v>0</v>
       </c>
-      <c r="E68" s="59" t="str">
+      <c r="E68" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="59" t="str">
+      <c r="A69" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="84">
+      <c r="C69" s="79">
         <v>44682</v>
       </c>
-      <c r="D69" s="83">
+      <c r="D69" s="78">
         <v>0</v>
       </c>
-      <c r="E69" s="59" t="str">
+      <c r="E69" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="59" t="str">
+      <c r="A70" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="84">
+      <c r="C70" s="79">
         <v>44700</v>
       </c>
-      <c r="D70" s="83">
+      <c r="D70" s="78">
         <v>0</v>
       </c>
-      <c r="E70" s="59" t="str">
+      <c r="E70" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="59" t="str">
+      <c r="A71" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="84">
+      <c r="C71" s="79">
         <v>44689</v>
       </c>
-      <c r="D71" s="83">
+      <c r="D71" s="78">
         <v>0</v>
       </c>
-      <c r="E71" s="59" t="str">
+      <c r="E71" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="59" t="str">
+      <c r="A72" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="84">
+      <c r="C72" s="79">
         <v>44668</v>
       </c>
-      <c r="D72" s="83">
+      <c r="D72" s="78">
         <v>0</v>
       </c>
-      <c r="E72" s="59" t="str">
+      <c r="E72" s="54" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
@@ -26246,837 +26345,837 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="59"/>
+    <col min="1" max="1" width="8.77734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="54" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="59">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="57">
         <v>44577</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="58" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="59">
+      <c r="A3" s="54">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="57">
         <v>44577</v>
       </c>
-      <c r="E3" s="59" t="str">
+      <c r="E3" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E2, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="59">
+      <c r="A4" s="54">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="57">
         <v>44577</v>
       </c>
-      <c r="E4" s="59" t="str">
+      <c r="E4" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E3, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="59">
+      <c r="A5" s="54">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="57">
         <v>44577</v>
       </c>
-      <c r="E5" s="59" t="str">
+      <c r="E5" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E4, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="59">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="57">
         <v>44577</v>
       </c>
-      <c r="E6" s="59" t="str">
+      <c r="E6" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E5, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="59">
+      <c r="A7" s="54">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="57">
         <v>44577</v>
       </c>
-      <c r="E7" s="59" t="str">
+      <c r="E7" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E6, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="59">
+      <c r="A8" s="54">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="57">
         <v>44577</v>
       </c>
-      <c r="E8" s="59" t="str">
+      <c r="E8" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E7, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="59">
+      <c r="A9" s="54">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="57">
         <v>44577</v>
       </c>
-      <c r="E9" s="59" t="str">
+      <c r="E9" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E8, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="59">
+      <c r="A10" s="54">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="57">
         <v>44577</v>
       </c>
-      <c r="E10" s="59" t="str">
+      <c r="E10" s="54" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E9, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="59">
+      <c r="A11" s="54">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="57">
         <v>44695</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="58" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="59">
+      <c r="A12" s="54">
         <f t="shared" ref="A12:A46" si="0">A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="57">
         <v>44695</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="58" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="59">
+      <c r="A13" s="54">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="57">
         <v>44695</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="58" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="59">
+      <c r="A14" s="54">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="57">
         <v>44695</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="58" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="59">
+      <c r="A15" s="54">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="57">
         <v>44695</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="58" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="59">
+      <c r="A16" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="57">
         <v>44695</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="58" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="59">
+      <c r="A17" s="54">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="59">
         <v>44687</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="59">
+      <c r="A18" s="54">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="59">
         <v>44687</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="59">
+      <c r="A19" s="54">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="59">
         <v>44687</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="59">
+      <c r="A20" s="54">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="59">
         <v>44687</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="59">
+      <c r="A21" s="54">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="59">
         <v>44687</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59">
+      <c r="A22" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="59">
         <v>44687</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="59">
+      <c r="A23" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="59">
         <v>44687</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="59">
+      <c r="A24" s="54">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="59">
         <v>44687</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="59">
+      <c r="A25" s="54">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="59">
         <v>44687</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="59">
+      <c r="A26" s="54">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="59">
         <v>44687</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="59">
+      <c r="A27" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="57">
         <v>44578</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="58" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="59">
+      <c r="A28" s="54">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="57">
         <v>44578</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="58" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="59">
+      <c r="A29" s="54">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="57">
         <v>44578</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="58" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="59">
+      <c r="A30" s="54">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="57">
         <v>44578</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="58" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="59">
+      <c r="A31" s="54">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="57">
         <v>44559</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="59">
+      <c r="A32" s="54">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="57">
         <v>44559</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="59">
+      <c r="A33" s="54">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="57">
         <v>44559</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="59">
+      <c r="A34" s="54">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="57">
         <v>44559</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="59">
+      <c r="A35" s="54">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="57">
         <v>44559</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="59">
+      <c r="A36" s="54">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="57">
         <v>44559</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="59">
+      <c r="A37" s="54">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="57">
         <v>44559</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="59">
+      <c r="A38" s="54">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="57">
         <v>44559</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="59">
+      <c r="A39" s="54">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="57">
         <v>44813</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="54" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="59">
+      <c r="A40" s="54">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D40" s="57">
         <v>44813</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="54" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="59">
+      <c r="A41" s="54">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="57">
         <v>44813</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="54" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="59">
+      <c r="A42" s="54">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="D42" s="62">
+      <c r="D42" s="57">
         <v>44814</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="54" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="59">
+      <c r="A43" s="54">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="57">
         <v>44814</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="54" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="59">
+      <c r="A44" s="54">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="62">
+      <c r="D44" s="57">
         <v>44816</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="54" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="59">
+      <c r="A45" s="54">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="57">
         <v>44816</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="54" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="59">
+      <c r="A46" s="54">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D46" s="57">
         <v>44816</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="54" t="s">
         <v>262</v>
       </c>
     </row>
@@ -27576,7 +27675,7 @@
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="50">
         <v>1</v>
       </c>
     </row>
@@ -27614,7 +27713,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>80</v>
       </c>
       <c r="B6">
@@ -27625,7 +27724,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>70</v>
       </c>
       <c r="B7">
@@ -27650,7 +27749,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C9">
@@ -27661,7 +27760,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>56</v>
       </c>
       <c r="C10">
@@ -27672,7 +27771,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>148</v>
       </c>
       <c r="C11">
@@ -27683,7 +27782,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>126</v>
       </c>
       <c r="C12">
@@ -27694,7 +27793,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B13">
@@ -27716,7 +27815,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B15">
@@ -27727,7 +27826,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B16">
@@ -27749,7 +27848,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>78</v>
       </c>
       <c r="B18">
@@ -27760,7 +27859,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B19">
@@ -27771,7 +27870,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B20">
@@ -27782,7 +27881,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B21">
@@ -27804,7 +27903,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B23">
@@ -27815,7 +27914,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B24">
@@ -27826,7 +27925,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B25">
@@ -27837,7 +27936,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B26">
@@ -27848,7 +27947,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="51" t="s">
         <v>68</v>
       </c>
       <c r="B27">
@@ -27859,7 +27958,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B28">
@@ -27881,7 +27980,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B30">
@@ -27903,7 +28002,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="51" t="s">
         <v>41</v>
       </c>
       <c r="B32">
@@ -27925,7 +28024,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B34">
@@ -27947,7 +28046,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B36">
@@ -27969,7 +28068,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B38">

--- a/Resume Resources/Certifications/Certification Tracker Public.xlsx
+++ b/Resume Resources/Certifications/Certification Tracker Public.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/Certifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coraline\Resume Resources\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{680BDE85-B49E-F740-A1BD-6E02B1865165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE38D066-C834-4EE7-8A3C-7AA260934D37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0982014D-534F-4AB8-919D-D3C651223BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5892" yWindow="3468" windowWidth="13368" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -1670,7 +1670,7 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1679,7 +1679,7 @@
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="2">
-        <f>Q2*P2</f>
+        <f t="shared" ref="R2:R49" si="0">Q2*P2</f>
         <v>100</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -7185,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <f>Q3*P3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <f>Q4*P4</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -7297,7 +7297,7 @@
       <c r="P5" s="76"/>
       <c r="Q5" s="77"/>
       <c r="R5" s="76">
-        <f>Q5*P5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="75"/>
@@ -7345,7 +7345,7 @@
       <c r="P6" s="76"/>
       <c r="Q6" s="77"/>
       <c r="R6" s="76">
-        <f>Q6*P6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="75"/>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="76">
-        <f>Q7*P7</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="S7" s="75" t="s">
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="76">
-        <f>Q8*P8</f>
+        <f t="shared" si="0"/>
         <v>277</v>
       </c>
       <c r="S8" s="75" t="s">
@@ -7537,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="76">
-        <f>Q9*P9</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="S9" s="75" t="s">
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2">
-        <f>Q10*P10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2">
-        <f>Q11*P11</f>
+        <f t="shared" si="0"/>
         <v>382</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <f>Q12*P12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -7781,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2">
-        <f>Q13*P13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2">
-        <f>Q14*P14</f>
+        <f t="shared" si="0"/>
         <v>382</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="76">
-        <f>Q15*P15</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="S15" s="75" t="s">
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="2">
-        <f>Q16*P16</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="2">
-        <f>Q17*P17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="2">
-        <f>Q18*P18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <f>Q19*P19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="2">
-        <f>Q20*P20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
@@ -8263,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="2">
-        <f>Q21*P21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="2">
-        <f>Q22*P22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="2">
-        <f>Q23*P23</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -8446,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f>Q24*P24</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -8509,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="2">
-        <f>Q25*P25</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f>Q26*P26</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S26" s="3" t="s">
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="45">
-        <f>Q27*P27</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S27" s="43" t="s">
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="2">
-        <f>Q28*P28</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S28" s="3" t="s">
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="45">
-        <f>Q29*P29</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S29" s="43" t="s">
@@ -8818,7 +8818,7 @@
         <v>3</v>
       </c>
       <c r="R30" s="2">
-        <f>Q30*P30</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="2">
-        <f>Q31*P31</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="S31" s="3" t="s">
@@ -8943,7 +8943,7 @@
         <v>3</v>
       </c>
       <c r="R32" s="2">
-        <f>Q32*P32</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="S32" s="3" t="s">
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="R33" s="2">
-        <f>Q33*P33</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S33" s="3" t="s">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="R34" s="2">
-        <f>Q34*P34</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S34" s="3" t="s">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="R35" s="2">
-        <f>Q35*P35</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S35" s="3" t="s">
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="2">
-        <f>Q36*P36</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S36" s="3" t="s">
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="14">
-        <f>Q37*P37</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="S37" s="12" t="s">
@@ -9313,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="14">
-        <f>Q38*P38</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="S38" s="12" t="s">
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="14">
-        <f>Q39*P39</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S39" s="12" t="s">
@@ -9439,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="14">
-        <f>Q40*P40</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="S40" s="12" t="s">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="2">
-        <f>Q41*P41</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="S41" s="3" t="s">
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="R42" s="2">
-        <f>Q42*P42</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S42" s="3" t="s">
@@ -9625,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="2">
-        <f>Q43*P43</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="S43" s="3" t="s">
@@ -9687,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="R44" s="2">
-        <f>Q44*P44</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="S44" s="3" t="s">
@@ -9747,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="2">
-        <f>Q45*P45</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="S45" s="3" t="s">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="2">
-        <f>Q46*P46</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="S46" s="3" t="s">
@@ -9865,7 +9865,7 @@
         <v>2</v>
       </c>
       <c r="R47" s="2">
-        <f>Q47*P47</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="S47" s="3" t="s">
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="R48" s="14">
-        <f>Q48*P48</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="S48" s="12" t="s">
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="R49" s="107">
-        <f>Q49*P49</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="S49" s="106" t="s">
@@ -24799,7 +24799,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{D739ECB7-5051-4F79-8442-1AFF43C5EA61}">
+      <autoFilter ref="B2:S40" xr:uid="{E8571254-3907-4D35-A287-CA09A32B4D4A}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
